--- a/BackTest/2020-01-16 BackTest XEM.xlsx
+++ b/BackTest/2020-01-16 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>40.61</v>
+      </c>
+      <c r="C2" t="n">
         <v>40.6</v>
       </c>
-      <c r="C2" t="n">
-        <v>40.47</v>
-      </c>
       <c r="D2" t="n">
-        <v>40.6</v>
+        <v>40.61</v>
       </c>
       <c r="E2" t="n">
-        <v>40.47</v>
+        <v>40.5</v>
       </c>
       <c r="F2" t="n">
-        <v>61691</v>
+        <v>86270.77692906</v>
       </c>
       <c r="G2" t="n">
-        <v>39.96533333333336</v>
+        <v>39.94233333333337</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40.47</v>
+        <v>40.6</v>
       </c>
       <c r="C3" t="n">
         <v>40.47</v>
       </c>
       <c r="D3" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E3" t="n">
         <v>40.47</v>
       </c>
-      <c r="E3" t="n">
-        <v>40.15</v>
-      </c>
       <c r="F3" t="n">
-        <v>143171.9502</v>
+        <v>61691</v>
       </c>
       <c r="G3" t="n">
-        <v>39.98850000000003</v>
+        <v>39.96533333333336</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40.25</v>
+        <v>40.47</v>
       </c>
       <c r="C4" t="n">
-        <v>40.25</v>
+        <v>40.47</v>
       </c>
       <c r="D4" t="n">
-        <v>40.25</v>
+        <v>40.47</v>
       </c>
       <c r="E4" t="n">
-        <v>40.25</v>
+        <v>40.15</v>
       </c>
       <c r="F4" t="n">
-        <v>576.5519</v>
+        <v>143171.9502</v>
       </c>
       <c r="G4" t="n">
-        <v>40.00700000000003</v>
+        <v>39.98850000000003</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40.22</v>
+        <v>40.25</v>
       </c>
       <c r="C5" t="n">
-        <v>40.22</v>
+        <v>40.25</v>
       </c>
       <c r="D5" t="n">
-        <v>40.22</v>
+        <v>40.25</v>
       </c>
       <c r="E5" t="n">
-        <v>40.22</v>
+        <v>40.25</v>
       </c>
       <c r="F5" t="n">
-        <v>438.6667</v>
+        <v>576.5519</v>
       </c>
       <c r="G5" t="n">
-        <v>40.02483333333336</v>
+        <v>40.00700000000003</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40.47</v>
+        <v>40.22</v>
       </c>
       <c r="C6" t="n">
-        <v>40.61</v>
+        <v>40.22</v>
       </c>
       <c r="D6" t="n">
-        <v>40.61</v>
+        <v>40.22</v>
       </c>
       <c r="E6" t="n">
-        <v>40.47</v>
+        <v>40.22</v>
       </c>
       <c r="F6" t="n">
-        <v>2962.9188</v>
+        <v>438.6667</v>
       </c>
       <c r="G6" t="n">
-        <v>40.04916666666669</v>
+        <v>40.02483333333336</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>40.47</v>
+      </c>
+      <c r="C7" t="n">
         <v>40.61</v>
-      </c>
-      <c r="C7" t="n">
-        <v>40.11</v>
       </c>
       <c r="D7" t="n">
         <v>40.61</v>
       </c>
       <c r="E7" t="n">
-        <v>40.11</v>
+        <v>40.47</v>
       </c>
       <c r="F7" t="n">
-        <v>134594.7654</v>
+        <v>2962.9188</v>
       </c>
       <c r="G7" t="n">
-        <v>40.06516666666669</v>
+        <v>40.04916666666669</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.51</v>
+        <v>40.61</v>
       </c>
       <c r="C8" t="n">
-        <v>40.49</v>
+        <v>40.11</v>
       </c>
       <c r="D8" t="n">
-        <v>40.51</v>
+        <v>40.61</v>
       </c>
       <c r="E8" t="n">
-        <v>40.4</v>
+        <v>40.11</v>
       </c>
       <c r="F8" t="n">
-        <v>18398.418</v>
+        <v>134594.7654</v>
       </c>
       <c r="G8" t="n">
-        <v>40.08683333333336</v>
+        <v>40.06516666666669</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40.28</v>
+        <v>40.51</v>
       </c>
       <c r="C9" t="n">
-        <v>40.27</v>
+        <v>40.49</v>
       </c>
       <c r="D9" t="n">
-        <v>40.29</v>
+        <v>40.51</v>
       </c>
       <c r="E9" t="n">
-        <v>40.27</v>
+        <v>40.4</v>
       </c>
       <c r="F9" t="n">
-        <v>54422.953</v>
+        <v>18398.418</v>
       </c>
       <c r="G9" t="n">
-        <v>40.10483333333335</v>
+        <v>40.08683333333336</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>40.28</v>
       </c>
       <c r="C10" t="n">
-        <v>40.28</v>
+        <v>40.27</v>
       </c>
       <c r="D10" t="n">
-        <v>40.28</v>
+        <v>40.29</v>
       </c>
       <c r="E10" t="n">
-        <v>40.28</v>
+        <v>40.27</v>
       </c>
       <c r="F10" t="n">
-        <v>2075.1618</v>
+        <v>54422.953</v>
       </c>
       <c r="G10" t="n">
-        <v>40.12250000000003</v>
+        <v>40.10483333333335</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>40.29</v>
+        <v>40.28</v>
       </c>
       <c r="C11" t="n">
-        <v>40.29</v>
+        <v>40.28</v>
       </c>
       <c r="D11" t="n">
-        <v>40.29</v>
+        <v>40.28</v>
       </c>
       <c r="E11" t="n">
-        <v>40.29</v>
+        <v>40.28</v>
       </c>
       <c r="F11" t="n">
-        <v>9723.917100000001</v>
+        <v>2075.1618</v>
       </c>
       <c r="G11" t="n">
-        <v>40.13900000000002</v>
+        <v>40.12250000000003</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>40.29</v>
       </c>
       <c r="F12" t="n">
-        <v>1298.0172</v>
+        <v>9723.917100000001</v>
       </c>
       <c r="G12" t="n">
-        <v>40.15233333333336</v>
+        <v>40.13900000000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>40.28</v>
+        <v>40.29</v>
       </c>
       <c r="C13" t="n">
-        <v>40.28</v>
+        <v>40.29</v>
       </c>
       <c r="D13" t="n">
-        <v>40.28</v>
+        <v>40.29</v>
       </c>
       <c r="E13" t="n">
-        <v>40.28</v>
+        <v>40.29</v>
       </c>
       <c r="F13" t="n">
-        <v>9543.8631</v>
+        <v>1298.0172</v>
       </c>
       <c r="G13" t="n">
-        <v>40.16383333333336</v>
+        <v>40.15233333333336</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40.3</v>
+        <v>40.28</v>
       </c>
       <c r="C14" t="n">
-        <v>40.3</v>
+        <v>40.28</v>
       </c>
       <c r="D14" t="n">
-        <v>40.3</v>
+        <v>40.28</v>
       </c>
       <c r="E14" t="n">
-        <v>40.3</v>
+        <v>40.28</v>
       </c>
       <c r="F14" t="n">
-        <v>1838.3571</v>
+        <v>9543.8631</v>
       </c>
       <c r="G14" t="n">
-        <v>40.17400000000003</v>
+        <v>40.16383333333336</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40.29</v>
+        <v>40.3</v>
       </c>
       <c r="C15" t="n">
-        <v>40.29</v>
+        <v>40.3</v>
       </c>
       <c r="D15" t="n">
-        <v>40.29</v>
+        <v>40.3</v>
       </c>
       <c r="E15" t="n">
-        <v>40.29</v>
+        <v>40.3</v>
       </c>
       <c r="F15" t="n">
-        <v>3096</v>
+        <v>1838.3571</v>
       </c>
       <c r="G15" t="n">
-        <v>40.18400000000003</v>
+        <v>40.17400000000003</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>3096</v>
       </c>
       <c r="G16" t="n">
-        <v>40.19400000000003</v>
+        <v>40.18400000000003</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>40.3</v>
+        <v>40.29</v>
       </c>
       <c r="C17" t="n">
-        <v>40.3</v>
+        <v>40.29</v>
       </c>
       <c r="D17" t="n">
-        <v>40.3</v>
+        <v>40.29</v>
       </c>
       <c r="E17" t="n">
-        <v>40.3</v>
+        <v>40.29</v>
       </c>
       <c r="F17" t="n">
-        <v>136</v>
+        <v>3096</v>
       </c>
       <c r="G17" t="n">
-        <v>40.20416666666669</v>
+        <v>40.19400000000003</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>40.29</v>
+        <v>40.3</v>
       </c>
       <c r="C18" t="n">
-        <v>40.29</v>
+        <v>40.3</v>
       </c>
       <c r="D18" t="n">
-        <v>40.29</v>
+        <v>40.3</v>
       </c>
       <c r="E18" t="n">
-        <v>40.29</v>
+        <v>40.3</v>
       </c>
       <c r="F18" t="n">
-        <v>3096</v>
+        <v>136</v>
       </c>
       <c r="G18" t="n">
-        <v>40.21416666666669</v>
+        <v>40.20416666666669</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>40.29</v>
       </c>
       <c r="F19" t="n">
-        <v>825.5366</v>
+        <v>3096</v>
       </c>
       <c r="G19" t="n">
-        <v>40.2241666666667</v>
+        <v>40.21416666666669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>40.13</v>
+        <v>40.29</v>
       </c>
       <c r="C20" t="n">
-        <v>39.99</v>
+        <v>40.29</v>
       </c>
       <c r="D20" t="n">
-        <v>40.13</v>
+        <v>40.29</v>
       </c>
       <c r="E20" t="n">
-        <v>39.99</v>
+        <v>40.29</v>
       </c>
       <c r="F20" t="n">
-        <v>3531.1215</v>
+        <v>825.5366</v>
       </c>
       <c r="G20" t="n">
-        <v>40.22916666666669</v>
+        <v>40.2241666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>40.19</v>
+        <v>40.13</v>
       </c>
       <c r="C21" t="n">
-        <v>40.19</v>
+        <v>39.99</v>
       </c>
       <c r="D21" t="n">
-        <v>40.19</v>
+        <v>40.13</v>
       </c>
       <c r="E21" t="n">
-        <v>40.19</v>
+        <v>39.99</v>
       </c>
       <c r="F21" t="n">
-        <v>811.8513</v>
+        <v>3531.1215</v>
       </c>
       <c r="G21" t="n">
-        <v>40.23616666666669</v>
+        <v>40.22916666666669</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>40.19</v>
       </c>
       <c r="C22" t="n">
-        <v>40.18</v>
+        <v>40.19</v>
       </c>
       <c r="D22" t="n">
         <v>40.19</v>
       </c>
       <c r="E22" t="n">
-        <v>40.18</v>
+        <v>40.19</v>
       </c>
       <c r="F22" t="n">
-        <v>4180.6615</v>
+        <v>811.8513</v>
       </c>
       <c r="G22" t="n">
-        <v>40.23300000000003</v>
+        <v>40.23616666666669</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1171,19 +1171,19 @@
         <v>40.19</v>
       </c>
       <c r="C23" t="n">
-        <v>39.82</v>
+        <v>40.18</v>
       </c>
       <c r="D23" t="n">
         <v>40.19</v>
       </c>
       <c r="E23" t="n">
-        <v>39.82</v>
+        <v>40.18</v>
       </c>
       <c r="F23" t="n">
-        <v>38335.7816</v>
+        <v>4180.6615</v>
       </c>
       <c r="G23" t="n">
-        <v>40.23283333333336</v>
+        <v>40.23300000000003</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>40.19</v>
       </c>
       <c r="C24" t="n">
-        <v>40.2</v>
+        <v>39.82</v>
       </c>
       <c r="D24" t="n">
-        <v>40.2</v>
+        <v>40.19</v>
       </c>
       <c r="E24" t="n">
-        <v>40.19</v>
+        <v>39.82</v>
       </c>
       <c r="F24" t="n">
-        <v>4246.1647</v>
+        <v>38335.7816</v>
       </c>
       <c r="G24" t="n">
-        <v>40.24050000000003</v>
+        <v>40.23283333333336</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>40.29</v>
+        <v>40.19</v>
       </c>
       <c r="C25" t="n">
-        <v>40.29</v>
+        <v>40.2</v>
       </c>
       <c r="D25" t="n">
-        <v>40.29</v>
+        <v>40.2</v>
       </c>
       <c r="E25" t="n">
-        <v>40.29</v>
+        <v>40.19</v>
       </c>
       <c r="F25" t="n">
-        <v>16695</v>
+        <v>4246.1647</v>
       </c>
       <c r="G25" t="n">
-        <v>40.24983333333336</v>
+        <v>40.24050000000003</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>40.29</v>
       </c>
       <c r="F26" t="n">
-        <v>6192</v>
+        <v>16695</v>
       </c>
       <c r="G26" t="n">
-        <v>40.25666666666669</v>
+        <v>40.24983333333336</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,31 +1308,35 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40.3</v>
+        <v>40.29</v>
       </c>
       <c r="C27" t="n">
-        <v>40.3</v>
+        <v>40.29</v>
       </c>
       <c r="D27" t="n">
-        <v>40.3</v>
+        <v>40.29</v>
       </c>
       <c r="E27" t="n">
-        <v>40.3</v>
+        <v>40.29</v>
       </c>
       <c r="F27" t="n">
-        <v>135.3292</v>
+        <v>6192</v>
       </c>
       <c r="G27" t="n">
-        <v>40.26650000000003</v>
+        <v>40.25666666666669</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>40.29</v>
+      </c>
+      <c r="K27" t="n">
+        <v>40.29</v>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
@@ -1343,22 +1347,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40.58</v>
+        <v>40.3</v>
       </c>
       <c r="C28" t="n">
-        <v>40.58</v>
+        <v>40.3</v>
       </c>
       <c r="D28" t="n">
-        <v>40.58</v>
+        <v>40.3</v>
       </c>
       <c r="E28" t="n">
-        <v>40.58</v>
+        <v>40.3</v>
       </c>
       <c r="F28" t="n">
-        <v>300</v>
+        <v>135.3292</v>
       </c>
       <c r="G28" t="n">
-        <v>40.27600000000002</v>
+        <v>40.26650000000003</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1367,8 +1371,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>40.29</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1388,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40.59</v>
+        <v>40.58</v>
       </c>
       <c r="C29" t="n">
-        <v>40.59</v>
+        <v>40.58</v>
       </c>
       <c r="D29" t="n">
-        <v>40.59</v>
+        <v>40.58</v>
       </c>
       <c r="E29" t="n">
-        <v>40.59</v>
+        <v>40.58</v>
       </c>
       <c r="F29" t="n">
-        <v>2109.6862</v>
+        <v>300</v>
       </c>
       <c r="G29" t="n">
-        <v>40.28766666666669</v>
+        <v>40.27600000000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1402,8 +1412,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>40.29</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1429,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>40.61</v>
+        <v>40.59</v>
       </c>
       <c r="C30" t="n">
-        <v>40.63</v>
+        <v>40.59</v>
       </c>
       <c r="D30" t="n">
-        <v>40.63</v>
+        <v>40.59</v>
       </c>
       <c r="E30" t="n">
-        <v>40.61</v>
+        <v>40.59</v>
       </c>
       <c r="F30" t="n">
-        <v>4502.4575</v>
+        <v>2109.6862</v>
       </c>
       <c r="G30" t="n">
-        <v>40.30466666666669</v>
+        <v>40.28766666666669</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1464,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>40.64</v>
+        <v>40.61</v>
       </c>
       <c r="C31" t="n">
-        <v>40.64</v>
+        <v>40.63</v>
       </c>
       <c r="D31" t="n">
-        <v>40.64</v>
+        <v>40.63</v>
       </c>
       <c r="E31" t="n">
-        <v>40.64</v>
+        <v>40.61</v>
       </c>
       <c r="F31" t="n">
-        <v>276.1672</v>
+        <v>4502.4575</v>
       </c>
       <c r="G31" t="n">
-        <v>40.32116666666669</v>
+        <v>40.30466666666669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1502,19 @@
         <v>40.64</v>
       </c>
       <c r="C32" t="n">
-        <v>40.75</v>
+        <v>40.64</v>
       </c>
       <c r="D32" t="n">
-        <v>40.75</v>
+        <v>40.64</v>
       </c>
       <c r="E32" t="n">
         <v>40.64</v>
       </c>
       <c r="F32" t="n">
-        <v>1015.4588</v>
+        <v>276.1672</v>
       </c>
       <c r="G32" t="n">
-        <v>40.34283333333336</v>
+        <v>40.32116666666669</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1534,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>40.86</v>
+        <v>40.64</v>
       </c>
       <c r="C33" t="n">
-        <v>40.86</v>
+        <v>40.75</v>
       </c>
       <c r="D33" t="n">
-        <v>40.86</v>
+        <v>40.75</v>
       </c>
       <c r="E33" t="n">
-        <v>40.86</v>
+        <v>40.64</v>
       </c>
       <c r="F33" t="n">
-        <v>13000.0438</v>
+        <v>1015.4588</v>
       </c>
       <c r="G33" t="n">
-        <v>40.36616666666669</v>
+        <v>40.34283333333336</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1581,10 @@
         <v>40.86</v>
       </c>
       <c r="F34" t="n">
-        <v>2627.7883</v>
+        <v>13000.0438</v>
       </c>
       <c r="G34" t="n">
-        <v>40.3996666666667</v>
+        <v>40.36616666666669</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1616,10 @@
         <v>40.86</v>
       </c>
       <c r="F35" t="n">
-        <v>18284.4853</v>
+        <v>2627.7883</v>
       </c>
       <c r="G35" t="n">
-        <v>40.41983333333337</v>
+        <v>40.3996666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1642,19 @@
         <v>40.86</v>
       </c>
       <c r="C36" t="n">
-        <v>41</v>
+        <v>40.86</v>
       </c>
       <c r="D36" t="n">
-        <v>41</v>
+        <v>40.86</v>
       </c>
       <c r="E36" t="n">
         <v>40.86</v>
       </c>
       <c r="F36" t="n">
-        <v>8265.8428</v>
+        <v>18284.4853</v>
       </c>
       <c r="G36" t="n">
-        <v>40.44450000000003</v>
+        <v>40.41983333333337</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,7 +1674,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>40.99</v>
+        <v>40.86</v>
       </c>
       <c r="C37" t="n">
         <v>41</v>
@@ -1667,13 +1683,13 @@
         <v>41</v>
       </c>
       <c r="E37" t="n">
-        <v>40.99</v>
+        <v>40.86</v>
       </c>
       <c r="F37" t="n">
-        <v>9171.518099999999</v>
+        <v>8265.8428</v>
       </c>
       <c r="G37" t="n">
-        <v>40.46433333333336</v>
+        <v>40.44450000000003</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1709,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>41</v>
+        <v>40.99</v>
       </c>
       <c r="C38" t="n">
         <v>41</v>
@@ -1702,13 +1718,13 @@
         <v>41</v>
       </c>
       <c r="E38" t="n">
-        <v>41</v>
+        <v>40.99</v>
       </c>
       <c r="F38" t="n">
-        <v>5649.3255</v>
+        <v>9171.518099999999</v>
       </c>
       <c r="G38" t="n">
-        <v>40.47533333333336</v>
+        <v>40.46433333333336</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1744,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="C39" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="D39" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="E39" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="F39" t="n">
-        <v>135.15815085</v>
+        <v>5649.3255</v>
       </c>
       <c r="G39" t="n">
-        <v>40.4916666666667</v>
+        <v>40.47533333333336</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1791,10 @@
         <v>41.1</v>
       </c>
       <c r="F40" t="n">
-        <v>108.12652068</v>
+        <v>135.15815085</v>
       </c>
       <c r="G40" t="n">
-        <v>40.5066666666667</v>
+        <v>40.4916666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1817,19 @@
         <v>41.1</v>
       </c>
       <c r="C41" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="D41" t="n">
         <v>41.1</v>
       </c>
       <c r="E41" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="F41" t="n">
-        <v>836.7383</v>
+        <v>108.12652068</v>
       </c>
       <c r="G41" t="n">
-        <v>40.52000000000003</v>
+        <v>40.5066666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1849,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>40.86</v>
+        <v>41.1</v>
       </c>
       <c r="C42" t="n">
-        <v>40.86</v>
+        <v>41</v>
       </c>
       <c r="D42" t="n">
-        <v>40.86</v>
+        <v>41.1</v>
       </c>
       <c r="E42" t="n">
-        <v>40.86</v>
+        <v>41</v>
       </c>
       <c r="F42" t="n">
-        <v>9288</v>
+        <v>836.7383</v>
       </c>
       <c r="G42" t="n">
-        <v>40.52700000000004</v>
+        <v>40.52000000000003</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1896,10 @@
         <v>40.86</v>
       </c>
       <c r="F43" t="n">
-        <v>9353.6602</v>
+        <v>9288</v>
       </c>
       <c r="G43" t="n">
-        <v>40.53400000000003</v>
+        <v>40.52700000000004</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1919,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>40.79</v>
+        <v>40.86</v>
       </c>
       <c r="C44" t="n">
-        <v>40.79</v>
+        <v>40.86</v>
       </c>
       <c r="D44" t="n">
-        <v>40.79</v>
+        <v>40.86</v>
       </c>
       <c r="E44" t="n">
-        <v>40.79</v>
+        <v>40.86</v>
       </c>
       <c r="F44" t="n">
-        <v>28646.7454</v>
+        <v>9353.6602</v>
       </c>
       <c r="G44" t="n">
-        <v>40.5356666666667</v>
+        <v>40.53400000000003</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1954,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>40.41</v>
+        <v>40.79</v>
       </c>
       <c r="C45" t="n">
-        <v>40.41</v>
+        <v>40.79</v>
       </c>
       <c r="D45" t="n">
-        <v>40.41</v>
+        <v>40.79</v>
       </c>
       <c r="E45" t="n">
-        <v>40.41</v>
+        <v>40.79</v>
       </c>
       <c r="F45" t="n">
-        <v>127.561</v>
+        <v>28646.7454</v>
       </c>
       <c r="G45" t="n">
-        <v>40.5311666666667</v>
+        <v>40.5356666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +2001,10 @@
         <v>40.41</v>
       </c>
       <c r="F46" t="n">
-        <v>157</v>
+        <v>127.561</v>
       </c>
       <c r="G46" t="n">
-        <v>40.5296666666667</v>
+        <v>40.5311666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2027,19 @@
         <v>40.41</v>
       </c>
       <c r="C47" t="n">
-        <v>40</v>
+        <v>40.41</v>
       </c>
       <c r="D47" t="n">
         <v>40.41</v>
       </c>
       <c r="E47" t="n">
-        <v>40</v>
+        <v>40.41</v>
       </c>
       <c r="F47" t="n">
-        <v>1496.3215</v>
+        <v>157</v>
       </c>
       <c r="G47" t="n">
-        <v>40.52233333333336</v>
+        <v>40.5296666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2059,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>39.94</v>
+        <v>40.41</v>
       </c>
       <c r="C48" t="n">
         <v>40</v>
       </c>
       <c r="D48" t="n">
+        <v>40.41</v>
+      </c>
+      <c r="E48" t="n">
         <v>40</v>
       </c>
-      <c r="E48" t="n">
-        <v>39.94</v>
-      </c>
       <c r="F48" t="n">
-        <v>25120.5468</v>
+        <v>1496.3215</v>
       </c>
       <c r="G48" t="n">
-        <v>40.51900000000003</v>
+        <v>40.52233333333336</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,7 +2094,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>40</v>
+        <v>39.94</v>
       </c>
       <c r="C49" t="n">
         <v>40</v>
@@ -2087,13 +2103,13 @@
         <v>40</v>
       </c>
       <c r="E49" t="n">
-        <v>40</v>
+        <v>39.94</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0001</v>
+        <v>25120.5468</v>
       </c>
       <c r="G49" t="n">
-        <v>40.50766666666671</v>
+        <v>40.51900000000003</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2129,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>40.13</v>
+        <v>40</v>
       </c>
       <c r="C50" t="n">
-        <v>40.13</v>
+        <v>40</v>
       </c>
       <c r="D50" t="n">
-        <v>40.13</v>
+        <v>40</v>
       </c>
       <c r="E50" t="n">
-        <v>40.13</v>
+        <v>40</v>
       </c>
       <c r="F50" t="n">
-        <v>30</v>
+        <v>0.0001</v>
       </c>
       <c r="G50" t="n">
-        <v>40.49883333333337</v>
+        <v>40.50766666666671</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2164,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>40.45</v>
+        <v>40.13</v>
       </c>
       <c r="C51" t="n">
-        <v>40.45</v>
+        <v>40.13</v>
       </c>
       <c r="D51" t="n">
-        <v>40.45</v>
+        <v>40.13</v>
       </c>
       <c r="E51" t="n">
-        <v>40.45</v>
+        <v>40.13</v>
       </c>
       <c r="F51" t="n">
-        <v>222.00247218</v>
+        <v>30</v>
       </c>
       <c r="G51" t="n">
-        <v>40.49583333333337</v>
+        <v>40.49883333333337</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2199,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>40.11</v>
+        <v>40.45</v>
       </c>
       <c r="C52" t="n">
-        <v>40.1</v>
+        <v>40.45</v>
       </c>
       <c r="D52" t="n">
-        <v>40.11</v>
+        <v>40.45</v>
       </c>
       <c r="E52" t="n">
-        <v>40.1</v>
+        <v>40.45</v>
       </c>
       <c r="F52" t="n">
-        <v>1241.7296</v>
+        <v>222.00247218</v>
       </c>
       <c r="G52" t="n">
-        <v>40.49083333333337</v>
+        <v>40.49583333333337</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2234,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>39.91</v>
+        <v>40.11</v>
       </c>
       <c r="C53" t="n">
-        <v>39.91</v>
+        <v>40.1</v>
       </c>
       <c r="D53" t="n">
-        <v>39.91</v>
+        <v>40.11</v>
       </c>
       <c r="E53" t="n">
-        <v>39.91</v>
+        <v>40.1</v>
       </c>
       <c r="F53" t="n">
-        <v>77.2388</v>
+        <v>1241.7296</v>
       </c>
       <c r="G53" t="n">
-        <v>40.4826666666667</v>
+        <v>40.49083333333337</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2269,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>40</v>
+        <v>39.91</v>
       </c>
       <c r="C54" t="n">
-        <v>40</v>
+        <v>39.91</v>
       </c>
       <c r="D54" t="n">
-        <v>40</v>
+        <v>39.91</v>
       </c>
       <c r="E54" t="n">
-        <v>40</v>
+        <v>39.91</v>
       </c>
       <c r="F54" t="n">
-        <v>23035.0388</v>
+        <v>77.2388</v>
       </c>
       <c r="G54" t="n">
-        <v>40.47600000000003</v>
+        <v>40.4826666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2291,19 +2307,19 @@
         <v>40</v>
       </c>
       <c r="C55" t="n">
-        <v>39.79</v>
+        <v>40</v>
       </c>
       <c r="D55" t="n">
         <v>40</v>
       </c>
       <c r="E55" t="n">
-        <v>39.79</v>
+        <v>40</v>
       </c>
       <c r="F55" t="n">
-        <v>20190.4425</v>
+        <v>23035.0388</v>
       </c>
       <c r="G55" t="n">
-        <v>40.46833333333336</v>
+        <v>40.47600000000003</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2339,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>39.65</v>
+        <v>40</v>
       </c>
       <c r="C56" t="n">
-        <v>39.31</v>
+        <v>39.79</v>
       </c>
       <c r="D56" t="n">
-        <v>39.65</v>
+        <v>40</v>
       </c>
       <c r="E56" t="n">
-        <v>39.31</v>
+        <v>39.79</v>
       </c>
       <c r="F56" t="n">
-        <v>84865.18120000001</v>
+        <v>20190.4425</v>
       </c>
       <c r="G56" t="n">
-        <v>40.43200000000003</v>
+        <v>40.46833333333336</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2374,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>39.49</v>
+        <v>39.65</v>
       </c>
       <c r="C57" t="n">
-        <v>39.49</v>
+        <v>39.31</v>
       </c>
       <c r="D57" t="n">
-        <v>39.49</v>
+        <v>39.65</v>
       </c>
       <c r="E57" t="n">
-        <v>39.49</v>
+        <v>39.31</v>
       </c>
       <c r="F57" t="n">
-        <v>1010</v>
+        <v>84865.18120000001</v>
       </c>
       <c r="G57" t="n">
-        <v>40.40633333333336</v>
+        <v>40.43200000000003</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2396,19 +2412,19 @@
         <v>39.49</v>
       </c>
       <c r="C58" t="n">
-        <v>39.59</v>
+        <v>39.49</v>
       </c>
       <c r="D58" t="n">
-        <v>39.59</v>
+        <v>39.49</v>
       </c>
       <c r="E58" t="n">
         <v>39.49</v>
       </c>
       <c r="F58" t="n">
-        <v>2846.5479</v>
+        <v>1010</v>
       </c>
       <c r="G58" t="n">
-        <v>40.38400000000003</v>
+        <v>40.40633333333336</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2447,19 @@
         <v>39.49</v>
       </c>
       <c r="C59" t="n">
-        <v>39.49</v>
+        <v>39.59</v>
       </c>
       <c r="D59" t="n">
-        <v>39.49</v>
+        <v>39.59</v>
       </c>
       <c r="E59" t="n">
         <v>39.49</v>
       </c>
       <c r="F59" t="n">
-        <v>1166.3499</v>
+        <v>2846.5479</v>
       </c>
       <c r="G59" t="n">
-        <v>40.3636666666667</v>
+        <v>40.38400000000003</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,7 +2479,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>39.4</v>
+        <v>39.49</v>
       </c>
       <c r="C60" t="n">
         <v>39.49</v>
@@ -2472,13 +2488,13 @@
         <v>39.49</v>
       </c>
       <c r="E60" t="n">
-        <v>39.4</v>
+        <v>39.49</v>
       </c>
       <c r="F60" t="n">
-        <v>3251.7122</v>
+        <v>1166.3499</v>
       </c>
       <c r="G60" t="n">
-        <v>40.34500000000002</v>
+        <v>40.3636666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2514,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>39.21</v>
+        <v>39.4</v>
       </c>
       <c r="C61" t="n">
-        <v>39.21</v>
+        <v>39.49</v>
       </c>
       <c r="D61" t="n">
-        <v>39.21</v>
+        <v>39.49</v>
       </c>
       <c r="E61" t="n">
-        <v>39.21</v>
+        <v>39.4</v>
       </c>
       <c r="F61" t="n">
-        <v>4599.8947</v>
+        <v>3251.7122</v>
       </c>
       <c r="G61" t="n">
-        <v>40.32183333333335</v>
+        <v>40.34500000000002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2549,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>39.39</v>
+        <v>39.21</v>
       </c>
       <c r="C62" t="n">
-        <v>39.39</v>
+        <v>39.21</v>
       </c>
       <c r="D62" t="n">
-        <v>39.39</v>
+        <v>39.21</v>
       </c>
       <c r="E62" t="n">
-        <v>39.39</v>
+        <v>39.21</v>
       </c>
       <c r="F62" t="n">
-        <v>790.9569</v>
+        <v>4599.8947</v>
       </c>
       <c r="G62" t="n">
-        <v>40.30383333333336</v>
+        <v>40.32183333333335</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2584,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>39.33</v>
+        <v>39.39</v>
       </c>
       <c r="C63" t="n">
-        <v>39.33</v>
+        <v>39.39</v>
       </c>
       <c r="D63" t="n">
-        <v>39.33</v>
+        <v>39.39</v>
       </c>
       <c r="E63" t="n">
-        <v>39.33</v>
+        <v>39.39</v>
       </c>
       <c r="F63" t="n">
-        <v>11933.2538</v>
+        <v>790.9569</v>
       </c>
       <c r="G63" t="n">
-        <v>40.28483333333336</v>
+        <v>40.30383333333336</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2619,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>39.01</v>
+        <v>39.33</v>
       </c>
       <c r="C64" t="n">
-        <v>39.01</v>
+        <v>39.33</v>
       </c>
       <c r="D64" t="n">
-        <v>39.01</v>
+        <v>39.33</v>
       </c>
       <c r="E64" t="n">
-        <v>39.01</v>
+        <v>39.33</v>
       </c>
       <c r="F64" t="n">
-        <v>106.2698</v>
+        <v>11933.2538</v>
       </c>
       <c r="G64" t="n">
-        <v>40.2641666666667</v>
+        <v>40.28483333333336</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2654,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>39</v>
+        <v>39.01</v>
       </c>
       <c r="C65" t="n">
-        <v>39</v>
+        <v>39.01</v>
       </c>
       <c r="D65" t="n">
-        <v>39</v>
+        <v>39.01</v>
       </c>
       <c r="E65" t="n">
-        <v>39</v>
+        <v>39.01</v>
       </c>
       <c r="F65" t="n">
-        <v>593.7302</v>
+        <v>106.2698</v>
       </c>
       <c r="G65" t="n">
-        <v>40.24383333333336</v>
+        <v>40.2641666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2689,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>39.4</v>
+        <v>39</v>
       </c>
       <c r="C66" t="n">
-        <v>39.4</v>
+        <v>39</v>
       </c>
       <c r="D66" t="n">
-        <v>39.4</v>
+        <v>39</v>
       </c>
       <c r="E66" t="n">
-        <v>39.4</v>
+        <v>39</v>
       </c>
       <c r="F66" t="n">
-        <v>405.8382</v>
+        <v>593.7302</v>
       </c>
       <c r="G66" t="n">
-        <v>40.22366666666669</v>
+        <v>40.24383333333336</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2724,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="C67" t="n">
-        <v>39.21</v>
+        <v>39.4</v>
       </c>
       <c r="D67" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="E67" t="n">
-        <v>39.21</v>
+        <v>39.4</v>
       </c>
       <c r="F67" t="n">
-        <v>8203</v>
+        <v>405.8382</v>
       </c>
       <c r="G67" t="n">
-        <v>40.20866666666669</v>
+        <v>40.22366666666669</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2759,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="C68" t="n">
-        <v>39.1</v>
+        <v>39.21</v>
       </c>
       <c r="D68" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="E68" t="n">
-        <v>39.1</v>
+        <v>39.21</v>
       </c>
       <c r="F68" t="n">
-        <v>850.9632</v>
+        <v>8203</v>
       </c>
       <c r="G68" t="n">
-        <v>40.18550000000003</v>
+        <v>40.20866666666669</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2794,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="C69" t="n">
-        <v>38.93</v>
+        <v>39.1</v>
       </c>
       <c r="D69" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="E69" t="n">
-        <v>38.93</v>
+        <v>39.1</v>
       </c>
       <c r="F69" t="n">
-        <v>5041.3508</v>
+        <v>850.9632</v>
       </c>
       <c r="G69" t="n">
-        <v>40.1631666666667</v>
+        <v>40.18550000000003</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,38 +2829,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>39.01</v>
+        <v>39</v>
       </c>
       <c r="C70" t="n">
-        <v>39.3</v>
+        <v>38.93</v>
       </c>
       <c r="D70" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="E70" t="n">
-        <v>38.86</v>
+        <v>38.93</v>
       </c>
       <c r="F70" t="n">
-        <v>18195.5263</v>
+        <v>5041.3508</v>
       </c>
       <c r="G70" t="n">
-        <v>40.14683333333336</v>
+        <v>40.1631666666667</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>38.93</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2854,38 +2864,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>39.37</v>
+        <v>39.01</v>
       </c>
       <c r="C71" t="n">
-        <v>39.37</v>
+        <v>39.3</v>
       </c>
       <c r="D71" t="n">
-        <v>39.37</v>
+        <v>39.3</v>
       </c>
       <c r="E71" t="n">
-        <v>39.37</v>
+        <v>38.86</v>
       </c>
       <c r="F71" t="n">
-        <v>672.2988</v>
+        <v>18195.5263</v>
       </c>
       <c r="G71" t="n">
-        <v>40.13150000000003</v>
+        <v>40.14683333333336</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>39.3</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2895,38 +2899,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>39.32</v>
+        <v>39.37</v>
       </c>
       <c r="C72" t="n">
-        <v>39.32</v>
+        <v>39.37</v>
       </c>
       <c r="D72" t="n">
-        <v>39.32</v>
+        <v>39.37</v>
       </c>
       <c r="E72" t="n">
-        <v>39.32</v>
+        <v>39.37</v>
       </c>
       <c r="F72" t="n">
-        <v>259.792</v>
+        <v>672.2988</v>
       </c>
       <c r="G72" t="n">
-        <v>40.11533333333337</v>
+        <v>40.13150000000003</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>39.37</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2948,10 +2946,10 @@
         <v>39.32</v>
       </c>
       <c r="F73" t="n">
-        <v>94.2642</v>
+        <v>259.792</v>
       </c>
       <c r="G73" t="n">
-        <v>40.09933333333336</v>
+        <v>40.11533333333337</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2961,11 +2959,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2987,10 +2981,10 @@
         <v>39.32</v>
       </c>
       <c r="F74" t="n">
-        <v>161.1918</v>
+        <v>94.2642</v>
       </c>
       <c r="G74" t="n">
-        <v>40.08300000000003</v>
+        <v>40.09933333333336</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,11 +2994,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3014,22 +3004,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>39.42</v>
+        <v>39.32</v>
       </c>
       <c r="C75" t="n">
-        <v>39.42</v>
+        <v>39.32</v>
       </c>
       <c r="D75" t="n">
-        <v>39.42</v>
+        <v>39.32</v>
       </c>
       <c r="E75" t="n">
-        <v>39.42</v>
+        <v>39.32</v>
       </c>
       <c r="F75" t="n">
-        <v>14004.2012</v>
+        <v>161.1918</v>
       </c>
       <c r="G75" t="n">
-        <v>40.06850000000004</v>
+        <v>40.08300000000003</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3039,11 +3029,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3065,10 +3051,10 @@
         <v>39.42</v>
       </c>
       <c r="F76" t="n">
-        <v>2439.7319</v>
+        <v>14004.2012</v>
       </c>
       <c r="G76" t="n">
-        <v>40.05400000000004</v>
+        <v>40.06850000000004</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3078,11 +3064,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3092,22 +3074,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>39.22</v>
+        <v>39.42</v>
       </c>
       <c r="C77" t="n">
-        <v>39.22</v>
+        <v>39.42</v>
       </c>
       <c r="D77" t="n">
-        <v>39.22</v>
+        <v>39.42</v>
       </c>
       <c r="E77" t="n">
-        <v>39.22</v>
+        <v>39.42</v>
       </c>
       <c r="F77" t="n">
-        <v>280.0012</v>
+        <v>2439.7319</v>
       </c>
       <c r="G77" t="n">
-        <v>40.03600000000003</v>
+        <v>40.05400000000004</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3117,11 +3099,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3131,22 +3109,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>39.42</v>
+        <v>39.22</v>
       </c>
       <c r="C78" t="n">
-        <v>39.42</v>
+        <v>39.22</v>
       </c>
       <c r="D78" t="n">
-        <v>39.42</v>
+        <v>39.22</v>
       </c>
       <c r="E78" t="n">
-        <v>39.42</v>
+        <v>39.22</v>
       </c>
       <c r="F78" t="n">
-        <v>13941.1822</v>
+        <v>280.0012</v>
       </c>
       <c r="G78" t="n">
-        <v>40.02150000000003</v>
+        <v>40.03600000000003</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3156,11 +3134,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3170,22 +3144,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>39.41</v>
+        <v>39.42</v>
       </c>
       <c r="C79" t="n">
-        <v>39.41</v>
+        <v>39.42</v>
       </c>
       <c r="D79" t="n">
-        <v>39.41</v>
+        <v>39.42</v>
       </c>
       <c r="E79" t="n">
-        <v>39.41</v>
+        <v>39.42</v>
       </c>
       <c r="F79" t="n">
-        <v>6911.4129</v>
+        <v>13941.1822</v>
       </c>
       <c r="G79" t="n">
-        <v>40.00683333333336</v>
+        <v>40.02150000000003</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3195,11 +3169,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3209,22 +3179,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>39.24</v>
+        <v>39.41</v>
       </c>
       <c r="C80" t="n">
-        <v>39.24</v>
+        <v>39.41</v>
       </c>
       <c r="D80" t="n">
-        <v>39.24</v>
+        <v>39.41</v>
       </c>
       <c r="E80" t="n">
-        <v>39.24</v>
+        <v>39.41</v>
       </c>
       <c r="F80" t="n">
-        <v>151.5414</v>
+        <v>6911.4129</v>
       </c>
       <c r="G80" t="n">
-        <v>39.99433333333336</v>
+        <v>40.00683333333336</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3234,11 +3204,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3248,22 +3214,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>39.39</v>
+        <v>39.24</v>
       </c>
       <c r="C81" t="n">
-        <v>39.39</v>
+        <v>39.24</v>
       </c>
       <c r="D81" t="n">
-        <v>39.39</v>
+        <v>39.24</v>
       </c>
       <c r="E81" t="n">
-        <v>39.39</v>
+        <v>39.24</v>
       </c>
       <c r="F81" t="n">
-        <v>787.8632</v>
+        <v>151.5414</v>
       </c>
       <c r="G81" t="n">
-        <v>39.98100000000002</v>
+        <v>39.99433333333336</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3273,11 +3239,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3287,22 +3249,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>39.38</v>
+        <v>39.39</v>
       </c>
       <c r="C82" t="n">
-        <v>39.38</v>
+        <v>39.39</v>
       </c>
       <c r="D82" t="n">
-        <v>39.38</v>
+        <v>39.39</v>
       </c>
       <c r="E82" t="n">
-        <v>39.38</v>
+        <v>39.39</v>
       </c>
       <c r="F82" t="n">
-        <v>13958.0021</v>
+        <v>787.8632</v>
       </c>
       <c r="G82" t="n">
-        <v>39.96766666666669</v>
+        <v>39.98100000000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3312,11 +3274,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3326,22 +3284,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>39.24</v>
+        <v>39.38</v>
       </c>
       <c r="C83" t="n">
-        <v>39.24</v>
+        <v>39.38</v>
       </c>
       <c r="D83" t="n">
-        <v>39.24</v>
+        <v>39.38</v>
       </c>
       <c r="E83" t="n">
-        <v>39.24</v>
+        <v>39.38</v>
       </c>
       <c r="F83" t="n">
-        <v>63</v>
+        <v>13958.0021</v>
       </c>
       <c r="G83" t="n">
-        <v>39.95800000000002</v>
+        <v>39.96766666666669</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3351,11 +3309,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3365,22 +3319,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>39.28</v>
+        <v>39.24</v>
       </c>
       <c r="C84" t="n">
-        <v>39.26</v>
+        <v>39.24</v>
       </c>
       <c r="D84" t="n">
-        <v>39.28</v>
+        <v>39.24</v>
       </c>
       <c r="E84" t="n">
-        <v>39.26</v>
+        <v>39.24</v>
       </c>
       <c r="F84" t="n">
-        <v>21013.6452</v>
+        <v>63</v>
       </c>
       <c r="G84" t="n">
-        <v>39.94233333333337</v>
+        <v>39.95800000000002</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3390,11 +3344,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3404,22 +3354,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>39.42</v>
+        <v>39.28</v>
       </c>
       <c r="C85" t="n">
-        <v>39.42</v>
+        <v>39.26</v>
       </c>
       <c r="D85" t="n">
-        <v>39.42</v>
+        <v>39.28</v>
       </c>
       <c r="E85" t="n">
-        <v>39.42</v>
+        <v>39.26</v>
       </c>
       <c r="F85" t="n">
-        <v>7350.2049</v>
+        <v>21013.6452</v>
       </c>
       <c r="G85" t="n">
-        <v>39.92783333333337</v>
+        <v>39.94233333333337</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3429,11 +3379,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3455,10 +3401,10 @@
         <v>39.42</v>
       </c>
       <c r="F86" t="n">
-        <v>2778.7555</v>
+        <v>7350.2049</v>
       </c>
       <c r="G86" t="n">
-        <v>39.91333333333337</v>
+        <v>39.92783333333337</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3468,11 +3414,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3494,10 +3436,10 @@
         <v>39.42</v>
       </c>
       <c r="F87" t="n">
-        <v>3515.5367</v>
+        <v>2778.7555</v>
       </c>
       <c r="G87" t="n">
-        <v>39.8986666666667</v>
+        <v>39.91333333333337</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3507,11 +3449,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3533,10 +3471,10 @@
         <v>39.42</v>
       </c>
       <c r="F88" t="n">
-        <v>2902.4032</v>
+        <v>3515.5367</v>
       </c>
       <c r="G88" t="n">
-        <v>39.87933333333337</v>
+        <v>39.8986666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3546,11 +3484,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3560,22 +3494,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>39.63</v>
+        <v>39.42</v>
       </c>
       <c r="C89" t="n">
-        <v>39.63</v>
+        <v>39.42</v>
       </c>
       <c r="D89" t="n">
-        <v>39.63</v>
+        <v>39.42</v>
       </c>
       <c r="E89" t="n">
-        <v>39.63</v>
+        <v>39.42</v>
       </c>
       <c r="F89" t="n">
-        <v>9809.15972747</v>
+        <v>2902.4032</v>
       </c>
       <c r="G89" t="n">
-        <v>39.86333333333337</v>
+        <v>39.87933333333337</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3585,11 +3519,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3599,22 +3529,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>39.65</v>
+        <v>39.63</v>
       </c>
       <c r="C90" t="n">
-        <v>39.65</v>
+        <v>39.63</v>
       </c>
       <c r="D90" t="n">
-        <v>39.65</v>
+        <v>39.63</v>
       </c>
       <c r="E90" t="n">
-        <v>39.65</v>
+        <v>39.63</v>
       </c>
       <c r="F90" t="n">
-        <v>35351.8919</v>
+        <v>9809.15972747</v>
       </c>
       <c r="G90" t="n">
-        <v>39.84700000000003</v>
+        <v>39.86333333333337</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3624,11 +3554,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3650,10 +3576,10 @@
         <v>39.65</v>
       </c>
       <c r="F91" t="n">
-        <v>635.913</v>
+        <v>35351.8919</v>
       </c>
       <c r="G91" t="n">
-        <v>39.83050000000004</v>
+        <v>39.84700000000003</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3663,11 +3589,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3689,10 +3611,10 @@
         <v>39.65</v>
       </c>
       <c r="F92" t="n">
-        <v>573.9102</v>
+        <v>635.913</v>
       </c>
       <c r="G92" t="n">
-        <v>39.81216666666671</v>
+        <v>39.83050000000004</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3702,11 +3624,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3728,10 +3646,10 @@
         <v>39.65</v>
       </c>
       <c r="F93" t="n">
-        <v>545.2147</v>
+        <v>573.9102</v>
       </c>
       <c r="G93" t="n">
-        <v>39.79200000000004</v>
+        <v>39.81216666666671</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3741,11 +3659,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3755,22 +3669,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>39.63</v>
+        <v>39.65</v>
       </c>
       <c r="C94" t="n">
-        <v>39.63</v>
+        <v>39.65</v>
       </c>
       <c r="D94" t="n">
-        <v>39.63</v>
+        <v>39.65</v>
       </c>
       <c r="E94" t="n">
-        <v>39.63</v>
+        <v>39.65</v>
       </c>
       <c r="F94" t="n">
-        <v>604.4222</v>
+        <v>545.2147</v>
       </c>
       <c r="G94" t="n">
-        <v>39.77150000000004</v>
+        <v>39.79200000000004</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3780,11 +3694,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3794,22 +3704,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>39.64</v>
+        <v>39.63</v>
       </c>
       <c r="C95" t="n">
-        <v>39.64</v>
+        <v>39.63</v>
       </c>
       <c r="D95" t="n">
-        <v>39.64</v>
+        <v>39.63</v>
       </c>
       <c r="E95" t="n">
-        <v>39.64</v>
+        <v>39.63</v>
       </c>
       <c r="F95" t="n">
-        <v>518.0859</v>
+        <v>604.4222</v>
       </c>
       <c r="G95" t="n">
-        <v>39.7511666666667</v>
+        <v>39.77150000000004</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3819,11 +3729,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3833,22 +3739,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>39.62</v>
+        <v>39.64</v>
       </c>
       <c r="C96" t="n">
-        <v>39.62</v>
+        <v>39.64</v>
       </c>
       <c r="D96" t="n">
-        <v>39.62</v>
+        <v>39.64</v>
       </c>
       <c r="E96" t="n">
-        <v>39.62</v>
+        <v>39.64</v>
       </c>
       <c r="F96" t="n">
-        <v>492.43</v>
+        <v>518.0859</v>
       </c>
       <c r="G96" t="n">
-        <v>39.7281666666667</v>
+        <v>39.7511666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,11 +3764,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3872,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>39.52</v>
+        <v>39.62</v>
       </c>
       <c r="C97" t="n">
-        <v>39.52</v>
+        <v>39.62</v>
       </c>
       <c r="D97" t="n">
-        <v>39.52</v>
+        <v>39.62</v>
       </c>
       <c r="E97" t="n">
-        <v>39.52</v>
+        <v>39.62</v>
       </c>
       <c r="F97" t="n">
-        <v>4750.1052</v>
+        <v>492.43</v>
       </c>
       <c r="G97" t="n">
-        <v>39.70350000000003</v>
+        <v>39.7281666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3897,11 +3799,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3923,10 +3821,10 @@
         <v>39.52</v>
       </c>
       <c r="F98" t="n">
-        <v>1154</v>
+        <v>4750.1052</v>
       </c>
       <c r="G98" t="n">
-        <v>39.67883333333337</v>
+        <v>39.70350000000003</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3936,11 +3834,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3962,10 +3856,10 @@
         <v>39.52</v>
       </c>
       <c r="F99" t="n">
-        <v>4994.247</v>
+        <v>1154</v>
       </c>
       <c r="G99" t="n">
-        <v>39.65250000000003</v>
+        <v>39.67883333333337</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3975,11 +3869,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3989,22 +3879,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>39.42</v>
+        <v>39.52</v>
       </c>
       <c r="C100" t="n">
-        <v>39.42</v>
+        <v>39.52</v>
       </c>
       <c r="D100" t="n">
-        <v>39.42</v>
+        <v>39.52</v>
       </c>
       <c r="E100" t="n">
-        <v>39.42</v>
+        <v>39.52</v>
       </c>
       <c r="F100" t="n">
-        <v>1421.416</v>
+        <v>4994.247</v>
       </c>
       <c r="G100" t="n">
-        <v>39.62450000000003</v>
+        <v>39.65250000000003</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4014,11 +3904,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4028,22 +3914,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>39.58</v>
+        <v>39.42</v>
       </c>
       <c r="C101" t="n">
-        <v>39.58</v>
+        <v>39.42</v>
       </c>
       <c r="D101" t="n">
-        <v>39.58</v>
+        <v>39.42</v>
       </c>
       <c r="E101" t="n">
-        <v>39.58</v>
+        <v>39.42</v>
       </c>
       <c r="F101" t="n">
-        <v>13</v>
+        <v>1421.416</v>
       </c>
       <c r="G101" t="n">
-        <v>39.60083333333337</v>
+        <v>39.62450000000003</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4053,11 +3939,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4079,10 +3961,10 @@
         <v>39.58</v>
       </c>
       <c r="F102" t="n">
-        <v>842.9288</v>
+        <v>13</v>
       </c>
       <c r="G102" t="n">
-        <v>39.57950000000003</v>
+        <v>39.60083333333337</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4092,11 +3974,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4106,22 +3984,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>39.66</v>
+        <v>39.58</v>
       </c>
       <c r="C103" t="n">
-        <v>39.66</v>
+        <v>39.58</v>
       </c>
       <c r="D103" t="n">
-        <v>39.66</v>
+        <v>39.58</v>
       </c>
       <c r="E103" t="n">
-        <v>39.66</v>
+        <v>39.58</v>
       </c>
       <c r="F103" t="n">
-        <v>140.06555723</v>
+        <v>842.9288</v>
       </c>
       <c r="G103" t="n">
-        <v>39.55950000000003</v>
+        <v>39.57950000000003</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4131,11 +4009,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4157,10 +4031,10 @@
         <v>39.66</v>
       </c>
       <c r="F104" t="n">
-        <v>300.43874277</v>
+        <v>140.06555723</v>
       </c>
       <c r="G104" t="n">
-        <v>39.54066666666669</v>
+        <v>39.55950000000003</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4170,11 +4044,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4184,22 +4054,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>39.77</v>
+        <v>39.66</v>
       </c>
       <c r="C105" t="n">
-        <v>39.77</v>
+        <v>39.66</v>
       </c>
       <c r="D105" t="n">
-        <v>39.77</v>
+        <v>39.66</v>
       </c>
       <c r="E105" t="n">
-        <v>39.77</v>
+        <v>39.66</v>
       </c>
       <c r="F105" t="n">
-        <v>29600</v>
+        <v>300.43874277</v>
       </c>
       <c r="G105" t="n">
-        <v>39.53000000000002</v>
+        <v>39.54066666666669</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4209,11 +4079,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4235,10 +4101,10 @@
         <v>39.77</v>
       </c>
       <c r="F106" t="n">
-        <v>5751.8918</v>
+        <v>29600</v>
       </c>
       <c r="G106" t="n">
-        <v>39.51933333333336</v>
+        <v>39.53000000000002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4248,11 +4114,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4262,22 +4124,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>39.66</v>
+        <v>39.77</v>
       </c>
       <c r="C107" t="n">
-        <v>39.66</v>
+        <v>39.77</v>
       </c>
       <c r="D107" t="n">
-        <v>39.66</v>
+        <v>39.77</v>
       </c>
       <c r="E107" t="n">
-        <v>39.66</v>
+        <v>39.77</v>
       </c>
       <c r="F107" t="n">
-        <v>2018.1304</v>
+        <v>5751.8918</v>
       </c>
       <c r="G107" t="n">
-        <v>39.51366666666669</v>
+        <v>39.51933333333336</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4287,11 +4149,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4304,19 +4162,19 @@
         <v>39.66</v>
       </c>
       <c r="C108" t="n">
-        <v>39.41</v>
+        <v>39.66</v>
       </c>
       <c r="D108" t="n">
         <v>39.66</v>
       </c>
       <c r="E108" t="n">
-        <v>39.41</v>
+        <v>39.66</v>
       </c>
       <c r="F108" t="n">
-        <v>37012.23705723</v>
+        <v>2018.1304</v>
       </c>
       <c r="G108" t="n">
-        <v>39.50383333333335</v>
+        <v>39.51366666666669</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4326,11 +4184,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4340,22 +4194,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>39.41</v>
+        <v>39.66</v>
       </c>
       <c r="C109" t="n">
         <v>39.41</v>
       </c>
       <c r="D109" t="n">
-        <v>39.41</v>
+        <v>39.66</v>
       </c>
       <c r="E109" t="n">
         <v>39.41</v>
       </c>
       <c r="F109" t="n">
-        <v>34624.9886</v>
+        <v>37012.23705723</v>
       </c>
       <c r="G109" t="n">
-        <v>39.49400000000002</v>
+        <v>39.50383333333335</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4365,11 +4219,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4379,22 +4229,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>39.2</v>
+        <v>39.41</v>
       </c>
       <c r="C110" t="n">
-        <v>39.2</v>
+        <v>39.41</v>
       </c>
       <c r="D110" t="n">
-        <v>39.2</v>
+        <v>39.41</v>
       </c>
       <c r="E110" t="n">
-        <v>39.2</v>
+        <v>39.41</v>
       </c>
       <c r="F110" t="n">
-        <v>50</v>
+        <v>34624.9886</v>
       </c>
       <c r="G110" t="n">
-        <v>39.47850000000002</v>
+        <v>39.49400000000002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4404,11 +4254,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4418,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>39.41</v>
+        <v>39.2</v>
       </c>
       <c r="C111" t="n">
-        <v>39.41</v>
+        <v>39.2</v>
       </c>
       <c r="D111" t="n">
-        <v>39.41</v>
+        <v>39.2</v>
       </c>
       <c r="E111" t="n">
-        <v>39.41</v>
+        <v>39.2</v>
       </c>
       <c r="F111" t="n">
-        <v>1550.8483</v>
+        <v>50</v>
       </c>
       <c r="G111" t="n">
-        <v>39.46116666666668</v>
+        <v>39.47850000000002</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4443,11 +4289,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4469,10 +4311,10 @@
         <v>39.41</v>
       </c>
       <c r="F112" t="n">
-        <v>10372.5233</v>
+        <v>1550.8483</v>
       </c>
       <c r="G112" t="n">
-        <v>39.44966666666668</v>
+        <v>39.46116666666668</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4482,11 +4324,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4508,10 +4346,10 @@
         <v>39.41</v>
       </c>
       <c r="F113" t="n">
-        <v>4.277e-05</v>
+        <v>10372.5233</v>
       </c>
       <c r="G113" t="n">
-        <v>39.44133333333335</v>
+        <v>39.44966666666668</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4521,11 +4359,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4535,22 +4369,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>39.8</v>
+        <v>39.41</v>
       </c>
       <c r="C114" t="n">
-        <v>39.8</v>
+        <v>39.41</v>
       </c>
       <c r="D114" t="n">
-        <v>39.8</v>
+        <v>39.41</v>
       </c>
       <c r="E114" t="n">
-        <v>39.8</v>
+        <v>39.41</v>
       </c>
       <c r="F114" t="n">
-        <v>12533.9684</v>
+        <v>4.277e-05</v>
       </c>
       <c r="G114" t="n">
-        <v>39.43800000000002</v>
+        <v>39.44133333333335</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4560,11 +4394,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4574,22 +4404,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>39.81</v>
+        <v>39.8</v>
       </c>
       <c r="C115" t="n">
-        <v>39.83</v>
+        <v>39.8</v>
       </c>
       <c r="D115" t="n">
-        <v>39.83</v>
+        <v>39.8</v>
       </c>
       <c r="E115" t="n">
-        <v>39.81</v>
+        <v>39.8</v>
       </c>
       <c r="F115" t="n">
-        <v>1764.8449</v>
+        <v>12533.9684</v>
       </c>
       <c r="G115" t="n">
-        <v>39.43866666666668</v>
+        <v>39.43800000000002</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4599,11 +4429,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +4439,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>39.83</v>
+        <v>39.81</v>
       </c>
       <c r="C116" t="n">
         <v>39.83</v>
@@ -4622,13 +4448,13 @@
         <v>39.83</v>
       </c>
       <c r="E116" t="n">
-        <v>39.83</v>
+        <v>39.81</v>
       </c>
       <c r="F116" t="n">
-        <v>101.8686</v>
+        <v>1764.8449</v>
       </c>
       <c r="G116" t="n">
-        <v>39.44733333333335</v>
+        <v>39.43866666666668</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4638,11 +4464,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4652,22 +4474,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>39.92</v>
+        <v>39.83</v>
       </c>
       <c r="C117" t="n">
-        <v>39.92</v>
+        <v>39.83</v>
       </c>
       <c r="D117" t="n">
-        <v>39.92</v>
+        <v>39.83</v>
       </c>
       <c r="E117" t="n">
-        <v>39.92</v>
+        <v>39.83</v>
       </c>
       <c r="F117" t="n">
-        <v>917.149</v>
+        <v>101.8686</v>
       </c>
       <c r="G117" t="n">
-        <v>39.45450000000002</v>
+        <v>39.44733333333335</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4677,11 +4499,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4691,22 +4509,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>39.99</v>
+        <v>39.92</v>
       </c>
       <c r="C118" t="n">
-        <v>40.07</v>
+        <v>39.92</v>
       </c>
       <c r="D118" t="n">
-        <v>40.07</v>
+        <v>39.92</v>
       </c>
       <c r="E118" t="n">
-        <v>39.99</v>
+        <v>39.92</v>
       </c>
       <c r="F118" t="n">
-        <v>921.5936</v>
+        <v>917.149</v>
       </c>
       <c r="G118" t="n">
-        <v>39.46250000000002</v>
+        <v>39.45450000000002</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4716,11 +4534,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4730,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>40.09</v>
+        <v>39.99</v>
       </c>
       <c r="C119" t="n">
-        <v>40.21</v>
+        <v>40.07</v>
       </c>
       <c r="D119" t="n">
-        <v>40.21</v>
+        <v>40.07</v>
       </c>
       <c r="E119" t="n">
-        <v>40.09</v>
+        <v>39.99</v>
       </c>
       <c r="F119" t="n">
-        <v>6791.1741</v>
+        <v>921.5936</v>
       </c>
       <c r="G119" t="n">
-        <v>39.47450000000003</v>
+        <v>39.46250000000002</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4755,11 +4569,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4769,22 +4579,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>40.23</v>
+        <v>40.09</v>
       </c>
       <c r="C120" t="n">
-        <v>40.23</v>
+        <v>40.21</v>
       </c>
       <c r="D120" t="n">
-        <v>40.23</v>
+        <v>40.21</v>
       </c>
       <c r="E120" t="n">
-        <v>40.23</v>
+        <v>40.09</v>
       </c>
       <c r="F120" t="n">
-        <v>10868.6756</v>
+        <v>6791.1741</v>
       </c>
       <c r="G120" t="n">
-        <v>39.48683333333337</v>
+        <v>39.47450000000003</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4794,11 +4604,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4808,22 +4614,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>40.37</v>
+        <v>40.23</v>
       </c>
       <c r="C121" t="n">
-        <v>40.37</v>
+        <v>40.23</v>
       </c>
       <c r="D121" t="n">
-        <v>40.37</v>
+        <v>40.23</v>
       </c>
       <c r="E121" t="n">
-        <v>40.37</v>
+        <v>40.23</v>
       </c>
       <c r="F121" t="n">
-        <v>10093.5518</v>
+        <v>10868.6756</v>
       </c>
       <c r="G121" t="n">
-        <v>39.50616666666669</v>
+        <v>39.48683333333337</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4833,11 +4639,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4847,22 +4649,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>40.38</v>
+        <v>40.37</v>
       </c>
       <c r="C122" t="n">
-        <v>40.38</v>
+        <v>40.37</v>
       </c>
       <c r="D122" t="n">
-        <v>40.38</v>
+        <v>40.37</v>
       </c>
       <c r="E122" t="n">
-        <v>40.38</v>
+        <v>40.37</v>
       </c>
       <c r="F122" t="n">
-        <v>178.1961</v>
+        <v>10093.5518</v>
       </c>
       <c r="G122" t="n">
-        <v>39.5226666666667</v>
+        <v>39.50616666666669</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4872,11 +4674,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4886,37 +4684,35 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>40.37</v>
+        <v>40.38</v>
       </c>
       <c r="C123" t="n">
-        <v>40.37</v>
+        <v>40.38</v>
       </c>
       <c r="D123" t="n">
-        <v>40.37</v>
+        <v>40.38</v>
       </c>
       <c r="E123" t="n">
-        <v>40.37</v>
+        <v>40.38</v>
       </c>
       <c r="F123" t="n">
-        <v>3190.9572</v>
+        <v>178.1961</v>
       </c>
       <c r="G123" t="n">
-        <v>39.54000000000003</v>
+        <v>39.5226666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4935,10 +4731,10 @@
         <v>40.37</v>
       </c>
       <c r="F124" t="n">
-        <v>56253.3023</v>
+        <v>3190.9572</v>
       </c>
       <c r="G124" t="n">
-        <v>39.56266666666669</v>
+        <v>39.54000000000003</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4970,10 +4766,10 @@
         <v>40.37</v>
       </c>
       <c r="F125" t="n">
-        <v>17616.9571</v>
+        <v>56253.3023</v>
       </c>
       <c r="G125" t="n">
-        <v>39.58550000000002</v>
+        <v>39.56266666666669</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4993,22 +4789,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>40.35</v>
+        <v>40.37</v>
       </c>
       <c r="C126" t="n">
-        <v>40.42</v>
+        <v>40.37</v>
       </c>
       <c r="D126" t="n">
-        <v>40.42</v>
+        <v>40.37</v>
       </c>
       <c r="E126" t="n">
-        <v>40.35</v>
+        <v>40.37</v>
       </c>
       <c r="F126" t="n">
-        <v>2207.6622</v>
+        <v>17616.9571</v>
       </c>
       <c r="G126" t="n">
-        <v>39.60250000000003</v>
+        <v>39.58550000000002</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5028,7 +4824,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>40.42</v>
+        <v>40.35</v>
       </c>
       <c r="C127" t="n">
         <v>40.42</v>
@@ -5037,13 +4833,13 @@
         <v>40.42</v>
       </c>
       <c r="E127" t="n">
-        <v>40.42</v>
+        <v>40.35</v>
       </c>
       <c r="F127" t="n">
-        <v>1624.2417</v>
+        <v>2207.6622</v>
       </c>
       <c r="G127" t="n">
-        <v>39.62266666666669</v>
+        <v>39.60250000000003</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5075,16 +4871,16 @@
         <v>40.42</v>
       </c>
       <c r="F128" t="n">
-        <v>20962.2274</v>
+        <v>1624.2417</v>
       </c>
       <c r="G128" t="n">
-        <v>39.64466666666669</v>
+        <v>39.62266666666669</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5098,22 +4894,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>40.63</v>
+        <v>40.42</v>
       </c>
       <c r="C129" t="n">
-        <v>40.63</v>
+        <v>40.42</v>
       </c>
       <c r="D129" t="n">
-        <v>40.63</v>
+        <v>40.42</v>
       </c>
       <c r="E129" t="n">
-        <v>40.63</v>
+        <v>40.42</v>
       </c>
       <c r="F129" t="n">
-        <v>81.85290000000001</v>
+        <v>20962.2274</v>
       </c>
       <c r="G129" t="n">
-        <v>39.67300000000003</v>
+        <v>39.64466666666669</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5145,16 +4941,16 @@
         <v>40.63</v>
       </c>
       <c r="F130" t="n">
-        <v>170.3539</v>
+        <v>81.85290000000001</v>
       </c>
       <c r="G130" t="n">
-        <v>39.6951666666667</v>
+        <v>39.67300000000003</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5168,28 +4964,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>40.7</v>
+        <v>40.63</v>
       </c>
       <c r="C131" t="n">
-        <v>40.7</v>
+        <v>40.63</v>
       </c>
       <c r="D131" t="n">
-        <v>40.7</v>
+        <v>40.63</v>
       </c>
       <c r="E131" t="n">
-        <v>40.7</v>
+        <v>40.63</v>
       </c>
       <c r="F131" t="n">
-        <v>494.1589</v>
+        <v>170.3539</v>
       </c>
       <c r="G131" t="n">
-        <v>39.71733333333336</v>
+        <v>39.6951666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5203,28 +4999,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="C132" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="D132" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="E132" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="F132" t="n">
-        <v>827.6673</v>
+        <v>494.1589</v>
       </c>
       <c r="G132" t="n">
-        <v>39.73700000000003</v>
+        <v>39.71733333333336</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5238,28 +5034,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="C133" t="n">
         <v>40.5</v>
       </c>
       <c r="D133" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E133" t="n">
         <v>40.5</v>
       </c>
-      <c r="E133" t="n">
-        <v>40.4</v>
-      </c>
       <c r="F133" t="n">
-        <v>3359.0878</v>
+        <v>827.6673</v>
       </c>
       <c r="G133" t="n">
-        <v>39.75666666666669</v>
+        <v>39.73700000000003</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5273,10 +5069,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="C134" t="n">
         <v>40.5</v>
-      </c>
-      <c r="C134" t="n">
-        <v>40.4</v>
       </c>
       <c r="D134" t="n">
         <v>40.5</v>
@@ -5285,16 +5081,16 @@
         <v>40.4</v>
       </c>
       <c r="F134" t="n">
-        <v>20374.5089</v>
+        <v>3359.0878</v>
       </c>
       <c r="G134" t="n">
-        <v>39.77466666666669</v>
+        <v>39.75666666666669</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5308,22 +5104,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>40.2</v>
+        <v>40.5</v>
       </c>
       <c r="C135" t="n">
-        <v>40.2</v>
+        <v>40.4</v>
       </c>
       <c r="D135" t="n">
-        <v>40.2</v>
+        <v>40.5</v>
       </c>
       <c r="E135" t="n">
-        <v>40.2</v>
+        <v>40.4</v>
       </c>
       <c r="F135" t="n">
-        <v>901.6179</v>
+        <v>20374.5089</v>
       </c>
       <c r="G135" t="n">
-        <v>39.78766666666669</v>
+        <v>39.77466666666669</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5343,28 +5139,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>40.59</v>
+        <v>40.2</v>
       </c>
       <c r="C136" t="n">
-        <v>40.59</v>
+        <v>40.2</v>
       </c>
       <c r="D136" t="n">
-        <v>40.59</v>
+        <v>40.2</v>
       </c>
       <c r="E136" t="n">
-        <v>40.59</v>
+        <v>40.2</v>
       </c>
       <c r="F136" t="n">
-        <v>140</v>
+        <v>901.6179</v>
       </c>
       <c r="G136" t="n">
-        <v>39.80716666666669</v>
+        <v>39.78766666666669</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5378,22 +5174,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>40.56</v>
+        <v>40.59</v>
       </c>
       <c r="C137" t="n">
-        <v>40.6</v>
+        <v>40.59</v>
       </c>
       <c r="D137" t="n">
-        <v>40.6</v>
+        <v>40.59</v>
       </c>
       <c r="E137" t="n">
-        <v>40.56</v>
+        <v>40.59</v>
       </c>
       <c r="F137" t="n">
-        <v>32000</v>
+        <v>140</v>
       </c>
       <c r="G137" t="n">
-        <v>39.83016666666669</v>
+        <v>39.80716666666669</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5413,7 +5209,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>40.6</v>
+        <v>40.56</v>
       </c>
       <c r="C138" t="n">
         <v>40.6</v>
@@ -5422,13 +5218,13 @@
         <v>40.6</v>
       </c>
       <c r="E138" t="n">
-        <v>40.6</v>
+        <v>40.56</v>
       </c>
       <c r="F138" t="n">
-        <v>8810.4503</v>
+        <v>32000</v>
       </c>
       <c r="G138" t="n">
-        <v>39.84983333333335</v>
+        <v>39.83016666666669</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5443,6 +5239,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C139" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D139" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E139" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F139" t="n">
+        <v>8810.4503</v>
+      </c>
+      <c r="G139" t="n">
+        <v>39.84983333333335</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest XEM.xlsx
+++ b/BackTest/2020-01-16 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:N149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>86270.77692906</v>
       </c>
       <c r="G2" t="n">
+        <v>40.62866666666662</v>
+      </c>
+      <c r="H2" t="n">
         <v>39.94233333333337</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>61691</v>
       </c>
       <c r="G3" t="n">
+        <v>40.63066666666662</v>
+      </c>
+      <c r="H3" t="n">
         <v>39.96533333333336</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>143171.9502</v>
       </c>
       <c r="G4" t="n">
+        <v>40.64866666666662</v>
+      </c>
+      <c r="H4" t="n">
         <v>39.98850000000003</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>576.5519</v>
       </c>
       <c r="G5" t="n">
+        <v>40.61999999999996</v>
+      </c>
+      <c r="H5" t="n">
         <v>40.00700000000003</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>438.6667</v>
       </c>
       <c r="G6" t="n">
+        <v>40.59066666666663</v>
+      </c>
+      <c r="H6" t="n">
         <v>40.02483333333336</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>2962.9188</v>
       </c>
       <c r="G7" t="n">
+        <v>40.5893333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>40.04916666666669</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>134594.7654</v>
       </c>
       <c r="G8" t="n">
+        <v>40.56999999999996</v>
+      </c>
+      <c r="H8" t="n">
         <v>40.06516666666669</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>18398.418</v>
       </c>
       <c r="G9" t="n">
+        <v>40.57599999999997</v>
+      </c>
+      <c r="H9" t="n">
         <v>40.08683333333336</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>54422.953</v>
       </c>
       <c r="G10" t="n">
+        <v>40.5673333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>40.10483333333335</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>2075.1618</v>
       </c>
       <c r="G11" t="n">
+        <v>40.5693333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>40.12250000000003</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>9723.917100000001</v>
       </c>
       <c r="G12" t="n">
+        <v>40.4893333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>40.13900000000002</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1298.0172</v>
       </c>
       <c r="G13" t="n">
+        <v>40.43999999999996</v>
+      </c>
+      <c r="H13" t="n">
         <v>40.15233333333336</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>9543.8631</v>
       </c>
       <c r="G14" t="n">
+        <v>40.39666666666663</v>
+      </c>
+      <c r="H14" t="n">
         <v>40.16383333333336</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>1838.3571</v>
       </c>
       <c r="G15" t="n">
+        <v>40.36933333333329</v>
+      </c>
+      <c r="H15" t="n">
         <v>40.17400000000003</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>3096</v>
       </c>
       <c r="G16" t="n">
+        <v>40.34799999999996</v>
+      </c>
+      <c r="H16" t="n">
         <v>40.18400000000003</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>3096</v>
       </c>
       <c r="G17" t="n">
+        <v>40.32733333333329</v>
+      </c>
+      <c r="H17" t="n">
         <v>40.19400000000003</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>136</v>
       </c>
       <c r="G18" t="n">
+        <v>40.31599999999995</v>
+      </c>
+      <c r="H18" t="n">
         <v>40.20416666666669</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>3096</v>
       </c>
       <c r="G19" t="n">
+        <v>40.30399999999995</v>
+      </c>
+      <c r="H19" t="n">
         <v>40.21416666666669</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>825.5366</v>
       </c>
       <c r="G20" t="n">
+        <v>40.30666666666661</v>
+      </c>
+      <c r="H20" t="n">
         <v>40.2241666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>3531.1215</v>
       </c>
       <c r="G21" t="n">
+        <v>40.29133333333327</v>
+      </c>
+      <c r="H21" t="n">
         <v>40.22916666666669</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>811.8513</v>
       </c>
       <c r="G22" t="n">
+        <v>40.26333333333327</v>
+      </c>
+      <c r="H22" t="n">
         <v>40.23616666666669</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>4180.6615</v>
       </c>
       <c r="G23" t="n">
+        <v>40.26799999999993</v>
+      </c>
+      <c r="H23" t="n">
         <v>40.23300000000003</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>38335.7816</v>
       </c>
       <c r="G24" t="n">
+        <v>40.22333333333327</v>
+      </c>
+      <c r="H24" t="n">
         <v>40.23283333333336</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>4246.1647</v>
       </c>
       <c r="G25" t="n">
+        <v>40.21866666666661</v>
+      </c>
+      <c r="H25" t="n">
         <v>40.24050000000003</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>16695</v>
       </c>
       <c r="G26" t="n">
+        <v>40.21933333333327</v>
+      </c>
+      <c r="H26" t="n">
         <v>40.24983333333336</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,22 +1403,21 @@
         <v>6192</v>
       </c>
       <c r="G27" t="n">
+        <v>40.21933333333327</v>
+      </c>
+      <c r="H27" t="n">
         <v>40.25666666666669</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>40.29</v>
-      </c>
-      <c r="K27" t="n">
-        <v>40.29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1362,24 +1441,21 @@
         <v>135.3292</v>
       </c>
       <c r="G28" t="n">
+        <v>40.21999999999993</v>
+      </c>
+      <c r="H28" t="n">
         <v>40.26650000000003</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>40.29</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1403,24 +1479,21 @@
         <v>300</v>
       </c>
       <c r="G29" t="n">
+        <v>40.23999999999994</v>
+      </c>
+      <c r="H29" t="n">
         <v>40.27600000000002</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>40.29</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,18 +1517,21 @@
         <v>2109.6862</v>
       </c>
       <c r="G30" t="n">
+        <v>40.25933333333328</v>
+      </c>
+      <c r="H30" t="n">
         <v>40.28766666666669</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,18 +1555,21 @@
         <v>4502.4575</v>
       </c>
       <c r="G31" t="n">
+        <v>40.28199999999995</v>
+      </c>
+      <c r="H31" t="n">
         <v>40.30466666666669</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1593,21 @@
         <v>276.1672</v>
       </c>
       <c r="G32" t="n">
+        <v>40.30533333333328</v>
+      </c>
+      <c r="H32" t="n">
         <v>40.32116666666669</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1631,21 @@
         <v>1015.4588</v>
       </c>
       <c r="G33" t="n">
+        <v>40.33533333333329</v>
+      </c>
+      <c r="H33" t="n">
         <v>40.34283333333336</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1669,21 @@
         <v>13000.0438</v>
       </c>
       <c r="G34" t="n">
+        <v>40.37333333333329</v>
+      </c>
+      <c r="H34" t="n">
         <v>40.36616666666669</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1707,21 @@
         <v>2627.7883</v>
       </c>
       <c r="G35" t="n">
+        <v>40.4113333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>40.3996666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1745,21 @@
         <v>18284.4853</v>
       </c>
       <c r="G36" t="n">
+        <v>40.4693333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>40.41983333333337</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1783,21 @@
         <v>8265.8428</v>
       </c>
       <c r="G37" t="n">
+        <v>40.5233333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>40.44450000000003</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1821,21 @@
         <v>9171.518099999999</v>
       </c>
       <c r="G38" t="n">
+        <v>40.57799999999997</v>
+      </c>
+      <c r="H38" t="n">
         <v>40.46433333333336</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +1859,21 @@
         <v>5649.3255</v>
       </c>
       <c r="G39" t="n">
+        <v>40.65666666666663</v>
+      </c>
+      <c r="H39" t="n">
         <v>40.47533333333336</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +1897,21 @@
         <v>135.15815085</v>
       </c>
       <c r="G40" t="n">
+        <v>40.71666666666663</v>
+      </c>
+      <c r="H40" t="n">
         <v>40.4916666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +1935,21 @@
         <v>108.12652068</v>
       </c>
       <c r="G41" t="n">
+        <v>40.77066666666664</v>
+      </c>
+      <c r="H41" t="n">
         <v>40.5066666666667</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +1973,21 @@
         <v>836.7383</v>
       </c>
       <c r="G42" t="n">
+        <v>40.81799999999997</v>
+      </c>
+      <c r="H42" t="n">
         <v>40.52000000000003</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2011,21 @@
         <v>9288</v>
       </c>
       <c r="G43" t="n">
+        <v>40.85533333333331</v>
+      </c>
+      <c r="H43" t="n">
         <v>40.52700000000004</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2049,21 @@
         <v>9353.6602</v>
       </c>
       <c r="G44" t="n">
+        <v>40.87399999999997</v>
+      </c>
+      <c r="H44" t="n">
         <v>40.53400000000003</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2087,21 @@
         <v>28646.7454</v>
       </c>
       <c r="G45" t="n">
+        <v>40.8873333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>40.5356666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2125,21 @@
         <v>127.561</v>
       </c>
       <c r="G46" t="n">
+        <v>40.87266666666663</v>
+      </c>
+      <c r="H46" t="n">
         <v>40.5311666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2163,21 @@
         <v>157</v>
       </c>
       <c r="G47" t="n">
+        <v>40.85733333333329</v>
+      </c>
+      <c r="H47" t="n">
         <v>40.5296666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2201,21 @@
         <v>1496.3215</v>
       </c>
       <c r="G48" t="n">
+        <v>40.8073333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>40.52233333333336</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2239,21 @@
         <v>25120.5468</v>
       </c>
       <c r="G49" t="n">
+        <v>40.74999999999996</v>
+      </c>
+      <c r="H49" t="n">
         <v>40.51900000000003</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2277,21 @@
         <v>0.0001</v>
       </c>
       <c r="G50" t="n">
+        <v>40.69266666666663</v>
+      </c>
+      <c r="H50" t="n">
         <v>40.50766666666671</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,18 +2315,21 @@
         <v>30</v>
       </c>
       <c r="G51" t="n">
+        <v>40.64399999999996</v>
+      </c>
+      <c r="H51" t="n">
         <v>40.49883333333337</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,18 +2353,21 @@
         <v>222.00247218</v>
       </c>
       <c r="G52" t="n">
+        <v>40.60733333333329</v>
+      </c>
+      <c r="H52" t="n">
         <v>40.49583333333337</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,18 +2391,21 @@
         <v>1241.7296</v>
       </c>
       <c r="G53" t="n">
+        <v>40.5473333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>40.49083333333337</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,18 +2429,21 @@
         <v>77.2388</v>
       </c>
       <c r="G54" t="n">
+        <v>40.47466666666663</v>
+      </c>
+      <c r="H54" t="n">
         <v>40.4826666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,18 +2467,21 @@
         <v>23035.0388</v>
       </c>
       <c r="G55" t="n">
+        <v>40.40133333333329</v>
+      </c>
+      <c r="H55" t="n">
         <v>40.47600000000003</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,18 +2505,21 @@
         <v>20190.4425</v>
       </c>
       <c r="G56" t="n">
+        <v>40.31399999999996</v>
+      </c>
+      <c r="H56" t="n">
         <v>40.46833333333336</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2543,21 @@
         <v>84865.18120000001</v>
       </c>
       <c r="G57" t="n">
+        <v>40.20133333333329</v>
+      </c>
+      <c r="H57" t="n">
         <v>40.43200000000003</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2581,21 @@
         <v>1010</v>
       </c>
       <c r="G58" t="n">
+        <v>40.10999999999995</v>
+      </c>
+      <c r="H58" t="n">
         <v>40.40633333333336</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,18 +2619,21 @@
         <v>2846.5479</v>
       </c>
       <c r="G59" t="n">
+        <v>40.02533333333329</v>
+      </c>
+      <c r="H59" t="n">
         <v>40.38400000000003</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2494,18 +2657,21 @@
         <v>1166.3499</v>
       </c>
       <c r="G60" t="n">
+        <v>39.93866666666663</v>
+      </c>
+      <c r="H60" t="n">
         <v>40.3636666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,18 +2695,21 @@
         <v>3251.7122</v>
       </c>
       <c r="G61" t="n">
+        <v>39.87733333333329</v>
+      </c>
+      <c r="H61" t="n">
         <v>40.34500000000002</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,18 +2733,21 @@
         <v>4599.8947</v>
       </c>
       <c r="G62" t="n">
+        <v>39.7973333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>40.32183333333335</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,18 +2771,21 @@
         <v>790.9569</v>
       </c>
       <c r="G63" t="n">
+        <v>39.75666666666663</v>
+      </c>
+      <c r="H63" t="n">
         <v>40.30383333333336</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,18 +2809,21 @@
         <v>11933.2538</v>
       </c>
       <c r="G64" t="n">
+        <v>39.71199999999997</v>
+      </c>
+      <c r="H64" t="n">
         <v>40.28483333333336</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,18 +2847,21 @@
         <v>106.2698</v>
       </c>
       <c r="G65" t="n">
+        <v>39.64599999999997</v>
+      </c>
+      <c r="H65" t="n">
         <v>40.2641666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,18 +2885,21 @@
         <v>593.7302</v>
       </c>
       <c r="G66" t="n">
+        <v>39.57066666666663</v>
+      </c>
+      <c r="H66" t="n">
         <v>40.24383333333336</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +2923,25 @@
         <v>405.8382</v>
       </c>
       <c r="G67" t="n">
+        <v>39.50066666666662</v>
+      </c>
+      <c r="H67" t="n">
         <v>40.22366666666669</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>39</v>
+      </c>
+      <c r="L67" t="n">
+        <v>39</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +2965,27 @@
         <v>8203</v>
       </c>
       <c r="G68" t="n">
+        <v>39.4413333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>40.20866666666669</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>39</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +3009,27 @@
         <v>850.9632</v>
       </c>
       <c r="G69" t="n">
+        <v>39.3873333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>40.18550000000003</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>39</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3053,29 @@
         <v>5041.3508</v>
       </c>
       <c r="G70" t="n">
+        <v>39.31599999999996</v>
+      </c>
+      <c r="H70" t="n">
         <v>40.1631666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>39</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3099,29 @@
         <v>18195.5263</v>
       </c>
       <c r="G71" t="n">
+        <v>39.2833333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>40.14683333333336</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>38.93</v>
+      </c>
+      <c r="L71" t="n">
+        <v>39</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3145,29 @@
         <v>672.2988</v>
       </c>
       <c r="G72" t="n">
+        <v>39.2873333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>40.13150000000003</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="L72" t="n">
+        <v>39</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3191,29 @@
         <v>259.792</v>
       </c>
       <c r="G73" t="n">
+        <v>39.27599999999997</v>
+      </c>
+      <c r="H73" t="n">
         <v>40.11533333333337</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>39.37</v>
+      </c>
+      <c r="L73" t="n">
+        <v>39</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3237,29 @@
         <v>94.2642</v>
       </c>
       <c r="G74" t="n">
+        <v>39.25799999999997</v>
+      </c>
+      <c r="H74" t="n">
         <v>40.09933333333336</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="L74" t="n">
+        <v>39</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3283,29 @@
         <v>161.1918</v>
       </c>
       <c r="G75" t="n">
+        <v>39.24666666666664</v>
+      </c>
+      <c r="H75" t="n">
         <v>40.08300000000003</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="L75" t="n">
+        <v>39</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3329,27 @@
         <v>14004.2012</v>
       </c>
       <c r="G76" t="n">
+        <v>39.24199999999997</v>
+      </c>
+      <c r="H76" t="n">
         <v>40.06850000000004</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>39</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3373,29 @@
         <v>2439.7319</v>
       </c>
       <c r="G77" t="n">
+        <v>39.25599999999996</v>
+      </c>
+      <c r="H77" t="n">
         <v>40.05400000000004</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="L77" t="n">
+        <v>39</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,18 +3419,27 @@
         <v>280.0012</v>
       </c>
       <c r="G78" t="n">
+        <v>39.24466666666663</v>
+      </c>
+      <c r="H78" t="n">
         <v>40.03600000000003</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>39</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,18 +3463,29 @@
         <v>13941.1822</v>
       </c>
       <c r="G79" t="n">
+        <v>39.25066666666662</v>
+      </c>
+      <c r="H79" t="n">
         <v>40.02150000000003</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="L79" t="n">
+        <v>39</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3509,29 @@
         <v>6911.4129</v>
       </c>
       <c r="G80" t="n">
+        <v>39.2773333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>40.00683333333336</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="L80" t="n">
+        <v>39</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3555,29 @@
         <v>151.5414</v>
       </c>
       <c r="G81" t="n">
+        <v>39.29333333333329</v>
+      </c>
+      <c r="H81" t="n">
         <v>39.99433333333336</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="L81" t="n">
+        <v>39</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3601,29 @@
         <v>787.8632</v>
       </c>
       <c r="G82" t="n">
+        <v>39.29266666666663</v>
+      </c>
+      <c r="H82" t="n">
         <v>39.98100000000002</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="L82" t="n">
+        <v>39</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3647,29 @@
         <v>13958.0021</v>
       </c>
       <c r="G83" t="n">
+        <v>39.30399999999996</v>
+      </c>
+      <c r="H83" t="n">
         <v>39.96766666666669</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="L83" t="n">
+        <v>39</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3693,29 @@
         <v>63</v>
       </c>
       <c r="G84" t="n">
+        <v>39.31333333333329</v>
+      </c>
+      <c r="H84" t="n">
         <v>39.95800000000002</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="L84" t="n">
+        <v>39</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3739,29 @@
         <v>21013.6452</v>
       </c>
       <c r="G85" t="n">
+        <v>39.3353333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>39.94233333333337</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="L85" t="n">
+        <v>39</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +3785,29 @@
         <v>7350.2049</v>
       </c>
       <c r="G86" t="n">
+        <v>39.34333333333329</v>
+      </c>
+      <c r="H86" t="n">
         <v>39.92783333333337</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>39.26</v>
+      </c>
+      <c r="L86" t="n">
+        <v>39</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +3831,29 @@
         <v>2778.7555</v>
       </c>
       <c r="G87" t="n">
+        <v>39.34666666666662</v>
+      </c>
+      <c r="H87" t="n">
         <v>39.91333333333337</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="L87" t="n">
+        <v>39</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +3877,29 @@
         <v>3515.5367</v>
       </c>
       <c r="G88" t="n">
+        <v>39.35333333333328</v>
+      </c>
+      <c r="H88" t="n">
         <v>39.8986666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="L88" t="n">
+        <v>39</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +3923,29 @@
         <v>2902.4032</v>
       </c>
       <c r="G89" t="n">
+        <v>39.35999999999994</v>
+      </c>
+      <c r="H89" t="n">
         <v>39.87933333333337</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="L89" t="n">
+        <v>39</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +3969,29 @@
         <v>9809.15972747</v>
       </c>
       <c r="G90" t="n">
+        <v>39.38066666666661</v>
+      </c>
+      <c r="H90" t="n">
         <v>39.86333333333337</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="L90" t="n">
+        <v>39</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +4015,29 @@
         <v>35351.8919</v>
       </c>
       <c r="G91" t="n">
+        <v>39.39599999999994</v>
+      </c>
+      <c r="H91" t="n">
         <v>39.84700000000003</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="L91" t="n">
+        <v>39</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +4061,27 @@
         <v>635.913</v>
       </c>
       <c r="G92" t="n">
+        <v>39.41133333333327</v>
+      </c>
+      <c r="H92" t="n">
         <v>39.83050000000004</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>39</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +4105,27 @@
         <v>573.9102</v>
       </c>
       <c r="G93" t="n">
+        <v>39.43999999999994</v>
+      </c>
+      <c r="H93" t="n">
         <v>39.81216666666671</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>39</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4149,27 @@
         <v>545.2147</v>
       </c>
       <c r="G94" t="n">
+        <v>39.45533333333328</v>
+      </c>
+      <c r="H94" t="n">
         <v>39.79200000000004</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>39</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4193,27 @@
         <v>604.4222</v>
       </c>
       <c r="G95" t="n">
+        <v>39.46999999999994</v>
+      </c>
+      <c r="H95" t="n">
         <v>39.77150000000004</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>39</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4237,27 @@
         <v>518.0859</v>
       </c>
       <c r="G96" t="n">
+        <v>39.49666666666661</v>
+      </c>
+      <c r="H96" t="n">
         <v>39.7511666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>39</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4281,27 @@
         <v>492.43</v>
       </c>
       <c r="G97" t="n">
+        <v>39.51199999999994</v>
+      </c>
+      <c r="H97" t="n">
         <v>39.7281666666667</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>39</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4325,27 @@
         <v>4750.1052</v>
       </c>
       <c r="G98" t="n">
+        <v>39.52133333333327</v>
+      </c>
+      <c r="H98" t="n">
         <v>39.70350000000003</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>39</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4369,27 @@
         <v>1154</v>
       </c>
       <c r="G99" t="n">
+        <v>39.53999999999994</v>
+      </c>
+      <c r="H99" t="n">
         <v>39.67883333333337</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>39</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4413,27 @@
         <v>4994.247</v>
       </c>
       <c r="G100" t="n">
+        <v>39.55733333333328</v>
+      </c>
+      <c r="H100" t="n">
         <v>39.65250000000003</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>39</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4457,27 @@
         <v>1421.416</v>
       </c>
       <c r="G101" t="n">
+        <v>39.55733333333328</v>
+      </c>
+      <c r="H101" t="n">
         <v>39.62450000000003</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>39</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4501,29 @@
         <v>13</v>
       </c>
       <c r="G102" t="n">
+        <v>39.56799999999995</v>
+      </c>
+      <c r="H102" t="n">
         <v>39.60083333333337</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="L102" t="n">
+        <v>39</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4547,29 @@
         <v>842.9288</v>
       </c>
       <c r="G103" t="n">
+        <v>39.57866666666662</v>
+      </c>
+      <c r="H103" t="n">
         <v>39.57950000000003</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="L103" t="n">
+        <v>39</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4593,27 @@
         <v>140.06555723</v>
       </c>
       <c r="G104" t="n">
+        <v>39.59466666666662</v>
+      </c>
+      <c r="H104" t="n">
         <v>39.55950000000003</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>39</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4637,27 @@
         <v>300.43874277</v>
       </c>
       <c r="G105" t="n">
+        <v>39.59666666666661</v>
+      </c>
+      <c r="H105" t="n">
         <v>39.54066666666669</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>39</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4681,27 @@
         <v>29600</v>
       </c>
       <c r="G106" t="n">
+        <v>39.60466666666662</v>
+      </c>
+      <c r="H106" t="n">
         <v>39.53000000000002</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>39</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4725,27 @@
         <v>5751.8918</v>
       </c>
       <c r="G107" t="n">
+        <v>39.61266666666662</v>
+      </c>
+      <c r="H107" t="n">
         <v>39.51933333333336</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>39</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4769,27 @@
         <v>2018.1304</v>
       </c>
       <c r="G108" t="n">
+        <v>39.61333333333328</v>
+      </c>
+      <c r="H108" t="n">
         <v>39.51366666666669</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>39</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4813,27 @@
         <v>37012.23705723</v>
       </c>
       <c r="G109" t="n">
+        <v>39.59733333333328</v>
+      </c>
+      <c r="H109" t="n">
         <v>39.50383333333335</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>39</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4857,27 @@
         <v>34624.9886</v>
       </c>
       <c r="G110" t="n">
+        <v>39.58266666666661</v>
+      </c>
+      <c r="H110" t="n">
         <v>39.49400000000002</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>39</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4901,27 @@
         <v>50</v>
       </c>
       <c r="G111" t="n">
+        <v>39.55333333333328</v>
+      </c>
+      <c r="H111" t="n">
         <v>39.47850000000002</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>39</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4945,27 @@
         <v>1550.8483</v>
       </c>
       <c r="G112" t="n">
+        <v>39.53933333333328</v>
+      </c>
+      <c r="H112" t="n">
         <v>39.46116666666668</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>39</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +4989,27 @@
         <v>10372.5233</v>
       </c>
       <c r="G113" t="n">
+        <v>39.53199999999995</v>
+      </c>
+      <c r="H113" t="n">
         <v>39.44966666666668</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>39</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +5033,27 @@
         <v>4.277e-05</v>
       </c>
       <c r="G114" t="n">
+        <v>39.52466666666661</v>
+      </c>
+      <c r="H114" t="n">
         <v>39.44133333333335</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>39</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +5077,27 @@
         <v>12533.9684</v>
       </c>
       <c r="G115" t="n">
+        <v>39.54333333333328</v>
+      </c>
+      <c r="H115" t="n">
         <v>39.43800000000002</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>39</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +5121,27 @@
         <v>1764.8449</v>
       </c>
       <c r="G116" t="n">
+        <v>39.57066666666662</v>
+      </c>
+      <c r="H116" t="n">
         <v>39.43866666666668</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>39</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +5165,27 @@
         <v>101.8686</v>
       </c>
       <c r="G117" t="n">
+        <v>39.58733333333328</v>
+      </c>
+      <c r="H117" t="n">
         <v>39.44733333333335</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>39</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +5209,27 @@
         <v>917.149</v>
       </c>
       <c r="G118" t="n">
+        <v>39.60999999999994</v>
+      </c>
+      <c r="H118" t="n">
         <v>39.45450000000002</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>39</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +5253,27 @@
         <v>921.5936</v>
       </c>
       <c r="G119" t="n">
+        <v>39.63733333333328</v>
+      </c>
+      <c r="H119" t="n">
         <v>39.46250000000002</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>39</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +5297,27 @@
         <v>6791.1741</v>
       </c>
       <c r="G120" t="n">
+        <v>39.67399999999996</v>
+      </c>
+      <c r="H120" t="n">
         <v>39.47450000000003</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>39</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +5341,27 @@
         <v>10868.6756</v>
       </c>
       <c r="G121" t="n">
+        <v>39.70466666666663</v>
+      </c>
+      <c r="H121" t="n">
         <v>39.48683333333337</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>39</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5385,27 @@
         <v>10093.5518</v>
       </c>
       <c r="G122" t="n">
+        <v>39.74466666666662</v>
+      </c>
+      <c r="H122" t="n">
         <v>39.50616666666669</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>39</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5429,27 @@
         <v>178.1961</v>
       </c>
       <c r="G123" t="n">
+        <v>39.79266666666663</v>
+      </c>
+      <c r="H123" t="n">
         <v>39.5226666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>39</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5473,27 @@
         <v>3190.9572</v>
       </c>
       <c r="G124" t="n">
+        <v>39.85666666666663</v>
+      </c>
+      <c r="H124" t="n">
         <v>39.54000000000003</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>39</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5517,27 @@
         <v>56253.3023</v>
       </c>
       <c r="G125" t="n">
+        <v>39.92066666666663</v>
+      </c>
+      <c r="H125" t="n">
         <v>39.56266666666669</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>39</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5561,27 @@
         <v>17616.9571</v>
       </c>
       <c r="G126" t="n">
+        <v>39.99866666666663</v>
+      </c>
+      <c r="H126" t="n">
         <v>39.58550000000002</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>39</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5605,27 @@
         <v>2207.6622</v>
       </c>
       <c r="G127" t="n">
+        <v>40.06599999999996</v>
+      </c>
+      <c r="H127" t="n">
         <v>39.60250000000003</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>39</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5649,27 @@
         <v>1624.2417</v>
       </c>
       <c r="G128" t="n">
+        <v>40.1333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>39.62266666666669</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>39</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5693,27 @@
         <v>20962.2274</v>
       </c>
       <c r="G129" t="n">
+        <v>40.20066666666663</v>
+      </c>
+      <c r="H129" t="n">
         <v>39.64466666666669</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>39</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5737,27 @@
         <v>81.85290000000001</v>
       </c>
       <c r="G130" t="n">
+        <v>40.25599999999996</v>
+      </c>
+      <c r="H130" t="n">
         <v>39.67300000000003</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>39</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5781,27 @@
         <v>170.3539</v>
       </c>
       <c r="G131" t="n">
+        <v>40.30933333333329</v>
+      </c>
+      <c r="H131" t="n">
         <v>39.6951666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>39</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5825,27 @@
         <v>494.1589</v>
       </c>
       <c r="G132" t="n">
+        <v>40.36733333333329</v>
+      </c>
+      <c r="H132" t="n">
         <v>39.71733333333336</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>39</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5869,27 @@
         <v>827.6673</v>
       </c>
       <c r="G133" t="n">
+        <v>40.40599999999996</v>
+      </c>
+      <c r="H133" t="n">
         <v>39.73700000000003</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>39</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5913,27 @@
         <v>3359.0878</v>
       </c>
       <c r="G134" t="n">
+        <v>40.43466666666663</v>
+      </c>
+      <c r="H134" t="n">
         <v>39.75666666666669</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>39</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5957,27 @@
         <v>20374.5089</v>
       </c>
       <c r="G135" t="n">
+        <v>40.44733333333329</v>
+      </c>
+      <c r="H135" t="n">
         <v>39.77466666666669</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>39</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +6001,27 @@
         <v>901.6179</v>
       </c>
       <c r="G136" t="n">
+        <v>40.44533333333329</v>
+      </c>
+      <c r="H136" t="n">
         <v>39.78766666666669</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>39</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +6045,27 @@
         <v>140</v>
       </c>
       <c r="G137" t="n">
+        <v>40.45999999999996</v>
+      </c>
+      <c r="H137" t="n">
         <v>39.80716666666669</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>39</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +6089,27 @@
         <v>32000</v>
       </c>
       <c r="G138" t="n">
+        <v>40.47466666666663</v>
+      </c>
+      <c r="H138" t="n">
         <v>39.83016666666669</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>39</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +6133,413 @@
         <v>8810.4503</v>
       </c>
       <c r="G139" t="n">
+        <v>40.48999999999997</v>
+      </c>
+      <c r="H139" t="n">
         <v>39.84983333333335</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>39</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="C140" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>28.2844</v>
+      </c>
+      <c r="G140" t="n">
+        <v>40.51866666666663</v>
+      </c>
+      <c r="H140" t="n">
+        <v>39.87300000000003</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>39</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>1.041153846153846</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="C141" t="n">
+        <v>40.61</v>
+      </c>
+      <c r="D141" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="E141" t="n">
+        <v>40.61</v>
+      </c>
+      <c r="F141" t="n">
+        <v>19654.6911</v>
+      </c>
+      <c r="G141" t="n">
+        <v>40.53466666666663</v>
+      </c>
+      <c r="H141" t="n">
+        <v>39.89583333333336</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C142" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E142" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>18312.6911</v>
+      </c>
+      <c r="G142" t="n">
+        <v>40.53999999999996</v>
+      </c>
+      <c r="H142" t="n">
+        <v>39.91433333333337</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="C143" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="D143" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="E143" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="F143" t="n">
+        <v>286.9836</v>
+      </c>
+      <c r="G143" t="n">
+        <v>40.5553333333333</v>
+      </c>
+      <c r="H143" t="n">
+        <v>39.93550000000003</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F144" t="n">
+        <v>600.5829</v>
+      </c>
+      <c r="G144" t="n">
+        <v>40.57399999999997</v>
+      </c>
+      <c r="H144" t="n">
+        <v>39.95983333333336</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="C145" t="n">
+        <v>40.53</v>
+      </c>
+      <c r="D145" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="E145" t="n">
+        <v>40.53</v>
+      </c>
+      <c r="F145" t="n">
+        <v>3158.2957</v>
+      </c>
+      <c r="G145" t="n">
+        <v>40.5673333333333</v>
+      </c>
+      <c r="H145" t="n">
+        <v>39.98100000000003</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>40.67</v>
+      </c>
+      <c r="C146" t="n">
+        <v>40.67</v>
+      </c>
+      <c r="D146" t="n">
+        <v>40.67</v>
+      </c>
+      <c r="E146" t="n">
+        <v>40.67</v>
+      </c>
+      <c r="F146" t="n">
+        <v>200</v>
+      </c>
+      <c r="G146" t="n">
+        <v>40.56999999999996</v>
+      </c>
+      <c r="H146" t="n">
+        <v>40.00183333333337</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="C147" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D147" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="E147" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>568.2486</v>
+      </c>
+      <c r="G147" t="n">
+        <v>40.56999999999996</v>
+      </c>
+      <c r="H147" t="n">
+        <v>40.0231666666667</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="C148" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="D148" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="E148" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="F148" t="n">
+        <v>216.4273</v>
+      </c>
+      <c r="G148" t="n">
+        <v>40.58799999999997</v>
+      </c>
+      <c r="H148" t="n">
+        <v>40.04566666666669</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>40.98</v>
+      </c>
+      <c r="C149" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="D149" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>40.98</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2450</v>
+      </c>
+      <c r="G149" t="n">
+        <v>40.62799999999996</v>
+      </c>
+      <c r="H149" t="n">
+        <v>40.07366666666669</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest XEM.xlsx
+++ b/BackTest/2020-01-16 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>40.61</v>
+        <v>39.45</v>
       </c>
       <c r="C2" t="n">
-        <v>40.6</v>
+        <v>39.45</v>
       </c>
       <c r="D2" t="n">
-        <v>40.61</v>
+        <v>39.45</v>
       </c>
       <c r="E2" t="n">
-        <v>40.5</v>
+        <v>39.45</v>
       </c>
       <c r="F2" t="n">
-        <v>86270.77692906</v>
+        <v>1114</v>
       </c>
       <c r="G2" t="n">
-        <v>40.62866666666662</v>
+        <v>-158547.5467287901</v>
       </c>
       <c r="H2" t="n">
-        <v>39.94233333333337</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40.6</v>
+        <v>39.47</v>
       </c>
       <c r="C3" t="n">
-        <v>40.47</v>
+        <v>39.46</v>
       </c>
       <c r="D3" t="n">
-        <v>40.6</v>
+        <v>39.47</v>
       </c>
       <c r="E3" t="n">
-        <v>40.47</v>
+        <v>39.46</v>
       </c>
       <c r="F3" t="n">
-        <v>61691</v>
+        <v>9052.911899999999</v>
       </c>
       <c r="G3" t="n">
-        <v>40.63066666666662</v>
+        <v>-149494.6348287901</v>
       </c>
       <c r="H3" t="n">
-        <v>39.96533333333336</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40.47</v>
+        <v>39.45</v>
       </c>
       <c r="C4" t="n">
-        <v>40.47</v>
+        <v>38.85</v>
       </c>
       <c r="D4" t="n">
-        <v>40.47</v>
+        <v>39.45</v>
       </c>
       <c r="E4" t="n">
-        <v>40.15</v>
+        <v>38.85</v>
       </c>
       <c r="F4" t="n">
-        <v>143171.9502</v>
+        <v>28182.9198</v>
       </c>
       <c r="G4" t="n">
-        <v>40.64866666666662</v>
+        <v>-177677.5546287901</v>
       </c>
       <c r="H4" t="n">
-        <v>39.98850000000003</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40.25</v>
+        <v>39.65</v>
       </c>
       <c r="C5" t="n">
-        <v>40.25</v>
+        <v>39.65</v>
       </c>
       <c r="D5" t="n">
-        <v>40.25</v>
+        <v>39.65</v>
       </c>
       <c r="E5" t="n">
-        <v>40.25</v>
+        <v>39.65</v>
       </c>
       <c r="F5" t="n">
-        <v>576.5519</v>
+        <v>360</v>
       </c>
       <c r="G5" t="n">
-        <v>40.61999999999996</v>
+        <v>-177317.5546287901</v>
       </c>
       <c r="H5" t="n">
-        <v>40.00700000000003</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40.22</v>
+        <v>39.59</v>
       </c>
       <c r="C6" t="n">
-        <v>40.22</v>
+        <v>39.52</v>
       </c>
       <c r="D6" t="n">
-        <v>40.22</v>
+        <v>39.59</v>
       </c>
       <c r="E6" t="n">
-        <v>40.22</v>
+        <v>39.52</v>
       </c>
       <c r="F6" t="n">
-        <v>438.6667</v>
+        <v>37000</v>
       </c>
       <c r="G6" t="n">
-        <v>40.59066666666663</v>
+        <v>-214317.5546287901</v>
       </c>
       <c r="H6" t="n">
-        <v>40.02483333333336</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40.47</v>
+        <v>39.65</v>
       </c>
       <c r="C7" t="n">
-        <v>40.61</v>
+        <v>39.81</v>
       </c>
       <c r="D7" t="n">
-        <v>40.61</v>
+        <v>39.81</v>
       </c>
       <c r="E7" t="n">
-        <v>40.47</v>
+        <v>39.65</v>
       </c>
       <c r="F7" t="n">
-        <v>2962.9188</v>
+        <v>7948.1472</v>
       </c>
       <c r="G7" t="n">
-        <v>40.5893333333333</v>
+        <v>-206369.4074287901</v>
       </c>
       <c r="H7" t="n">
-        <v>40.04916666666669</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.61</v>
+        <v>40.14</v>
       </c>
       <c r="C8" t="n">
-        <v>40.11</v>
+        <v>40.34</v>
       </c>
       <c r="D8" t="n">
-        <v>40.61</v>
+        <v>40.43</v>
       </c>
       <c r="E8" t="n">
-        <v>40.11</v>
+        <v>40.14</v>
       </c>
       <c r="F8" t="n">
-        <v>134594.7654</v>
+        <v>24460.2791</v>
       </c>
       <c r="G8" t="n">
-        <v>40.56999999999996</v>
+        <v>-181909.1283287901</v>
       </c>
       <c r="H8" t="n">
-        <v>40.06516666666669</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40.51</v>
+        <v>40.12</v>
       </c>
       <c r="C9" t="n">
-        <v>40.49</v>
+        <v>40.12</v>
       </c>
       <c r="D9" t="n">
-        <v>40.51</v>
+        <v>40.12</v>
       </c>
       <c r="E9" t="n">
-        <v>40.4</v>
+        <v>40.12</v>
       </c>
       <c r="F9" t="n">
-        <v>18398.418</v>
+        <v>510.8382</v>
       </c>
       <c r="G9" t="n">
-        <v>40.57599999999997</v>
+        <v>-182419.9665287901</v>
       </c>
       <c r="H9" t="n">
-        <v>40.08683333333336</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>40.28</v>
+        <v>40.2</v>
       </c>
       <c r="C10" t="n">
-        <v>40.27</v>
+        <v>40.2</v>
       </c>
       <c r="D10" t="n">
-        <v>40.29</v>
+        <v>40.2</v>
       </c>
       <c r="E10" t="n">
-        <v>40.27</v>
+        <v>40.2</v>
       </c>
       <c r="F10" t="n">
-        <v>54422.953</v>
+        <v>11427.9936</v>
       </c>
       <c r="G10" t="n">
-        <v>40.5673333333333</v>
+        <v>-170991.9729287901</v>
       </c>
       <c r="H10" t="n">
-        <v>40.10483333333335</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>40.28</v>
+        <v>40.2</v>
       </c>
       <c r="C11" t="n">
-        <v>40.28</v>
+        <v>40.2</v>
       </c>
       <c r="D11" t="n">
-        <v>40.28</v>
+        <v>40.2</v>
       </c>
       <c r="E11" t="n">
-        <v>40.28</v>
+        <v>40.2</v>
       </c>
       <c r="F11" t="n">
-        <v>2075.1618</v>
+        <v>1800</v>
       </c>
       <c r="G11" t="n">
-        <v>40.5693333333333</v>
+        <v>-170991.9729287901</v>
       </c>
       <c r="H11" t="n">
-        <v>40.12250000000003</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>40.29</v>
+        <v>40.44</v>
       </c>
       <c r="C12" t="n">
-        <v>40.29</v>
+        <v>40.44</v>
       </c>
       <c r="D12" t="n">
-        <v>40.29</v>
+        <v>40.44</v>
       </c>
       <c r="E12" t="n">
-        <v>40.29</v>
+        <v>40.44</v>
       </c>
       <c r="F12" t="n">
-        <v>9723.917100000001</v>
+        <v>5163.0749</v>
       </c>
       <c r="G12" t="n">
-        <v>40.4893333333333</v>
+        <v>-165828.8980287901</v>
       </c>
       <c r="H12" t="n">
-        <v>40.13900000000002</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>40.29</v>
+        <v>40.44</v>
       </c>
       <c r="C13" t="n">
-        <v>40.29</v>
+        <v>40.44</v>
       </c>
       <c r="D13" t="n">
-        <v>40.29</v>
+        <v>40.44</v>
       </c>
       <c r="E13" t="n">
-        <v>40.29</v>
+        <v>40.44</v>
       </c>
       <c r="F13" t="n">
-        <v>1298.0172</v>
+        <v>686.5986</v>
       </c>
       <c r="G13" t="n">
-        <v>40.43999999999996</v>
+        <v>-165828.8980287901</v>
       </c>
       <c r="H13" t="n">
-        <v>40.15233333333336</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40.28</v>
+        <v>40.48</v>
       </c>
       <c r="C14" t="n">
-        <v>40.28</v>
+        <v>40.69</v>
       </c>
       <c r="D14" t="n">
-        <v>40.28</v>
+        <v>40.69</v>
       </c>
       <c r="E14" t="n">
-        <v>40.28</v>
+        <v>40.48</v>
       </c>
       <c r="F14" t="n">
-        <v>9543.8631</v>
+        <v>32974.8565</v>
       </c>
       <c r="G14" t="n">
-        <v>40.39666666666663</v>
+        <v>-132854.0415287901</v>
       </c>
       <c r="H14" t="n">
-        <v>40.16383333333336</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40.3</v>
+        <v>40.64</v>
       </c>
       <c r="C15" t="n">
-        <v>40.3</v>
+        <v>40.68</v>
       </c>
       <c r="D15" t="n">
-        <v>40.3</v>
+        <v>40.68</v>
       </c>
       <c r="E15" t="n">
-        <v>40.3</v>
+        <v>40.64</v>
       </c>
       <c r="F15" t="n">
-        <v>1838.3571</v>
+        <v>5665.3891</v>
       </c>
       <c r="G15" t="n">
-        <v>40.36933333333329</v>
+        <v>-138519.4306287901</v>
       </c>
       <c r="H15" t="n">
-        <v>40.17400000000003</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>40.29</v>
+        <v>40.5</v>
       </c>
       <c r="C16" t="n">
-        <v>40.29</v>
+        <v>40.5</v>
       </c>
       <c r="D16" t="n">
-        <v>40.29</v>
+        <v>40.5</v>
       </c>
       <c r="E16" t="n">
-        <v>40.29</v>
+        <v>40.5</v>
       </c>
       <c r="F16" t="n">
-        <v>3096</v>
+        <v>837.5477</v>
       </c>
       <c r="G16" t="n">
-        <v>40.34799999999996</v>
+        <v>-139356.9783287901</v>
       </c>
       <c r="H16" t="n">
-        <v>40.18400000000003</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>40.29</v>
+        <v>40.44</v>
       </c>
       <c r="C17" t="n">
-        <v>40.29</v>
+        <v>40.44</v>
       </c>
       <c r="D17" t="n">
-        <v>40.29</v>
+        <v>40.44</v>
       </c>
       <c r="E17" t="n">
-        <v>40.29</v>
+        <v>40.44</v>
       </c>
       <c r="F17" t="n">
-        <v>3096</v>
+        <v>5764.8731</v>
       </c>
       <c r="G17" t="n">
-        <v>40.32733333333329</v>
+        <v>-145121.8514287901</v>
       </c>
       <c r="H17" t="n">
-        <v>40.19400000000003</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="C18" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="D18" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="E18" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="F18" t="n">
-        <v>136</v>
+        <v>1610.3168</v>
       </c>
       <c r="G18" t="n">
-        <v>40.31599999999995</v>
+        <v>-146732.1682287901</v>
       </c>
       <c r="H18" t="n">
-        <v>40.20416666666669</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>40.29</v>
+        <v>40.5</v>
       </c>
       <c r="C19" t="n">
-        <v>40.29</v>
+        <v>40.68</v>
       </c>
       <c r="D19" t="n">
-        <v>40.29</v>
+        <v>40.68</v>
       </c>
       <c r="E19" t="n">
-        <v>40.29</v>
+        <v>40.5</v>
       </c>
       <c r="F19" t="n">
-        <v>3096</v>
+        <v>33000</v>
       </c>
       <c r="G19" t="n">
-        <v>40.30399999999995</v>
+        <v>-113732.1682287901</v>
       </c>
       <c r="H19" t="n">
-        <v>40.21416666666669</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>40.29</v>
+        <v>40.66</v>
       </c>
       <c r="C20" t="n">
-        <v>40.29</v>
+        <v>40.66</v>
       </c>
       <c r="D20" t="n">
-        <v>40.29</v>
+        <v>40.66</v>
       </c>
       <c r="E20" t="n">
-        <v>40.29</v>
+        <v>40.66</v>
       </c>
       <c r="F20" t="n">
-        <v>825.5366</v>
+        <v>163.944909</v>
       </c>
       <c r="G20" t="n">
-        <v>40.30666666666661</v>
+        <v>-113896.1131377901</v>
       </c>
       <c r="H20" t="n">
-        <v>40.2241666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>40.13</v>
+        <v>40.63</v>
       </c>
       <c r="C21" t="n">
-        <v>39.99</v>
+        <v>40.63</v>
       </c>
       <c r="D21" t="n">
-        <v>40.13</v>
+        <v>40.63</v>
       </c>
       <c r="E21" t="n">
-        <v>39.99</v>
+        <v>40.63</v>
       </c>
       <c r="F21" t="n">
-        <v>3531.1215</v>
+        <v>5156.8212</v>
       </c>
       <c r="G21" t="n">
-        <v>40.29133333333327</v>
+        <v>-119052.9343377901</v>
       </c>
       <c r="H21" t="n">
-        <v>40.22916666666669</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>40.19</v>
+        <v>40.4</v>
       </c>
       <c r="C22" t="n">
-        <v>40.19</v>
+        <v>40.4</v>
       </c>
       <c r="D22" t="n">
-        <v>40.19</v>
+        <v>40.4</v>
       </c>
       <c r="E22" t="n">
-        <v>40.19</v>
+        <v>40.4</v>
       </c>
       <c r="F22" t="n">
-        <v>811.8513</v>
+        <v>1019.5092</v>
       </c>
       <c r="G22" t="n">
-        <v>40.26333333333327</v>
+        <v>-120072.4435377901</v>
       </c>
       <c r="H22" t="n">
-        <v>40.23616666666669</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>40.19</v>
+        <v>40.4</v>
       </c>
       <c r="C23" t="n">
-        <v>40.18</v>
+        <v>40.4</v>
       </c>
       <c r="D23" t="n">
-        <v>40.19</v>
+        <v>40.4</v>
       </c>
       <c r="E23" t="n">
-        <v>40.18</v>
+        <v>40.4</v>
       </c>
       <c r="F23" t="n">
-        <v>4180.6615</v>
+        <v>3546.048</v>
       </c>
       <c r="G23" t="n">
-        <v>40.26799999999993</v>
+        <v>-120072.4435377901</v>
       </c>
       <c r="H23" t="n">
-        <v>40.23300000000003</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>40.19</v>
+        <v>40.4</v>
       </c>
       <c r="C24" t="n">
-        <v>39.82</v>
+        <v>40.4</v>
       </c>
       <c r="D24" t="n">
-        <v>40.19</v>
+        <v>40.4</v>
       </c>
       <c r="E24" t="n">
-        <v>39.82</v>
+        <v>40.4</v>
       </c>
       <c r="F24" t="n">
-        <v>38335.7816</v>
+        <v>1069.6537</v>
       </c>
       <c r="G24" t="n">
-        <v>40.22333333333327</v>
+        <v>-120072.4435377901</v>
       </c>
       <c r="H24" t="n">
-        <v>40.23283333333336</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>40.19</v>
+        <v>40.4</v>
       </c>
       <c r="C25" t="n">
-        <v>40.2</v>
+        <v>40.25</v>
       </c>
       <c r="D25" t="n">
-        <v>40.2</v>
+        <v>40.4</v>
       </c>
       <c r="E25" t="n">
-        <v>40.19</v>
+        <v>40.25</v>
       </c>
       <c r="F25" t="n">
-        <v>4246.1647</v>
+        <v>11710.5827</v>
       </c>
       <c r="G25" t="n">
-        <v>40.21866666666661</v>
+        <v>-131783.0262377901</v>
       </c>
       <c r="H25" t="n">
-        <v>40.24050000000003</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>40.29</v>
+        <v>40.66</v>
       </c>
       <c r="C26" t="n">
-        <v>40.29</v>
+        <v>41.49</v>
       </c>
       <c r="D26" t="n">
-        <v>40.29</v>
+        <v>41.49</v>
       </c>
       <c r="E26" t="n">
-        <v>40.29</v>
+        <v>40.66</v>
       </c>
       <c r="F26" t="n">
-        <v>16695</v>
+        <v>87691.0344</v>
       </c>
       <c r="G26" t="n">
-        <v>40.21933333333327</v>
+        <v>-44091.99183779009</v>
       </c>
       <c r="H26" t="n">
-        <v>40.24983333333336</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40.29</v>
+        <v>41.48</v>
       </c>
       <c r="C27" t="n">
-        <v>40.29</v>
+        <v>41.03</v>
       </c>
       <c r="D27" t="n">
-        <v>40.29</v>
+        <v>41.49</v>
       </c>
       <c r="E27" t="n">
-        <v>40.29</v>
+        <v>40.93</v>
       </c>
       <c r="F27" t="n">
-        <v>6192</v>
+        <v>42831.2306</v>
       </c>
       <c r="G27" t="n">
-        <v>40.21933333333327</v>
+        <v>-86923.2224377901</v>
       </c>
       <c r="H27" t="n">
-        <v>40.25666666666669</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40.3</v>
+        <v>41</v>
       </c>
       <c r="C28" t="n">
-        <v>40.3</v>
+        <v>40.93</v>
       </c>
       <c r="D28" t="n">
-        <v>40.3</v>
+        <v>41</v>
       </c>
       <c r="E28" t="n">
-        <v>40.3</v>
+        <v>40.93</v>
       </c>
       <c r="F28" t="n">
-        <v>135.3292</v>
+        <v>86307.414</v>
       </c>
       <c r="G28" t="n">
-        <v>40.21999999999993</v>
+        <v>-173230.6364377901</v>
       </c>
       <c r="H28" t="n">
-        <v>40.26650000000003</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40.58</v>
+        <v>40.71</v>
       </c>
       <c r="C29" t="n">
-        <v>40.58</v>
+        <v>40.71</v>
       </c>
       <c r="D29" t="n">
-        <v>40.58</v>
+        <v>40.71</v>
       </c>
       <c r="E29" t="n">
-        <v>40.58</v>
+        <v>40.71</v>
       </c>
       <c r="F29" t="n">
-        <v>300</v>
+        <v>9374.0913</v>
       </c>
       <c r="G29" t="n">
-        <v>40.23999999999994</v>
+        <v>-182604.7277377901</v>
       </c>
       <c r="H29" t="n">
-        <v>40.27600000000002</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>40.59</v>
+        <v>40.7</v>
       </c>
       <c r="C30" t="n">
-        <v>40.59</v>
+        <v>40.61</v>
       </c>
       <c r="D30" t="n">
-        <v>40.59</v>
+        <v>40.7</v>
       </c>
       <c r="E30" t="n">
-        <v>40.59</v>
+        <v>40.61</v>
       </c>
       <c r="F30" t="n">
-        <v>2109.6862</v>
+        <v>11185.5661</v>
       </c>
       <c r="G30" t="n">
-        <v>40.25933333333328</v>
+        <v>-193790.2938377901</v>
       </c>
       <c r="H30" t="n">
-        <v>40.28766666666669</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1543,33 +1451,30 @@
         <v>40.61</v>
       </c>
       <c r="C31" t="n">
-        <v>40.63</v>
+        <v>40.6</v>
       </c>
       <c r="D31" t="n">
-        <v>40.63</v>
+        <v>40.61</v>
       </c>
       <c r="E31" t="n">
-        <v>40.61</v>
+        <v>40.5</v>
       </c>
       <c r="F31" t="n">
-        <v>4502.4575</v>
+        <v>86270.77692906</v>
       </c>
       <c r="G31" t="n">
-        <v>40.28199999999995</v>
+        <v>-280061.0707668501</v>
       </c>
       <c r="H31" t="n">
-        <v>40.30466666666669</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>40.64</v>
+        <v>40.6</v>
       </c>
       <c r="C32" t="n">
-        <v>40.64</v>
+        <v>40.47</v>
       </c>
       <c r="D32" t="n">
-        <v>40.64</v>
+        <v>40.6</v>
       </c>
       <c r="E32" t="n">
-        <v>40.64</v>
+        <v>40.47</v>
       </c>
       <c r="F32" t="n">
-        <v>276.1672</v>
+        <v>61691</v>
       </c>
       <c r="G32" t="n">
-        <v>40.30533333333328</v>
+        <v>-341752.0707668501</v>
       </c>
       <c r="H32" t="n">
-        <v>40.32116666666669</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>40.64</v>
+        <v>40.47</v>
       </c>
       <c r="C33" t="n">
-        <v>40.75</v>
+        <v>40.47</v>
       </c>
       <c r="D33" t="n">
-        <v>40.75</v>
+        <v>40.47</v>
       </c>
       <c r="E33" t="n">
-        <v>40.64</v>
+        <v>40.15</v>
       </c>
       <c r="F33" t="n">
-        <v>1015.4588</v>
+        <v>143171.9502</v>
       </c>
       <c r="G33" t="n">
-        <v>40.33533333333329</v>
+        <v>-341752.0707668501</v>
       </c>
       <c r="H33" t="n">
-        <v>40.34283333333336</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>40.86</v>
+        <v>40.25</v>
       </c>
       <c r="C34" t="n">
-        <v>40.86</v>
+        <v>40.25</v>
       </c>
       <c r="D34" t="n">
-        <v>40.86</v>
+        <v>40.25</v>
       </c>
       <c r="E34" t="n">
-        <v>40.86</v>
+        <v>40.25</v>
       </c>
       <c r="F34" t="n">
-        <v>13000.0438</v>
+        <v>576.5519</v>
       </c>
       <c r="G34" t="n">
-        <v>40.37333333333329</v>
+        <v>-342328.6226668502</v>
       </c>
       <c r="H34" t="n">
-        <v>40.36616666666669</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>40.86</v>
+        <v>40.22</v>
       </c>
       <c r="C35" t="n">
-        <v>40.86</v>
+        <v>40.22</v>
       </c>
       <c r="D35" t="n">
-        <v>40.86</v>
+        <v>40.22</v>
       </c>
       <c r="E35" t="n">
-        <v>40.86</v>
+        <v>40.22</v>
       </c>
       <c r="F35" t="n">
-        <v>2627.7883</v>
+        <v>438.6667</v>
       </c>
       <c r="G35" t="n">
-        <v>40.4113333333333</v>
+        <v>-342767.2893668502</v>
       </c>
       <c r="H35" t="n">
-        <v>40.3996666666667</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>40.86</v>
+        <v>40.47</v>
       </c>
       <c r="C36" t="n">
-        <v>40.86</v>
+        <v>40.61</v>
       </c>
       <c r="D36" t="n">
-        <v>40.86</v>
+        <v>40.61</v>
       </c>
       <c r="E36" t="n">
-        <v>40.86</v>
+        <v>40.47</v>
       </c>
       <c r="F36" t="n">
-        <v>18284.4853</v>
+        <v>2962.9188</v>
       </c>
       <c r="G36" t="n">
-        <v>40.4693333333333</v>
+        <v>-339804.3705668502</v>
       </c>
       <c r="H36" t="n">
-        <v>40.41983333333337</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>40.86</v>
+        <v>40.61</v>
       </c>
       <c r="C37" t="n">
-        <v>41</v>
+        <v>40.11</v>
       </c>
       <c r="D37" t="n">
-        <v>41</v>
+        <v>40.61</v>
       </c>
       <c r="E37" t="n">
-        <v>40.86</v>
+        <v>40.11</v>
       </c>
       <c r="F37" t="n">
-        <v>8265.8428</v>
+        <v>134594.7654</v>
       </c>
       <c r="G37" t="n">
-        <v>40.5233333333333</v>
+        <v>-474399.1359668502</v>
       </c>
       <c r="H37" t="n">
-        <v>40.44450000000003</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>40.99</v>
+        <v>40.51</v>
       </c>
       <c r="C38" t="n">
-        <v>41</v>
+        <v>40.49</v>
       </c>
       <c r="D38" t="n">
-        <v>41</v>
+        <v>40.51</v>
       </c>
       <c r="E38" t="n">
-        <v>40.99</v>
+        <v>40.4</v>
       </c>
       <c r="F38" t="n">
-        <v>9171.518099999999</v>
+        <v>18398.418</v>
       </c>
       <c r="G38" t="n">
-        <v>40.57799999999997</v>
+        <v>-456000.7179668502</v>
       </c>
       <c r="H38" t="n">
-        <v>40.46433333333336</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>41</v>
+        <v>40.28</v>
       </c>
       <c r="C39" t="n">
-        <v>41</v>
+        <v>40.27</v>
       </c>
       <c r="D39" t="n">
-        <v>41</v>
+        <v>40.29</v>
       </c>
       <c r="E39" t="n">
-        <v>41</v>
+        <v>40.27</v>
       </c>
       <c r="F39" t="n">
-        <v>5649.3255</v>
+        <v>54422.953</v>
       </c>
       <c r="G39" t="n">
-        <v>40.65666666666663</v>
+        <v>-510423.6709668502</v>
       </c>
       <c r="H39" t="n">
-        <v>40.47533333333336</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>41.1</v>
+        <v>40.28</v>
       </c>
       <c r="C40" t="n">
-        <v>41.1</v>
+        <v>40.28</v>
       </c>
       <c r="D40" t="n">
-        <v>41.1</v>
+        <v>40.28</v>
       </c>
       <c r="E40" t="n">
-        <v>41.1</v>
+        <v>40.28</v>
       </c>
       <c r="F40" t="n">
-        <v>135.15815085</v>
+        <v>2075.1618</v>
       </c>
       <c r="G40" t="n">
-        <v>40.71666666666663</v>
+        <v>-508348.5091668502</v>
       </c>
       <c r="H40" t="n">
-        <v>40.4916666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>41.1</v>
+        <v>40.29</v>
       </c>
       <c r="C41" t="n">
-        <v>41.1</v>
+        <v>40.29</v>
       </c>
       <c r="D41" t="n">
-        <v>41.1</v>
+        <v>40.29</v>
       </c>
       <c r="E41" t="n">
-        <v>41.1</v>
+        <v>40.29</v>
       </c>
       <c r="F41" t="n">
-        <v>108.12652068</v>
+        <v>9723.917100000001</v>
       </c>
       <c r="G41" t="n">
-        <v>40.77066666666664</v>
+        <v>-498624.5920668502</v>
       </c>
       <c r="H41" t="n">
-        <v>40.5066666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>41.1</v>
+        <v>40.29</v>
       </c>
       <c r="C42" t="n">
-        <v>41</v>
+        <v>40.29</v>
       </c>
       <c r="D42" t="n">
-        <v>41.1</v>
+        <v>40.29</v>
       </c>
       <c r="E42" t="n">
-        <v>41</v>
+        <v>40.29</v>
       </c>
       <c r="F42" t="n">
-        <v>836.7383</v>
+        <v>1298.0172</v>
       </c>
       <c r="G42" t="n">
-        <v>40.81799999999997</v>
+        <v>-498624.5920668502</v>
       </c>
       <c r="H42" t="n">
-        <v>40.52000000000003</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>1</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>40.86</v>
+        <v>40.28</v>
       </c>
       <c r="C43" t="n">
-        <v>40.86</v>
+        <v>40.28</v>
       </c>
       <c r="D43" t="n">
-        <v>40.86</v>
+        <v>40.28</v>
       </c>
       <c r="E43" t="n">
-        <v>40.86</v>
+        <v>40.28</v>
       </c>
       <c r="F43" t="n">
-        <v>9288</v>
+        <v>9543.8631</v>
       </c>
       <c r="G43" t="n">
-        <v>40.85533333333331</v>
+        <v>-508168.4551668502</v>
       </c>
       <c r="H43" t="n">
-        <v>40.52700000000004</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>40.86</v>
+        <v>40.3</v>
       </c>
       <c r="C44" t="n">
-        <v>40.86</v>
+        <v>40.3</v>
       </c>
       <c r="D44" t="n">
-        <v>40.86</v>
+        <v>40.3</v>
       </c>
       <c r="E44" t="n">
-        <v>40.86</v>
+        <v>40.3</v>
       </c>
       <c r="F44" t="n">
-        <v>9353.6602</v>
+        <v>1838.3571</v>
       </c>
       <c r="G44" t="n">
-        <v>40.87399999999997</v>
+        <v>-506330.0980668502</v>
       </c>
       <c r="H44" t="n">
-        <v>40.53400000000003</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>40.79</v>
+        <v>40.29</v>
       </c>
       <c r="C45" t="n">
-        <v>40.79</v>
+        <v>40.29</v>
       </c>
       <c r="D45" t="n">
-        <v>40.79</v>
+        <v>40.29</v>
       </c>
       <c r="E45" t="n">
-        <v>40.79</v>
+        <v>40.29</v>
       </c>
       <c r="F45" t="n">
-        <v>28646.7454</v>
+        <v>3096</v>
       </c>
       <c r="G45" t="n">
-        <v>40.8873333333333</v>
+        <v>-509426.0980668502</v>
       </c>
       <c r="H45" t="n">
-        <v>40.5356666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>40.41</v>
+        <v>40.29</v>
       </c>
       <c r="C46" t="n">
-        <v>40.41</v>
+        <v>40.29</v>
       </c>
       <c r="D46" t="n">
-        <v>40.41</v>
+        <v>40.29</v>
       </c>
       <c r="E46" t="n">
-        <v>40.41</v>
+        <v>40.29</v>
       </c>
       <c r="F46" t="n">
-        <v>127.561</v>
+        <v>3096</v>
       </c>
       <c r="G46" t="n">
-        <v>40.87266666666663</v>
+        <v>-509426.0980668502</v>
       </c>
       <c r="H46" t="n">
-        <v>40.5311666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>40.41</v>
+        <v>40.3</v>
       </c>
       <c r="C47" t="n">
-        <v>40.41</v>
+        <v>40.3</v>
       </c>
       <c r="D47" t="n">
-        <v>40.41</v>
+        <v>40.3</v>
       </c>
       <c r="E47" t="n">
-        <v>40.41</v>
+        <v>40.3</v>
       </c>
       <c r="F47" t="n">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="G47" t="n">
-        <v>40.85733333333329</v>
+        <v>-509290.0980668502</v>
       </c>
       <c r="H47" t="n">
-        <v>40.5296666666667</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>40.41</v>
+        <v>40.29</v>
       </c>
       <c r="C48" t="n">
-        <v>40</v>
+        <v>40.29</v>
       </c>
       <c r="D48" t="n">
-        <v>40.41</v>
+        <v>40.29</v>
       </c>
       <c r="E48" t="n">
-        <v>40</v>
+        <v>40.29</v>
       </c>
       <c r="F48" t="n">
-        <v>1496.3215</v>
+        <v>3096</v>
       </c>
       <c r="G48" t="n">
-        <v>40.8073333333333</v>
+        <v>-512386.0980668502</v>
       </c>
       <c r="H48" t="n">
-        <v>40.52233333333336</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>39.94</v>
+        <v>40.29</v>
       </c>
       <c r="C49" t="n">
-        <v>40</v>
+        <v>40.29</v>
       </c>
       <c r="D49" t="n">
-        <v>40</v>
+        <v>40.29</v>
       </c>
       <c r="E49" t="n">
-        <v>39.94</v>
+        <v>40.29</v>
       </c>
       <c r="F49" t="n">
-        <v>25120.5468</v>
+        <v>825.5366</v>
       </c>
       <c r="G49" t="n">
-        <v>40.74999999999996</v>
+        <v>-512386.0980668502</v>
       </c>
       <c r="H49" t="n">
-        <v>40.51900000000003</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>40</v>
+        <v>40.13</v>
       </c>
       <c r="C50" t="n">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="D50" t="n">
-        <v>40</v>
+        <v>40.13</v>
       </c>
       <c r="E50" t="n">
-        <v>40</v>
+        <v>39.99</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0001</v>
+        <v>3531.1215</v>
       </c>
       <c r="G50" t="n">
-        <v>40.69266666666663</v>
+        <v>-515917.2195668502</v>
       </c>
       <c r="H50" t="n">
-        <v>40.50766666666671</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>1</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>40.13</v>
+        <v>40.19</v>
       </c>
       <c r="C51" t="n">
-        <v>40.13</v>
+        <v>40.19</v>
       </c>
       <c r="D51" t="n">
-        <v>40.13</v>
+        <v>40.19</v>
       </c>
       <c r="E51" t="n">
-        <v>40.13</v>
+        <v>40.19</v>
       </c>
       <c r="F51" t="n">
-        <v>30</v>
+        <v>811.8513</v>
       </c>
       <c r="G51" t="n">
-        <v>40.64399999999996</v>
+        <v>-515105.3682668502</v>
       </c>
       <c r="H51" t="n">
-        <v>40.49883333333337</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>40.45</v>
+        <v>40.19</v>
       </c>
       <c r="C52" t="n">
-        <v>40.45</v>
+        <v>40.18</v>
       </c>
       <c r="D52" t="n">
-        <v>40.45</v>
+        <v>40.19</v>
       </c>
       <c r="E52" t="n">
-        <v>40.45</v>
+        <v>40.18</v>
       </c>
       <c r="F52" t="n">
-        <v>222.00247218</v>
+        <v>4180.6615</v>
       </c>
       <c r="G52" t="n">
-        <v>40.60733333333329</v>
+        <v>-519286.0297668502</v>
       </c>
       <c r="H52" t="n">
-        <v>40.49583333333337</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>40.11</v>
+        <v>40.19</v>
       </c>
       <c r="C53" t="n">
-        <v>40.1</v>
+        <v>39.82</v>
       </c>
       <c r="D53" t="n">
-        <v>40.11</v>
+        <v>40.19</v>
       </c>
       <c r="E53" t="n">
-        <v>40.1</v>
+        <v>39.82</v>
       </c>
       <c r="F53" t="n">
-        <v>1241.7296</v>
+        <v>38335.7816</v>
       </c>
       <c r="G53" t="n">
-        <v>40.5473333333333</v>
+        <v>-557621.8113668502</v>
       </c>
       <c r="H53" t="n">
-        <v>40.49083333333337</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>39.91</v>
+        <v>40.19</v>
       </c>
       <c r="C54" t="n">
-        <v>39.91</v>
+        <v>40.2</v>
       </c>
       <c r="D54" t="n">
-        <v>39.91</v>
+        <v>40.2</v>
       </c>
       <c r="E54" t="n">
-        <v>39.91</v>
+        <v>40.19</v>
       </c>
       <c r="F54" t="n">
-        <v>77.2388</v>
+        <v>4246.1647</v>
       </c>
       <c r="G54" t="n">
-        <v>40.47466666666663</v>
+        <v>-553375.6466668502</v>
       </c>
       <c r="H54" t="n">
-        <v>40.4826666666667</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>40</v>
+        <v>40.29</v>
       </c>
       <c r="C55" t="n">
-        <v>40</v>
+        <v>40.29</v>
       </c>
       <c r="D55" t="n">
-        <v>40</v>
+        <v>40.29</v>
       </c>
       <c r="E55" t="n">
-        <v>40</v>
+        <v>40.29</v>
       </c>
       <c r="F55" t="n">
-        <v>23035.0388</v>
+        <v>16695</v>
       </c>
       <c r="G55" t="n">
-        <v>40.40133333333329</v>
+        <v>-536680.6466668502</v>
       </c>
       <c r="H55" t="n">
-        <v>40.47600000000003</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>40</v>
+        <v>40.29</v>
       </c>
       <c r="C56" t="n">
-        <v>39.79</v>
+        <v>40.29</v>
       </c>
       <c r="D56" t="n">
-        <v>40</v>
+        <v>40.29</v>
       </c>
       <c r="E56" t="n">
-        <v>39.79</v>
+        <v>40.29</v>
       </c>
       <c r="F56" t="n">
-        <v>20190.4425</v>
+        <v>6192</v>
       </c>
       <c r="G56" t="n">
-        <v>40.31399999999996</v>
+        <v>-536680.6466668502</v>
       </c>
       <c r="H56" t="n">
-        <v>40.46833333333336</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>39.65</v>
+        <v>40.3</v>
       </c>
       <c r="C57" t="n">
-        <v>39.31</v>
+        <v>40.3</v>
       </c>
       <c r="D57" t="n">
-        <v>39.65</v>
+        <v>40.3</v>
       </c>
       <c r="E57" t="n">
-        <v>39.31</v>
+        <v>40.3</v>
       </c>
       <c r="F57" t="n">
-        <v>84865.18120000001</v>
+        <v>135.3292</v>
       </c>
       <c r="G57" t="n">
-        <v>40.20133333333329</v>
+        <v>-536545.3174668502</v>
       </c>
       <c r="H57" t="n">
-        <v>40.43200000000003</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>39.49</v>
+        <v>40.58</v>
       </c>
       <c r="C58" t="n">
-        <v>39.49</v>
+        <v>40.58</v>
       </c>
       <c r="D58" t="n">
-        <v>39.49</v>
+        <v>40.58</v>
       </c>
       <c r="E58" t="n">
-        <v>39.49</v>
+        <v>40.58</v>
       </c>
       <c r="F58" t="n">
-        <v>1010</v>
+        <v>300</v>
       </c>
       <c r="G58" t="n">
-        <v>40.10999999999995</v>
+        <v>-536245.3174668502</v>
       </c>
       <c r="H58" t="n">
-        <v>40.40633333333336</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>39.49</v>
+        <v>40.59</v>
       </c>
       <c r="C59" t="n">
-        <v>39.59</v>
+        <v>40.59</v>
       </c>
       <c r="D59" t="n">
-        <v>39.59</v>
+        <v>40.59</v>
       </c>
       <c r="E59" t="n">
-        <v>39.49</v>
+        <v>40.59</v>
       </c>
       <c r="F59" t="n">
-        <v>2846.5479</v>
+        <v>2109.6862</v>
       </c>
       <c r="G59" t="n">
-        <v>40.02533333333329</v>
+        <v>-534135.6312668502</v>
       </c>
       <c r="H59" t="n">
-        <v>40.38400000000003</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>39.49</v>
+        <v>40.61</v>
       </c>
       <c r="C60" t="n">
-        <v>39.49</v>
+        <v>40.63</v>
       </c>
       <c r="D60" t="n">
-        <v>39.49</v>
+        <v>40.63</v>
       </c>
       <c r="E60" t="n">
-        <v>39.49</v>
+        <v>40.61</v>
       </c>
       <c r="F60" t="n">
-        <v>1166.3499</v>
+        <v>4502.4575</v>
       </c>
       <c r="G60" t="n">
-        <v>39.93866666666663</v>
+        <v>-529633.1737668501</v>
       </c>
       <c r="H60" t="n">
-        <v>40.3636666666667</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>39.4</v>
+        <v>40.64</v>
       </c>
       <c r="C61" t="n">
-        <v>39.49</v>
+        <v>40.64</v>
       </c>
       <c r="D61" t="n">
-        <v>39.49</v>
+        <v>40.64</v>
       </c>
       <c r="E61" t="n">
-        <v>39.4</v>
+        <v>40.64</v>
       </c>
       <c r="F61" t="n">
-        <v>3251.7122</v>
+        <v>276.1672</v>
       </c>
       <c r="G61" t="n">
-        <v>39.87733333333329</v>
+        <v>-529357.0065668501</v>
       </c>
       <c r="H61" t="n">
-        <v>40.34500000000002</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>39.21</v>
+        <v>40.64</v>
       </c>
       <c r="C62" t="n">
-        <v>39.21</v>
+        <v>40.75</v>
       </c>
       <c r="D62" t="n">
-        <v>39.21</v>
+        <v>40.75</v>
       </c>
       <c r="E62" t="n">
-        <v>39.21</v>
+        <v>40.64</v>
       </c>
       <c r="F62" t="n">
-        <v>4599.8947</v>
+        <v>1015.4588</v>
       </c>
       <c r="G62" t="n">
-        <v>39.7973333333333</v>
+        <v>-528341.5477668501</v>
       </c>
       <c r="H62" t="n">
-        <v>40.32183333333335</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>39.39</v>
+        <v>40.86</v>
       </c>
       <c r="C63" t="n">
-        <v>39.39</v>
+        <v>40.86</v>
       </c>
       <c r="D63" t="n">
-        <v>39.39</v>
+        <v>40.86</v>
       </c>
       <c r="E63" t="n">
-        <v>39.39</v>
+        <v>40.86</v>
       </c>
       <c r="F63" t="n">
-        <v>790.9569</v>
+        <v>13000.0438</v>
       </c>
       <c r="G63" t="n">
-        <v>39.75666666666663</v>
+        <v>-515341.5039668501</v>
       </c>
       <c r="H63" t="n">
-        <v>40.30383333333336</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>39.33</v>
+        <v>40.86</v>
       </c>
       <c r="C64" t="n">
-        <v>39.33</v>
+        <v>40.86</v>
       </c>
       <c r="D64" t="n">
-        <v>39.33</v>
+        <v>40.86</v>
       </c>
       <c r="E64" t="n">
-        <v>39.33</v>
+        <v>40.86</v>
       </c>
       <c r="F64" t="n">
-        <v>11933.2538</v>
+        <v>2627.7883</v>
       </c>
       <c r="G64" t="n">
-        <v>39.71199999999997</v>
+        <v>-515341.5039668501</v>
       </c>
       <c r="H64" t="n">
-        <v>40.28483333333336</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>39.01</v>
+        <v>40.86</v>
       </c>
       <c r="C65" t="n">
-        <v>39.01</v>
+        <v>40.86</v>
       </c>
       <c r="D65" t="n">
-        <v>39.01</v>
+        <v>40.86</v>
       </c>
       <c r="E65" t="n">
-        <v>39.01</v>
+        <v>40.86</v>
       </c>
       <c r="F65" t="n">
-        <v>106.2698</v>
+        <v>18284.4853</v>
       </c>
       <c r="G65" t="n">
-        <v>39.64599999999997</v>
+        <v>-515341.5039668501</v>
       </c>
       <c r="H65" t="n">
-        <v>40.2641666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>39</v>
+        <v>40.86</v>
       </c>
       <c r="C66" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D66" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E66" t="n">
-        <v>39</v>
+        <v>40.86</v>
       </c>
       <c r="F66" t="n">
-        <v>593.7302</v>
+        <v>8265.8428</v>
       </c>
       <c r="G66" t="n">
-        <v>39.57066666666663</v>
+        <v>-507075.6611668501</v>
       </c>
       <c r="H66" t="n">
-        <v>40.24383333333336</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,40 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>39.4</v>
+        <v>40.99</v>
       </c>
       <c r="C67" t="n">
-        <v>39.4</v>
+        <v>41</v>
       </c>
       <c r="D67" t="n">
-        <v>39.4</v>
+        <v>41</v>
       </c>
       <c r="E67" t="n">
-        <v>39.4</v>
+        <v>40.99</v>
       </c>
       <c r="F67" t="n">
-        <v>405.8382</v>
+        <v>9171.518099999999</v>
       </c>
       <c r="G67" t="n">
-        <v>39.50066666666662</v>
+        <v>-507075.6611668501</v>
       </c>
       <c r="H67" t="n">
-        <v>40.22366666666669</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>39</v>
-      </c>
-      <c r="L67" t="n">
-        <v>39</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2950,42 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>39.3</v>
+        <v>41</v>
       </c>
       <c r="C68" t="n">
-        <v>39.21</v>
+        <v>41</v>
       </c>
       <c r="D68" t="n">
-        <v>39.3</v>
+        <v>41</v>
       </c>
       <c r="E68" t="n">
-        <v>39.21</v>
+        <v>41</v>
       </c>
       <c r="F68" t="n">
-        <v>8203</v>
+        <v>5649.3255</v>
       </c>
       <c r="G68" t="n">
-        <v>39.4413333333333</v>
+        <v>-507075.6611668501</v>
       </c>
       <c r="H68" t="n">
-        <v>40.20866666666669</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>39</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2994,42 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>39.1</v>
+        <v>41.1</v>
       </c>
       <c r="C69" t="n">
-        <v>39.1</v>
+        <v>41.1</v>
       </c>
       <c r="D69" t="n">
-        <v>39.1</v>
+        <v>41.1</v>
       </c>
       <c r="E69" t="n">
-        <v>39.1</v>
+        <v>41.1</v>
       </c>
       <c r="F69" t="n">
-        <v>850.9632</v>
+        <v>135.15815085</v>
       </c>
       <c r="G69" t="n">
-        <v>39.3873333333333</v>
+        <v>-506940.5030160001</v>
       </c>
       <c r="H69" t="n">
-        <v>40.18550000000003</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>39</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,44 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>39</v>
+        <v>41.1</v>
       </c>
       <c r="C70" t="n">
-        <v>38.93</v>
+        <v>41.1</v>
       </c>
       <c r="D70" t="n">
-        <v>39</v>
+        <v>41.1</v>
       </c>
       <c r="E70" t="n">
-        <v>38.93</v>
+        <v>41.1</v>
       </c>
       <c r="F70" t="n">
-        <v>5041.3508</v>
+        <v>108.12652068</v>
       </c>
       <c r="G70" t="n">
-        <v>39.31599999999996</v>
+        <v>-506940.5030160001</v>
       </c>
       <c r="H70" t="n">
-        <v>40.1631666666667</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>39</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3084,44 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>39.01</v>
+        <v>41.1</v>
       </c>
       <c r="C71" t="n">
-        <v>39.3</v>
+        <v>41</v>
       </c>
       <c r="D71" t="n">
-        <v>39.3</v>
+        <v>41.1</v>
       </c>
       <c r="E71" t="n">
-        <v>38.86</v>
+        <v>41</v>
       </c>
       <c r="F71" t="n">
-        <v>18195.5263</v>
+        <v>836.7383</v>
       </c>
       <c r="G71" t="n">
-        <v>39.2833333333333</v>
+        <v>-507777.2413160002</v>
       </c>
       <c r="H71" t="n">
-        <v>40.14683333333336</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>38.93</v>
-      </c>
-      <c r="L71" t="n">
-        <v>39</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,44 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>39.37</v>
+        <v>40.86</v>
       </c>
       <c r="C72" t="n">
-        <v>39.37</v>
+        <v>40.86</v>
       </c>
       <c r="D72" t="n">
-        <v>39.37</v>
+        <v>40.86</v>
       </c>
       <c r="E72" t="n">
-        <v>39.37</v>
+        <v>40.86</v>
       </c>
       <c r="F72" t="n">
-        <v>672.2988</v>
+        <v>9288</v>
       </c>
       <c r="G72" t="n">
-        <v>39.2873333333333</v>
+        <v>-517065.2413160002</v>
       </c>
       <c r="H72" t="n">
-        <v>40.13150000000003</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="L72" t="n">
-        <v>39</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3176,44 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>39.32</v>
+        <v>40.86</v>
       </c>
       <c r="C73" t="n">
-        <v>39.32</v>
+        <v>40.86</v>
       </c>
       <c r="D73" t="n">
-        <v>39.32</v>
+        <v>40.86</v>
       </c>
       <c r="E73" t="n">
-        <v>39.32</v>
+        <v>40.86</v>
       </c>
       <c r="F73" t="n">
-        <v>259.792</v>
+        <v>9353.6602</v>
       </c>
       <c r="G73" t="n">
-        <v>39.27599999999997</v>
+        <v>-517065.2413160002</v>
       </c>
       <c r="H73" t="n">
-        <v>40.11533333333337</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>39.37</v>
-      </c>
-      <c r="L73" t="n">
-        <v>39</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3222,44 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>39.32</v>
+        <v>40.79</v>
       </c>
       <c r="C74" t="n">
-        <v>39.32</v>
+        <v>40.79</v>
       </c>
       <c r="D74" t="n">
-        <v>39.32</v>
+        <v>40.79</v>
       </c>
       <c r="E74" t="n">
-        <v>39.32</v>
+        <v>40.79</v>
       </c>
       <c r="F74" t="n">
-        <v>94.2642</v>
+        <v>28646.7454</v>
       </c>
       <c r="G74" t="n">
-        <v>39.25799999999997</v>
+        <v>-545711.9867160001</v>
       </c>
       <c r="H74" t="n">
-        <v>40.09933333333336</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="L74" t="n">
-        <v>39</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,44 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>39.32</v>
+        <v>40.41</v>
       </c>
       <c r="C75" t="n">
-        <v>39.32</v>
+        <v>40.41</v>
       </c>
       <c r="D75" t="n">
-        <v>39.32</v>
+        <v>40.41</v>
       </c>
       <c r="E75" t="n">
-        <v>39.32</v>
+        <v>40.41</v>
       </c>
       <c r="F75" t="n">
-        <v>161.1918</v>
+        <v>127.561</v>
       </c>
       <c r="G75" t="n">
-        <v>39.24666666666664</v>
+        <v>-545839.5477160001</v>
       </c>
       <c r="H75" t="n">
-        <v>40.08300000000003</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="L75" t="n">
-        <v>39</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3314,42 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>39.42</v>
+        <v>40.41</v>
       </c>
       <c r="C76" t="n">
-        <v>39.42</v>
+        <v>40.41</v>
       </c>
       <c r="D76" t="n">
-        <v>39.42</v>
+        <v>40.41</v>
       </c>
       <c r="E76" t="n">
-        <v>39.42</v>
+        <v>40.41</v>
       </c>
       <c r="F76" t="n">
-        <v>14004.2012</v>
+        <v>157</v>
       </c>
       <c r="G76" t="n">
-        <v>39.24199999999997</v>
+        <v>-545839.5477160001</v>
       </c>
       <c r="H76" t="n">
-        <v>40.06850000000004</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>39</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3358,44 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>39.42</v>
+        <v>40.41</v>
       </c>
       <c r="C77" t="n">
-        <v>39.42</v>
+        <v>40</v>
       </c>
       <c r="D77" t="n">
-        <v>39.42</v>
+        <v>40.41</v>
       </c>
       <c r="E77" t="n">
-        <v>39.42</v>
+        <v>40</v>
       </c>
       <c r="F77" t="n">
-        <v>2439.7319</v>
+        <v>1496.3215</v>
       </c>
       <c r="G77" t="n">
-        <v>39.25599999999996</v>
+        <v>-547335.8692160001</v>
       </c>
       <c r="H77" t="n">
-        <v>40.05400000000004</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="L77" t="n">
-        <v>39</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,42 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>39.22</v>
+        <v>39.94</v>
       </c>
       <c r="C78" t="n">
-        <v>39.22</v>
+        <v>40</v>
       </c>
       <c r="D78" t="n">
-        <v>39.22</v>
+        <v>40</v>
       </c>
       <c r="E78" t="n">
-        <v>39.22</v>
+        <v>39.94</v>
       </c>
       <c r="F78" t="n">
-        <v>280.0012</v>
+        <v>25120.5468</v>
       </c>
       <c r="G78" t="n">
-        <v>39.24466666666663</v>
+        <v>-547335.8692160001</v>
       </c>
       <c r="H78" t="n">
-        <v>40.03600000000003</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>39</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3448,44 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>39.42</v>
+        <v>40</v>
       </c>
       <c r="C79" t="n">
-        <v>39.42</v>
+        <v>40</v>
       </c>
       <c r="D79" t="n">
-        <v>39.42</v>
+        <v>40</v>
       </c>
       <c r="E79" t="n">
-        <v>39.42</v>
+        <v>40</v>
       </c>
       <c r="F79" t="n">
-        <v>13941.1822</v>
+        <v>0.0001</v>
       </c>
       <c r="G79" t="n">
-        <v>39.25066666666662</v>
+        <v>-547335.8692160001</v>
       </c>
       <c r="H79" t="n">
-        <v>40.02150000000003</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>39.22</v>
-      </c>
-      <c r="L79" t="n">
-        <v>39</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,44 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>39.41</v>
+        <v>40.13</v>
       </c>
       <c r="C80" t="n">
-        <v>39.41</v>
+        <v>40.13</v>
       </c>
       <c r="D80" t="n">
-        <v>39.41</v>
+        <v>40.13</v>
       </c>
       <c r="E80" t="n">
-        <v>39.41</v>
+        <v>40.13</v>
       </c>
       <c r="F80" t="n">
-        <v>6911.4129</v>
+        <v>30</v>
       </c>
       <c r="G80" t="n">
-        <v>39.2773333333333</v>
+        <v>-547305.8692160001</v>
       </c>
       <c r="H80" t="n">
-        <v>40.00683333333336</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="L80" t="n">
-        <v>39</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3540,44 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>39.24</v>
+        <v>40.45</v>
       </c>
       <c r="C81" t="n">
-        <v>39.24</v>
+        <v>40.45</v>
       </c>
       <c r="D81" t="n">
-        <v>39.24</v>
+        <v>40.45</v>
       </c>
       <c r="E81" t="n">
-        <v>39.24</v>
+        <v>40.45</v>
       </c>
       <c r="F81" t="n">
-        <v>151.5414</v>
+        <v>222.00247218</v>
       </c>
       <c r="G81" t="n">
-        <v>39.29333333333329</v>
+        <v>-547083.8667438201</v>
       </c>
       <c r="H81" t="n">
-        <v>39.99433333333336</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="L81" t="n">
-        <v>39</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3586,44 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>39.39</v>
+        <v>40.11</v>
       </c>
       <c r="C82" t="n">
-        <v>39.39</v>
+        <v>40.1</v>
       </c>
       <c r="D82" t="n">
-        <v>39.39</v>
+        <v>40.11</v>
       </c>
       <c r="E82" t="n">
-        <v>39.39</v>
+        <v>40.1</v>
       </c>
       <c r="F82" t="n">
-        <v>787.8632</v>
+        <v>1241.7296</v>
       </c>
       <c r="G82" t="n">
-        <v>39.29266666666663</v>
+        <v>-548325.5963438201</v>
       </c>
       <c r="H82" t="n">
-        <v>39.98100000000002</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="L82" t="n">
-        <v>39</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,44 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>39.38</v>
+        <v>39.91</v>
       </c>
       <c r="C83" t="n">
-        <v>39.38</v>
+        <v>39.91</v>
       </c>
       <c r="D83" t="n">
-        <v>39.38</v>
+        <v>39.91</v>
       </c>
       <c r="E83" t="n">
-        <v>39.38</v>
+        <v>39.91</v>
       </c>
       <c r="F83" t="n">
-        <v>13958.0021</v>
+        <v>77.2388</v>
       </c>
       <c r="G83" t="n">
-        <v>39.30399999999996</v>
+        <v>-548402.8351438201</v>
       </c>
       <c r="H83" t="n">
-        <v>39.96766666666669</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="L83" t="n">
-        <v>39</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3678,44 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>39.24</v>
+        <v>40</v>
       </c>
       <c r="C84" t="n">
-        <v>39.24</v>
+        <v>40</v>
       </c>
       <c r="D84" t="n">
-        <v>39.24</v>
+        <v>40</v>
       </c>
       <c r="E84" t="n">
-        <v>39.24</v>
+        <v>40</v>
       </c>
       <c r="F84" t="n">
-        <v>63</v>
+        <v>23035.0388</v>
       </c>
       <c r="G84" t="n">
-        <v>39.31333333333329</v>
+        <v>-525367.7963438202</v>
       </c>
       <c r="H84" t="n">
-        <v>39.95800000000002</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>39.38</v>
-      </c>
-      <c r="L84" t="n">
-        <v>39</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3724,44 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>39.28</v>
+        <v>40</v>
       </c>
       <c r="C85" t="n">
-        <v>39.26</v>
+        <v>39.79</v>
       </c>
       <c r="D85" t="n">
-        <v>39.28</v>
+        <v>40</v>
       </c>
       <c r="E85" t="n">
-        <v>39.26</v>
+        <v>39.79</v>
       </c>
       <c r="F85" t="n">
-        <v>21013.6452</v>
+        <v>20190.4425</v>
       </c>
       <c r="G85" t="n">
-        <v>39.3353333333333</v>
+        <v>-545558.2388438202</v>
       </c>
       <c r="H85" t="n">
-        <v>39.94233333333337</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="L85" t="n">
-        <v>39</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3770,44 +3373,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>39.42</v>
+        <v>39.65</v>
       </c>
       <c r="C86" t="n">
-        <v>39.42</v>
+        <v>39.31</v>
       </c>
       <c r="D86" t="n">
-        <v>39.42</v>
+        <v>39.65</v>
       </c>
       <c r="E86" t="n">
-        <v>39.42</v>
+        <v>39.31</v>
       </c>
       <c r="F86" t="n">
-        <v>7350.2049</v>
+        <v>84865.18120000001</v>
       </c>
       <c r="G86" t="n">
-        <v>39.34333333333329</v>
+        <v>-630423.4200438202</v>
       </c>
       <c r="H86" t="n">
-        <v>39.92783333333337</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>39.26</v>
-      </c>
-      <c r="L86" t="n">
-        <v>39</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3816,44 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>39.42</v>
+        <v>39.49</v>
       </c>
       <c r="C87" t="n">
-        <v>39.42</v>
+        <v>39.49</v>
       </c>
       <c r="D87" t="n">
-        <v>39.42</v>
+        <v>39.49</v>
       </c>
       <c r="E87" t="n">
-        <v>39.42</v>
+        <v>39.49</v>
       </c>
       <c r="F87" t="n">
-        <v>2778.7555</v>
+        <v>1010</v>
       </c>
       <c r="G87" t="n">
-        <v>39.34666666666662</v>
+        <v>-629413.4200438202</v>
       </c>
       <c r="H87" t="n">
-        <v>39.91333333333337</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="L87" t="n">
-        <v>39</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,44 +3443,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>39.42</v>
+        <v>39.49</v>
       </c>
       <c r="C88" t="n">
-        <v>39.42</v>
+        <v>39.59</v>
       </c>
       <c r="D88" t="n">
-        <v>39.42</v>
+        <v>39.59</v>
       </c>
       <c r="E88" t="n">
-        <v>39.42</v>
+        <v>39.49</v>
       </c>
       <c r="F88" t="n">
-        <v>3515.5367</v>
+        <v>2846.5479</v>
       </c>
       <c r="G88" t="n">
-        <v>39.35333333333328</v>
+        <v>-626566.8721438202</v>
       </c>
       <c r="H88" t="n">
-        <v>39.8986666666667</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="L88" t="n">
-        <v>39</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3908,44 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>39.42</v>
+        <v>39.49</v>
       </c>
       <c r="C89" t="n">
-        <v>39.42</v>
+        <v>39.49</v>
       </c>
       <c r="D89" t="n">
-        <v>39.42</v>
+        <v>39.49</v>
       </c>
       <c r="E89" t="n">
-        <v>39.42</v>
+        <v>39.49</v>
       </c>
       <c r="F89" t="n">
-        <v>2902.4032</v>
+        <v>1166.3499</v>
       </c>
       <c r="G89" t="n">
-        <v>39.35999999999994</v>
+        <v>-627733.2220438202</v>
       </c>
       <c r="H89" t="n">
-        <v>39.87933333333337</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="L89" t="n">
-        <v>39</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3954,44 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>39.63</v>
+        <v>39.4</v>
       </c>
       <c r="C90" t="n">
-        <v>39.63</v>
+        <v>39.49</v>
       </c>
       <c r="D90" t="n">
-        <v>39.63</v>
+        <v>39.49</v>
       </c>
       <c r="E90" t="n">
-        <v>39.63</v>
+        <v>39.4</v>
       </c>
       <c r="F90" t="n">
-        <v>9809.15972747</v>
+        <v>3251.7122</v>
       </c>
       <c r="G90" t="n">
-        <v>39.38066666666661</v>
+        <v>-627733.2220438202</v>
       </c>
       <c r="H90" t="n">
-        <v>39.86333333333337</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="L90" t="n">
-        <v>39</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4000,44 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>39.65</v>
+        <v>39.21</v>
       </c>
       <c r="C91" t="n">
-        <v>39.65</v>
+        <v>39.21</v>
       </c>
       <c r="D91" t="n">
-        <v>39.65</v>
+        <v>39.21</v>
       </c>
       <c r="E91" t="n">
-        <v>39.65</v>
+        <v>39.21</v>
       </c>
       <c r="F91" t="n">
-        <v>35351.8919</v>
+        <v>4599.8947</v>
       </c>
       <c r="G91" t="n">
-        <v>39.39599999999994</v>
+        <v>-632333.1167438201</v>
       </c>
       <c r="H91" t="n">
-        <v>39.84700000000003</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="n">
-        <v>39.63</v>
-      </c>
-      <c r="L91" t="n">
-        <v>39</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4046,42 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>39.65</v>
+        <v>39.39</v>
       </c>
       <c r="C92" t="n">
-        <v>39.65</v>
+        <v>39.39</v>
       </c>
       <c r="D92" t="n">
-        <v>39.65</v>
+        <v>39.39</v>
       </c>
       <c r="E92" t="n">
-        <v>39.65</v>
+        <v>39.39</v>
       </c>
       <c r="F92" t="n">
-        <v>635.913</v>
+        <v>790.9569</v>
       </c>
       <c r="G92" t="n">
-        <v>39.41133333333327</v>
+        <v>-631542.1598438201</v>
       </c>
       <c r="H92" t="n">
-        <v>39.83050000000004</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>39</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4090,42 +3618,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>39.65</v>
+        <v>39.33</v>
       </c>
       <c r="C93" t="n">
-        <v>39.65</v>
+        <v>39.33</v>
       </c>
       <c r="D93" t="n">
-        <v>39.65</v>
+        <v>39.33</v>
       </c>
       <c r="E93" t="n">
-        <v>39.65</v>
+        <v>39.33</v>
       </c>
       <c r="F93" t="n">
-        <v>573.9102</v>
+        <v>11933.2538</v>
       </c>
       <c r="G93" t="n">
-        <v>39.43999999999994</v>
+        <v>-643475.4136438201</v>
       </c>
       <c r="H93" t="n">
-        <v>39.81216666666671</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>39</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="K93" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4134,42 +3657,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>39.65</v>
+        <v>39.01</v>
       </c>
       <c r="C94" t="n">
-        <v>39.65</v>
+        <v>39.01</v>
       </c>
       <c r="D94" t="n">
-        <v>39.65</v>
+        <v>39.01</v>
       </c>
       <c r="E94" t="n">
-        <v>39.65</v>
+        <v>39.01</v>
       </c>
       <c r="F94" t="n">
-        <v>545.2147</v>
+        <v>106.2698</v>
       </c>
       <c r="G94" t="n">
-        <v>39.45533333333328</v>
+        <v>-643581.6834438201</v>
       </c>
       <c r="H94" t="n">
-        <v>39.79200000000004</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>39</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="K94" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,42 +3700,41 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>39.63</v>
+        <v>39</v>
       </c>
       <c r="C95" t="n">
-        <v>39.63</v>
+        <v>39</v>
       </c>
       <c r="D95" t="n">
-        <v>39.63</v>
+        <v>39</v>
       </c>
       <c r="E95" t="n">
-        <v>39.63</v>
+        <v>39</v>
       </c>
       <c r="F95" t="n">
-        <v>604.4222</v>
+        <v>593.7302</v>
       </c>
       <c r="G95" t="n">
-        <v>39.46999999999994</v>
+        <v>-644175.4136438201</v>
       </c>
       <c r="H95" t="n">
-        <v>39.77150000000004</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>39</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+        <v>39.01</v>
+      </c>
+      <c r="K95" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,42 +3743,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>39.64</v>
+        <v>39.4</v>
       </c>
       <c r="C96" t="n">
-        <v>39.64</v>
+        <v>39.4</v>
       </c>
       <c r="D96" t="n">
-        <v>39.64</v>
+        <v>39.4</v>
       </c>
       <c r="E96" t="n">
-        <v>39.64</v>
+        <v>39.4</v>
       </c>
       <c r="F96" t="n">
-        <v>518.0859</v>
+        <v>405.8382</v>
       </c>
       <c r="G96" t="n">
-        <v>39.49666666666661</v>
+        <v>-643769.5754438201</v>
       </c>
       <c r="H96" t="n">
-        <v>39.7511666666667</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>39</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+        <v>39</v>
+      </c>
+      <c r="K96" t="n">
+        <v>39</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4266,42 +3782,41 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>39.62</v>
+        <v>39.3</v>
       </c>
       <c r="C97" t="n">
-        <v>39.62</v>
+        <v>39.21</v>
       </c>
       <c r="D97" t="n">
-        <v>39.62</v>
+        <v>39.3</v>
       </c>
       <c r="E97" t="n">
-        <v>39.62</v>
+        <v>39.21</v>
       </c>
       <c r="F97" t="n">
-        <v>492.43</v>
+        <v>8203</v>
       </c>
       <c r="G97" t="n">
-        <v>39.51199999999994</v>
+        <v>-651972.5754438201</v>
       </c>
       <c r="H97" t="n">
-        <v>39.7281666666667</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>39</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K97" t="n">
+        <v>39</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4310,42 +3825,41 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>39.52</v>
+        <v>39.1</v>
       </c>
       <c r="C98" t="n">
-        <v>39.52</v>
+        <v>39.1</v>
       </c>
       <c r="D98" t="n">
-        <v>39.52</v>
+        <v>39.1</v>
       </c>
       <c r="E98" t="n">
-        <v>39.52</v>
+        <v>39.1</v>
       </c>
       <c r="F98" t="n">
-        <v>4750.1052</v>
+        <v>850.9632</v>
       </c>
       <c r="G98" t="n">
-        <v>39.52133333333327</v>
+        <v>-652823.5386438201</v>
       </c>
       <c r="H98" t="n">
-        <v>39.70350000000003</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>39</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="K98" t="n">
+        <v>39</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,42 +3868,41 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>39.52</v>
+        <v>39</v>
       </c>
       <c r="C99" t="n">
-        <v>39.52</v>
+        <v>38.93</v>
       </c>
       <c r="D99" t="n">
-        <v>39.52</v>
+        <v>39</v>
       </c>
       <c r="E99" t="n">
-        <v>39.52</v>
+        <v>38.93</v>
       </c>
       <c r="F99" t="n">
-        <v>1154</v>
+        <v>5041.3508</v>
       </c>
       <c r="G99" t="n">
-        <v>39.53999999999994</v>
+        <v>-657864.8894438201</v>
       </c>
       <c r="H99" t="n">
-        <v>39.67883333333337</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>39</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>39</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4398,42 +3911,41 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>39.52</v>
+        <v>39.01</v>
       </c>
       <c r="C100" t="n">
-        <v>39.52</v>
+        <v>39.3</v>
       </c>
       <c r="D100" t="n">
-        <v>39.52</v>
+        <v>39.3</v>
       </c>
       <c r="E100" t="n">
-        <v>39.52</v>
+        <v>38.86</v>
       </c>
       <c r="F100" t="n">
-        <v>4994.247</v>
+        <v>18195.5263</v>
       </c>
       <c r="G100" t="n">
-        <v>39.55733333333328</v>
+        <v>-639669.3631438201</v>
       </c>
       <c r="H100" t="n">
-        <v>39.65250000000003</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>39</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+        <v>38.93</v>
+      </c>
+      <c r="K100" t="n">
+        <v>39</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4442,42 +3954,41 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>39.42</v>
+        <v>39.37</v>
       </c>
       <c r="C101" t="n">
-        <v>39.42</v>
+        <v>39.37</v>
       </c>
       <c r="D101" t="n">
-        <v>39.42</v>
+        <v>39.37</v>
       </c>
       <c r="E101" t="n">
-        <v>39.42</v>
+        <v>39.37</v>
       </c>
       <c r="F101" t="n">
-        <v>1421.416</v>
+        <v>672.2988</v>
       </c>
       <c r="G101" t="n">
-        <v>39.55733333333328</v>
+        <v>-638997.0643438201</v>
       </c>
       <c r="H101" t="n">
-        <v>39.62450000000003</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>39</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K101" t="n">
+        <v>39</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4486,44 +3997,41 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>39.58</v>
+        <v>39.32</v>
       </c>
       <c r="C102" t="n">
-        <v>39.58</v>
+        <v>39.32</v>
       </c>
       <c r="D102" t="n">
-        <v>39.58</v>
+        <v>39.32</v>
       </c>
       <c r="E102" t="n">
-        <v>39.58</v>
+        <v>39.32</v>
       </c>
       <c r="F102" t="n">
-        <v>13</v>
+        <v>259.792</v>
       </c>
       <c r="G102" t="n">
-        <v>39.56799999999995</v>
+        <v>-639256.8563438201</v>
       </c>
       <c r="H102" t="n">
-        <v>39.60083333333337</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>39.37</v>
       </c>
       <c r="K102" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="L102" t="n">
-        <v>39</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+        <v>39</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4532,44 +4040,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>39.58</v>
+        <v>39.32</v>
       </c>
       <c r="C103" t="n">
-        <v>39.58</v>
+        <v>39.32</v>
       </c>
       <c r="D103" t="n">
-        <v>39.58</v>
+        <v>39.32</v>
       </c>
       <c r="E103" t="n">
-        <v>39.58</v>
+        <v>39.32</v>
       </c>
       <c r="F103" t="n">
-        <v>842.9288</v>
+        <v>94.2642</v>
       </c>
       <c r="G103" t="n">
-        <v>39.57866666666662</v>
+        <v>-639256.8563438201</v>
       </c>
       <c r="H103" t="n">
-        <v>39.57950000000003</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>39.58</v>
-      </c>
-      <c r="L103" t="n">
-        <v>39</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+        <v>39</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,42 +4081,41 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>39.66</v>
+        <v>39.32</v>
       </c>
       <c r="C104" t="n">
-        <v>39.66</v>
+        <v>39.32</v>
       </c>
       <c r="D104" t="n">
-        <v>39.66</v>
+        <v>39.32</v>
       </c>
       <c r="E104" t="n">
-        <v>39.66</v>
+        <v>39.32</v>
       </c>
       <c r="F104" t="n">
-        <v>140.06555723</v>
+        <v>161.1918</v>
       </c>
       <c r="G104" t="n">
-        <v>39.59466666666662</v>
+        <v>-639256.8563438201</v>
       </c>
       <c r="H104" t="n">
-        <v>39.55950000000003</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>39</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="K104" t="n">
+        <v>39</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4622,42 +4124,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>39.66</v>
+        <v>39.42</v>
       </c>
       <c r="C105" t="n">
-        <v>39.66</v>
+        <v>39.42</v>
       </c>
       <c r="D105" t="n">
-        <v>39.66</v>
+        <v>39.42</v>
       </c>
       <c r="E105" t="n">
-        <v>39.66</v>
+        <v>39.42</v>
       </c>
       <c r="F105" t="n">
-        <v>300.43874277</v>
+        <v>14004.2012</v>
       </c>
       <c r="G105" t="n">
-        <v>39.59666666666661</v>
+        <v>-625252.6551438201</v>
       </c>
       <c r="H105" t="n">
-        <v>39.54066666666669</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>39</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>39</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,42 +4165,41 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>39.77</v>
+        <v>39.42</v>
       </c>
       <c r="C106" t="n">
-        <v>39.77</v>
+        <v>39.42</v>
       </c>
       <c r="D106" t="n">
-        <v>39.77</v>
+        <v>39.42</v>
       </c>
       <c r="E106" t="n">
-        <v>39.77</v>
+        <v>39.42</v>
       </c>
       <c r="F106" t="n">
-        <v>29600</v>
+        <v>2439.7319</v>
       </c>
       <c r="G106" t="n">
-        <v>39.60466666666662</v>
+        <v>-625252.6551438201</v>
       </c>
       <c r="H106" t="n">
-        <v>39.53000000000002</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>39</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="K106" t="n">
+        <v>39</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,42 +4208,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>39.77</v>
+        <v>39.22</v>
       </c>
       <c r="C107" t="n">
-        <v>39.77</v>
+        <v>39.22</v>
       </c>
       <c r="D107" t="n">
-        <v>39.77</v>
+        <v>39.22</v>
       </c>
       <c r="E107" t="n">
-        <v>39.77</v>
+        <v>39.22</v>
       </c>
       <c r="F107" t="n">
-        <v>5751.8918</v>
+        <v>280.0012</v>
       </c>
       <c r="G107" t="n">
-        <v>39.61266666666662</v>
+        <v>-625532.6563438202</v>
       </c>
       <c r="H107" t="n">
-        <v>39.51933333333336</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>39</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>39</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4754,42 +4249,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>39.66</v>
+        <v>39.42</v>
       </c>
       <c r="C108" t="n">
-        <v>39.66</v>
+        <v>39.42</v>
       </c>
       <c r="D108" t="n">
-        <v>39.66</v>
+        <v>39.42</v>
       </c>
       <c r="E108" t="n">
-        <v>39.66</v>
+        <v>39.42</v>
       </c>
       <c r="F108" t="n">
-        <v>2018.1304</v>
+        <v>13941.1822</v>
       </c>
       <c r="G108" t="n">
-        <v>39.61333333333328</v>
+        <v>-611591.4741438201</v>
       </c>
       <c r="H108" t="n">
-        <v>39.51366666666669</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>39</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>39</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4798,42 +4290,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>39.66</v>
+        <v>39.41</v>
       </c>
       <c r="C109" t="n">
         <v>39.41</v>
       </c>
       <c r="D109" t="n">
-        <v>39.66</v>
+        <v>39.41</v>
       </c>
       <c r="E109" t="n">
         <v>39.41</v>
       </c>
       <c r="F109" t="n">
-        <v>37012.23705723</v>
+        <v>6911.4129</v>
       </c>
       <c r="G109" t="n">
-        <v>39.59733333333328</v>
+        <v>-618502.8870438201</v>
       </c>
       <c r="H109" t="n">
-        <v>39.50383333333335</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>39</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>39</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4842,42 +4331,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>39.41</v>
+        <v>39.24</v>
       </c>
       <c r="C110" t="n">
-        <v>39.41</v>
+        <v>39.24</v>
       </c>
       <c r="D110" t="n">
-        <v>39.41</v>
+        <v>39.24</v>
       </c>
       <c r="E110" t="n">
-        <v>39.41</v>
+        <v>39.24</v>
       </c>
       <c r="F110" t="n">
-        <v>34624.9886</v>
+        <v>151.5414</v>
       </c>
       <c r="G110" t="n">
-        <v>39.58266666666661</v>
+        <v>-618654.4284438201</v>
       </c>
       <c r="H110" t="n">
-        <v>39.49400000000002</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>39</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>39</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4886,42 +4372,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>39.2</v>
+        <v>39.39</v>
       </c>
       <c r="C111" t="n">
-        <v>39.2</v>
+        <v>39.39</v>
       </c>
       <c r="D111" t="n">
-        <v>39.2</v>
+        <v>39.39</v>
       </c>
       <c r="E111" t="n">
-        <v>39.2</v>
+        <v>39.39</v>
       </c>
       <c r="F111" t="n">
-        <v>50</v>
+        <v>787.8632</v>
       </c>
       <c r="G111" t="n">
-        <v>39.55333333333328</v>
+        <v>-617866.5652438201</v>
       </c>
       <c r="H111" t="n">
-        <v>39.47850000000002</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>39</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>39</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4930,42 +4413,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>39.41</v>
+        <v>39.38</v>
       </c>
       <c r="C112" t="n">
-        <v>39.41</v>
+        <v>39.38</v>
       </c>
       <c r="D112" t="n">
-        <v>39.41</v>
+        <v>39.38</v>
       </c>
       <c r="E112" t="n">
-        <v>39.41</v>
+        <v>39.38</v>
       </c>
       <c r="F112" t="n">
-        <v>1550.8483</v>
+        <v>13958.0021</v>
       </c>
       <c r="G112" t="n">
-        <v>39.53933333333328</v>
+        <v>-631824.5673438201</v>
       </c>
       <c r="H112" t="n">
-        <v>39.46116666666668</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>39</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>39</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4974,42 +4454,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>39.41</v>
+        <v>39.24</v>
       </c>
       <c r="C113" t="n">
-        <v>39.41</v>
+        <v>39.24</v>
       </c>
       <c r="D113" t="n">
-        <v>39.41</v>
+        <v>39.24</v>
       </c>
       <c r="E113" t="n">
-        <v>39.41</v>
+        <v>39.24</v>
       </c>
       <c r="F113" t="n">
-        <v>10372.5233</v>
+        <v>63</v>
       </c>
       <c r="G113" t="n">
-        <v>39.53199999999995</v>
+        <v>-631887.5673438201</v>
       </c>
       <c r="H113" t="n">
-        <v>39.44966666666668</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>39</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>39</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5018,42 +4495,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>39.41</v>
+        <v>39.28</v>
       </c>
       <c r="C114" t="n">
-        <v>39.41</v>
+        <v>39.26</v>
       </c>
       <c r="D114" t="n">
-        <v>39.41</v>
+        <v>39.28</v>
       </c>
       <c r="E114" t="n">
-        <v>39.41</v>
+        <v>39.26</v>
       </c>
       <c r="F114" t="n">
-        <v>4.277e-05</v>
+        <v>21013.6452</v>
       </c>
       <c r="G114" t="n">
-        <v>39.52466666666661</v>
+        <v>-610873.9221438201</v>
       </c>
       <c r="H114" t="n">
-        <v>39.44133333333335</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>39</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>39</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5062,42 +4536,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>39.8</v>
+        <v>39.42</v>
       </c>
       <c r="C115" t="n">
-        <v>39.8</v>
+        <v>39.42</v>
       </c>
       <c r="D115" t="n">
-        <v>39.8</v>
+        <v>39.42</v>
       </c>
       <c r="E115" t="n">
-        <v>39.8</v>
+        <v>39.42</v>
       </c>
       <c r="F115" t="n">
-        <v>12533.9684</v>
+        <v>7350.2049</v>
       </c>
       <c r="G115" t="n">
-        <v>39.54333333333328</v>
+        <v>-603523.7172438201</v>
       </c>
       <c r="H115" t="n">
-        <v>39.43800000000002</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>39</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>39</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5106,42 +4577,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>39.81</v>
+        <v>39.42</v>
       </c>
       <c r="C116" t="n">
-        <v>39.83</v>
+        <v>39.42</v>
       </c>
       <c r="D116" t="n">
-        <v>39.83</v>
+        <v>39.42</v>
       </c>
       <c r="E116" t="n">
-        <v>39.81</v>
+        <v>39.42</v>
       </c>
       <c r="F116" t="n">
-        <v>1764.8449</v>
+        <v>2778.7555</v>
       </c>
       <c r="G116" t="n">
-        <v>39.57066666666662</v>
+        <v>-603523.7172438201</v>
       </c>
       <c r="H116" t="n">
-        <v>39.43866666666668</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>39</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>39</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5150,42 +4618,39 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>39.83</v>
+        <v>39.42</v>
       </c>
       <c r="C117" t="n">
-        <v>39.83</v>
+        <v>39.42</v>
       </c>
       <c r="D117" t="n">
-        <v>39.83</v>
+        <v>39.42</v>
       </c>
       <c r="E117" t="n">
-        <v>39.83</v>
+        <v>39.42</v>
       </c>
       <c r="F117" t="n">
-        <v>101.8686</v>
+        <v>3515.5367</v>
       </c>
       <c r="G117" t="n">
-        <v>39.58733333333328</v>
+        <v>-603523.7172438201</v>
       </c>
       <c r="H117" t="n">
-        <v>39.44733333333335</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>39</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>39</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5194,42 +4659,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>39.92</v>
+        <v>39.42</v>
       </c>
       <c r="C118" t="n">
-        <v>39.92</v>
+        <v>39.42</v>
       </c>
       <c r="D118" t="n">
-        <v>39.92</v>
+        <v>39.42</v>
       </c>
       <c r="E118" t="n">
-        <v>39.92</v>
+        <v>39.42</v>
       </c>
       <c r="F118" t="n">
-        <v>917.149</v>
+        <v>2902.4032</v>
       </c>
       <c r="G118" t="n">
-        <v>39.60999999999994</v>
+        <v>-603523.7172438201</v>
       </c>
       <c r="H118" t="n">
-        <v>39.45450000000002</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>39</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>39</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5238,42 +4700,39 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>39.99</v>
+        <v>39.63</v>
       </c>
       <c r="C119" t="n">
-        <v>40.07</v>
+        <v>39.63</v>
       </c>
       <c r="D119" t="n">
-        <v>40.07</v>
+        <v>39.63</v>
       </c>
       <c r="E119" t="n">
-        <v>39.99</v>
+        <v>39.63</v>
       </c>
       <c r="F119" t="n">
-        <v>921.5936</v>
+        <v>9809.15972747</v>
       </c>
       <c r="G119" t="n">
-        <v>39.63733333333328</v>
+        <v>-593714.5575163501</v>
       </c>
       <c r="H119" t="n">
-        <v>39.46250000000002</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>39</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>39</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5282,42 +4741,39 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>40.09</v>
+        <v>39.65</v>
       </c>
       <c r="C120" t="n">
-        <v>40.21</v>
+        <v>39.65</v>
       </c>
       <c r="D120" t="n">
-        <v>40.21</v>
+        <v>39.65</v>
       </c>
       <c r="E120" t="n">
-        <v>40.09</v>
+        <v>39.65</v>
       </c>
       <c r="F120" t="n">
-        <v>6791.1741</v>
+        <v>35351.8919</v>
       </c>
       <c r="G120" t="n">
-        <v>39.67399999999996</v>
+        <v>-558362.66561635</v>
       </c>
       <c r="H120" t="n">
-        <v>39.47450000000003</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>39</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>39</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5326,42 +4782,39 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>40.23</v>
+        <v>39.65</v>
       </c>
       <c r="C121" t="n">
-        <v>40.23</v>
+        <v>39.65</v>
       </c>
       <c r="D121" t="n">
-        <v>40.23</v>
+        <v>39.65</v>
       </c>
       <c r="E121" t="n">
-        <v>40.23</v>
+        <v>39.65</v>
       </c>
       <c r="F121" t="n">
-        <v>10868.6756</v>
+        <v>635.913</v>
       </c>
       <c r="G121" t="n">
-        <v>39.70466666666663</v>
+        <v>-558362.66561635</v>
       </c>
       <c r="H121" t="n">
-        <v>39.48683333333337</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>39</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>39</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5370,42 +4823,39 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>40.37</v>
+        <v>39.65</v>
       </c>
       <c r="C122" t="n">
-        <v>40.37</v>
+        <v>39.65</v>
       </c>
       <c r="D122" t="n">
-        <v>40.37</v>
+        <v>39.65</v>
       </c>
       <c r="E122" t="n">
-        <v>40.37</v>
+        <v>39.65</v>
       </c>
       <c r="F122" t="n">
-        <v>10093.5518</v>
+        <v>573.9102</v>
       </c>
       <c r="G122" t="n">
-        <v>39.74466666666662</v>
+        <v>-558362.66561635</v>
       </c>
       <c r="H122" t="n">
-        <v>39.50616666666669</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>39</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>39</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5414,42 +4864,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>40.38</v>
+        <v>39.65</v>
       </c>
       <c r="C123" t="n">
-        <v>40.38</v>
+        <v>39.65</v>
       </c>
       <c r="D123" t="n">
-        <v>40.38</v>
+        <v>39.65</v>
       </c>
       <c r="E123" t="n">
-        <v>40.38</v>
+        <v>39.65</v>
       </c>
       <c r="F123" t="n">
-        <v>178.1961</v>
+        <v>545.2147</v>
       </c>
       <c r="G123" t="n">
-        <v>39.79266666666663</v>
+        <v>-558362.66561635</v>
       </c>
       <c r="H123" t="n">
-        <v>39.5226666666667</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>39</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>39</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5458,42 +4905,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>40.37</v>
+        <v>39.63</v>
       </c>
       <c r="C124" t="n">
-        <v>40.37</v>
+        <v>39.63</v>
       </c>
       <c r="D124" t="n">
-        <v>40.37</v>
+        <v>39.63</v>
       </c>
       <c r="E124" t="n">
-        <v>40.37</v>
+        <v>39.63</v>
       </c>
       <c r="F124" t="n">
-        <v>3190.9572</v>
+        <v>604.4222</v>
       </c>
       <c r="G124" t="n">
-        <v>39.85666666666663</v>
+        <v>-558967.08781635</v>
       </c>
       <c r="H124" t="n">
-        <v>39.54000000000003</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>39</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>39</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5502,42 +4946,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>40.37</v>
+        <v>39.64</v>
       </c>
       <c r="C125" t="n">
-        <v>40.37</v>
+        <v>39.64</v>
       </c>
       <c r="D125" t="n">
-        <v>40.37</v>
+        <v>39.64</v>
       </c>
       <c r="E125" t="n">
-        <v>40.37</v>
+        <v>39.64</v>
       </c>
       <c r="F125" t="n">
-        <v>56253.3023</v>
+        <v>518.0859</v>
       </c>
       <c r="G125" t="n">
-        <v>39.92066666666663</v>
+        <v>-558449.0019163501</v>
       </c>
       <c r="H125" t="n">
-        <v>39.56266666666669</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>39</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>39</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5546,42 +4987,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>40.37</v>
+        <v>39.62</v>
       </c>
       <c r="C126" t="n">
-        <v>40.37</v>
+        <v>39.62</v>
       </c>
       <c r="D126" t="n">
-        <v>40.37</v>
+        <v>39.62</v>
       </c>
       <c r="E126" t="n">
-        <v>40.37</v>
+        <v>39.62</v>
       </c>
       <c r="F126" t="n">
-        <v>17616.9571</v>
+        <v>492.43</v>
       </c>
       <c r="G126" t="n">
-        <v>39.99866666666663</v>
+        <v>-558941.4319163501</v>
       </c>
       <c r="H126" t="n">
-        <v>39.58550000000002</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>39</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>39</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5590,42 +5028,39 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>40.35</v>
+        <v>39.52</v>
       </c>
       <c r="C127" t="n">
-        <v>40.42</v>
+        <v>39.52</v>
       </c>
       <c r="D127" t="n">
-        <v>40.42</v>
+        <v>39.52</v>
       </c>
       <c r="E127" t="n">
-        <v>40.35</v>
+        <v>39.52</v>
       </c>
       <c r="F127" t="n">
-        <v>2207.6622</v>
+        <v>4750.1052</v>
       </c>
       <c r="G127" t="n">
-        <v>40.06599999999996</v>
+        <v>-563691.5371163501</v>
       </c>
       <c r="H127" t="n">
-        <v>39.60250000000003</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>39</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>39</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5634,42 +5069,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>40.42</v>
+        <v>39.52</v>
       </c>
       <c r="C128" t="n">
-        <v>40.42</v>
+        <v>39.52</v>
       </c>
       <c r="D128" t="n">
-        <v>40.42</v>
+        <v>39.52</v>
       </c>
       <c r="E128" t="n">
-        <v>40.42</v>
+        <v>39.52</v>
       </c>
       <c r="F128" t="n">
-        <v>1624.2417</v>
+        <v>1154</v>
       </c>
       <c r="G128" t="n">
-        <v>40.1333333333333</v>
+        <v>-563691.5371163501</v>
       </c>
       <c r="H128" t="n">
-        <v>39.62266666666669</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>39</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>39</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5678,42 +5110,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>40.42</v>
+        <v>39.52</v>
       </c>
       <c r="C129" t="n">
-        <v>40.42</v>
+        <v>39.52</v>
       </c>
       <c r="D129" t="n">
-        <v>40.42</v>
+        <v>39.52</v>
       </c>
       <c r="E129" t="n">
-        <v>40.42</v>
+        <v>39.52</v>
       </c>
       <c r="F129" t="n">
-        <v>20962.2274</v>
+        <v>4994.247</v>
       </c>
       <c r="G129" t="n">
-        <v>40.20066666666663</v>
+        <v>-563691.5371163501</v>
       </c>
       <c r="H129" t="n">
-        <v>39.64466666666669</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>39</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>39</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5722,42 +5151,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>40.63</v>
+        <v>39.42</v>
       </c>
       <c r="C130" t="n">
-        <v>40.63</v>
+        <v>39.42</v>
       </c>
       <c r="D130" t="n">
-        <v>40.63</v>
+        <v>39.42</v>
       </c>
       <c r="E130" t="n">
-        <v>40.63</v>
+        <v>39.42</v>
       </c>
       <c r="F130" t="n">
-        <v>81.85290000000001</v>
+        <v>1421.416</v>
       </c>
       <c r="G130" t="n">
-        <v>40.25599999999996</v>
+        <v>-565112.9531163501</v>
       </c>
       <c r="H130" t="n">
-        <v>39.67300000000003</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>39</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>39</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5766,42 +5192,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>40.63</v>
+        <v>39.58</v>
       </c>
       <c r="C131" t="n">
-        <v>40.63</v>
+        <v>39.58</v>
       </c>
       <c r="D131" t="n">
-        <v>40.63</v>
+        <v>39.58</v>
       </c>
       <c r="E131" t="n">
-        <v>40.63</v>
+        <v>39.58</v>
       </c>
       <c r="F131" t="n">
-        <v>170.3539</v>
+        <v>13</v>
       </c>
       <c r="G131" t="n">
-        <v>40.30933333333329</v>
+        <v>-565099.9531163501</v>
       </c>
       <c r="H131" t="n">
-        <v>39.6951666666667</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>39</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>39</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5810,42 +5233,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>40.7</v>
+        <v>39.58</v>
       </c>
       <c r="C132" t="n">
-        <v>40.7</v>
+        <v>39.58</v>
       </c>
       <c r="D132" t="n">
-        <v>40.7</v>
+        <v>39.58</v>
       </c>
       <c r="E132" t="n">
-        <v>40.7</v>
+        <v>39.58</v>
       </c>
       <c r="F132" t="n">
-        <v>494.1589</v>
+        <v>842.9288</v>
       </c>
       <c r="G132" t="n">
-        <v>40.36733333333329</v>
+        <v>-565099.9531163501</v>
       </c>
       <c r="H132" t="n">
-        <v>39.71733333333336</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>39</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>39</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,42 +5274,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>40.6</v>
+        <v>39.66</v>
       </c>
       <c r="C133" t="n">
-        <v>40.5</v>
+        <v>39.66</v>
       </c>
       <c r="D133" t="n">
-        <v>40.6</v>
+        <v>39.66</v>
       </c>
       <c r="E133" t="n">
-        <v>40.5</v>
+        <v>39.66</v>
       </c>
       <c r="F133" t="n">
-        <v>827.6673</v>
+        <v>140.06555723</v>
       </c>
       <c r="G133" t="n">
-        <v>40.40599999999996</v>
+        <v>-564959.8875591201</v>
       </c>
       <c r="H133" t="n">
-        <v>39.73700000000003</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>39</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>39</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5898,42 +5315,39 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>40.4</v>
+        <v>39.66</v>
       </c>
       <c r="C134" t="n">
-        <v>40.5</v>
+        <v>39.66</v>
       </c>
       <c r="D134" t="n">
-        <v>40.5</v>
+        <v>39.66</v>
       </c>
       <c r="E134" t="n">
-        <v>40.4</v>
+        <v>39.66</v>
       </c>
       <c r="F134" t="n">
-        <v>3359.0878</v>
+        <v>300.43874277</v>
       </c>
       <c r="G134" t="n">
-        <v>40.43466666666663</v>
+        <v>-564959.8875591201</v>
       </c>
       <c r="H134" t="n">
-        <v>39.75666666666669</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>39</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>39</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5942,42 +5356,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>40.5</v>
+        <v>39.77</v>
       </c>
       <c r="C135" t="n">
-        <v>40.4</v>
+        <v>39.77</v>
       </c>
       <c r="D135" t="n">
-        <v>40.5</v>
+        <v>39.77</v>
       </c>
       <c r="E135" t="n">
-        <v>40.4</v>
+        <v>39.77</v>
       </c>
       <c r="F135" t="n">
-        <v>20374.5089</v>
+        <v>29600</v>
       </c>
       <c r="G135" t="n">
-        <v>40.44733333333329</v>
+        <v>-535359.8875591201</v>
       </c>
       <c r="H135" t="n">
-        <v>39.77466666666669</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>39</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>39</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5986,42 +5397,39 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>40.2</v>
+        <v>39.77</v>
       </c>
       <c r="C136" t="n">
-        <v>40.2</v>
+        <v>39.77</v>
       </c>
       <c r="D136" t="n">
-        <v>40.2</v>
+        <v>39.77</v>
       </c>
       <c r="E136" t="n">
-        <v>40.2</v>
+        <v>39.77</v>
       </c>
       <c r="F136" t="n">
-        <v>901.6179</v>
+        <v>5751.8918</v>
       </c>
       <c r="G136" t="n">
-        <v>40.44533333333329</v>
+        <v>-535359.8875591201</v>
       </c>
       <c r="H136" t="n">
-        <v>39.78766666666669</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>39</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>39</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6030,42 +5438,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>40.59</v>
+        <v>39.66</v>
       </c>
       <c r="C137" t="n">
-        <v>40.59</v>
+        <v>39.66</v>
       </c>
       <c r="D137" t="n">
-        <v>40.59</v>
+        <v>39.66</v>
       </c>
       <c r="E137" t="n">
-        <v>40.59</v>
+        <v>39.66</v>
       </c>
       <c r="F137" t="n">
-        <v>140</v>
+        <v>2018.1304</v>
       </c>
       <c r="G137" t="n">
-        <v>40.45999999999996</v>
+        <v>-537378.0179591201</v>
       </c>
       <c r="H137" t="n">
-        <v>39.80716666666669</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>39</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>39</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6074,42 +5479,39 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>40.56</v>
+        <v>39.66</v>
       </c>
       <c r="C138" t="n">
-        <v>40.6</v>
+        <v>39.41</v>
       </c>
       <c r="D138" t="n">
-        <v>40.6</v>
+        <v>39.66</v>
       </c>
       <c r="E138" t="n">
-        <v>40.56</v>
+        <v>39.41</v>
       </c>
       <c r="F138" t="n">
-        <v>32000</v>
+        <v>37012.23705723</v>
       </c>
       <c r="G138" t="n">
-        <v>40.47466666666663</v>
+        <v>-574390.2550163501</v>
       </c>
       <c r="H138" t="n">
-        <v>39.83016666666669</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>39</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>39</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,42 +5520,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>40.6</v>
+        <v>39.41</v>
       </c>
       <c r="C139" t="n">
-        <v>40.6</v>
+        <v>39.41</v>
       </c>
       <c r="D139" t="n">
-        <v>40.6</v>
+        <v>39.41</v>
       </c>
       <c r="E139" t="n">
-        <v>40.6</v>
+        <v>39.41</v>
       </c>
       <c r="F139" t="n">
-        <v>8810.4503</v>
+        <v>34624.9886</v>
       </c>
       <c r="G139" t="n">
-        <v>40.48999999999997</v>
+        <v>-574390.2550163501</v>
       </c>
       <c r="H139" t="n">
-        <v>39.84983333333335</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>39</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>39</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6162,43 +5561,40 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>40.8</v>
+        <v>39.2</v>
       </c>
       <c r="C140" t="n">
-        <v>40.8</v>
+        <v>39.2</v>
       </c>
       <c r="D140" t="n">
-        <v>40.8</v>
+        <v>39.2</v>
       </c>
       <c r="E140" t="n">
-        <v>40.8</v>
+        <v>39.2</v>
       </c>
       <c r="F140" t="n">
-        <v>28.2844</v>
+        <v>50</v>
       </c>
       <c r="G140" t="n">
-        <v>40.51866666666663</v>
+        <v>-574440.2550163501</v>
       </c>
       <c r="H140" t="n">
-        <v>39.87300000000003</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>1</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>39</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
-        <v>1.041153846153846</v>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>39</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -6206,36 +5602,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>41.09</v>
+        <v>39.41</v>
       </c>
       <c r="C141" t="n">
-        <v>40.61</v>
+        <v>39.41</v>
       </c>
       <c r="D141" t="n">
-        <v>41.09</v>
+        <v>39.41</v>
       </c>
       <c r="E141" t="n">
-        <v>40.61</v>
+        <v>39.41</v>
       </c>
       <c r="F141" t="n">
-        <v>19654.6911</v>
+        <v>1550.8483</v>
       </c>
       <c r="G141" t="n">
-        <v>40.53466666666663</v>
+        <v>-572889.4067163501</v>
       </c>
       <c r="H141" t="n">
-        <v>39.89583333333336</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>1</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>39</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6244,36 +5643,39 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>40.6</v>
+        <v>39.41</v>
       </c>
       <c r="C142" t="n">
-        <v>40.5</v>
+        <v>39.41</v>
       </c>
       <c r="D142" t="n">
-        <v>40.6</v>
+        <v>39.41</v>
       </c>
       <c r="E142" t="n">
-        <v>40.5</v>
+        <v>39.41</v>
       </c>
       <c r="F142" t="n">
-        <v>18312.6911</v>
+        <v>10372.5233</v>
       </c>
       <c r="G142" t="n">
-        <v>40.53999999999996</v>
+        <v>-572889.4067163501</v>
       </c>
       <c r="H142" t="n">
-        <v>39.91433333333337</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>1</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>39</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6282,36 +5684,39 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>40.65</v>
+        <v>39.41</v>
       </c>
       <c r="C143" t="n">
-        <v>40.65</v>
+        <v>39.41</v>
       </c>
       <c r="D143" t="n">
-        <v>40.65</v>
+        <v>39.41</v>
       </c>
       <c r="E143" t="n">
-        <v>40.65</v>
+        <v>39.41</v>
       </c>
       <c r="F143" t="n">
-        <v>286.9836</v>
+        <v>4.277e-05</v>
       </c>
       <c r="G143" t="n">
-        <v>40.5553333333333</v>
+        <v>-572889.4067163501</v>
       </c>
       <c r="H143" t="n">
-        <v>39.93550000000003</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>1</v>
-      </c>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="inlineStr"/>
-      <c r="N143" t="n">
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>39</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6320,36 +5725,39 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>40.7</v>
+        <v>39.8</v>
       </c>
       <c r="C144" t="n">
-        <v>40.7</v>
+        <v>39.8</v>
       </c>
       <c r="D144" t="n">
-        <v>40.7</v>
+        <v>39.8</v>
       </c>
       <c r="E144" t="n">
-        <v>40.7</v>
+        <v>39.8</v>
       </c>
       <c r="F144" t="n">
-        <v>600.5829</v>
+        <v>12533.9684</v>
       </c>
       <c r="G144" t="n">
-        <v>40.57399999999997</v>
+        <v>-560355.4383163501</v>
       </c>
       <c r="H144" t="n">
-        <v>39.95983333333336</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>1</v>
-      </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="n">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>39</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6358,36 +5766,39 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>40.59</v>
+        <v>39.81</v>
       </c>
       <c r="C145" t="n">
-        <v>40.53</v>
+        <v>39.83</v>
       </c>
       <c r="D145" t="n">
-        <v>40.59</v>
+        <v>39.83</v>
       </c>
       <c r="E145" t="n">
-        <v>40.53</v>
+        <v>39.81</v>
       </c>
       <c r="F145" t="n">
-        <v>3158.2957</v>
+        <v>1764.8449</v>
       </c>
       <c r="G145" t="n">
-        <v>40.5673333333333</v>
+        <v>-558590.5934163501</v>
       </c>
       <c r="H145" t="n">
-        <v>39.98100000000003</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>1</v>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="n">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>39</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6396,36 +5807,39 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>40.67</v>
+        <v>39.83</v>
       </c>
       <c r="C146" t="n">
-        <v>40.67</v>
+        <v>39.83</v>
       </c>
       <c r="D146" t="n">
-        <v>40.67</v>
+        <v>39.83</v>
       </c>
       <c r="E146" t="n">
-        <v>40.67</v>
+        <v>39.83</v>
       </c>
       <c r="F146" t="n">
-        <v>200</v>
+        <v>101.8686</v>
       </c>
       <c r="G146" t="n">
-        <v>40.56999999999996</v>
+        <v>-558590.5934163501</v>
       </c>
       <c r="H146" t="n">
-        <v>40.00183333333337</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>1</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="n">
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>39</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6434,36 +5848,39 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>40.7</v>
+        <v>39.92</v>
       </c>
       <c r="C147" t="n">
-        <v>40.7</v>
+        <v>39.92</v>
       </c>
       <c r="D147" t="n">
-        <v>40.7</v>
+        <v>39.92</v>
       </c>
       <c r="E147" t="n">
-        <v>40.7</v>
+        <v>39.92</v>
       </c>
       <c r="F147" t="n">
-        <v>568.2486</v>
+        <v>917.149</v>
       </c>
       <c r="G147" t="n">
-        <v>40.56999999999996</v>
+        <v>-557673.4444163501</v>
       </c>
       <c r="H147" t="n">
-        <v>40.0231666666667</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>1</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="n">
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>39</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6472,36 +5889,39 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>40.77</v>
+        <v>39.99</v>
       </c>
       <c r="C148" t="n">
-        <v>40.77</v>
+        <v>40.07</v>
       </c>
       <c r="D148" t="n">
-        <v>40.77</v>
+        <v>40.07</v>
       </c>
       <c r="E148" t="n">
-        <v>40.77</v>
+        <v>39.99</v>
       </c>
       <c r="F148" t="n">
-        <v>216.4273</v>
+        <v>921.5936</v>
       </c>
       <c r="G148" t="n">
-        <v>40.58799999999997</v>
+        <v>-556751.8508163501</v>
       </c>
       <c r="H148" t="n">
-        <v>40.04566666666669</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>1</v>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="n">
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>39</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6510,36 +5930,1228 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>40.09</v>
+      </c>
+      <c r="C149" t="n">
+        <v>40.21</v>
+      </c>
+      <c r="D149" t="n">
+        <v>40.21</v>
+      </c>
+      <c r="E149" t="n">
+        <v>40.09</v>
+      </c>
+      <c r="F149" t="n">
+        <v>6791.1741</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-549960.6767163501</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>39</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="C150" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="D150" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="E150" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="F150" t="n">
+        <v>10868.6756</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-539092.0011163502</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>39</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="C151" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="D151" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="E151" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="F151" t="n">
+        <v>10093.5518</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-528998.4493163502</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>39</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>40.38</v>
+      </c>
+      <c r="C152" t="n">
+        <v>40.38</v>
+      </c>
+      <c r="D152" t="n">
+        <v>40.38</v>
+      </c>
+      <c r="E152" t="n">
+        <v>40.38</v>
+      </c>
+      <c r="F152" t="n">
+        <v>178.1961</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-528820.2532163502</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>39</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="C153" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="D153" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="E153" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3190.9572</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-532011.2104163502</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>39</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="C154" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="D154" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="E154" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="F154" t="n">
+        <v>56253.3023</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-532011.2104163502</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>39</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="C155" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="D155" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="E155" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="F155" t="n">
+        <v>17616.9571</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-532011.2104163502</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>39</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>40.35</v>
+      </c>
+      <c r="C156" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="D156" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="E156" t="n">
+        <v>40.35</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2207.6622</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-529803.5482163501</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>39</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="C157" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="D157" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="E157" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1624.2417</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-529803.5482163501</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>39</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="C158" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="D158" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="E158" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="F158" t="n">
+        <v>20962.2274</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-529803.5482163501</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>39</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="C159" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="D159" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="E159" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="F159" t="n">
+        <v>81.85290000000001</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-529721.6953163501</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>39</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="C160" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="D160" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="E160" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="F160" t="n">
+        <v>170.3539</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-529721.6953163501</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>39</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="C161" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D161" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="E161" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F161" t="n">
+        <v>494.1589</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-529227.53641635</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>39</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C162" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E162" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="F162" t="n">
+        <v>827.6673</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-530055.20371635</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>39</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="C163" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="D163" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E163" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="F163" t="n">
+        <v>3359.0878</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-530055.20371635</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>39</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="C164" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="D164" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="F164" t="n">
+        <v>20374.5089</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-550429.71261635</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>39</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="C165" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="E165" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="F165" t="n">
+        <v>901.6179</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-551331.33051635</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>39</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="C166" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="D166" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="E166" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="F166" t="n">
+        <v>140</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-551191.33051635</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>39</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>40.56</v>
+      </c>
+      <c r="C167" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D167" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E167" t="n">
+        <v>40.56</v>
+      </c>
+      <c r="F167" t="n">
+        <v>32000</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-519191.33051635</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>39</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C168" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D168" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F168" t="n">
+        <v>8810.4503</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-519191.33051635</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>39</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="C169" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="D169" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="E169" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="F169" t="n">
+        <v>28.2844</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-519163.04611635</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>39</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="C170" t="n">
+        <v>40.61</v>
+      </c>
+      <c r="D170" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="E170" t="n">
+        <v>40.61</v>
+      </c>
+      <c r="F170" t="n">
+        <v>19654.6911</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-538817.73721635</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>39</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C171" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="D171" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E171" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="F171" t="n">
+        <v>18312.6911</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-557130.4283163501</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>39</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="C172" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="D172" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="E172" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="F172" t="n">
+        <v>286.9836</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-556843.4447163501</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>39</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="C173" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D173" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F173" t="n">
+        <v>600.5829</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-556242.86181635</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>39</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="C174" t="n">
+        <v>40.53</v>
+      </c>
+      <c r="D174" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="E174" t="n">
+        <v>40.53</v>
+      </c>
+      <c r="F174" t="n">
+        <v>3158.2957</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-559401.15751635</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>39</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>40.67</v>
+      </c>
+      <c r="C175" t="n">
+        <v>40.67</v>
+      </c>
+      <c r="D175" t="n">
+        <v>40.67</v>
+      </c>
+      <c r="E175" t="n">
+        <v>40.67</v>
+      </c>
+      <c r="F175" t="n">
+        <v>200</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-559201.15751635</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>39</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="C176" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="E176" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F176" t="n">
+        <v>568.2486</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-558632.90891635</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>39</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="C177" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="D177" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="E177" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="F177" t="n">
+        <v>216.4273</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-558416.48161635</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>39</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
         <v>40.98</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C178" t="n">
         <v>41.1</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D178" t="n">
         <v>41.1</v>
       </c>
-      <c r="E149" t="n">
+      <c r="E178" t="n">
         <v>40.98</v>
       </c>
-      <c r="F149" t="n">
+      <c r="F178" t="n">
         <v>2450</v>
       </c>
-      <c r="G149" t="n">
-        <v>40.62799999999996</v>
-      </c>
-      <c r="H149" t="n">
-        <v>40.07366666666669</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>1</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="n">
+      <c r="G178" t="n">
+        <v>-555966.48161635</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>39</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest XEM.xlsx
+++ b/BackTest/2020-01-16 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M178"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>39.45</v>
+        <v>40.3</v>
       </c>
       <c r="C2" t="n">
-        <v>39.45</v>
+        <v>40.3</v>
       </c>
       <c r="D2" t="n">
-        <v>39.45</v>
+        <v>40.3</v>
       </c>
       <c r="E2" t="n">
-        <v>39.45</v>
+        <v>40.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1114</v>
+        <v>1838.3571</v>
       </c>
       <c r="G2" t="n">
-        <v>-158547.5467287901</v>
+        <v>-506330.0980668502</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>39.47</v>
+        <v>40.29</v>
       </c>
       <c r="C3" t="n">
-        <v>39.46</v>
+        <v>40.29</v>
       </c>
       <c r="D3" t="n">
-        <v>39.47</v>
+        <v>40.29</v>
       </c>
       <c r="E3" t="n">
-        <v>39.46</v>
+        <v>40.29</v>
       </c>
       <c r="F3" t="n">
-        <v>9052.911899999999</v>
+        <v>3096</v>
       </c>
       <c r="G3" t="n">
-        <v>-149494.6348287901</v>
+        <v>-509426.0980668502</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.45</v>
+        <v>40.29</v>
       </c>
       <c r="C4" t="n">
-        <v>38.85</v>
+        <v>40.29</v>
       </c>
       <c r="D4" t="n">
-        <v>39.45</v>
+        <v>40.29</v>
       </c>
       <c r="E4" t="n">
-        <v>38.85</v>
+        <v>40.29</v>
       </c>
       <c r="F4" t="n">
-        <v>28182.9198</v>
+        <v>3096</v>
       </c>
       <c r="G4" t="n">
-        <v>-177677.5546287901</v>
+        <v>-509426.0980668502</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39.65</v>
+        <v>40.3</v>
       </c>
       <c r="C5" t="n">
-        <v>39.65</v>
+        <v>40.3</v>
       </c>
       <c r="D5" t="n">
-        <v>39.65</v>
+        <v>40.3</v>
       </c>
       <c r="E5" t="n">
-        <v>39.65</v>
+        <v>40.3</v>
       </c>
       <c r="F5" t="n">
-        <v>360</v>
+        <v>136</v>
       </c>
       <c r="G5" t="n">
-        <v>-177317.5546287901</v>
+        <v>-509290.0980668502</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39.59</v>
+        <v>40.29</v>
       </c>
       <c r="C6" t="n">
-        <v>39.52</v>
+        <v>40.29</v>
       </c>
       <c r="D6" t="n">
-        <v>39.59</v>
+        <v>40.29</v>
       </c>
       <c r="E6" t="n">
-        <v>39.52</v>
+        <v>40.29</v>
       </c>
       <c r="F6" t="n">
-        <v>37000</v>
+        <v>3096</v>
       </c>
       <c r="G6" t="n">
-        <v>-214317.5546287901</v>
+        <v>-512386.0980668502</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39.65</v>
+        <v>40.29</v>
       </c>
       <c r="C7" t="n">
-        <v>39.81</v>
+        <v>40.29</v>
       </c>
       <c r="D7" t="n">
-        <v>39.81</v>
+        <v>40.29</v>
       </c>
       <c r="E7" t="n">
-        <v>39.65</v>
+        <v>40.29</v>
       </c>
       <c r="F7" t="n">
-        <v>7948.1472</v>
+        <v>825.5366</v>
       </c>
       <c r="G7" t="n">
-        <v>-206369.4074287901</v>
+        <v>-512386.0980668502</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.14</v>
+        <v>40.13</v>
       </c>
       <c r="C8" t="n">
-        <v>40.34</v>
+        <v>39.99</v>
       </c>
       <c r="D8" t="n">
-        <v>40.43</v>
+        <v>40.13</v>
       </c>
       <c r="E8" t="n">
-        <v>40.14</v>
+        <v>39.99</v>
       </c>
       <c r="F8" t="n">
-        <v>24460.2791</v>
+        <v>3531.1215</v>
       </c>
       <c r="G8" t="n">
-        <v>-181909.1283287901</v>
+        <v>-515917.2195668502</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40.12</v>
+        <v>40.19</v>
       </c>
       <c r="C9" t="n">
-        <v>40.12</v>
+        <v>40.19</v>
       </c>
       <c r="D9" t="n">
-        <v>40.12</v>
+        <v>40.19</v>
       </c>
       <c r="E9" t="n">
-        <v>40.12</v>
+        <v>40.19</v>
       </c>
       <c r="F9" t="n">
-        <v>510.8382</v>
+        <v>811.8513</v>
       </c>
       <c r="G9" t="n">
-        <v>-182419.9665287901</v>
+        <v>-515105.3682668502</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>40.2</v>
+        <v>40.19</v>
       </c>
       <c r="C10" t="n">
-        <v>40.2</v>
+        <v>40.18</v>
       </c>
       <c r="D10" t="n">
-        <v>40.2</v>
+        <v>40.19</v>
       </c>
       <c r="E10" t="n">
-        <v>40.2</v>
+        <v>40.18</v>
       </c>
       <c r="F10" t="n">
-        <v>11427.9936</v>
+        <v>4180.6615</v>
       </c>
       <c r="G10" t="n">
-        <v>-170991.9729287901</v>
+        <v>-519286.0297668502</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>40.2</v>
+        <v>40.19</v>
       </c>
       <c r="C11" t="n">
-        <v>40.2</v>
+        <v>39.82</v>
       </c>
       <c r="D11" t="n">
-        <v>40.2</v>
+        <v>40.19</v>
       </c>
       <c r="E11" t="n">
-        <v>40.2</v>
+        <v>39.82</v>
       </c>
       <c r="F11" t="n">
-        <v>1800</v>
+        <v>38335.7816</v>
       </c>
       <c r="G11" t="n">
-        <v>-170991.9729287901</v>
+        <v>-557621.8113668502</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>40.44</v>
+        <v>40.19</v>
       </c>
       <c r="C12" t="n">
-        <v>40.44</v>
+        <v>40.2</v>
       </c>
       <c r="D12" t="n">
-        <v>40.44</v>
+        <v>40.2</v>
       </c>
       <c r="E12" t="n">
-        <v>40.44</v>
+        <v>40.19</v>
       </c>
       <c r="F12" t="n">
-        <v>5163.0749</v>
+        <v>4246.1647</v>
       </c>
       <c r="G12" t="n">
-        <v>-165828.8980287901</v>
+        <v>-553375.6466668502</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>40.44</v>
+        <v>40.29</v>
       </c>
       <c r="C13" t="n">
-        <v>40.44</v>
+        <v>40.29</v>
       </c>
       <c r="D13" t="n">
-        <v>40.44</v>
+        <v>40.29</v>
       </c>
       <c r="E13" t="n">
-        <v>40.44</v>
+        <v>40.29</v>
       </c>
       <c r="F13" t="n">
-        <v>686.5986</v>
+        <v>16695</v>
       </c>
       <c r="G13" t="n">
-        <v>-165828.8980287901</v>
+        <v>-536680.6466668502</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40.48</v>
+        <v>40.29</v>
       </c>
       <c r="C14" t="n">
-        <v>40.69</v>
+        <v>40.29</v>
       </c>
       <c r="D14" t="n">
-        <v>40.69</v>
+        <v>40.29</v>
       </c>
       <c r="E14" t="n">
-        <v>40.48</v>
+        <v>40.29</v>
       </c>
       <c r="F14" t="n">
-        <v>32974.8565</v>
+        <v>6192</v>
       </c>
       <c r="G14" t="n">
-        <v>-132854.0415287901</v>
+        <v>-536680.6466668502</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40.64</v>
+        <v>40.3</v>
       </c>
       <c r="C15" t="n">
-        <v>40.68</v>
+        <v>40.3</v>
       </c>
       <c r="D15" t="n">
-        <v>40.68</v>
+        <v>40.3</v>
       </c>
       <c r="E15" t="n">
-        <v>40.64</v>
+        <v>40.3</v>
       </c>
       <c r="F15" t="n">
-        <v>5665.3891</v>
+        <v>135.3292</v>
       </c>
       <c r="G15" t="n">
-        <v>-138519.4306287901</v>
+        <v>-536545.3174668502</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>40.5</v>
+        <v>40.58</v>
       </c>
       <c r="C16" t="n">
-        <v>40.5</v>
+        <v>40.58</v>
       </c>
       <c r="D16" t="n">
-        <v>40.5</v>
+        <v>40.58</v>
       </c>
       <c r="E16" t="n">
-        <v>40.5</v>
+        <v>40.58</v>
       </c>
       <c r="F16" t="n">
-        <v>837.5477</v>
+        <v>300</v>
       </c>
       <c r="G16" t="n">
-        <v>-139356.9783287901</v>
+        <v>-536245.3174668502</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>40.44</v>
+        <v>40.59</v>
       </c>
       <c r="C17" t="n">
-        <v>40.44</v>
+        <v>40.59</v>
       </c>
       <c r="D17" t="n">
-        <v>40.44</v>
+        <v>40.59</v>
       </c>
       <c r="E17" t="n">
-        <v>40.44</v>
+        <v>40.59</v>
       </c>
       <c r="F17" t="n">
-        <v>5764.8731</v>
+        <v>2109.6862</v>
       </c>
       <c r="G17" t="n">
-        <v>-145121.8514287901</v>
+        <v>-534135.6312668502</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>40.4</v>
+        <v>40.61</v>
       </c>
       <c r="C18" t="n">
-        <v>40.2</v>
+        <v>40.63</v>
       </c>
       <c r="D18" t="n">
-        <v>40.4</v>
+        <v>40.63</v>
       </c>
       <c r="E18" t="n">
-        <v>40.2</v>
+        <v>40.61</v>
       </c>
       <c r="F18" t="n">
-        <v>1610.3168</v>
+        <v>4502.4575</v>
       </c>
       <c r="G18" t="n">
-        <v>-146732.1682287901</v>
+        <v>-529633.1737668501</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>40.5</v>
+        <v>40.64</v>
       </c>
       <c r="C19" t="n">
-        <v>40.68</v>
+        <v>40.64</v>
       </c>
       <c r="D19" t="n">
-        <v>40.68</v>
+        <v>40.64</v>
       </c>
       <c r="E19" t="n">
-        <v>40.5</v>
+        <v>40.64</v>
       </c>
       <c r="F19" t="n">
-        <v>33000</v>
+        <v>276.1672</v>
       </c>
       <c r="G19" t="n">
-        <v>-113732.1682287901</v>
+        <v>-529357.0065668501</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>40.66</v>
+        <v>40.64</v>
       </c>
       <c r="C20" t="n">
-        <v>40.66</v>
+        <v>40.75</v>
       </c>
       <c r="D20" t="n">
-        <v>40.66</v>
+        <v>40.75</v>
       </c>
       <c r="E20" t="n">
-        <v>40.66</v>
+        <v>40.64</v>
       </c>
       <c r="F20" t="n">
-        <v>163.944909</v>
+        <v>1015.4588</v>
       </c>
       <c r="G20" t="n">
-        <v>-113896.1131377901</v>
+        <v>-528341.5477668501</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>40.63</v>
+        <v>40.86</v>
       </c>
       <c r="C21" t="n">
-        <v>40.63</v>
+        <v>40.86</v>
       </c>
       <c r="D21" t="n">
-        <v>40.63</v>
+        <v>40.86</v>
       </c>
       <c r="E21" t="n">
-        <v>40.63</v>
+        <v>40.86</v>
       </c>
       <c r="F21" t="n">
-        <v>5156.8212</v>
+        <v>13000.0438</v>
       </c>
       <c r="G21" t="n">
-        <v>-119052.9343377901</v>
+        <v>-515341.5039668501</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,34 +1151,35 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>40.4</v>
+        <v>40.86</v>
       </c>
       <c r="C22" t="n">
-        <v>40.4</v>
+        <v>40.86</v>
       </c>
       <c r="D22" t="n">
-        <v>40.4</v>
+        <v>40.86</v>
       </c>
       <c r="E22" t="n">
-        <v>40.4</v>
+        <v>40.86</v>
       </c>
       <c r="F22" t="n">
-        <v>1019.5092</v>
+        <v>2627.7883</v>
       </c>
       <c r="G22" t="n">
-        <v>-120072.4435377901</v>
+        <v>-515341.5039668501</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,34 +1187,35 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>40.4</v>
+        <v>40.86</v>
       </c>
       <c r="C23" t="n">
-        <v>40.4</v>
+        <v>40.86</v>
       </c>
       <c r="D23" t="n">
-        <v>40.4</v>
+        <v>40.86</v>
       </c>
       <c r="E23" t="n">
-        <v>40.4</v>
+        <v>40.86</v>
       </c>
       <c r="F23" t="n">
-        <v>3546.048</v>
+        <v>18284.4853</v>
       </c>
       <c r="G23" t="n">
-        <v>-120072.4435377901</v>
+        <v>-515341.5039668501</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1197,34 +1223,35 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>40.4</v>
+        <v>40.86</v>
       </c>
       <c r="C24" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="D24" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="E24" t="n">
-        <v>40.4</v>
+        <v>40.86</v>
       </c>
       <c r="F24" t="n">
-        <v>1069.6537</v>
+        <v>8265.8428</v>
       </c>
       <c r="G24" t="n">
-        <v>-120072.4435377901</v>
+        <v>-507075.6611668501</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>40.4</v>
+        <v>40.99</v>
       </c>
       <c r="C25" t="n">
-        <v>40.25</v>
+        <v>41</v>
       </c>
       <c r="D25" t="n">
-        <v>40.4</v>
+        <v>41</v>
       </c>
       <c r="E25" t="n">
-        <v>40.25</v>
+        <v>40.99</v>
       </c>
       <c r="F25" t="n">
-        <v>11710.5827</v>
+        <v>9171.518099999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-131783.0262377901</v>
+        <v>-507075.6611668501</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>40.66</v>
+        <v>41</v>
       </c>
       <c r="C26" t="n">
-        <v>41.49</v>
+        <v>41</v>
       </c>
       <c r="D26" t="n">
-        <v>41.49</v>
+        <v>41</v>
       </c>
       <c r="E26" t="n">
-        <v>40.66</v>
+        <v>41</v>
       </c>
       <c r="F26" t="n">
-        <v>87691.0344</v>
+        <v>5649.3255</v>
       </c>
       <c r="G26" t="n">
-        <v>-44091.99183779009</v>
+        <v>-507075.6611668501</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>41.48</v>
+        <v>41.1</v>
       </c>
       <c r="C27" t="n">
-        <v>41.03</v>
+        <v>41.1</v>
       </c>
       <c r="D27" t="n">
-        <v>41.49</v>
+        <v>41.1</v>
       </c>
       <c r="E27" t="n">
-        <v>40.93</v>
+        <v>41.1</v>
       </c>
       <c r="F27" t="n">
-        <v>42831.2306</v>
+        <v>135.15815085</v>
       </c>
       <c r="G27" t="n">
-        <v>-86923.2224377901</v>
+        <v>-506940.5030160001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="C28" t="n">
-        <v>40.93</v>
+        <v>41.1</v>
       </c>
       <c r="D28" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="E28" t="n">
-        <v>40.93</v>
+        <v>41.1</v>
       </c>
       <c r="F28" t="n">
-        <v>86307.414</v>
+        <v>108.12652068</v>
       </c>
       <c r="G28" t="n">
-        <v>-173230.6364377901</v>
+        <v>-506940.5030160001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40.71</v>
+        <v>41.1</v>
       </c>
       <c r="C29" t="n">
-        <v>40.71</v>
+        <v>41</v>
       </c>
       <c r="D29" t="n">
-        <v>40.71</v>
+        <v>41.1</v>
       </c>
       <c r="E29" t="n">
-        <v>40.71</v>
+        <v>41</v>
       </c>
       <c r="F29" t="n">
-        <v>9374.0913</v>
+        <v>836.7383</v>
       </c>
       <c r="G29" t="n">
-        <v>-182604.7277377901</v>
+        <v>-507777.2413160002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,34 +1439,35 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>40.7</v>
+        <v>40.86</v>
       </c>
       <c r="C30" t="n">
-        <v>40.61</v>
+        <v>40.86</v>
       </c>
       <c r="D30" t="n">
-        <v>40.7</v>
+        <v>40.86</v>
       </c>
       <c r="E30" t="n">
-        <v>40.61</v>
+        <v>40.86</v>
       </c>
       <c r="F30" t="n">
-        <v>11185.5661</v>
+        <v>9288</v>
       </c>
       <c r="G30" t="n">
-        <v>-193790.2938377901</v>
+        <v>-517065.2413160002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,34 +1475,35 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>40.61</v>
+        <v>40.86</v>
       </c>
       <c r="C31" t="n">
-        <v>40.6</v>
+        <v>40.86</v>
       </c>
       <c r="D31" t="n">
-        <v>40.61</v>
+        <v>40.86</v>
       </c>
       <c r="E31" t="n">
-        <v>40.5</v>
+        <v>40.86</v>
       </c>
       <c r="F31" t="n">
-        <v>86270.77692906</v>
+        <v>9353.6602</v>
       </c>
       <c r="G31" t="n">
-        <v>-280061.0707668501</v>
+        <v>-517065.2413160002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,34 +1511,35 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>40.6</v>
+        <v>40.79</v>
       </c>
       <c r="C32" t="n">
-        <v>40.47</v>
+        <v>40.79</v>
       </c>
       <c r="D32" t="n">
-        <v>40.6</v>
+        <v>40.79</v>
       </c>
       <c r="E32" t="n">
-        <v>40.47</v>
+        <v>40.79</v>
       </c>
       <c r="F32" t="n">
-        <v>61691</v>
+        <v>28646.7454</v>
       </c>
       <c r="G32" t="n">
-        <v>-341752.0707668501</v>
+        <v>-545711.9867160001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,34 +1547,35 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>40.47</v>
+        <v>40.41</v>
       </c>
       <c r="C33" t="n">
-        <v>40.47</v>
+        <v>40.41</v>
       </c>
       <c r="D33" t="n">
-        <v>40.47</v>
+        <v>40.41</v>
       </c>
       <c r="E33" t="n">
-        <v>40.15</v>
+        <v>40.41</v>
       </c>
       <c r="F33" t="n">
-        <v>143171.9502</v>
+        <v>127.561</v>
       </c>
       <c r="G33" t="n">
-        <v>-341752.0707668501</v>
+        <v>-545839.5477160001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1547,34 +1583,35 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>40.25</v>
+        <v>40.41</v>
       </c>
       <c r="C34" t="n">
-        <v>40.25</v>
+        <v>40.41</v>
       </c>
       <c r="D34" t="n">
-        <v>40.25</v>
+        <v>40.41</v>
       </c>
       <c r="E34" t="n">
-        <v>40.25</v>
+        <v>40.41</v>
       </c>
       <c r="F34" t="n">
-        <v>576.5519</v>
+        <v>157</v>
       </c>
       <c r="G34" t="n">
-        <v>-342328.6226668502</v>
+        <v>-545839.5477160001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,34 +1619,35 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>40.22</v>
+        <v>40.41</v>
       </c>
       <c r="C35" t="n">
-        <v>40.22</v>
+        <v>40</v>
       </c>
       <c r="D35" t="n">
-        <v>40.22</v>
+        <v>40.41</v>
       </c>
       <c r="E35" t="n">
-        <v>40.22</v>
+        <v>40</v>
       </c>
       <c r="F35" t="n">
-        <v>438.6667</v>
+        <v>1496.3215</v>
       </c>
       <c r="G35" t="n">
-        <v>-342767.2893668502</v>
+        <v>-547335.8692160001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,34 +1655,35 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>40.47</v>
+        <v>39.94</v>
       </c>
       <c r="C36" t="n">
-        <v>40.61</v>
+        <v>40</v>
       </c>
       <c r="D36" t="n">
-        <v>40.61</v>
+        <v>40</v>
       </c>
       <c r="E36" t="n">
-        <v>40.47</v>
+        <v>39.94</v>
       </c>
       <c r="F36" t="n">
-        <v>2962.9188</v>
+        <v>25120.5468</v>
       </c>
       <c r="G36" t="n">
-        <v>-339804.3705668502</v>
+        <v>-547335.8692160001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>40.61</v>
+        <v>40</v>
       </c>
       <c r="C37" t="n">
-        <v>40.11</v>
+        <v>40</v>
       </c>
       <c r="D37" t="n">
-        <v>40.61</v>
+        <v>40</v>
       </c>
       <c r="E37" t="n">
-        <v>40.11</v>
+        <v>40</v>
       </c>
       <c r="F37" t="n">
-        <v>134594.7654</v>
+        <v>0.0001</v>
       </c>
       <c r="G37" t="n">
-        <v>-474399.1359668502</v>
+        <v>-547335.8692160001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>40.51</v>
+        <v>40.13</v>
       </c>
       <c r="C38" t="n">
-        <v>40.49</v>
+        <v>40.13</v>
       </c>
       <c r="D38" t="n">
-        <v>40.51</v>
+        <v>40.13</v>
       </c>
       <c r="E38" t="n">
-        <v>40.4</v>
+        <v>40.13</v>
       </c>
       <c r="F38" t="n">
-        <v>18398.418</v>
+        <v>30</v>
       </c>
       <c r="G38" t="n">
-        <v>-456000.7179668502</v>
+        <v>-547305.8692160001</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>40.28</v>
+        <v>40.45</v>
       </c>
       <c r="C39" t="n">
-        <v>40.27</v>
+        <v>40.45</v>
       </c>
       <c r="D39" t="n">
-        <v>40.29</v>
+        <v>40.45</v>
       </c>
       <c r="E39" t="n">
-        <v>40.27</v>
+        <v>40.45</v>
       </c>
       <c r="F39" t="n">
-        <v>54422.953</v>
+        <v>222.00247218</v>
       </c>
       <c r="G39" t="n">
-        <v>-510423.6709668502</v>
+        <v>-547083.8667438201</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>40.28</v>
+        <v>40.11</v>
       </c>
       <c r="C40" t="n">
-        <v>40.28</v>
+        <v>40.1</v>
       </c>
       <c r="D40" t="n">
-        <v>40.28</v>
+        <v>40.11</v>
       </c>
       <c r="E40" t="n">
-        <v>40.28</v>
+        <v>40.1</v>
       </c>
       <c r="F40" t="n">
-        <v>2075.1618</v>
+        <v>1241.7296</v>
       </c>
       <c r="G40" t="n">
-        <v>-508348.5091668502</v>
+        <v>-548325.5963438201</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>40.29</v>
+        <v>39.91</v>
       </c>
       <c r="C41" t="n">
-        <v>40.29</v>
+        <v>39.91</v>
       </c>
       <c r="D41" t="n">
-        <v>40.29</v>
+        <v>39.91</v>
       </c>
       <c r="E41" t="n">
-        <v>40.29</v>
+        <v>39.91</v>
       </c>
       <c r="F41" t="n">
-        <v>9723.917100000001</v>
+        <v>77.2388</v>
       </c>
       <c r="G41" t="n">
-        <v>-498624.5920668502</v>
+        <v>-548402.8351438201</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>40.29</v>
+        <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>40.29</v>
+        <v>40</v>
       </c>
       <c r="D42" t="n">
-        <v>40.29</v>
+        <v>40</v>
       </c>
       <c r="E42" t="n">
-        <v>40.29</v>
+        <v>40</v>
       </c>
       <c r="F42" t="n">
-        <v>1298.0172</v>
+        <v>23035.0388</v>
       </c>
       <c r="G42" t="n">
-        <v>-498624.5920668502</v>
+        <v>-525367.7963438202</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>40.28</v>
+        <v>40</v>
       </c>
       <c r="C43" t="n">
-        <v>40.28</v>
+        <v>39.79</v>
       </c>
       <c r="D43" t="n">
-        <v>40.28</v>
+        <v>40</v>
       </c>
       <c r="E43" t="n">
-        <v>40.28</v>
+        <v>39.79</v>
       </c>
       <c r="F43" t="n">
-        <v>9543.8631</v>
+        <v>20190.4425</v>
       </c>
       <c r="G43" t="n">
-        <v>-508168.4551668502</v>
+        <v>-545558.2388438202</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>40.3</v>
+        <v>39.65</v>
       </c>
       <c r="C44" t="n">
-        <v>40.3</v>
+        <v>39.31</v>
       </c>
       <c r="D44" t="n">
-        <v>40.3</v>
+        <v>39.65</v>
       </c>
       <c r="E44" t="n">
-        <v>40.3</v>
+        <v>39.31</v>
       </c>
       <c r="F44" t="n">
-        <v>1838.3571</v>
+        <v>84865.18120000001</v>
       </c>
       <c r="G44" t="n">
-        <v>-506330.0980668502</v>
+        <v>-630423.4200438202</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>40.29</v>
+        <v>39.49</v>
       </c>
       <c r="C45" t="n">
-        <v>40.29</v>
+        <v>39.49</v>
       </c>
       <c r="D45" t="n">
-        <v>40.29</v>
+        <v>39.49</v>
       </c>
       <c r="E45" t="n">
-        <v>40.29</v>
+        <v>39.49</v>
       </c>
       <c r="F45" t="n">
-        <v>3096</v>
+        <v>1010</v>
       </c>
       <c r="G45" t="n">
-        <v>-509426.0980668502</v>
+        <v>-629413.4200438202</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>40.29</v>
+        <v>39.49</v>
       </c>
       <c r="C46" t="n">
-        <v>40.29</v>
+        <v>39.59</v>
       </c>
       <c r="D46" t="n">
-        <v>40.29</v>
+        <v>39.59</v>
       </c>
       <c r="E46" t="n">
-        <v>40.29</v>
+        <v>39.49</v>
       </c>
       <c r="F46" t="n">
-        <v>3096</v>
+        <v>2846.5479</v>
       </c>
       <c r="G46" t="n">
-        <v>-509426.0980668502</v>
+        <v>-626566.8721438202</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>40.3</v>
+        <v>39.49</v>
       </c>
       <c r="C47" t="n">
-        <v>40.3</v>
+        <v>39.49</v>
       </c>
       <c r="D47" t="n">
-        <v>40.3</v>
+        <v>39.49</v>
       </c>
       <c r="E47" t="n">
-        <v>40.3</v>
+        <v>39.49</v>
       </c>
       <c r="F47" t="n">
-        <v>136</v>
+        <v>1166.3499</v>
       </c>
       <c r="G47" t="n">
-        <v>-509290.0980668502</v>
+        <v>-627733.2220438202</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>40.29</v>
+        <v>39.4</v>
       </c>
       <c r="C48" t="n">
-        <v>40.29</v>
+        <v>39.49</v>
       </c>
       <c r="D48" t="n">
-        <v>40.29</v>
+        <v>39.49</v>
       </c>
       <c r="E48" t="n">
-        <v>40.29</v>
+        <v>39.4</v>
       </c>
       <c r="F48" t="n">
-        <v>3096</v>
+        <v>3251.7122</v>
       </c>
       <c r="G48" t="n">
-        <v>-512386.0980668502</v>
+        <v>-627733.2220438202</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>40.29</v>
+        <v>39.21</v>
       </c>
       <c r="C49" t="n">
-        <v>40.29</v>
+        <v>39.21</v>
       </c>
       <c r="D49" t="n">
-        <v>40.29</v>
+        <v>39.21</v>
       </c>
       <c r="E49" t="n">
-        <v>40.29</v>
+        <v>39.21</v>
       </c>
       <c r="F49" t="n">
-        <v>825.5366</v>
+        <v>4599.8947</v>
       </c>
       <c r="G49" t="n">
-        <v>-512386.0980668502</v>
+        <v>-632333.1167438201</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>40.13</v>
+        <v>39.39</v>
       </c>
       <c r="C50" t="n">
-        <v>39.99</v>
+        <v>39.39</v>
       </c>
       <c r="D50" t="n">
-        <v>40.13</v>
+        <v>39.39</v>
       </c>
       <c r="E50" t="n">
-        <v>39.99</v>
+        <v>39.39</v>
       </c>
       <c r="F50" t="n">
-        <v>3531.1215</v>
+        <v>790.9569</v>
       </c>
       <c r="G50" t="n">
-        <v>-515917.2195668502</v>
+        <v>-631542.1598438201</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,448 +2195,549 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>40.19</v>
+        <v>39.33</v>
       </c>
       <c r="C51" t="n">
-        <v>40.19</v>
+        <v>39.33</v>
       </c>
       <c r="D51" t="n">
-        <v>40.19</v>
+        <v>39.33</v>
       </c>
       <c r="E51" t="n">
-        <v>40.19</v>
+        <v>39.33</v>
       </c>
       <c r="F51" t="n">
-        <v>811.8513</v>
+        <v>11933.2538</v>
       </c>
       <c r="G51" t="n">
-        <v>-515105.3682668502</v>
+        <v>-643475.4136438201</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="K51" t="n">
+        <v>39.39</v>
+      </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>40.19</v>
+        <v>39.01</v>
       </c>
       <c r="C52" t="n">
-        <v>40.18</v>
+        <v>39.01</v>
       </c>
       <c r="D52" t="n">
-        <v>40.19</v>
+        <v>39.01</v>
       </c>
       <c r="E52" t="n">
-        <v>40.18</v>
+        <v>39.01</v>
       </c>
       <c r="F52" t="n">
-        <v>4180.6615</v>
+        <v>106.2698</v>
       </c>
       <c r="G52" t="n">
-        <v>-519286.0297668502</v>
+        <v>-643581.6834438201</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="K52" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>40.19</v>
+        <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.82</v>
+        <v>39</v>
       </c>
       <c r="D53" t="n">
-        <v>40.19</v>
+        <v>39</v>
       </c>
       <c r="E53" t="n">
-        <v>39.82</v>
+        <v>39</v>
       </c>
       <c r="F53" t="n">
-        <v>38335.7816</v>
+        <v>593.7302</v>
       </c>
       <c r="G53" t="n">
-        <v>-557621.8113668502</v>
+        <v>-644175.4136438201</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>39.01</v>
+      </c>
+      <c r="K53" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>40.19</v>
+        <v>39.4</v>
       </c>
       <c r="C54" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="D54" t="n">
-        <v>40.2</v>
+        <v>39.4</v>
       </c>
       <c r="E54" t="n">
-        <v>40.19</v>
+        <v>39.4</v>
       </c>
       <c r="F54" t="n">
-        <v>4246.1647</v>
+        <v>405.8382</v>
       </c>
       <c r="G54" t="n">
-        <v>-553375.6466668502</v>
+        <v>-643769.5754438201</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>39</v>
+      </c>
+      <c r="K54" t="n">
+        <v>39</v>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>40.29</v>
+        <v>39.3</v>
       </c>
       <c r="C55" t="n">
-        <v>40.29</v>
+        <v>39.21</v>
       </c>
       <c r="D55" t="n">
-        <v>40.29</v>
+        <v>39.3</v>
       </c>
       <c r="E55" t="n">
-        <v>40.29</v>
+        <v>39.21</v>
       </c>
       <c r="F55" t="n">
-        <v>16695</v>
+        <v>8203</v>
       </c>
       <c r="G55" t="n">
-        <v>-536680.6466668502</v>
+        <v>-651972.5754438201</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K55" t="n">
+        <v>39</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>40.29</v>
+        <v>39.1</v>
       </c>
       <c r="C56" t="n">
-        <v>40.29</v>
+        <v>39.1</v>
       </c>
       <c r="D56" t="n">
-        <v>40.29</v>
+        <v>39.1</v>
       </c>
       <c r="E56" t="n">
-        <v>40.29</v>
+        <v>39.1</v>
       </c>
       <c r="F56" t="n">
-        <v>6192</v>
+        <v>850.9632</v>
       </c>
       <c r="G56" t="n">
-        <v>-536680.6466668502</v>
+        <v>-652823.5386438201</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="K56" t="n">
+        <v>39</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>40.3</v>
+        <v>39</v>
       </c>
       <c r="C57" t="n">
-        <v>40.3</v>
+        <v>38.93</v>
       </c>
       <c r="D57" t="n">
-        <v>40.3</v>
+        <v>39</v>
       </c>
       <c r="E57" t="n">
-        <v>40.3</v>
+        <v>38.93</v>
       </c>
       <c r="F57" t="n">
-        <v>135.3292</v>
+        <v>5041.3508</v>
       </c>
       <c r="G57" t="n">
-        <v>-536545.3174668502</v>
+        <v>-657864.8894438201</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="K57" t="n">
+        <v>39</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>40.58</v>
+        <v>39.01</v>
       </c>
       <c r="C58" t="n">
-        <v>40.58</v>
+        <v>39.3</v>
       </c>
       <c r="D58" t="n">
-        <v>40.58</v>
+        <v>39.3</v>
       </c>
       <c r="E58" t="n">
-        <v>40.58</v>
+        <v>38.86</v>
       </c>
       <c r="F58" t="n">
-        <v>300</v>
+        <v>18195.5263</v>
       </c>
       <c r="G58" t="n">
-        <v>-536245.3174668502</v>
+        <v>-639669.3631438201</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>38.93</v>
+      </c>
+      <c r="K58" t="n">
+        <v>39</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>40.59</v>
+        <v>39.37</v>
       </c>
       <c r="C59" t="n">
-        <v>40.59</v>
+        <v>39.37</v>
       </c>
       <c r="D59" t="n">
-        <v>40.59</v>
+        <v>39.37</v>
       </c>
       <c r="E59" t="n">
-        <v>40.59</v>
+        <v>39.37</v>
       </c>
       <c r="F59" t="n">
-        <v>2109.6862</v>
+        <v>672.2988</v>
       </c>
       <c r="G59" t="n">
-        <v>-534135.6312668502</v>
+        <v>-638997.0643438201</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="K59" t="n">
+        <v>39</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>40.61</v>
+        <v>39.32</v>
       </c>
       <c r="C60" t="n">
-        <v>40.63</v>
+        <v>39.32</v>
       </c>
       <c r="D60" t="n">
-        <v>40.63</v>
+        <v>39.32</v>
       </c>
       <c r="E60" t="n">
-        <v>40.61</v>
+        <v>39.32</v>
       </c>
       <c r="F60" t="n">
-        <v>4502.4575</v>
+        <v>259.792</v>
       </c>
       <c r="G60" t="n">
-        <v>-529633.1737668501</v>
+        <v>-639256.8563438201</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>39.37</v>
+      </c>
+      <c r="K60" t="n">
+        <v>39</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>40.64</v>
+        <v>39.32</v>
       </c>
       <c r="C61" t="n">
-        <v>40.64</v>
+        <v>39.32</v>
       </c>
       <c r="D61" t="n">
-        <v>40.64</v>
+        <v>39.32</v>
       </c>
       <c r="E61" t="n">
-        <v>40.64</v>
+        <v>39.32</v>
       </c>
       <c r="F61" t="n">
-        <v>276.1672</v>
+        <v>94.2642</v>
       </c>
       <c r="G61" t="n">
-        <v>-529357.0065668501</v>
+        <v>-639256.8563438201</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="K61" t="n">
+        <v>39</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>40.64</v>
+        <v>39.32</v>
       </c>
       <c r="C62" t="n">
-        <v>40.75</v>
+        <v>39.32</v>
       </c>
       <c r="D62" t="n">
-        <v>40.75</v>
+        <v>39.32</v>
       </c>
       <c r="E62" t="n">
-        <v>40.64</v>
+        <v>39.32</v>
       </c>
       <c r="F62" t="n">
-        <v>1015.4588</v>
+        <v>161.1918</v>
       </c>
       <c r="G62" t="n">
-        <v>-528341.5477668501</v>
+        <v>-639256.8563438201</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="K62" t="n">
+        <v>39</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>40.86</v>
+        <v>39.42</v>
       </c>
       <c r="C63" t="n">
-        <v>40.86</v>
+        <v>39.42</v>
       </c>
       <c r="D63" t="n">
-        <v>40.86</v>
+        <v>39.42</v>
       </c>
       <c r="E63" t="n">
-        <v>40.86</v>
+        <v>39.42</v>
       </c>
       <c r="F63" t="n">
-        <v>13000.0438</v>
+        <v>14004.2012</v>
       </c>
       <c r="G63" t="n">
-        <v>-515341.5039668501</v>
+        <v>-625252.6551438201</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,33 +2746,40 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>39</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>40.86</v>
+        <v>39.42</v>
       </c>
       <c r="C64" t="n">
-        <v>40.86</v>
+        <v>39.42</v>
       </c>
       <c r="D64" t="n">
-        <v>40.86</v>
+        <v>39.42</v>
       </c>
       <c r="E64" t="n">
-        <v>40.86</v>
+        <v>39.42</v>
       </c>
       <c r="F64" t="n">
-        <v>2627.7883</v>
+        <v>2439.7319</v>
       </c>
       <c r="G64" t="n">
-        <v>-515341.5039668501</v>
+        <v>-625252.6551438201</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,33 +2788,40 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>39</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>40.86</v>
+        <v>39.22</v>
       </c>
       <c r="C65" t="n">
-        <v>40.86</v>
+        <v>39.22</v>
       </c>
       <c r="D65" t="n">
-        <v>40.86</v>
+        <v>39.22</v>
       </c>
       <c r="E65" t="n">
-        <v>40.86</v>
+        <v>39.22</v>
       </c>
       <c r="F65" t="n">
-        <v>18284.4853</v>
+        <v>280.0012</v>
       </c>
       <c r="G65" t="n">
-        <v>-515341.5039668501</v>
+        <v>-625532.6563438202</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,33 +2830,40 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>39</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>40.86</v>
+        <v>39.42</v>
       </c>
       <c r="C66" t="n">
-        <v>41</v>
+        <v>39.42</v>
       </c>
       <c r="D66" t="n">
-        <v>41</v>
+        <v>39.42</v>
       </c>
       <c r="E66" t="n">
-        <v>40.86</v>
+        <v>39.42</v>
       </c>
       <c r="F66" t="n">
-        <v>8265.8428</v>
+        <v>13941.1822</v>
       </c>
       <c r="G66" t="n">
-        <v>-507075.6611668501</v>
+        <v>-611591.4741438201</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,33 +2872,40 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>39</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>40.99</v>
+        <v>39.41</v>
       </c>
       <c r="C67" t="n">
-        <v>41</v>
+        <v>39.41</v>
       </c>
       <c r="D67" t="n">
-        <v>41</v>
+        <v>39.41</v>
       </c>
       <c r="E67" t="n">
-        <v>40.99</v>
+        <v>39.41</v>
       </c>
       <c r="F67" t="n">
-        <v>9171.518099999999</v>
+        <v>6911.4129</v>
       </c>
       <c r="G67" t="n">
-        <v>-507075.6611668501</v>
+        <v>-618502.8870438201</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,33 +2914,40 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>39</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>41</v>
+        <v>39.24</v>
       </c>
       <c r="C68" t="n">
-        <v>41</v>
+        <v>39.24</v>
       </c>
       <c r="D68" t="n">
-        <v>41</v>
+        <v>39.24</v>
       </c>
       <c r="E68" t="n">
-        <v>41</v>
+        <v>39.24</v>
       </c>
       <c r="F68" t="n">
-        <v>5649.3255</v>
+        <v>151.5414</v>
       </c>
       <c r="G68" t="n">
-        <v>-507075.6611668501</v>
+        <v>-618654.4284438201</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,33 +2956,40 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>39</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>41.1</v>
+        <v>39.39</v>
       </c>
       <c r="C69" t="n">
-        <v>41.1</v>
+        <v>39.39</v>
       </c>
       <c r="D69" t="n">
-        <v>41.1</v>
+        <v>39.39</v>
       </c>
       <c r="E69" t="n">
-        <v>41.1</v>
+        <v>39.39</v>
       </c>
       <c r="F69" t="n">
-        <v>135.15815085</v>
+        <v>787.8632</v>
       </c>
       <c r="G69" t="n">
-        <v>-506940.5030160001</v>
+        <v>-617866.5652438201</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,33 +2998,40 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>39</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>41.1</v>
+        <v>39.38</v>
       </c>
       <c r="C70" t="n">
-        <v>41.1</v>
+        <v>39.38</v>
       </c>
       <c r="D70" t="n">
-        <v>41.1</v>
+        <v>39.38</v>
       </c>
       <c r="E70" t="n">
-        <v>41.1</v>
+        <v>39.38</v>
       </c>
       <c r="F70" t="n">
-        <v>108.12652068</v>
+        <v>13958.0021</v>
       </c>
       <c r="G70" t="n">
-        <v>-506940.5030160001</v>
+        <v>-631824.5673438201</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,33 +3040,40 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>39</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>41.1</v>
+        <v>39.24</v>
       </c>
       <c r="C71" t="n">
-        <v>41</v>
+        <v>39.24</v>
       </c>
       <c r="D71" t="n">
-        <v>41.1</v>
+        <v>39.24</v>
       </c>
       <c r="E71" t="n">
-        <v>41</v>
+        <v>39.24</v>
       </c>
       <c r="F71" t="n">
-        <v>836.7383</v>
+        <v>63</v>
       </c>
       <c r="G71" t="n">
-        <v>-507777.2413160002</v>
+        <v>-631887.5673438201</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,33 +3082,40 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>39</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>40.86</v>
+        <v>39.28</v>
       </c>
       <c r="C72" t="n">
-        <v>40.86</v>
+        <v>39.26</v>
       </c>
       <c r="D72" t="n">
-        <v>40.86</v>
+        <v>39.28</v>
       </c>
       <c r="E72" t="n">
-        <v>40.86</v>
+        <v>39.26</v>
       </c>
       <c r="F72" t="n">
-        <v>9288</v>
+        <v>21013.6452</v>
       </c>
       <c r="G72" t="n">
-        <v>-517065.2413160002</v>
+        <v>-610873.9221438201</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,33 +3124,40 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>39</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>40.86</v>
+        <v>39.42</v>
       </c>
       <c r="C73" t="n">
-        <v>40.86</v>
+        <v>39.42</v>
       </c>
       <c r="D73" t="n">
-        <v>40.86</v>
+        <v>39.42</v>
       </c>
       <c r="E73" t="n">
-        <v>40.86</v>
+        <v>39.42</v>
       </c>
       <c r="F73" t="n">
-        <v>9353.6602</v>
+        <v>7350.2049</v>
       </c>
       <c r="G73" t="n">
-        <v>-517065.2413160002</v>
+        <v>-603523.7172438201</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,33 +3166,40 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>39</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>40.79</v>
+        <v>39.42</v>
       </c>
       <c r="C74" t="n">
-        <v>40.79</v>
+        <v>39.42</v>
       </c>
       <c r="D74" t="n">
-        <v>40.79</v>
+        <v>39.42</v>
       </c>
       <c r="E74" t="n">
-        <v>40.79</v>
+        <v>39.42</v>
       </c>
       <c r="F74" t="n">
-        <v>28646.7454</v>
+        <v>2778.7555</v>
       </c>
       <c r="G74" t="n">
-        <v>-545711.9867160001</v>
+        <v>-603523.7172438201</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,33 +3208,40 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>39</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>40.41</v>
+        <v>39.42</v>
       </c>
       <c r="C75" t="n">
-        <v>40.41</v>
+        <v>39.42</v>
       </c>
       <c r="D75" t="n">
-        <v>40.41</v>
+        <v>39.42</v>
       </c>
       <c r="E75" t="n">
-        <v>40.41</v>
+        <v>39.42</v>
       </c>
       <c r="F75" t="n">
-        <v>127.561</v>
+        <v>3515.5367</v>
       </c>
       <c r="G75" t="n">
-        <v>-545839.5477160001</v>
+        <v>-603523.7172438201</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,33 +3250,40 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>39</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>40.41</v>
+        <v>39.42</v>
       </c>
       <c r="C76" t="n">
-        <v>40.41</v>
+        <v>39.42</v>
       </c>
       <c r="D76" t="n">
-        <v>40.41</v>
+        <v>39.42</v>
       </c>
       <c r="E76" t="n">
-        <v>40.41</v>
+        <v>39.42</v>
       </c>
       <c r="F76" t="n">
-        <v>157</v>
+        <v>2902.4032</v>
       </c>
       <c r="G76" t="n">
-        <v>-545839.5477160001</v>
+        <v>-603523.7172438201</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,33 +3292,40 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>39</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>40.41</v>
+        <v>39.63</v>
       </c>
       <c r="C77" t="n">
-        <v>40</v>
+        <v>39.63</v>
       </c>
       <c r="D77" t="n">
-        <v>40.41</v>
+        <v>39.63</v>
       </c>
       <c r="E77" t="n">
-        <v>40</v>
+        <v>39.63</v>
       </c>
       <c r="F77" t="n">
-        <v>1496.3215</v>
+        <v>9809.15972747</v>
       </c>
       <c r="G77" t="n">
-        <v>-547335.8692160001</v>
+        <v>-593714.5575163501</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,33 +3334,40 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>39</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>39.94</v>
+        <v>39.65</v>
       </c>
       <c r="C78" t="n">
-        <v>40</v>
+        <v>39.65</v>
       </c>
       <c r="D78" t="n">
-        <v>40</v>
+        <v>39.65</v>
       </c>
       <c r="E78" t="n">
-        <v>39.94</v>
+        <v>39.65</v>
       </c>
       <c r="F78" t="n">
-        <v>25120.5468</v>
+        <v>35351.8919</v>
       </c>
       <c r="G78" t="n">
-        <v>-547335.8692160001</v>
+        <v>-558362.66561635</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,33 +3376,40 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>39</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>40</v>
+        <v>39.65</v>
       </c>
       <c r="C79" t="n">
-        <v>40</v>
+        <v>39.65</v>
       </c>
       <c r="D79" t="n">
-        <v>40</v>
+        <v>39.65</v>
       </c>
       <c r="E79" t="n">
-        <v>40</v>
+        <v>39.65</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0001</v>
+        <v>635.913</v>
       </c>
       <c r="G79" t="n">
-        <v>-547335.8692160001</v>
+        <v>-558362.66561635</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,33 +3418,40 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>39</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>40.13</v>
+        <v>39.65</v>
       </c>
       <c r="C80" t="n">
-        <v>40.13</v>
+        <v>39.65</v>
       </c>
       <c r="D80" t="n">
-        <v>40.13</v>
+        <v>39.65</v>
       </c>
       <c r="E80" t="n">
-        <v>40.13</v>
+        <v>39.65</v>
       </c>
       <c r="F80" t="n">
-        <v>30</v>
+        <v>573.9102</v>
       </c>
       <c r="G80" t="n">
-        <v>-547305.8692160001</v>
+        <v>-558362.66561635</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,33 +3460,40 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>39</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>40.45</v>
+        <v>39.65</v>
       </c>
       <c r="C81" t="n">
-        <v>40.45</v>
+        <v>39.65</v>
       </c>
       <c r="D81" t="n">
-        <v>40.45</v>
+        <v>39.65</v>
       </c>
       <c r="E81" t="n">
-        <v>40.45</v>
+        <v>39.65</v>
       </c>
       <c r="F81" t="n">
-        <v>222.00247218</v>
+        <v>545.2147</v>
       </c>
       <c r="G81" t="n">
-        <v>-547083.8667438201</v>
+        <v>-558362.66561635</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,33 +3502,40 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>39</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>40.11</v>
+        <v>39.63</v>
       </c>
       <c r="C82" t="n">
-        <v>40.1</v>
+        <v>39.63</v>
       </c>
       <c r="D82" t="n">
-        <v>40.11</v>
+        <v>39.63</v>
       </c>
       <c r="E82" t="n">
-        <v>40.1</v>
+        <v>39.63</v>
       </c>
       <c r="F82" t="n">
-        <v>1241.7296</v>
+        <v>604.4222</v>
       </c>
       <c r="G82" t="n">
-        <v>-548325.5963438201</v>
+        <v>-558967.08781635</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,33 +3544,40 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>39</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>39.91</v>
+        <v>39.64</v>
       </c>
       <c r="C83" t="n">
-        <v>39.91</v>
+        <v>39.64</v>
       </c>
       <c r="D83" t="n">
-        <v>39.91</v>
+        <v>39.64</v>
       </c>
       <c r="E83" t="n">
-        <v>39.91</v>
+        <v>39.64</v>
       </c>
       <c r="F83" t="n">
-        <v>77.2388</v>
+        <v>518.0859</v>
       </c>
       <c r="G83" t="n">
-        <v>-548402.8351438201</v>
+        <v>-558449.0019163501</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,33 +3586,40 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>39</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>40</v>
+        <v>39.62</v>
       </c>
       <c r="C84" t="n">
-        <v>40</v>
+        <v>39.62</v>
       </c>
       <c r="D84" t="n">
-        <v>40</v>
+        <v>39.62</v>
       </c>
       <c r="E84" t="n">
-        <v>40</v>
+        <v>39.62</v>
       </c>
       <c r="F84" t="n">
-        <v>23035.0388</v>
+        <v>492.43</v>
       </c>
       <c r="G84" t="n">
-        <v>-525367.7963438202</v>
+        <v>-558941.4319163501</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,33 +3628,40 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>39</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>40</v>
+        <v>39.52</v>
       </c>
       <c r="C85" t="n">
-        <v>39.79</v>
+        <v>39.52</v>
       </c>
       <c r="D85" t="n">
-        <v>40</v>
+        <v>39.52</v>
       </c>
       <c r="E85" t="n">
-        <v>39.79</v>
+        <v>39.52</v>
       </c>
       <c r="F85" t="n">
-        <v>20190.4425</v>
+        <v>4750.1052</v>
       </c>
       <c r="G85" t="n">
-        <v>-545558.2388438202</v>
+        <v>-563691.5371163501</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,33 +3670,40 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>39</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>39.65</v>
+        <v>39.52</v>
       </c>
       <c r="C86" t="n">
-        <v>39.31</v>
+        <v>39.52</v>
       </c>
       <c r="D86" t="n">
-        <v>39.65</v>
+        <v>39.52</v>
       </c>
       <c r="E86" t="n">
-        <v>39.31</v>
+        <v>39.52</v>
       </c>
       <c r="F86" t="n">
-        <v>84865.18120000001</v>
+        <v>1154</v>
       </c>
       <c r="G86" t="n">
-        <v>-630423.4200438202</v>
+        <v>-563691.5371163501</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,33 +3712,40 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>39</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>39.49</v>
+        <v>39.52</v>
       </c>
       <c r="C87" t="n">
-        <v>39.49</v>
+        <v>39.52</v>
       </c>
       <c r="D87" t="n">
-        <v>39.49</v>
+        <v>39.52</v>
       </c>
       <c r="E87" t="n">
-        <v>39.49</v>
+        <v>39.52</v>
       </c>
       <c r="F87" t="n">
-        <v>1010</v>
+        <v>4994.247</v>
       </c>
       <c r="G87" t="n">
-        <v>-629413.4200438202</v>
+        <v>-563691.5371163501</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3432,33 +3754,40 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>39</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>39.49</v>
+        <v>39.42</v>
       </c>
       <c r="C88" t="n">
-        <v>39.59</v>
+        <v>39.42</v>
       </c>
       <c r="D88" t="n">
-        <v>39.59</v>
+        <v>39.42</v>
       </c>
       <c r="E88" t="n">
-        <v>39.49</v>
+        <v>39.42</v>
       </c>
       <c r="F88" t="n">
-        <v>2846.5479</v>
+        <v>1421.416</v>
       </c>
       <c r="G88" t="n">
-        <v>-626566.8721438202</v>
+        <v>-565112.9531163501</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3467,33 +3796,40 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>39</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>39.49</v>
+        <v>39.58</v>
       </c>
       <c r="C89" t="n">
-        <v>39.49</v>
+        <v>39.58</v>
       </c>
       <c r="D89" t="n">
-        <v>39.49</v>
+        <v>39.58</v>
       </c>
       <c r="E89" t="n">
-        <v>39.49</v>
+        <v>39.58</v>
       </c>
       <c r="F89" t="n">
-        <v>1166.3499</v>
+        <v>13</v>
       </c>
       <c r="G89" t="n">
-        <v>-627733.2220438202</v>
+        <v>-565099.9531163501</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3502,138 +3838,172 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>39</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>39.4</v>
+        <v>39.58</v>
       </c>
       <c r="C90" t="n">
-        <v>39.49</v>
+        <v>39.58</v>
       </c>
       <c r="D90" t="n">
-        <v>39.49</v>
+        <v>39.58</v>
       </c>
       <c r="E90" t="n">
-        <v>39.4</v>
+        <v>39.58</v>
       </c>
       <c r="F90" t="n">
-        <v>3251.7122</v>
+        <v>842.9288</v>
       </c>
       <c r="G90" t="n">
-        <v>-627733.2220438202</v>
+        <v>-565099.9531163501</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="K90" t="n">
+        <v>39</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>39.21</v>
+        <v>39.66</v>
       </c>
       <c r="C91" t="n">
-        <v>39.21</v>
+        <v>39.66</v>
       </c>
       <c r="D91" t="n">
-        <v>39.21</v>
+        <v>39.66</v>
       </c>
       <c r="E91" t="n">
-        <v>39.21</v>
+        <v>39.66</v>
       </c>
       <c r="F91" t="n">
-        <v>4599.8947</v>
+        <v>140.06555723</v>
       </c>
       <c r="G91" t="n">
-        <v>-632333.1167438201</v>
+        <v>-564959.8875591201</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="K91" t="n">
+        <v>39</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>39.39</v>
+        <v>39.66</v>
       </c>
       <c r="C92" t="n">
-        <v>39.39</v>
+        <v>39.66</v>
       </c>
       <c r="D92" t="n">
-        <v>39.39</v>
+        <v>39.66</v>
       </c>
       <c r="E92" t="n">
-        <v>39.39</v>
+        <v>39.66</v>
       </c>
       <c r="F92" t="n">
-        <v>790.9569</v>
+        <v>300.43874277</v>
       </c>
       <c r="G92" t="n">
-        <v>-631542.1598438201</v>
+        <v>-564959.8875591201</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="K92" t="n">
+        <v>39</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>39.33</v>
+        <v>39.77</v>
       </c>
       <c r="C93" t="n">
-        <v>39.33</v>
+        <v>39.77</v>
       </c>
       <c r="D93" t="n">
-        <v>39.33</v>
+        <v>39.77</v>
       </c>
       <c r="E93" t="n">
-        <v>39.33</v>
+        <v>39.77</v>
       </c>
       <c r="F93" t="n">
-        <v>11933.2538</v>
+        <v>29600</v>
       </c>
       <c r="G93" t="n">
-        <v>-643475.4136438201</v>
+        <v>-535359.8875591201</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
@@ -3642,37 +4012,42 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>39.39</v>
+        <v>39.66</v>
       </c>
       <c r="K93" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="L93" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>39.01</v>
+        <v>39.77</v>
       </c>
       <c r="C94" t="n">
-        <v>39.01</v>
+        <v>39.77</v>
       </c>
       <c r="D94" t="n">
-        <v>39.01</v>
+        <v>39.77</v>
       </c>
       <c r="E94" t="n">
-        <v>39.01</v>
+        <v>39.77</v>
       </c>
       <c r="F94" t="n">
-        <v>106.2698</v>
+        <v>5751.8918</v>
       </c>
       <c r="G94" t="n">
-        <v>-643581.6834438201</v>
+        <v>-535359.8875591201</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -3681,41 +4056,42 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>39.33</v>
+        <v>39.77</v>
       </c>
       <c r="K94" t="n">
-        <v>39.39</v>
+        <v>39</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>39</v>
+        <v>39.66</v>
       </c>
       <c r="C95" t="n">
-        <v>39</v>
+        <v>39.66</v>
       </c>
       <c r="D95" t="n">
-        <v>39</v>
+        <v>39.66</v>
       </c>
       <c r="E95" t="n">
-        <v>39</v>
+        <v>39.66</v>
       </c>
       <c r="F95" t="n">
-        <v>593.7302</v>
+        <v>2018.1304</v>
       </c>
       <c r="G95" t="n">
-        <v>-644175.4136438201</v>
+        <v>-537378.0179591201</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
@@ -3724,41 +4100,42 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>39.01</v>
+        <v>39.77</v>
       </c>
       <c r="K95" t="n">
-        <v>39.39</v>
+        <v>39</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>39.4</v>
+        <v>39.66</v>
       </c>
       <c r="C96" t="n">
-        <v>39.4</v>
+        <v>39.41</v>
       </c>
       <c r="D96" t="n">
-        <v>39.4</v>
+        <v>39.66</v>
       </c>
       <c r="E96" t="n">
-        <v>39.4</v>
+        <v>39.41</v>
       </c>
       <c r="F96" t="n">
-        <v>405.8382</v>
+        <v>37012.23705723</v>
       </c>
       <c r="G96" t="n">
-        <v>-643769.5754438201</v>
+        <v>-574390.2550163501</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
@@ -3767,37 +4144,42 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>39</v>
+        <v>39.66</v>
       </c>
       <c r="K96" t="n">
         <v>39</v>
       </c>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>39.3</v>
+        <v>39.41</v>
       </c>
       <c r="C97" t="n">
-        <v>39.21</v>
+        <v>39.41</v>
       </c>
       <c r="D97" t="n">
-        <v>39.3</v>
+        <v>39.41</v>
       </c>
       <c r="E97" t="n">
-        <v>39.21</v>
+        <v>39.41</v>
       </c>
       <c r="F97" t="n">
-        <v>8203</v>
+        <v>34624.9886</v>
       </c>
       <c r="G97" t="n">
-        <v>-651972.5754438201</v>
+        <v>-574390.2550163501</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -3806,41 +4188,42 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>39.4</v>
+        <v>39.41</v>
       </c>
       <c r="K97" t="n">
         <v>39</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="C98" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="D98" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="E98" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="F98" t="n">
-        <v>850.9632</v>
+        <v>50</v>
       </c>
       <c r="G98" t="n">
-        <v>-652823.5386438201</v>
+        <v>-574440.2550163501</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -3849,41 +4232,42 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>39.21</v>
+        <v>39.41</v>
       </c>
       <c r="K98" t="n">
         <v>39</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>39</v>
+        <v>39.41</v>
       </c>
       <c r="C99" t="n">
-        <v>38.93</v>
+        <v>39.41</v>
       </c>
       <c r="D99" t="n">
-        <v>39</v>
+        <v>39.41</v>
       </c>
       <c r="E99" t="n">
-        <v>38.93</v>
+        <v>39.41</v>
       </c>
       <c r="F99" t="n">
-        <v>5041.3508</v>
+        <v>1550.8483</v>
       </c>
       <c r="G99" t="n">
-        <v>-657864.8894438201</v>
+        <v>-572889.4067163501</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -3892,41 +4276,42 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="K99" t="n">
         <v>39</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>39.01</v>
+        <v>39.41</v>
       </c>
       <c r="C100" t="n">
-        <v>39.3</v>
+        <v>39.41</v>
       </c>
       <c r="D100" t="n">
-        <v>39.3</v>
+        <v>39.41</v>
       </c>
       <c r="E100" t="n">
-        <v>38.86</v>
+        <v>39.41</v>
       </c>
       <c r="F100" t="n">
-        <v>18195.5263</v>
+        <v>10372.5233</v>
       </c>
       <c r="G100" t="n">
-        <v>-639669.3631438201</v>
+        <v>-572889.4067163501</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -3935,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>38.93</v>
+        <v>39.41</v>
       </c>
       <c r="K100" t="n">
         <v>39</v>
@@ -3948,28 +4333,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>39.37</v>
+        <v>39.41</v>
       </c>
       <c r="C101" t="n">
-        <v>39.37</v>
+        <v>39.41</v>
       </c>
       <c r="D101" t="n">
-        <v>39.37</v>
+        <v>39.41</v>
       </c>
       <c r="E101" t="n">
-        <v>39.37</v>
+        <v>39.41</v>
       </c>
       <c r="F101" t="n">
-        <v>672.2988</v>
+        <v>4.277e-05</v>
       </c>
       <c r="G101" t="n">
-        <v>-638997.0643438201</v>
+        <v>-572889.4067163501</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
@@ -3978,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>39.3</v>
+        <v>39.41</v>
       </c>
       <c r="K101" t="n">
         <v>39</v>
@@ -3991,28 +4377,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>39.32</v>
+        <v>39.8</v>
       </c>
       <c r="C102" t="n">
-        <v>39.32</v>
+        <v>39.8</v>
       </c>
       <c r="D102" t="n">
-        <v>39.32</v>
+        <v>39.8</v>
       </c>
       <c r="E102" t="n">
-        <v>39.32</v>
+        <v>39.8</v>
       </c>
       <c r="F102" t="n">
-        <v>259.792</v>
+        <v>12533.9684</v>
       </c>
       <c r="G102" t="n">
-        <v>-639256.8563438201</v>
+        <v>-560355.4383163501</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -4021,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>39.37</v>
+        <v>39.41</v>
       </c>
       <c r="K102" t="n">
         <v>39</v>
@@ -4034,36 +4421,39 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>39.32</v>
+        <v>39.81</v>
       </c>
       <c r="C103" t="n">
-        <v>39.32</v>
+        <v>39.83</v>
       </c>
       <c r="D103" t="n">
-        <v>39.32</v>
+        <v>39.83</v>
       </c>
       <c r="E103" t="n">
-        <v>39.32</v>
+        <v>39.81</v>
       </c>
       <c r="F103" t="n">
-        <v>94.2642</v>
+        <v>1764.8449</v>
       </c>
       <c r="G103" t="n">
-        <v>-639256.8563438201</v>
+        <v>-558590.5934163501</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>39.8</v>
+      </c>
       <c r="K103" t="n">
         <v>39</v>
       </c>
@@ -4075,28 +4465,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>39.32</v>
+        <v>39.83</v>
       </c>
       <c r="C104" t="n">
-        <v>39.32</v>
+        <v>39.83</v>
       </c>
       <c r="D104" t="n">
-        <v>39.32</v>
+        <v>39.83</v>
       </c>
       <c r="E104" t="n">
-        <v>39.32</v>
+        <v>39.83</v>
       </c>
       <c r="F104" t="n">
-        <v>161.1918</v>
+        <v>101.8686</v>
       </c>
       <c r="G104" t="n">
-        <v>-639256.8563438201</v>
+        <v>-558590.5934163501</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
@@ -4105,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>39.32</v>
+        <v>39.83</v>
       </c>
       <c r="K104" t="n">
         <v>39</v>
@@ -4118,36 +4509,39 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>39.42</v>
+        <v>39.92</v>
       </c>
       <c r="C105" t="n">
-        <v>39.42</v>
+        <v>39.92</v>
       </c>
       <c r="D105" t="n">
-        <v>39.42</v>
+        <v>39.92</v>
       </c>
       <c r="E105" t="n">
-        <v>39.42</v>
+        <v>39.92</v>
       </c>
       <c r="F105" t="n">
-        <v>14004.2012</v>
+        <v>917.149</v>
       </c>
       <c r="G105" t="n">
-        <v>-625252.6551438201</v>
+        <v>-557673.4444163501</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>39.83</v>
+      </c>
       <c r="K105" t="n">
         <v>39</v>
       </c>
@@ -4159,28 +4553,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>39.42</v>
+        <v>39.99</v>
       </c>
       <c r="C106" t="n">
-        <v>39.42</v>
+        <v>40.07</v>
       </c>
       <c r="D106" t="n">
-        <v>39.42</v>
+        <v>40.07</v>
       </c>
       <c r="E106" t="n">
-        <v>39.42</v>
+        <v>39.99</v>
       </c>
       <c r="F106" t="n">
-        <v>2439.7319</v>
+        <v>921.5936</v>
       </c>
       <c r="G106" t="n">
-        <v>-625252.6551438201</v>
+        <v>-556751.8508163501</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -4189,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>39.42</v>
+        <v>39.92</v>
       </c>
       <c r="K106" t="n">
         <v>39</v>
@@ -4202,36 +4597,39 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>39.22</v>
+        <v>40.09</v>
       </c>
       <c r="C107" t="n">
-        <v>39.22</v>
+        <v>40.21</v>
       </c>
       <c r="D107" t="n">
-        <v>39.22</v>
+        <v>40.21</v>
       </c>
       <c r="E107" t="n">
-        <v>39.22</v>
+        <v>40.09</v>
       </c>
       <c r="F107" t="n">
-        <v>280.0012</v>
+        <v>6791.1741</v>
       </c>
       <c r="G107" t="n">
-        <v>-625532.6563438202</v>
+        <v>-549960.6767163501</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>40.07</v>
+      </c>
       <c r="K107" t="n">
         <v>39</v>
       </c>
@@ -4243,36 +4641,39 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>39.42</v>
+        <v>40.23</v>
       </c>
       <c r="C108" t="n">
-        <v>39.42</v>
+        <v>40.23</v>
       </c>
       <c r="D108" t="n">
-        <v>39.42</v>
+        <v>40.23</v>
       </c>
       <c r="E108" t="n">
-        <v>39.42</v>
+        <v>40.23</v>
       </c>
       <c r="F108" t="n">
-        <v>13941.1822</v>
+        <v>10868.6756</v>
       </c>
       <c r="G108" t="n">
-        <v>-611591.4741438201</v>
+        <v>-539092.0011163502</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>40.21</v>
+      </c>
       <c r="K108" t="n">
         <v>39</v>
       </c>
@@ -4284,28 +4685,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>39.41</v>
+        <v>40.37</v>
       </c>
       <c r="C109" t="n">
-        <v>39.41</v>
+        <v>40.37</v>
       </c>
       <c r="D109" t="n">
-        <v>39.41</v>
+        <v>40.37</v>
       </c>
       <c r="E109" t="n">
-        <v>39.41</v>
+        <v>40.37</v>
       </c>
       <c r="F109" t="n">
-        <v>6911.4129</v>
+        <v>10093.5518</v>
       </c>
       <c r="G109" t="n">
-        <v>-618502.8870438201</v>
+        <v>-528998.4493163502</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4325,28 +4727,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>39.24</v>
+        <v>40.38</v>
       </c>
       <c r="C110" t="n">
-        <v>39.24</v>
+        <v>40.38</v>
       </c>
       <c r="D110" t="n">
-        <v>39.24</v>
+        <v>40.38</v>
       </c>
       <c r="E110" t="n">
-        <v>39.24</v>
+        <v>40.38</v>
       </c>
       <c r="F110" t="n">
-        <v>151.5414</v>
+        <v>178.1961</v>
       </c>
       <c r="G110" t="n">
-        <v>-618654.4284438201</v>
+        <v>-528820.2532163502</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4366,28 +4769,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>39.39</v>
+        <v>40.37</v>
       </c>
       <c r="C111" t="n">
-        <v>39.39</v>
+        <v>40.37</v>
       </c>
       <c r="D111" t="n">
-        <v>39.39</v>
+        <v>40.37</v>
       </c>
       <c r="E111" t="n">
-        <v>39.39</v>
+        <v>40.37</v>
       </c>
       <c r="F111" t="n">
-        <v>787.8632</v>
+        <v>3190.9572</v>
       </c>
       <c r="G111" t="n">
-        <v>-617866.5652438201</v>
+        <v>-532011.2104163502</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4407,28 +4811,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>39.38</v>
+        <v>40.37</v>
       </c>
       <c r="C112" t="n">
-        <v>39.38</v>
+        <v>40.37</v>
       </c>
       <c r="D112" t="n">
-        <v>39.38</v>
+        <v>40.37</v>
       </c>
       <c r="E112" t="n">
-        <v>39.38</v>
+        <v>40.37</v>
       </c>
       <c r="F112" t="n">
-        <v>13958.0021</v>
+        <v>56253.3023</v>
       </c>
       <c r="G112" t="n">
-        <v>-631824.5673438201</v>
+        <v>-532011.2104163502</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4448,28 +4853,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>39.24</v>
+        <v>40.37</v>
       </c>
       <c r="C113" t="n">
-        <v>39.24</v>
+        <v>40.37</v>
       </c>
       <c r="D113" t="n">
-        <v>39.24</v>
+        <v>40.37</v>
       </c>
       <c r="E113" t="n">
-        <v>39.24</v>
+        <v>40.37</v>
       </c>
       <c r="F113" t="n">
-        <v>63</v>
+        <v>17616.9571</v>
       </c>
       <c r="G113" t="n">
-        <v>-631887.5673438201</v>
+        <v>-532011.2104163502</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4489,28 +4895,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>39.28</v>
+        <v>40.35</v>
       </c>
       <c r="C114" t="n">
-        <v>39.26</v>
+        <v>40.42</v>
       </c>
       <c r="D114" t="n">
-        <v>39.28</v>
+        <v>40.42</v>
       </c>
       <c r="E114" t="n">
-        <v>39.26</v>
+        <v>40.35</v>
       </c>
       <c r="F114" t="n">
-        <v>21013.6452</v>
+        <v>2207.6622</v>
       </c>
       <c r="G114" t="n">
-        <v>-610873.9221438201</v>
+        <v>-529803.5482163501</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4530,28 +4937,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>39.42</v>
+        <v>40.42</v>
       </c>
       <c r="C115" t="n">
-        <v>39.42</v>
+        <v>40.42</v>
       </c>
       <c r="D115" t="n">
-        <v>39.42</v>
+        <v>40.42</v>
       </c>
       <c r="E115" t="n">
-        <v>39.42</v>
+        <v>40.42</v>
       </c>
       <c r="F115" t="n">
-        <v>7350.2049</v>
+        <v>1624.2417</v>
       </c>
       <c r="G115" t="n">
-        <v>-603523.7172438201</v>
+        <v>-529803.5482163501</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4571,28 +4979,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>39.42</v>
+        <v>40.42</v>
       </c>
       <c r="C116" t="n">
-        <v>39.42</v>
+        <v>40.42</v>
       </c>
       <c r="D116" t="n">
-        <v>39.42</v>
+        <v>40.42</v>
       </c>
       <c r="E116" t="n">
-        <v>39.42</v>
+        <v>40.42</v>
       </c>
       <c r="F116" t="n">
-        <v>2778.7555</v>
+        <v>20962.2274</v>
       </c>
       <c r="G116" t="n">
-        <v>-603523.7172438201</v>
+        <v>-529803.5482163501</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4612,28 +5021,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>39.42</v>
+        <v>40.63</v>
       </c>
       <c r="C117" t="n">
-        <v>39.42</v>
+        <v>40.63</v>
       </c>
       <c r="D117" t="n">
-        <v>39.42</v>
+        <v>40.63</v>
       </c>
       <c r="E117" t="n">
-        <v>39.42</v>
+        <v>40.63</v>
       </c>
       <c r="F117" t="n">
-        <v>3515.5367</v>
+        <v>81.85290000000001</v>
       </c>
       <c r="G117" t="n">
-        <v>-603523.7172438201</v>
+        <v>-529721.6953163501</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4653,28 +5063,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>39.42</v>
+        <v>40.63</v>
       </c>
       <c r="C118" t="n">
-        <v>39.42</v>
+        <v>40.63</v>
       </c>
       <c r="D118" t="n">
-        <v>39.42</v>
+        <v>40.63</v>
       </c>
       <c r="E118" t="n">
-        <v>39.42</v>
+        <v>40.63</v>
       </c>
       <c r="F118" t="n">
-        <v>2902.4032</v>
+        <v>170.3539</v>
       </c>
       <c r="G118" t="n">
-        <v>-603523.7172438201</v>
+        <v>-529721.6953163501</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4694,28 +5105,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>39.63</v>
+        <v>40.7</v>
       </c>
       <c r="C119" t="n">
-        <v>39.63</v>
+        <v>40.7</v>
       </c>
       <c r="D119" t="n">
-        <v>39.63</v>
+        <v>40.7</v>
       </c>
       <c r="E119" t="n">
-        <v>39.63</v>
+        <v>40.7</v>
       </c>
       <c r="F119" t="n">
-        <v>9809.15972747</v>
+        <v>494.1589</v>
       </c>
       <c r="G119" t="n">
-        <v>-593714.5575163501</v>
+        <v>-529227.53641635</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4735,28 +5147,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>39.65</v>
+        <v>40.6</v>
       </c>
       <c r="C120" t="n">
-        <v>39.65</v>
+        <v>40.5</v>
       </c>
       <c r="D120" t="n">
-        <v>39.65</v>
+        <v>40.6</v>
       </c>
       <c r="E120" t="n">
-        <v>39.65</v>
+        <v>40.5</v>
       </c>
       <c r="F120" t="n">
-        <v>35351.8919</v>
+        <v>827.6673</v>
       </c>
       <c r="G120" t="n">
-        <v>-558362.66561635</v>
+        <v>-530055.20371635</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4776,28 +5189,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>39.65</v>
+        <v>40.4</v>
       </c>
       <c r="C121" t="n">
-        <v>39.65</v>
+        <v>40.5</v>
       </c>
       <c r="D121" t="n">
-        <v>39.65</v>
+        <v>40.5</v>
       </c>
       <c r="E121" t="n">
-        <v>39.65</v>
+        <v>40.4</v>
       </c>
       <c r="F121" t="n">
-        <v>635.913</v>
+        <v>3359.0878</v>
       </c>
       <c r="G121" t="n">
-        <v>-558362.66561635</v>
+        <v>-530055.20371635</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4817,28 +5231,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>39.65</v>
+        <v>40.5</v>
       </c>
       <c r="C122" t="n">
-        <v>39.65</v>
+        <v>40.4</v>
       </c>
       <c r="D122" t="n">
-        <v>39.65</v>
+        <v>40.5</v>
       </c>
       <c r="E122" t="n">
-        <v>39.65</v>
+        <v>40.4</v>
       </c>
       <c r="F122" t="n">
-        <v>573.9102</v>
+        <v>20374.5089</v>
       </c>
       <c r="G122" t="n">
-        <v>-558362.66561635</v>
+        <v>-550429.71261635</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4858,28 +5273,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>39.65</v>
+        <v>40.2</v>
       </c>
       <c r="C123" t="n">
-        <v>39.65</v>
+        <v>40.2</v>
       </c>
       <c r="D123" t="n">
-        <v>39.65</v>
+        <v>40.2</v>
       </c>
       <c r="E123" t="n">
-        <v>39.65</v>
+        <v>40.2</v>
       </c>
       <c r="F123" t="n">
-        <v>545.2147</v>
+        <v>901.6179</v>
       </c>
       <c r="G123" t="n">
-        <v>-558362.66561635</v>
+        <v>-551331.33051635</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4899,28 +5315,29 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>39.63</v>
+        <v>40.59</v>
       </c>
       <c r="C124" t="n">
-        <v>39.63</v>
+        <v>40.59</v>
       </c>
       <c r="D124" t="n">
-        <v>39.63</v>
+        <v>40.59</v>
       </c>
       <c r="E124" t="n">
-        <v>39.63</v>
+        <v>40.59</v>
       </c>
       <c r="F124" t="n">
-        <v>604.4222</v>
+        <v>140</v>
       </c>
       <c r="G124" t="n">
-        <v>-558967.08781635</v>
+        <v>-551191.33051635</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4940,28 +5357,29 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>39.64</v>
+        <v>40.56</v>
       </c>
       <c r="C125" t="n">
-        <v>39.64</v>
+        <v>40.6</v>
       </c>
       <c r="D125" t="n">
-        <v>39.64</v>
+        <v>40.6</v>
       </c>
       <c r="E125" t="n">
-        <v>39.64</v>
+        <v>40.56</v>
       </c>
       <c r="F125" t="n">
-        <v>518.0859</v>
+        <v>32000</v>
       </c>
       <c r="G125" t="n">
-        <v>-558449.0019163501</v>
+        <v>-519191.33051635</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4981,28 +5399,29 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>39.62</v>
+        <v>40.6</v>
       </c>
       <c r="C126" t="n">
-        <v>39.62</v>
+        <v>40.6</v>
       </c>
       <c r="D126" t="n">
-        <v>39.62</v>
+        <v>40.6</v>
       </c>
       <c r="E126" t="n">
-        <v>39.62</v>
+        <v>40.6</v>
       </c>
       <c r="F126" t="n">
-        <v>492.43</v>
+        <v>8810.4503</v>
       </c>
       <c r="G126" t="n">
-        <v>-558941.4319163501</v>
+        <v>-519191.33051635</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5022,28 +5441,29 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>39.52</v>
+        <v>40.8</v>
       </c>
       <c r="C127" t="n">
-        <v>39.52</v>
+        <v>40.8</v>
       </c>
       <c r="D127" t="n">
-        <v>39.52</v>
+        <v>40.8</v>
       </c>
       <c r="E127" t="n">
-        <v>39.52</v>
+        <v>40.8</v>
       </c>
       <c r="F127" t="n">
-        <v>4750.1052</v>
+        <v>28.2844</v>
       </c>
       <c r="G127" t="n">
-        <v>-563691.5371163501</v>
+        <v>-519163.04611635</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5063,28 +5483,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>39.52</v>
+        <v>41.09</v>
       </c>
       <c r="C128" t="n">
-        <v>39.52</v>
+        <v>40.61</v>
       </c>
       <c r="D128" t="n">
-        <v>39.52</v>
+        <v>41.09</v>
       </c>
       <c r="E128" t="n">
-        <v>39.52</v>
+        <v>40.61</v>
       </c>
       <c r="F128" t="n">
-        <v>1154</v>
+        <v>19654.6911</v>
       </c>
       <c r="G128" t="n">
-        <v>-563691.5371163501</v>
+        <v>-538817.73721635</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5104,28 +5525,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>39.52</v>
+        <v>40.6</v>
       </c>
       <c r="C129" t="n">
-        <v>39.52</v>
+        <v>40.5</v>
       </c>
       <c r="D129" t="n">
-        <v>39.52</v>
+        <v>40.6</v>
       </c>
       <c r="E129" t="n">
-        <v>39.52</v>
+        <v>40.5</v>
       </c>
       <c r="F129" t="n">
-        <v>4994.247</v>
+        <v>18312.6911</v>
       </c>
       <c r="G129" t="n">
-        <v>-563691.5371163501</v>
+        <v>-557130.4283163501</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5145,28 +5567,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>39.42</v>
+        <v>40.65</v>
       </c>
       <c r="C130" t="n">
-        <v>39.42</v>
+        <v>40.65</v>
       </c>
       <c r="D130" t="n">
-        <v>39.42</v>
+        <v>40.65</v>
       </c>
       <c r="E130" t="n">
-        <v>39.42</v>
+        <v>40.65</v>
       </c>
       <c r="F130" t="n">
-        <v>1421.416</v>
+        <v>286.9836</v>
       </c>
       <c r="G130" t="n">
-        <v>-565112.9531163501</v>
+        <v>-556843.4447163501</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5186,28 +5609,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>39.58</v>
+        <v>40.7</v>
       </c>
       <c r="C131" t="n">
-        <v>39.58</v>
+        <v>40.7</v>
       </c>
       <c r="D131" t="n">
-        <v>39.58</v>
+        <v>40.7</v>
       </c>
       <c r="E131" t="n">
-        <v>39.58</v>
+        <v>40.7</v>
       </c>
       <c r="F131" t="n">
-        <v>13</v>
+        <v>600.5829</v>
       </c>
       <c r="G131" t="n">
-        <v>-565099.9531163501</v>
+        <v>-556242.86181635</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5227,28 +5651,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>39.58</v>
+        <v>40.59</v>
       </c>
       <c r="C132" t="n">
-        <v>39.58</v>
+        <v>40.53</v>
       </c>
       <c r="D132" t="n">
-        <v>39.58</v>
+        <v>40.59</v>
       </c>
       <c r="E132" t="n">
-        <v>39.58</v>
+        <v>40.53</v>
       </c>
       <c r="F132" t="n">
-        <v>842.9288</v>
+        <v>3158.2957</v>
       </c>
       <c r="G132" t="n">
-        <v>-565099.9531163501</v>
+        <v>-559401.15751635</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5268,28 +5693,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>39.66</v>
+        <v>40.67</v>
       </c>
       <c r="C133" t="n">
-        <v>39.66</v>
+        <v>40.67</v>
       </c>
       <c r="D133" t="n">
-        <v>39.66</v>
+        <v>40.67</v>
       </c>
       <c r="E133" t="n">
-        <v>39.66</v>
+        <v>40.67</v>
       </c>
       <c r="F133" t="n">
-        <v>140.06555723</v>
+        <v>200</v>
       </c>
       <c r="G133" t="n">
-        <v>-564959.8875591201</v>
+        <v>-559201.15751635</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5309,28 +5735,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>39.66</v>
+        <v>40.7</v>
       </c>
       <c r="C134" t="n">
-        <v>39.66</v>
+        <v>40.7</v>
       </c>
       <c r="D134" t="n">
-        <v>39.66</v>
+        <v>40.7</v>
       </c>
       <c r="E134" t="n">
-        <v>39.66</v>
+        <v>40.7</v>
       </c>
       <c r="F134" t="n">
-        <v>300.43874277</v>
+        <v>568.2486</v>
       </c>
       <c r="G134" t="n">
-        <v>-564959.8875591201</v>
+        <v>-558632.90891635</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5350,28 +5777,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>39.77</v>
+        <v>40.77</v>
       </c>
       <c r="C135" t="n">
-        <v>39.77</v>
+        <v>40.77</v>
       </c>
       <c r="D135" t="n">
-        <v>39.77</v>
+        <v>40.77</v>
       </c>
       <c r="E135" t="n">
-        <v>39.77</v>
+        <v>40.77</v>
       </c>
       <c r="F135" t="n">
-        <v>29600</v>
+        <v>216.4273</v>
       </c>
       <c r="G135" t="n">
-        <v>-535359.8875591201</v>
+        <v>-558416.48161635</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5391,28 +5819,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>39.77</v>
+        <v>40.98</v>
       </c>
       <c r="C136" t="n">
-        <v>39.77</v>
+        <v>41.1</v>
       </c>
       <c r="D136" t="n">
-        <v>39.77</v>
+        <v>41.1</v>
       </c>
       <c r="E136" t="n">
-        <v>39.77</v>
+        <v>40.98</v>
       </c>
       <c r="F136" t="n">
-        <v>5751.8918</v>
+        <v>2450</v>
       </c>
       <c r="G136" t="n">
-        <v>-535359.8875591201</v>
+        <v>-555966.48161635</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5432,1728 +5861,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>39.66</v>
-      </c>
-      <c r="C137" t="n">
-        <v>39.66</v>
-      </c>
-      <c r="D137" t="n">
-        <v>39.66</v>
-      </c>
-      <c r="E137" t="n">
-        <v>39.66</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2018.1304</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-537378.0179591201</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>39</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>39.66</v>
-      </c>
-      <c r="C138" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="D138" t="n">
-        <v>39.66</v>
-      </c>
-      <c r="E138" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="F138" t="n">
-        <v>37012.23705723</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-574390.2550163501</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>39</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="C139" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="D139" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="E139" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="F139" t="n">
-        <v>34624.9886</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-574390.2550163501</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>39</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="C140" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="D140" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="E140" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F140" t="n">
-        <v>50</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-574440.2550163501</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>39</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="C141" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="D141" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="E141" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1550.8483</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-572889.4067163501</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>39</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="C142" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="D142" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="E142" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="F142" t="n">
-        <v>10372.5233</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-572889.4067163501</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>39</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="C143" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="D143" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="E143" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="F143" t="n">
-        <v>4.277e-05</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-572889.4067163501</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>39</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="C144" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="D144" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="E144" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="F144" t="n">
-        <v>12533.9684</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-560355.4383163501</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>39</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>39.81</v>
-      </c>
-      <c r="C145" t="n">
-        <v>39.83</v>
-      </c>
-      <c r="D145" t="n">
-        <v>39.83</v>
-      </c>
-      <c r="E145" t="n">
-        <v>39.81</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1764.8449</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-558590.5934163501</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>39</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>39.83</v>
-      </c>
-      <c r="C146" t="n">
-        <v>39.83</v>
-      </c>
-      <c r="D146" t="n">
-        <v>39.83</v>
-      </c>
-      <c r="E146" t="n">
-        <v>39.83</v>
-      </c>
-      <c r="F146" t="n">
-        <v>101.8686</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-558590.5934163501</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>39</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>39.92</v>
-      </c>
-      <c r="C147" t="n">
-        <v>39.92</v>
-      </c>
-      <c r="D147" t="n">
-        <v>39.92</v>
-      </c>
-      <c r="E147" t="n">
-        <v>39.92</v>
-      </c>
-      <c r="F147" t="n">
-        <v>917.149</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-557673.4444163501</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>39</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>39.99</v>
-      </c>
-      <c r="C148" t="n">
-        <v>40.07</v>
-      </c>
-      <c r="D148" t="n">
-        <v>40.07</v>
-      </c>
-      <c r="E148" t="n">
-        <v>39.99</v>
-      </c>
-      <c r="F148" t="n">
-        <v>921.5936</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-556751.8508163501</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>39</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>40.09</v>
-      </c>
-      <c r="C149" t="n">
-        <v>40.21</v>
-      </c>
-      <c r="D149" t="n">
-        <v>40.21</v>
-      </c>
-      <c r="E149" t="n">
-        <v>40.09</v>
-      </c>
-      <c r="F149" t="n">
-        <v>6791.1741</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-549960.6767163501</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>39</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="C150" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="D150" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="E150" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="F150" t="n">
-        <v>10868.6756</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-539092.0011163502</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>39</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="C151" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="D151" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="E151" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="F151" t="n">
-        <v>10093.5518</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-528998.4493163502</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>39</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>40.38</v>
-      </c>
-      <c r="C152" t="n">
-        <v>40.38</v>
-      </c>
-      <c r="D152" t="n">
-        <v>40.38</v>
-      </c>
-      <c r="E152" t="n">
-        <v>40.38</v>
-      </c>
-      <c r="F152" t="n">
-        <v>178.1961</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-528820.2532163502</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>39</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="C153" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="D153" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="E153" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="F153" t="n">
-        <v>3190.9572</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-532011.2104163502</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>39</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="C154" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="D154" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="E154" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="F154" t="n">
-        <v>56253.3023</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-532011.2104163502</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>39</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="C155" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="D155" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="E155" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="F155" t="n">
-        <v>17616.9571</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-532011.2104163502</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>39</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>40.35</v>
-      </c>
-      <c r="C156" t="n">
-        <v>40.42</v>
-      </c>
-      <c r="D156" t="n">
-        <v>40.42</v>
-      </c>
-      <c r="E156" t="n">
-        <v>40.35</v>
-      </c>
-      <c r="F156" t="n">
-        <v>2207.6622</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-529803.5482163501</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>39</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>40.42</v>
-      </c>
-      <c r="C157" t="n">
-        <v>40.42</v>
-      </c>
-      <c r="D157" t="n">
-        <v>40.42</v>
-      </c>
-      <c r="E157" t="n">
-        <v>40.42</v>
-      </c>
-      <c r="F157" t="n">
-        <v>1624.2417</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-529803.5482163501</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>39</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>40.42</v>
-      </c>
-      <c r="C158" t="n">
-        <v>40.42</v>
-      </c>
-      <c r="D158" t="n">
-        <v>40.42</v>
-      </c>
-      <c r="E158" t="n">
-        <v>40.42</v>
-      </c>
-      <c r="F158" t="n">
-        <v>20962.2274</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-529803.5482163501</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>39</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>40.63</v>
-      </c>
-      <c r="C159" t="n">
-        <v>40.63</v>
-      </c>
-      <c r="D159" t="n">
-        <v>40.63</v>
-      </c>
-      <c r="E159" t="n">
-        <v>40.63</v>
-      </c>
-      <c r="F159" t="n">
-        <v>81.85290000000001</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-529721.6953163501</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>39</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>40.63</v>
-      </c>
-      <c r="C160" t="n">
-        <v>40.63</v>
-      </c>
-      <c r="D160" t="n">
-        <v>40.63</v>
-      </c>
-      <c r="E160" t="n">
-        <v>40.63</v>
-      </c>
-      <c r="F160" t="n">
-        <v>170.3539</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-529721.6953163501</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>39</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="C161" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="D161" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="E161" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="F161" t="n">
-        <v>494.1589</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-529227.53641635</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>39</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="C162" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="D162" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="E162" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="F162" t="n">
-        <v>827.6673</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-530055.20371635</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>39</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="C163" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="D163" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="E163" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="F163" t="n">
-        <v>3359.0878</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-530055.20371635</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>39</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="C164" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="D164" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="E164" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="F164" t="n">
-        <v>20374.5089</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-550429.71261635</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>39</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="C165" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="D165" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="E165" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="F165" t="n">
-        <v>901.6179</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-551331.33051635</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>39</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>40.59</v>
-      </c>
-      <c r="C166" t="n">
-        <v>40.59</v>
-      </c>
-      <c r="D166" t="n">
-        <v>40.59</v>
-      </c>
-      <c r="E166" t="n">
-        <v>40.59</v>
-      </c>
-      <c r="F166" t="n">
-        <v>140</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-551191.33051635</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>39</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>40.56</v>
-      </c>
-      <c r="C167" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="D167" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="E167" t="n">
-        <v>40.56</v>
-      </c>
-      <c r="F167" t="n">
-        <v>32000</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-519191.33051635</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>39</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="C168" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="D168" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="E168" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="F168" t="n">
-        <v>8810.4503</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-519191.33051635</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>39</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="C169" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="D169" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="E169" t="n">
-        <v>40.8</v>
-      </c>
-      <c r="F169" t="n">
-        <v>28.2844</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-519163.04611635</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>39</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>41.09</v>
-      </c>
-      <c r="C170" t="n">
-        <v>40.61</v>
-      </c>
-      <c r="D170" t="n">
-        <v>41.09</v>
-      </c>
-      <c r="E170" t="n">
-        <v>40.61</v>
-      </c>
-      <c r="F170" t="n">
-        <v>19654.6911</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-538817.73721635</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>39</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="C171" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="D171" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="E171" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="F171" t="n">
-        <v>18312.6911</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-557130.4283163501</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>39</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>40.65</v>
-      </c>
-      <c r="C172" t="n">
-        <v>40.65</v>
-      </c>
-      <c r="D172" t="n">
-        <v>40.65</v>
-      </c>
-      <c r="E172" t="n">
-        <v>40.65</v>
-      </c>
-      <c r="F172" t="n">
-        <v>286.9836</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-556843.4447163501</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>39</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="C173" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="D173" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="E173" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="F173" t="n">
-        <v>600.5829</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-556242.86181635</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>39</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>40.59</v>
-      </c>
-      <c r="C174" t="n">
-        <v>40.53</v>
-      </c>
-      <c r="D174" t="n">
-        <v>40.59</v>
-      </c>
-      <c r="E174" t="n">
-        <v>40.53</v>
-      </c>
-      <c r="F174" t="n">
-        <v>3158.2957</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-559401.15751635</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>39</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>40.67</v>
-      </c>
-      <c r="C175" t="n">
-        <v>40.67</v>
-      </c>
-      <c r="D175" t="n">
-        <v>40.67</v>
-      </c>
-      <c r="E175" t="n">
-        <v>40.67</v>
-      </c>
-      <c r="F175" t="n">
-        <v>200</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-559201.15751635</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>39</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="C176" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="D176" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="E176" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="F176" t="n">
-        <v>568.2486</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-558632.90891635</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>39</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>40.77</v>
-      </c>
-      <c r="C177" t="n">
-        <v>40.77</v>
-      </c>
-      <c r="D177" t="n">
-        <v>40.77</v>
-      </c>
-      <c r="E177" t="n">
-        <v>40.77</v>
-      </c>
-      <c r="F177" t="n">
-        <v>216.4273</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-558416.48161635</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>39</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>40.98</v>
-      </c>
-      <c r="C178" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="D178" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="E178" t="n">
-        <v>40.98</v>
-      </c>
-      <c r="F178" t="n">
-        <v>2450</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-555966.48161635</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>39</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
+      <c r="N136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest XEM.xlsx
+++ b/BackTest/2020-01-16 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:N207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>40.3</v>
+        <v>39.08</v>
       </c>
       <c r="C2" t="n">
-        <v>40.3</v>
+        <v>39.08</v>
       </c>
       <c r="D2" t="n">
-        <v>40.3</v>
+        <v>39.08</v>
       </c>
       <c r="E2" t="n">
-        <v>40.3</v>
+        <v>39.08</v>
       </c>
       <c r="F2" t="n">
-        <v>1838.3571</v>
+        <v>9288</v>
       </c>
       <c r="G2" t="n">
-        <v>-506330.0980668502</v>
+        <v>-346457.3730000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>40.29</v>
+        <v>38.82</v>
       </c>
       <c r="C3" t="n">
-        <v>40.29</v>
+        <v>39.14</v>
       </c>
       <c r="D3" t="n">
-        <v>40.29</v>
+        <v>39.14</v>
       </c>
       <c r="E3" t="n">
-        <v>40.29</v>
+        <v>38.82</v>
       </c>
       <c r="F3" t="n">
-        <v>3096</v>
+        <v>36753.4069</v>
       </c>
       <c r="G3" t="n">
-        <v>-509426.0980668502</v>
+        <v>-309703.9661000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,31 +510,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40.29</v>
+        <v>39.15</v>
       </c>
       <c r="C4" t="n">
-        <v>40.29</v>
+        <v>39.15</v>
       </c>
       <c r="D4" t="n">
-        <v>40.29</v>
+        <v>39.15</v>
       </c>
       <c r="E4" t="n">
-        <v>40.29</v>
+        <v>39.15</v>
       </c>
       <c r="F4" t="n">
-        <v>3096</v>
+        <v>2554.27841634</v>
       </c>
       <c r="G4" t="n">
-        <v>-509426.0980668502</v>
+        <v>-307149.6876836601</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>39.14</v>
+      </c>
+      <c r="K4" t="n">
+        <v>39.14</v>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -546,32 +550,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40.3</v>
+        <v>39.15</v>
       </c>
       <c r="C5" t="n">
-        <v>40.3</v>
+        <v>39.15</v>
       </c>
       <c r="D5" t="n">
-        <v>40.3</v>
+        <v>39.15</v>
       </c>
       <c r="E5" t="n">
-        <v>40.3</v>
+        <v>39.15</v>
       </c>
       <c r="F5" t="n">
-        <v>136</v>
+        <v>6192</v>
       </c>
       <c r="G5" t="n">
-        <v>-509290.0980668502</v>
+        <v>-307149.6876836601</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>39.15</v>
+      </c>
+      <c r="K5" t="n">
+        <v>39.14</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +594,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>40.29</v>
+        <v>39.15</v>
       </c>
       <c r="C6" t="n">
-        <v>40.29</v>
+        <v>39.15</v>
       </c>
       <c r="D6" t="n">
-        <v>40.29</v>
+        <v>39.15</v>
       </c>
       <c r="E6" t="n">
-        <v>40.29</v>
+        <v>39.15</v>
       </c>
       <c r="F6" t="n">
-        <v>3096</v>
+        <v>13888.1287</v>
       </c>
       <c r="G6" t="n">
-        <v>-512386.0980668502</v>
+        <v>-307149.6876836601</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -606,8 +618,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>39.14</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +636,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40.29</v>
+        <v>39.19</v>
       </c>
       <c r="C7" t="n">
-        <v>40.29</v>
+        <v>39.19</v>
       </c>
       <c r="D7" t="n">
-        <v>40.29</v>
+        <v>39.19</v>
       </c>
       <c r="E7" t="n">
-        <v>40.29</v>
+        <v>39.19</v>
       </c>
       <c r="F7" t="n">
-        <v>825.5366</v>
+        <v>27524.5048</v>
       </c>
       <c r="G7" t="n">
-        <v>-512386.0980668502</v>
+        <v>-279625.1828836601</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +672,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.13</v>
+        <v>39.19</v>
       </c>
       <c r="C8" t="n">
-        <v>39.99</v>
+        <v>39.19</v>
       </c>
       <c r="D8" t="n">
-        <v>40.13</v>
+        <v>39.19</v>
       </c>
       <c r="E8" t="n">
-        <v>39.99</v>
+        <v>39.19</v>
       </c>
       <c r="F8" t="n">
-        <v>3531.1215</v>
+        <v>3096</v>
       </c>
       <c r="G8" t="n">
-        <v>-515917.2195668502</v>
+        <v>-279625.1828836601</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +708,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40.19</v>
+        <v>39.2</v>
       </c>
       <c r="C9" t="n">
-        <v>40.19</v>
+        <v>39.22</v>
       </c>
       <c r="D9" t="n">
-        <v>40.19</v>
+        <v>39.22</v>
       </c>
       <c r="E9" t="n">
-        <v>40.19</v>
+        <v>39.2</v>
       </c>
       <c r="F9" t="n">
-        <v>811.8513</v>
+        <v>24070.2468</v>
       </c>
       <c r="G9" t="n">
-        <v>-515105.3682668502</v>
+        <v>-255554.9360836601</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +744,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>40.19</v>
+        <v>39.22</v>
       </c>
       <c r="C10" t="n">
-        <v>40.18</v>
+        <v>39.3</v>
       </c>
       <c r="D10" t="n">
-        <v>40.19</v>
+        <v>39.3</v>
       </c>
       <c r="E10" t="n">
-        <v>40.18</v>
+        <v>39.22</v>
       </c>
       <c r="F10" t="n">
-        <v>4180.6615</v>
+        <v>39.00004822</v>
       </c>
       <c r="G10" t="n">
-        <v>-519286.0297668502</v>
+        <v>-255515.9360354401</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +780,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>40.19</v>
+        <v>39.31</v>
       </c>
       <c r="C11" t="n">
-        <v>39.82</v>
+        <v>39.49</v>
       </c>
       <c r="D11" t="n">
-        <v>40.19</v>
+        <v>39.49</v>
       </c>
       <c r="E11" t="n">
-        <v>39.82</v>
+        <v>39.31</v>
       </c>
       <c r="F11" t="n">
-        <v>38335.7816</v>
+        <v>5083.95800847</v>
       </c>
       <c r="G11" t="n">
-        <v>-557621.8113668502</v>
+        <v>-250431.9780269701</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +816,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>40.19</v>
+        <v>39.5</v>
       </c>
       <c r="C12" t="n">
-        <v>40.2</v>
+        <v>39.59</v>
       </c>
       <c r="D12" t="n">
-        <v>40.2</v>
+        <v>39.59</v>
       </c>
       <c r="E12" t="n">
-        <v>40.19</v>
+        <v>39.5</v>
       </c>
       <c r="F12" t="n">
-        <v>4246.1647</v>
+        <v>3401.7676</v>
       </c>
       <c r="G12" t="n">
-        <v>-553375.6466668502</v>
+        <v>-247030.2104269701</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +852,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>40.29</v>
+        <v>39.6</v>
       </c>
       <c r="C13" t="n">
-        <v>40.29</v>
+        <v>39.69</v>
       </c>
       <c r="D13" t="n">
-        <v>40.29</v>
+        <v>39.69</v>
       </c>
       <c r="E13" t="n">
-        <v>40.29</v>
+        <v>39.6</v>
       </c>
       <c r="F13" t="n">
-        <v>16695</v>
+        <v>4423.7374</v>
       </c>
       <c r="G13" t="n">
-        <v>-536680.6466668502</v>
+        <v>-242606.4730269701</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +888,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40.29</v>
+        <v>39.69</v>
       </c>
       <c r="C14" t="n">
-        <v>40.29</v>
+        <v>39.69</v>
       </c>
       <c r="D14" t="n">
-        <v>40.29</v>
+        <v>39.69</v>
       </c>
       <c r="E14" t="n">
-        <v>40.29</v>
+        <v>39.69</v>
       </c>
       <c r="F14" t="n">
-        <v>6192</v>
+        <v>51726.0625</v>
       </c>
       <c r="G14" t="n">
-        <v>-536680.6466668502</v>
+        <v>-242606.4730269701</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +924,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40.3</v>
+        <v>39.69</v>
       </c>
       <c r="C15" t="n">
-        <v>40.3</v>
+        <v>39.69</v>
       </c>
       <c r="D15" t="n">
-        <v>40.3</v>
+        <v>39.69</v>
       </c>
       <c r="E15" t="n">
-        <v>40.3</v>
+        <v>39.69</v>
       </c>
       <c r="F15" t="n">
-        <v>135.3292</v>
+        <v>45479.6366</v>
       </c>
       <c r="G15" t="n">
-        <v>-536545.3174668502</v>
+        <v>-242606.4730269701</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +960,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>40.58</v>
+        <v>39.69</v>
       </c>
       <c r="C16" t="n">
-        <v>40.58</v>
+        <v>39.69</v>
       </c>
       <c r="D16" t="n">
-        <v>40.58</v>
+        <v>39.69</v>
       </c>
       <c r="E16" t="n">
-        <v>40.58</v>
+        <v>39.69</v>
       </c>
       <c r="F16" t="n">
-        <v>300</v>
+        <v>46553.1744</v>
       </c>
       <c r="G16" t="n">
-        <v>-536245.3174668502</v>
+        <v>-242606.4730269701</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +996,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>40.59</v>
+        <v>39.69</v>
       </c>
       <c r="C17" t="n">
-        <v>40.59</v>
+        <v>39.69</v>
       </c>
       <c r="D17" t="n">
-        <v>40.59</v>
+        <v>39.69</v>
       </c>
       <c r="E17" t="n">
-        <v>40.59</v>
+        <v>39.69</v>
       </c>
       <c r="F17" t="n">
-        <v>2109.6862</v>
+        <v>47393.9898</v>
       </c>
       <c r="G17" t="n">
-        <v>-534135.6312668502</v>
+        <v>-242606.4730269701</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1032,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>40.61</v>
+        <v>39.69</v>
       </c>
       <c r="C18" t="n">
-        <v>40.63</v>
+        <v>39.69</v>
       </c>
       <c r="D18" t="n">
-        <v>40.63</v>
+        <v>39.69</v>
       </c>
       <c r="E18" t="n">
-        <v>40.61</v>
+        <v>39.69</v>
       </c>
       <c r="F18" t="n">
-        <v>4502.4575</v>
+        <v>5418.0795</v>
       </c>
       <c r="G18" t="n">
-        <v>-529633.1737668501</v>
+        <v>-242606.4730269701</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1068,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>40.64</v>
+        <v>39.69</v>
       </c>
       <c r="C19" t="n">
-        <v>40.64</v>
+        <v>39.69</v>
       </c>
       <c r="D19" t="n">
-        <v>40.64</v>
+        <v>39.69</v>
       </c>
       <c r="E19" t="n">
-        <v>40.64</v>
+        <v>39.69</v>
       </c>
       <c r="F19" t="n">
-        <v>276.1672</v>
+        <v>9233.7508</v>
       </c>
       <c r="G19" t="n">
-        <v>-529357.0065668501</v>
+        <v>-242606.4730269701</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1104,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>40.64</v>
+        <v>39.69</v>
       </c>
       <c r="C20" t="n">
-        <v>40.75</v>
+        <v>39.77</v>
       </c>
       <c r="D20" t="n">
-        <v>40.75</v>
+        <v>39.77</v>
       </c>
       <c r="E20" t="n">
-        <v>40.64</v>
+        <v>39.69</v>
       </c>
       <c r="F20" t="n">
-        <v>1015.4588</v>
+        <v>5927.9651</v>
       </c>
       <c r="G20" t="n">
-        <v>-528341.5477668501</v>
+        <v>-236678.5079269701</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1140,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>40.86</v>
+        <v>39.77</v>
       </c>
       <c r="C21" t="n">
-        <v>40.86</v>
+        <v>40.37</v>
       </c>
       <c r="D21" t="n">
-        <v>40.86</v>
+        <v>40.37</v>
       </c>
       <c r="E21" t="n">
-        <v>40.86</v>
+        <v>39.77</v>
       </c>
       <c r="F21" t="n">
-        <v>13000.0438</v>
+        <v>90200</v>
       </c>
       <c r="G21" t="n">
-        <v>-515341.5039668501</v>
+        <v>-146478.5079269701</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,28 +1176,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>40.86</v>
+        <v>39.83</v>
       </c>
       <c r="C22" t="n">
-        <v>40.86</v>
+        <v>39.83</v>
       </c>
       <c r="D22" t="n">
-        <v>40.86</v>
+        <v>39.83</v>
       </c>
       <c r="E22" t="n">
-        <v>40.86</v>
+        <v>39.83</v>
       </c>
       <c r="F22" t="n">
-        <v>2627.7883</v>
+        <v>1100</v>
       </c>
       <c r="G22" t="n">
-        <v>-515341.5039668501</v>
+        <v>-147578.5079269701</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1212,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>40.86</v>
+        <v>39.83</v>
       </c>
       <c r="C23" t="n">
-        <v>40.86</v>
+        <v>39.74</v>
       </c>
       <c r="D23" t="n">
-        <v>40.86</v>
+        <v>39.83</v>
       </c>
       <c r="E23" t="n">
-        <v>40.86</v>
+        <v>39.74</v>
       </c>
       <c r="F23" t="n">
-        <v>18284.4853</v>
+        <v>4112</v>
       </c>
       <c r="G23" t="n">
-        <v>-515341.5039668501</v>
+        <v>-151690.5079269701</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1248,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>40.86</v>
+        <v>39.73</v>
       </c>
       <c r="C24" t="n">
-        <v>41</v>
+        <v>39.73</v>
       </c>
       <c r="D24" t="n">
-        <v>41</v>
+        <v>39.73</v>
       </c>
       <c r="E24" t="n">
-        <v>40.86</v>
+        <v>39.73</v>
       </c>
       <c r="F24" t="n">
-        <v>8265.8428</v>
+        <v>405.8006</v>
       </c>
       <c r="G24" t="n">
-        <v>-507075.6611668501</v>
+        <v>-152096.30852697</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1284,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>40.99</v>
+        <v>39.88</v>
       </c>
       <c r="C25" t="n">
-        <v>41</v>
+        <v>39.88</v>
       </c>
       <c r="D25" t="n">
-        <v>41</v>
+        <v>39.88</v>
       </c>
       <c r="E25" t="n">
-        <v>40.99</v>
+        <v>39.88</v>
       </c>
       <c r="F25" t="n">
-        <v>9171.518099999999</v>
+        <v>139.29287863</v>
       </c>
       <c r="G25" t="n">
-        <v>-507075.6611668501</v>
+        <v>-151957.01564834</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1320,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>41</v>
+        <v>39.71</v>
       </c>
       <c r="C26" t="n">
-        <v>41</v>
+        <v>39.71</v>
       </c>
       <c r="D26" t="n">
-        <v>41</v>
+        <v>39.71</v>
       </c>
       <c r="E26" t="n">
-        <v>41</v>
+        <v>39.71</v>
       </c>
       <c r="F26" t="n">
-        <v>5649.3255</v>
+        <v>1010</v>
       </c>
       <c r="G26" t="n">
-        <v>-507075.6611668501</v>
+        <v>-152967.01564834</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1356,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>41.1</v>
+        <v>40.01</v>
       </c>
       <c r="C27" t="n">
-        <v>41.1</v>
+        <v>40.01</v>
       </c>
       <c r="D27" t="n">
-        <v>41.1</v>
+        <v>40.01</v>
       </c>
       <c r="E27" t="n">
-        <v>41.1</v>
+        <v>40.01</v>
       </c>
       <c r="F27" t="n">
-        <v>135.15815085</v>
+        <v>138.84028992</v>
       </c>
       <c r="G27" t="n">
-        <v>-506940.5030160001</v>
+        <v>-152828.1753584201</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1392,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>41.1</v>
+        <v>39.89</v>
       </c>
       <c r="C28" t="n">
-        <v>41.1</v>
+        <v>39.89</v>
       </c>
       <c r="D28" t="n">
-        <v>41.1</v>
+        <v>39.89</v>
       </c>
       <c r="E28" t="n">
-        <v>41.1</v>
+        <v>39.89</v>
       </c>
       <c r="F28" t="n">
-        <v>108.12652068</v>
+        <v>5218.4319</v>
       </c>
       <c r="G28" t="n">
-        <v>-506940.5030160001</v>
+        <v>-158046.6072584201</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1428,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>41.1</v>
+        <v>39.61</v>
       </c>
       <c r="C29" t="n">
-        <v>41</v>
+        <v>39.61</v>
       </c>
       <c r="D29" t="n">
-        <v>41.1</v>
+        <v>39.61</v>
       </c>
       <c r="E29" t="n">
-        <v>41</v>
+        <v>39.61</v>
       </c>
       <c r="F29" t="n">
-        <v>836.7383</v>
+        <v>571</v>
       </c>
       <c r="G29" t="n">
-        <v>-507777.2413160002</v>
+        <v>-158617.6072584201</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1464,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>40.86</v>
+        <v>39.61</v>
       </c>
       <c r="C30" t="n">
-        <v>40.86</v>
+        <v>39.65</v>
       </c>
       <c r="D30" t="n">
-        <v>40.86</v>
+        <v>39.65</v>
       </c>
       <c r="E30" t="n">
-        <v>40.86</v>
+        <v>39.45</v>
       </c>
       <c r="F30" t="n">
-        <v>9288</v>
+        <v>1184.06052963</v>
       </c>
       <c r="G30" t="n">
-        <v>-517065.2413160002</v>
+        <v>-157433.5467287901</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1500,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>40.86</v>
+        <v>39.45</v>
       </c>
       <c r="C31" t="n">
-        <v>40.86</v>
+        <v>39.45</v>
       </c>
       <c r="D31" t="n">
-        <v>40.86</v>
+        <v>39.45</v>
       </c>
       <c r="E31" t="n">
-        <v>40.86</v>
+        <v>39.45</v>
       </c>
       <c r="F31" t="n">
-        <v>9353.6602</v>
+        <v>1114</v>
       </c>
       <c r="G31" t="n">
-        <v>-517065.2413160002</v>
+        <v>-158547.5467287901</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1536,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>40.79</v>
+        <v>39.47</v>
       </c>
       <c r="C32" t="n">
-        <v>40.79</v>
+        <v>39.46</v>
       </c>
       <c r="D32" t="n">
-        <v>40.79</v>
+        <v>39.47</v>
       </c>
       <c r="E32" t="n">
-        <v>40.79</v>
+        <v>39.46</v>
       </c>
       <c r="F32" t="n">
-        <v>28646.7454</v>
+        <v>9052.911899999999</v>
       </c>
       <c r="G32" t="n">
-        <v>-545711.9867160001</v>
+        <v>-149494.6348287901</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1572,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>40.41</v>
+        <v>39.45</v>
       </c>
       <c r="C33" t="n">
-        <v>40.41</v>
+        <v>38.85</v>
       </c>
       <c r="D33" t="n">
-        <v>40.41</v>
+        <v>39.45</v>
       </c>
       <c r="E33" t="n">
-        <v>40.41</v>
+        <v>38.85</v>
       </c>
       <c r="F33" t="n">
-        <v>127.561</v>
+        <v>28182.9198</v>
       </c>
       <c r="G33" t="n">
-        <v>-545839.5477160001</v>
+        <v>-177677.5546287901</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1608,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>40.41</v>
+        <v>39.65</v>
       </c>
       <c r="C34" t="n">
-        <v>40.41</v>
+        <v>39.65</v>
       </c>
       <c r="D34" t="n">
-        <v>40.41</v>
+        <v>39.65</v>
       </c>
       <c r="E34" t="n">
-        <v>40.41</v>
+        <v>39.65</v>
       </c>
       <c r="F34" t="n">
-        <v>157</v>
+        <v>360</v>
       </c>
       <c r="G34" t="n">
-        <v>-545839.5477160001</v>
+        <v>-177317.5546287901</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1644,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>40.41</v>
+        <v>39.59</v>
       </c>
       <c r="C35" t="n">
-        <v>40</v>
+        <v>39.52</v>
       </c>
       <c r="D35" t="n">
-        <v>40.41</v>
+        <v>39.59</v>
       </c>
       <c r="E35" t="n">
-        <v>40</v>
+        <v>39.52</v>
       </c>
       <c r="F35" t="n">
-        <v>1496.3215</v>
+        <v>37000</v>
       </c>
       <c r="G35" t="n">
-        <v>-547335.8692160001</v>
+        <v>-214317.5546287901</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1680,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>39.94</v>
+        <v>39.65</v>
       </c>
       <c r="C36" t="n">
-        <v>40</v>
+        <v>39.81</v>
       </c>
       <c r="D36" t="n">
-        <v>40</v>
+        <v>39.81</v>
       </c>
       <c r="E36" t="n">
-        <v>39.94</v>
+        <v>39.65</v>
       </c>
       <c r="F36" t="n">
-        <v>25120.5468</v>
+        <v>7948.1472</v>
       </c>
       <c r="G36" t="n">
-        <v>-547335.8692160001</v>
+        <v>-206369.4074287901</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,22 +1716,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>40</v>
+        <v>40.14</v>
       </c>
       <c r="C37" t="n">
-        <v>40</v>
+        <v>40.34</v>
       </c>
       <c r="D37" t="n">
-        <v>40</v>
+        <v>40.43</v>
       </c>
       <c r="E37" t="n">
-        <v>40</v>
+        <v>40.14</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0001</v>
+        <v>24460.2791</v>
       </c>
       <c r="G37" t="n">
-        <v>-547335.8692160001</v>
+        <v>-181909.1283287901</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1752,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>40.13</v>
+        <v>40.12</v>
       </c>
       <c r="C38" t="n">
-        <v>40.13</v>
+        <v>40.12</v>
       </c>
       <c r="D38" t="n">
-        <v>40.13</v>
+        <v>40.12</v>
       </c>
       <c r="E38" t="n">
-        <v>40.13</v>
+        <v>40.12</v>
       </c>
       <c r="F38" t="n">
-        <v>30</v>
+        <v>510.8382</v>
       </c>
       <c r="G38" t="n">
-        <v>-547305.8692160001</v>
+        <v>-182419.9665287901</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1788,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>40.45</v>
+        <v>40.2</v>
       </c>
       <c r="C39" t="n">
-        <v>40.45</v>
+        <v>40.2</v>
       </c>
       <c r="D39" t="n">
-        <v>40.45</v>
+        <v>40.2</v>
       </c>
       <c r="E39" t="n">
-        <v>40.45</v>
+        <v>40.2</v>
       </c>
       <c r="F39" t="n">
-        <v>222.00247218</v>
+        <v>11427.9936</v>
       </c>
       <c r="G39" t="n">
-        <v>-547083.8667438201</v>
+        <v>-170991.9729287901</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1824,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>40.11</v>
+        <v>40.2</v>
       </c>
       <c r="C40" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="D40" t="n">
-        <v>40.11</v>
+        <v>40.2</v>
       </c>
       <c r="E40" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="F40" t="n">
-        <v>1241.7296</v>
+        <v>1800</v>
       </c>
       <c r="G40" t="n">
-        <v>-548325.5963438201</v>
+        <v>-170991.9729287901</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1860,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>39.91</v>
+        <v>40.44</v>
       </c>
       <c r="C41" t="n">
-        <v>39.91</v>
+        <v>40.44</v>
       </c>
       <c r="D41" t="n">
-        <v>39.91</v>
+        <v>40.44</v>
       </c>
       <c r="E41" t="n">
-        <v>39.91</v>
+        <v>40.44</v>
       </c>
       <c r="F41" t="n">
-        <v>77.2388</v>
+        <v>5163.0749</v>
       </c>
       <c r="G41" t="n">
-        <v>-548402.8351438201</v>
+        <v>-165828.8980287901</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1896,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
+        <v>40.44</v>
       </c>
       <c r="C42" t="n">
-        <v>40</v>
+        <v>40.44</v>
       </c>
       <c r="D42" t="n">
-        <v>40</v>
+        <v>40.44</v>
       </c>
       <c r="E42" t="n">
-        <v>40</v>
+        <v>40.44</v>
       </c>
       <c r="F42" t="n">
-        <v>23035.0388</v>
+        <v>686.5986</v>
       </c>
       <c r="G42" t="n">
-        <v>-525367.7963438202</v>
+        <v>-165828.8980287901</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1932,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>40</v>
+        <v>40.48</v>
       </c>
       <c r="C43" t="n">
-        <v>39.79</v>
+        <v>40.69</v>
       </c>
       <c r="D43" t="n">
-        <v>40</v>
+        <v>40.69</v>
       </c>
       <c r="E43" t="n">
-        <v>39.79</v>
+        <v>40.48</v>
       </c>
       <c r="F43" t="n">
-        <v>20190.4425</v>
+        <v>32974.8565</v>
       </c>
       <c r="G43" t="n">
-        <v>-545558.2388438202</v>
+        <v>-132854.0415287901</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1968,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>39.65</v>
+        <v>40.64</v>
       </c>
       <c r="C44" t="n">
-        <v>39.31</v>
+        <v>40.68</v>
       </c>
       <c r="D44" t="n">
-        <v>39.65</v>
+        <v>40.68</v>
       </c>
       <c r="E44" t="n">
-        <v>39.31</v>
+        <v>40.64</v>
       </c>
       <c r="F44" t="n">
-        <v>84865.18120000001</v>
+        <v>5665.3891</v>
       </c>
       <c r="G44" t="n">
-        <v>-630423.4200438202</v>
+        <v>-138519.4306287901</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +2004,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>39.49</v>
+        <v>40.5</v>
       </c>
       <c r="C45" t="n">
-        <v>39.49</v>
+        <v>40.5</v>
       </c>
       <c r="D45" t="n">
-        <v>39.49</v>
+        <v>40.5</v>
       </c>
       <c r="E45" t="n">
-        <v>39.49</v>
+        <v>40.5</v>
       </c>
       <c r="F45" t="n">
-        <v>1010</v>
+        <v>837.5477</v>
       </c>
       <c r="G45" t="n">
-        <v>-629413.4200438202</v>
+        <v>-139356.9783287901</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2040,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>39.49</v>
+        <v>40.44</v>
       </c>
       <c r="C46" t="n">
-        <v>39.59</v>
+        <v>40.44</v>
       </c>
       <c r="D46" t="n">
-        <v>39.59</v>
+        <v>40.44</v>
       </c>
       <c r="E46" t="n">
-        <v>39.49</v>
+        <v>40.44</v>
       </c>
       <c r="F46" t="n">
-        <v>2846.5479</v>
+        <v>5764.8731</v>
       </c>
       <c r="G46" t="n">
-        <v>-626566.8721438202</v>
+        <v>-145121.8514287901</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2076,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>39.49</v>
+        <v>40.4</v>
       </c>
       <c r="C47" t="n">
-        <v>39.49</v>
+        <v>40.2</v>
       </c>
       <c r="D47" t="n">
-        <v>39.49</v>
+        <v>40.4</v>
       </c>
       <c r="E47" t="n">
-        <v>39.49</v>
+        <v>40.2</v>
       </c>
       <c r="F47" t="n">
-        <v>1166.3499</v>
+        <v>1610.3168</v>
       </c>
       <c r="G47" t="n">
-        <v>-627733.2220438202</v>
+        <v>-146732.1682287901</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2112,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="C48" t="n">
-        <v>39.49</v>
+        <v>40.68</v>
       </c>
       <c r="D48" t="n">
-        <v>39.49</v>
+        <v>40.68</v>
       </c>
       <c r="E48" t="n">
-        <v>39.4</v>
+        <v>40.5</v>
       </c>
       <c r="F48" t="n">
-        <v>3251.7122</v>
+        <v>33000</v>
       </c>
       <c r="G48" t="n">
-        <v>-627733.2220438202</v>
+        <v>-113732.1682287901</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2148,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>39.21</v>
+        <v>40.66</v>
       </c>
       <c r="C49" t="n">
-        <v>39.21</v>
+        <v>40.66</v>
       </c>
       <c r="D49" t="n">
-        <v>39.21</v>
+        <v>40.66</v>
       </c>
       <c r="E49" t="n">
-        <v>39.21</v>
+        <v>40.66</v>
       </c>
       <c r="F49" t="n">
-        <v>4599.8947</v>
+        <v>163.944909</v>
       </c>
       <c r="G49" t="n">
-        <v>-632333.1167438201</v>
+        <v>-113896.1131377901</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2184,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>39.39</v>
+        <v>40.63</v>
       </c>
       <c r="C50" t="n">
-        <v>39.39</v>
+        <v>40.63</v>
       </c>
       <c r="D50" t="n">
-        <v>39.39</v>
+        <v>40.63</v>
       </c>
       <c r="E50" t="n">
-        <v>39.39</v>
+        <v>40.63</v>
       </c>
       <c r="F50" t="n">
-        <v>790.9569</v>
+        <v>5156.8212</v>
       </c>
       <c r="G50" t="n">
-        <v>-631542.1598438201</v>
+        <v>-119052.9343377901</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,35 +2220,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>39.33</v>
+        <v>40.4</v>
       </c>
       <c r="C51" t="n">
-        <v>39.33</v>
+        <v>40.4</v>
       </c>
       <c r="D51" t="n">
-        <v>39.33</v>
+        <v>40.4</v>
       </c>
       <c r="E51" t="n">
-        <v>39.33</v>
+        <v>40.4</v>
       </c>
       <c r="F51" t="n">
-        <v>11933.2538</v>
+        <v>1019.5092</v>
       </c>
       <c r="G51" t="n">
-        <v>-643475.4136438201</v>
+        <v>-120072.4435377901</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="K51" t="n">
-        <v>39.39</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
@@ -2242,40 +2256,32 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>39.01</v>
+        <v>40.4</v>
       </c>
       <c r="C52" t="n">
-        <v>39.01</v>
+        <v>40.4</v>
       </c>
       <c r="D52" t="n">
-        <v>39.01</v>
+        <v>40.4</v>
       </c>
       <c r="E52" t="n">
-        <v>39.01</v>
+        <v>40.4</v>
       </c>
       <c r="F52" t="n">
-        <v>106.2698</v>
+        <v>3546.048</v>
       </c>
       <c r="G52" t="n">
-        <v>-643581.6834438201</v>
+        <v>-120072.4435377901</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="K52" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2286,40 +2292,32 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>39</v>
+        <v>40.4</v>
       </c>
       <c r="C53" t="n">
-        <v>39</v>
+        <v>40.4</v>
       </c>
       <c r="D53" t="n">
-        <v>39</v>
+        <v>40.4</v>
       </c>
       <c r="E53" t="n">
-        <v>39</v>
+        <v>40.4</v>
       </c>
       <c r="F53" t="n">
-        <v>593.7302</v>
+        <v>1069.6537</v>
       </c>
       <c r="G53" t="n">
-        <v>-644175.4136438201</v>
+        <v>-120072.4435377901</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>39.01</v>
-      </c>
-      <c r="K53" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2330,35 +2328,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>39.4</v>
+        <v>40.4</v>
       </c>
       <c r="C54" t="n">
-        <v>39.4</v>
+        <v>40.25</v>
       </c>
       <c r="D54" t="n">
-        <v>39.4</v>
+        <v>40.4</v>
       </c>
       <c r="E54" t="n">
-        <v>39.4</v>
+        <v>40.25</v>
       </c>
       <c r="F54" t="n">
-        <v>405.8382</v>
+        <v>11710.5827</v>
       </c>
       <c r="G54" t="n">
-        <v>-643769.5754438201</v>
+        <v>-131783.0262377901</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>39</v>
-      </c>
-      <c r="K54" t="n">
-        <v>39</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
@@ -2370,40 +2364,32 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>39.3</v>
+        <v>40.66</v>
       </c>
       <c r="C55" t="n">
-        <v>39.21</v>
+        <v>41.49</v>
       </c>
       <c r="D55" t="n">
-        <v>39.3</v>
+        <v>41.49</v>
       </c>
       <c r="E55" t="n">
-        <v>39.21</v>
+        <v>40.66</v>
       </c>
       <c r="F55" t="n">
-        <v>8203</v>
+        <v>87691.0344</v>
       </c>
       <c r="G55" t="n">
-        <v>-651972.5754438201</v>
+        <v>-44091.99183779009</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K55" t="n">
-        <v>39</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2414,40 +2400,32 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>39.1</v>
+        <v>41.48</v>
       </c>
       <c r="C56" t="n">
-        <v>39.1</v>
+        <v>41.03</v>
       </c>
       <c r="D56" t="n">
-        <v>39.1</v>
+        <v>41.49</v>
       </c>
       <c r="E56" t="n">
-        <v>39.1</v>
+        <v>40.93</v>
       </c>
       <c r="F56" t="n">
-        <v>850.9632</v>
+        <v>42831.2306</v>
       </c>
       <c r="G56" t="n">
-        <v>-652823.5386438201</v>
+        <v>-86923.2224377901</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>39.21</v>
-      </c>
-      <c r="K56" t="n">
-        <v>39</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2458,40 +2436,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C57" t="n">
-        <v>38.93</v>
+        <v>40.93</v>
       </c>
       <c r="D57" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E57" t="n">
-        <v>38.93</v>
+        <v>40.93</v>
       </c>
       <c r="F57" t="n">
-        <v>5041.3508</v>
+        <v>86307.414</v>
       </c>
       <c r="G57" t="n">
-        <v>-657864.8894438201</v>
+        <v>-173230.6364377901</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="K57" t="n">
-        <v>39</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2502,40 +2472,32 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>39.01</v>
+        <v>40.71</v>
       </c>
       <c r="C58" t="n">
-        <v>39.3</v>
+        <v>40.71</v>
       </c>
       <c r="D58" t="n">
-        <v>39.3</v>
+        <v>40.71</v>
       </c>
       <c r="E58" t="n">
-        <v>38.86</v>
+        <v>40.71</v>
       </c>
       <c r="F58" t="n">
-        <v>18195.5263</v>
+        <v>9374.0913</v>
       </c>
       <c r="G58" t="n">
-        <v>-639669.3631438201</v>
+        <v>-182604.7277377901</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>38.93</v>
-      </c>
-      <c r="K58" t="n">
-        <v>39</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2546,40 +2508,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>39.37</v>
+        <v>40.7</v>
       </c>
       <c r="C59" t="n">
-        <v>39.37</v>
+        <v>40.61</v>
       </c>
       <c r="D59" t="n">
-        <v>39.37</v>
+        <v>40.7</v>
       </c>
       <c r="E59" t="n">
-        <v>39.37</v>
+        <v>40.61</v>
       </c>
       <c r="F59" t="n">
-        <v>672.2988</v>
+        <v>11185.5661</v>
       </c>
       <c r="G59" t="n">
-        <v>-638997.0643438201</v>
+        <v>-193790.2938377901</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K59" t="n">
-        <v>39</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2590,40 +2544,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>39.32</v>
+        <v>40.61</v>
       </c>
       <c r="C60" t="n">
-        <v>39.32</v>
+        <v>40.6</v>
       </c>
       <c r="D60" t="n">
-        <v>39.32</v>
+        <v>40.61</v>
       </c>
       <c r="E60" t="n">
-        <v>39.32</v>
+        <v>40.5</v>
       </c>
       <c r="F60" t="n">
-        <v>259.792</v>
+        <v>86270.77692906</v>
       </c>
       <c r="G60" t="n">
-        <v>-639256.8563438201</v>
+        <v>-280061.0707668501</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>39.37</v>
-      </c>
-      <c r="K60" t="n">
-        <v>39</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2634,40 +2580,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>39.32</v>
+        <v>40.6</v>
       </c>
       <c r="C61" t="n">
-        <v>39.32</v>
+        <v>40.47</v>
       </c>
       <c r="D61" t="n">
-        <v>39.32</v>
+        <v>40.6</v>
       </c>
       <c r="E61" t="n">
-        <v>39.32</v>
+        <v>40.47</v>
       </c>
       <c r="F61" t="n">
-        <v>94.2642</v>
+        <v>61691</v>
       </c>
       <c r="G61" t="n">
-        <v>-639256.8563438201</v>
+        <v>-341752.0707668501</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="K61" t="n">
-        <v>39</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2678,40 +2616,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>39.32</v>
+        <v>40.47</v>
       </c>
       <c r="C62" t="n">
-        <v>39.32</v>
+        <v>40.47</v>
       </c>
       <c r="D62" t="n">
-        <v>39.32</v>
+        <v>40.47</v>
       </c>
       <c r="E62" t="n">
-        <v>39.32</v>
+        <v>40.15</v>
       </c>
       <c r="F62" t="n">
-        <v>161.1918</v>
+        <v>143171.9502</v>
       </c>
       <c r="G62" t="n">
-        <v>-639256.8563438201</v>
+        <v>-341752.0707668501</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="K62" t="n">
-        <v>39</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2722,22 +2652,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>39.42</v>
+        <v>40.25</v>
       </c>
       <c r="C63" t="n">
-        <v>39.42</v>
+        <v>40.25</v>
       </c>
       <c r="D63" t="n">
-        <v>39.42</v>
+        <v>40.25</v>
       </c>
       <c r="E63" t="n">
-        <v>39.42</v>
+        <v>40.25</v>
       </c>
       <c r="F63" t="n">
-        <v>14004.2012</v>
+        <v>576.5519</v>
       </c>
       <c r="G63" t="n">
-        <v>-625252.6551438201</v>
+        <v>-342328.6226668502</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2746,14 +2676,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>39</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2764,22 +2688,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>39.42</v>
+        <v>40.22</v>
       </c>
       <c r="C64" t="n">
-        <v>39.42</v>
+        <v>40.22</v>
       </c>
       <c r="D64" t="n">
-        <v>39.42</v>
+        <v>40.22</v>
       </c>
       <c r="E64" t="n">
-        <v>39.42</v>
+        <v>40.22</v>
       </c>
       <c r="F64" t="n">
-        <v>2439.7319</v>
+        <v>438.6667</v>
       </c>
       <c r="G64" t="n">
-        <v>-625252.6551438201</v>
+        <v>-342767.2893668502</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2788,14 +2712,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>39</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2806,22 +2724,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>39.22</v>
+        <v>40.47</v>
       </c>
       <c r="C65" t="n">
-        <v>39.22</v>
+        <v>40.61</v>
       </c>
       <c r="D65" t="n">
-        <v>39.22</v>
+        <v>40.61</v>
       </c>
       <c r="E65" t="n">
-        <v>39.22</v>
+        <v>40.47</v>
       </c>
       <c r="F65" t="n">
-        <v>280.0012</v>
+        <v>2962.9188</v>
       </c>
       <c r="G65" t="n">
-        <v>-625532.6563438202</v>
+        <v>-339804.3705668502</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2830,14 +2748,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>39</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +2760,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>39.42</v>
+        <v>40.61</v>
       </c>
       <c r="C66" t="n">
-        <v>39.42</v>
+        <v>40.11</v>
       </c>
       <c r="D66" t="n">
-        <v>39.42</v>
+        <v>40.61</v>
       </c>
       <c r="E66" t="n">
-        <v>39.42</v>
+        <v>40.11</v>
       </c>
       <c r="F66" t="n">
-        <v>13941.1822</v>
+        <v>134594.7654</v>
       </c>
       <c r="G66" t="n">
-        <v>-611591.4741438201</v>
+        <v>-474399.1359668502</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2872,14 +2784,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>39</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2890,22 +2796,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>39.41</v>
+        <v>40.51</v>
       </c>
       <c r="C67" t="n">
-        <v>39.41</v>
+        <v>40.49</v>
       </c>
       <c r="D67" t="n">
-        <v>39.41</v>
+        <v>40.51</v>
       </c>
       <c r="E67" t="n">
-        <v>39.41</v>
+        <v>40.4</v>
       </c>
       <c r="F67" t="n">
-        <v>6911.4129</v>
+        <v>18398.418</v>
       </c>
       <c r="G67" t="n">
-        <v>-618502.8870438201</v>
+        <v>-456000.7179668502</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2914,14 +2820,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>39</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2932,22 +2832,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>39.24</v>
+        <v>40.28</v>
       </c>
       <c r="C68" t="n">
-        <v>39.24</v>
+        <v>40.27</v>
       </c>
       <c r="D68" t="n">
-        <v>39.24</v>
+        <v>40.29</v>
       </c>
       <c r="E68" t="n">
-        <v>39.24</v>
+        <v>40.27</v>
       </c>
       <c r="F68" t="n">
-        <v>151.5414</v>
+        <v>54422.953</v>
       </c>
       <c r="G68" t="n">
-        <v>-618654.4284438201</v>
+        <v>-510423.6709668502</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2956,14 +2856,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>39</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2974,22 +2868,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>39.39</v>
+        <v>40.28</v>
       </c>
       <c r="C69" t="n">
-        <v>39.39</v>
+        <v>40.28</v>
       </c>
       <c r="D69" t="n">
-        <v>39.39</v>
+        <v>40.28</v>
       </c>
       <c r="E69" t="n">
-        <v>39.39</v>
+        <v>40.28</v>
       </c>
       <c r="F69" t="n">
-        <v>787.8632</v>
+        <v>2075.1618</v>
       </c>
       <c r="G69" t="n">
-        <v>-617866.5652438201</v>
+        <v>-508348.5091668502</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2998,14 +2892,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>39</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3016,22 +2904,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>39.38</v>
+        <v>40.29</v>
       </c>
       <c r="C70" t="n">
-        <v>39.38</v>
+        <v>40.29</v>
       </c>
       <c r="D70" t="n">
-        <v>39.38</v>
+        <v>40.29</v>
       </c>
       <c r="E70" t="n">
-        <v>39.38</v>
+        <v>40.29</v>
       </c>
       <c r="F70" t="n">
-        <v>13958.0021</v>
+        <v>9723.917100000001</v>
       </c>
       <c r="G70" t="n">
-        <v>-631824.5673438201</v>
+        <v>-498624.5920668502</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3040,14 +2928,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>39</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +2940,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>39.24</v>
+        <v>40.29</v>
       </c>
       <c r="C71" t="n">
-        <v>39.24</v>
+        <v>40.29</v>
       </c>
       <c r="D71" t="n">
-        <v>39.24</v>
+        <v>40.29</v>
       </c>
       <c r="E71" t="n">
-        <v>39.24</v>
+        <v>40.29</v>
       </c>
       <c r="F71" t="n">
-        <v>63</v>
+        <v>1298.0172</v>
       </c>
       <c r="G71" t="n">
-        <v>-631887.5673438201</v>
+        <v>-498624.5920668502</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3082,14 +2964,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>39</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3100,22 +2976,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>39.28</v>
+        <v>40.28</v>
       </c>
       <c r="C72" t="n">
-        <v>39.26</v>
+        <v>40.28</v>
       </c>
       <c r="D72" t="n">
-        <v>39.28</v>
+        <v>40.28</v>
       </c>
       <c r="E72" t="n">
-        <v>39.26</v>
+        <v>40.28</v>
       </c>
       <c r="F72" t="n">
-        <v>21013.6452</v>
+        <v>9543.8631</v>
       </c>
       <c r="G72" t="n">
-        <v>-610873.9221438201</v>
+        <v>-508168.4551668502</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3124,14 +3000,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>39</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3142,22 +3012,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>39.42</v>
+        <v>40.3</v>
       </c>
       <c r="C73" t="n">
-        <v>39.42</v>
+        <v>40.3</v>
       </c>
       <c r="D73" t="n">
-        <v>39.42</v>
+        <v>40.3</v>
       </c>
       <c r="E73" t="n">
-        <v>39.42</v>
+        <v>40.3</v>
       </c>
       <c r="F73" t="n">
-        <v>7350.2049</v>
+        <v>1838.3571</v>
       </c>
       <c r="G73" t="n">
-        <v>-603523.7172438201</v>
+        <v>-506330.0980668502</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3166,14 +3036,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>39</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3184,22 +3048,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>39.42</v>
+        <v>40.29</v>
       </c>
       <c r="C74" t="n">
-        <v>39.42</v>
+        <v>40.29</v>
       </c>
       <c r="D74" t="n">
-        <v>39.42</v>
+        <v>40.29</v>
       </c>
       <c r="E74" t="n">
-        <v>39.42</v>
+        <v>40.29</v>
       </c>
       <c r="F74" t="n">
-        <v>2778.7555</v>
+        <v>3096</v>
       </c>
       <c r="G74" t="n">
-        <v>-603523.7172438201</v>
+        <v>-509426.0980668502</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3208,14 +3072,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>39</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3226,22 +3084,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>39.42</v>
+        <v>40.29</v>
       </c>
       <c r="C75" t="n">
-        <v>39.42</v>
+        <v>40.29</v>
       </c>
       <c r="D75" t="n">
-        <v>39.42</v>
+        <v>40.29</v>
       </c>
       <c r="E75" t="n">
-        <v>39.42</v>
+        <v>40.29</v>
       </c>
       <c r="F75" t="n">
-        <v>3515.5367</v>
+        <v>3096</v>
       </c>
       <c r="G75" t="n">
-        <v>-603523.7172438201</v>
+        <v>-509426.0980668502</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3250,14 +3108,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>39</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3120,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>39.42</v>
+        <v>40.3</v>
       </c>
       <c r="C76" t="n">
-        <v>39.42</v>
+        <v>40.3</v>
       </c>
       <c r="D76" t="n">
-        <v>39.42</v>
+        <v>40.3</v>
       </c>
       <c r="E76" t="n">
-        <v>39.42</v>
+        <v>40.3</v>
       </c>
       <c r="F76" t="n">
-        <v>2902.4032</v>
+        <v>136</v>
       </c>
       <c r="G76" t="n">
-        <v>-603523.7172438201</v>
+        <v>-509290.0980668502</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3292,14 +3144,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>39</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3310,22 +3156,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>39.63</v>
+        <v>40.29</v>
       </c>
       <c r="C77" t="n">
-        <v>39.63</v>
+        <v>40.29</v>
       </c>
       <c r="D77" t="n">
-        <v>39.63</v>
+        <v>40.29</v>
       </c>
       <c r="E77" t="n">
-        <v>39.63</v>
+        <v>40.29</v>
       </c>
       <c r="F77" t="n">
-        <v>9809.15972747</v>
+        <v>3096</v>
       </c>
       <c r="G77" t="n">
-        <v>-593714.5575163501</v>
+        <v>-512386.0980668502</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3334,14 +3180,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>39</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3352,22 +3192,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>39.65</v>
+        <v>40.29</v>
       </c>
       <c r="C78" t="n">
-        <v>39.65</v>
+        <v>40.29</v>
       </c>
       <c r="D78" t="n">
-        <v>39.65</v>
+        <v>40.29</v>
       </c>
       <c r="E78" t="n">
-        <v>39.65</v>
+        <v>40.29</v>
       </c>
       <c r="F78" t="n">
-        <v>35351.8919</v>
+        <v>825.5366</v>
       </c>
       <c r="G78" t="n">
-        <v>-558362.66561635</v>
+        <v>-512386.0980668502</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3376,14 +3216,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>39</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3394,22 +3228,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>39.65</v>
+        <v>40.13</v>
       </c>
       <c r="C79" t="n">
-        <v>39.65</v>
+        <v>39.99</v>
       </c>
       <c r="D79" t="n">
-        <v>39.65</v>
+        <v>40.13</v>
       </c>
       <c r="E79" t="n">
-        <v>39.65</v>
+        <v>39.99</v>
       </c>
       <c r="F79" t="n">
-        <v>635.913</v>
+        <v>3531.1215</v>
       </c>
       <c r="G79" t="n">
-        <v>-558362.66561635</v>
+        <v>-515917.2195668502</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3418,14 +3252,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>39</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3436,22 +3264,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>39.65</v>
+        <v>40.19</v>
       </c>
       <c r="C80" t="n">
-        <v>39.65</v>
+        <v>40.19</v>
       </c>
       <c r="D80" t="n">
-        <v>39.65</v>
+        <v>40.19</v>
       </c>
       <c r="E80" t="n">
-        <v>39.65</v>
+        <v>40.19</v>
       </c>
       <c r="F80" t="n">
-        <v>573.9102</v>
+        <v>811.8513</v>
       </c>
       <c r="G80" t="n">
-        <v>-558362.66561635</v>
+        <v>-515105.3682668502</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3460,14 +3288,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>39</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3300,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>39.65</v>
+        <v>40.19</v>
       </c>
       <c r="C81" t="n">
-        <v>39.65</v>
+        <v>40.18</v>
       </c>
       <c r="D81" t="n">
-        <v>39.65</v>
+        <v>40.19</v>
       </c>
       <c r="E81" t="n">
-        <v>39.65</v>
+        <v>40.18</v>
       </c>
       <c r="F81" t="n">
-        <v>545.2147</v>
+        <v>4180.6615</v>
       </c>
       <c r="G81" t="n">
-        <v>-558362.66561635</v>
+        <v>-519286.0297668502</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3502,14 +3324,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>39</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3520,22 +3336,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>39.63</v>
+        <v>40.19</v>
       </c>
       <c r="C82" t="n">
-        <v>39.63</v>
+        <v>39.82</v>
       </c>
       <c r="D82" t="n">
-        <v>39.63</v>
+        <v>40.19</v>
       </c>
       <c r="E82" t="n">
-        <v>39.63</v>
+        <v>39.82</v>
       </c>
       <c r="F82" t="n">
-        <v>604.4222</v>
+        <v>38335.7816</v>
       </c>
       <c r="G82" t="n">
-        <v>-558967.08781635</v>
+        <v>-557621.8113668502</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3544,14 +3360,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>39</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3562,22 +3372,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>39.64</v>
+        <v>40.19</v>
       </c>
       <c r="C83" t="n">
-        <v>39.64</v>
+        <v>40.2</v>
       </c>
       <c r="D83" t="n">
-        <v>39.64</v>
+        <v>40.2</v>
       </c>
       <c r="E83" t="n">
-        <v>39.64</v>
+        <v>40.19</v>
       </c>
       <c r="F83" t="n">
-        <v>518.0859</v>
+        <v>4246.1647</v>
       </c>
       <c r="G83" t="n">
-        <v>-558449.0019163501</v>
+        <v>-553375.6466668502</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3586,14 +3396,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>39</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3604,22 +3408,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>39.62</v>
+        <v>40.29</v>
       </c>
       <c r="C84" t="n">
-        <v>39.62</v>
+        <v>40.29</v>
       </c>
       <c r="D84" t="n">
-        <v>39.62</v>
+        <v>40.29</v>
       </c>
       <c r="E84" t="n">
-        <v>39.62</v>
+        <v>40.29</v>
       </c>
       <c r="F84" t="n">
-        <v>492.43</v>
+        <v>16695</v>
       </c>
       <c r="G84" t="n">
-        <v>-558941.4319163501</v>
+        <v>-536680.6466668502</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3628,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>39</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3646,22 +3444,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>39.52</v>
+        <v>40.29</v>
       </c>
       <c r="C85" t="n">
-        <v>39.52</v>
+        <v>40.29</v>
       </c>
       <c r="D85" t="n">
-        <v>39.52</v>
+        <v>40.29</v>
       </c>
       <c r="E85" t="n">
-        <v>39.52</v>
+        <v>40.29</v>
       </c>
       <c r="F85" t="n">
-        <v>4750.1052</v>
+        <v>6192</v>
       </c>
       <c r="G85" t="n">
-        <v>-563691.5371163501</v>
+        <v>-536680.6466668502</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3670,14 +3468,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>39</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3688,22 +3480,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>39.52</v>
+        <v>40.3</v>
       </c>
       <c r="C86" t="n">
-        <v>39.52</v>
+        <v>40.3</v>
       </c>
       <c r="D86" t="n">
-        <v>39.52</v>
+        <v>40.3</v>
       </c>
       <c r="E86" t="n">
-        <v>39.52</v>
+        <v>40.3</v>
       </c>
       <c r="F86" t="n">
-        <v>1154</v>
+        <v>135.3292</v>
       </c>
       <c r="G86" t="n">
-        <v>-563691.5371163501</v>
+        <v>-536545.3174668502</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3712,14 +3504,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>39</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3730,22 +3516,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>39.52</v>
+        <v>40.58</v>
       </c>
       <c r="C87" t="n">
-        <v>39.52</v>
+        <v>40.58</v>
       </c>
       <c r="D87" t="n">
-        <v>39.52</v>
+        <v>40.58</v>
       </c>
       <c r="E87" t="n">
-        <v>39.52</v>
+        <v>40.58</v>
       </c>
       <c r="F87" t="n">
-        <v>4994.247</v>
+        <v>300</v>
       </c>
       <c r="G87" t="n">
-        <v>-563691.5371163501</v>
+        <v>-536245.3174668502</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3754,14 +3540,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>39</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3772,22 +3552,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>39.42</v>
+        <v>40.59</v>
       </c>
       <c r="C88" t="n">
-        <v>39.42</v>
+        <v>40.59</v>
       </c>
       <c r="D88" t="n">
-        <v>39.42</v>
+        <v>40.59</v>
       </c>
       <c r="E88" t="n">
-        <v>39.42</v>
+        <v>40.59</v>
       </c>
       <c r="F88" t="n">
-        <v>1421.416</v>
+        <v>2109.6862</v>
       </c>
       <c r="G88" t="n">
-        <v>-565112.9531163501</v>
+        <v>-534135.6312668502</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3796,14 +3576,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>39</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3814,22 +3588,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>39.58</v>
+        <v>40.61</v>
       </c>
       <c r="C89" t="n">
-        <v>39.58</v>
+        <v>40.63</v>
       </c>
       <c r="D89" t="n">
-        <v>39.58</v>
+        <v>40.63</v>
       </c>
       <c r="E89" t="n">
-        <v>39.58</v>
+        <v>40.61</v>
       </c>
       <c r="F89" t="n">
-        <v>13</v>
+        <v>4502.4575</v>
       </c>
       <c r="G89" t="n">
-        <v>-565099.9531163501</v>
+        <v>-529633.1737668501</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3838,14 +3612,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>39</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3856,40 +3624,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>39.58</v>
+        <v>40.64</v>
       </c>
       <c r="C90" t="n">
-        <v>39.58</v>
+        <v>40.64</v>
       </c>
       <c r="D90" t="n">
-        <v>39.58</v>
+        <v>40.64</v>
       </c>
       <c r="E90" t="n">
-        <v>39.58</v>
+        <v>40.64</v>
       </c>
       <c r="F90" t="n">
-        <v>842.9288</v>
+        <v>276.1672</v>
       </c>
       <c r="G90" t="n">
-        <v>-565099.9531163501</v>
+        <v>-529357.0065668501</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>39.58</v>
-      </c>
-      <c r="K90" t="n">
-        <v>39</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3900,40 +3660,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>39.66</v>
+        <v>40.64</v>
       </c>
       <c r="C91" t="n">
-        <v>39.66</v>
+        <v>40.75</v>
       </c>
       <c r="D91" t="n">
-        <v>39.66</v>
+        <v>40.75</v>
       </c>
       <c r="E91" t="n">
-        <v>39.66</v>
+        <v>40.64</v>
       </c>
       <c r="F91" t="n">
-        <v>140.06555723</v>
+        <v>1015.4588</v>
       </c>
       <c r="G91" t="n">
-        <v>-564959.8875591201</v>
+        <v>-528341.5477668501</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>39.58</v>
-      </c>
-      <c r="K91" t="n">
-        <v>39</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3944,40 +3696,32 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>39.66</v>
+        <v>40.86</v>
       </c>
       <c r="C92" t="n">
-        <v>39.66</v>
+        <v>40.86</v>
       </c>
       <c r="D92" t="n">
-        <v>39.66</v>
+        <v>40.86</v>
       </c>
       <c r="E92" t="n">
-        <v>39.66</v>
+        <v>40.86</v>
       </c>
       <c r="F92" t="n">
-        <v>300.43874277</v>
+        <v>13000.0438</v>
       </c>
       <c r="G92" t="n">
-        <v>-564959.8875591201</v>
+        <v>-515341.5039668501</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>39.66</v>
-      </c>
-      <c r="K92" t="n">
-        <v>39</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3988,40 +3732,32 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>39.77</v>
+        <v>40.86</v>
       </c>
       <c r="C93" t="n">
-        <v>39.77</v>
+        <v>40.86</v>
       </c>
       <c r="D93" t="n">
-        <v>39.77</v>
+        <v>40.86</v>
       </c>
       <c r="E93" t="n">
-        <v>39.77</v>
+        <v>40.86</v>
       </c>
       <c r="F93" t="n">
-        <v>29600</v>
+        <v>2627.7883</v>
       </c>
       <c r="G93" t="n">
-        <v>-535359.8875591201</v>
+        <v>-515341.5039668501</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>39.66</v>
-      </c>
-      <c r="K93" t="n">
-        <v>39</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4032,40 +3768,32 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>39.77</v>
+        <v>40.86</v>
       </c>
       <c r="C94" t="n">
-        <v>39.77</v>
+        <v>40.86</v>
       </c>
       <c r="D94" t="n">
-        <v>39.77</v>
+        <v>40.86</v>
       </c>
       <c r="E94" t="n">
-        <v>39.77</v>
+        <v>40.86</v>
       </c>
       <c r="F94" t="n">
-        <v>5751.8918</v>
+        <v>18284.4853</v>
       </c>
       <c r="G94" t="n">
-        <v>-535359.8875591201</v>
+        <v>-515341.5039668501</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>39.77</v>
-      </c>
-      <c r="K94" t="n">
-        <v>39</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4076,40 +3804,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>39.66</v>
+        <v>40.86</v>
       </c>
       <c r="C95" t="n">
-        <v>39.66</v>
+        <v>41</v>
       </c>
       <c r="D95" t="n">
-        <v>39.66</v>
+        <v>41</v>
       </c>
       <c r="E95" t="n">
-        <v>39.66</v>
+        <v>40.86</v>
       </c>
       <c r="F95" t="n">
-        <v>2018.1304</v>
+        <v>8265.8428</v>
       </c>
       <c r="G95" t="n">
-        <v>-537378.0179591201</v>
+        <v>-507075.6611668501</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>39.77</v>
-      </c>
-      <c r="K95" t="n">
-        <v>39</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4120,40 +3840,32 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>39.66</v>
+        <v>40.99</v>
       </c>
       <c r="C96" t="n">
-        <v>39.41</v>
+        <v>41</v>
       </c>
       <c r="D96" t="n">
-        <v>39.66</v>
+        <v>41</v>
       </c>
       <c r="E96" t="n">
-        <v>39.41</v>
+        <v>40.99</v>
       </c>
       <c r="F96" t="n">
-        <v>37012.23705723</v>
+        <v>9171.518099999999</v>
       </c>
       <c r="G96" t="n">
-        <v>-574390.2550163501</v>
+        <v>-507075.6611668501</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>39.66</v>
-      </c>
-      <c r="K96" t="n">
-        <v>39</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4164,40 +3876,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>39.41</v>
+        <v>41</v>
       </c>
       <c r="C97" t="n">
-        <v>39.41</v>
+        <v>41</v>
       </c>
       <c r="D97" t="n">
-        <v>39.41</v>
+        <v>41</v>
       </c>
       <c r="E97" t="n">
-        <v>39.41</v>
+        <v>41</v>
       </c>
       <c r="F97" t="n">
-        <v>34624.9886</v>
+        <v>5649.3255</v>
       </c>
       <c r="G97" t="n">
-        <v>-574390.2550163501</v>
+        <v>-507075.6611668501</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="K97" t="n">
-        <v>39</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4208,40 +3912,32 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>39.2</v>
+        <v>41.1</v>
       </c>
       <c r="C98" t="n">
-        <v>39.2</v>
+        <v>41.1</v>
       </c>
       <c r="D98" t="n">
-        <v>39.2</v>
+        <v>41.1</v>
       </c>
       <c r="E98" t="n">
-        <v>39.2</v>
+        <v>41.1</v>
       </c>
       <c r="F98" t="n">
-        <v>50</v>
+        <v>135.15815085</v>
       </c>
       <c r="G98" t="n">
-        <v>-574440.2550163501</v>
+        <v>-506940.5030160001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="K98" t="n">
-        <v>39</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4252,40 +3948,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>39.41</v>
+        <v>41.1</v>
       </c>
       <c r="C99" t="n">
-        <v>39.41</v>
+        <v>41.1</v>
       </c>
       <c r="D99" t="n">
-        <v>39.41</v>
+        <v>41.1</v>
       </c>
       <c r="E99" t="n">
-        <v>39.41</v>
+        <v>41.1</v>
       </c>
       <c r="F99" t="n">
-        <v>1550.8483</v>
+        <v>108.12652068</v>
       </c>
       <c r="G99" t="n">
-        <v>-572889.4067163501</v>
+        <v>-506940.5030160001</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K99" t="n">
-        <v>39</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4296,40 +3984,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>39.41</v>
+        <v>41.1</v>
       </c>
       <c r="C100" t="n">
-        <v>39.41</v>
+        <v>41</v>
       </c>
       <c r="D100" t="n">
-        <v>39.41</v>
+        <v>41.1</v>
       </c>
       <c r="E100" t="n">
-        <v>39.41</v>
+        <v>41</v>
       </c>
       <c r="F100" t="n">
-        <v>10372.5233</v>
+        <v>836.7383</v>
       </c>
       <c r="G100" t="n">
-        <v>-572889.4067163501</v>
+        <v>-507777.2413160002</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="K100" t="n">
-        <v>39</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4340,40 +4020,32 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>39.41</v>
+        <v>40.86</v>
       </c>
       <c r="C101" t="n">
-        <v>39.41</v>
+        <v>40.86</v>
       </c>
       <c r="D101" t="n">
-        <v>39.41</v>
+        <v>40.86</v>
       </c>
       <c r="E101" t="n">
-        <v>39.41</v>
+        <v>40.86</v>
       </c>
       <c r="F101" t="n">
-        <v>4.277e-05</v>
+        <v>9288</v>
       </c>
       <c r="G101" t="n">
-        <v>-572889.4067163501</v>
+        <v>-517065.2413160002</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="K101" t="n">
-        <v>39</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4384,40 +4056,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>39.8</v>
+        <v>40.86</v>
       </c>
       <c r="C102" t="n">
-        <v>39.8</v>
+        <v>40.86</v>
       </c>
       <c r="D102" t="n">
-        <v>39.8</v>
+        <v>40.86</v>
       </c>
       <c r="E102" t="n">
-        <v>39.8</v>
+        <v>40.86</v>
       </c>
       <c r="F102" t="n">
-        <v>12533.9684</v>
+        <v>9353.6602</v>
       </c>
       <c r="G102" t="n">
-        <v>-560355.4383163501</v>
+        <v>-517065.2413160002</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="K102" t="n">
-        <v>39</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4428,40 +4092,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>39.81</v>
+        <v>40.79</v>
       </c>
       <c r="C103" t="n">
-        <v>39.83</v>
+        <v>40.79</v>
       </c>
       <c r="D103" t="n">
-        <v>39.83</v>
+        <v>40.79</v>
       </c>
       <c r="E103" t="n">
-        <v>39.81</v>
+        <v>40.79</v>
       </c>
       <c r="F103" t="n">
-        <v>1764.8449</v>
+        <v>28646.7454</v>
       </c>
       <c r="G103" t="n">
-        <v>-558590.5934163501</v>
+        <v>-545711.9867160001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="K103" t="n">
-        <v>39</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4472,40 +4128,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>39.83</v>
+        <v>40.41</v>
       </c>
       <c r="C104" t="n">
-        <v>39.83</v>
+        <v>40.41</v>
       </c>
       <c r="D104" t="n">
-        <v>39.83</v>
+        <v>40.41</v>
       </c>
       <c r="E104" t="n">
-        <v>39.83</v>
+        <v>40.41</v>
       </c>
       <c r="F104" t="n">
-        <v>101.8686</v>
+        <v>127.561</v>
       </c>
       <c r="G104" t="n">
-        <v>-558590.5934163501</v>
+        <v>-545839.5477160001</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>39.83</v>
-      </c>
-      <c r="K104" t="n">
-        <v>39</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4516,40 +4164,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>39.92</v>
+        <v>40.41</v>
       </c>
       <c r="C105" t="n">
-        <v>39.92</v>
+        <v>40.41</v>
       </c>
       <c r="D105" t="n">
-        <v>39.92</v>
+        <v>40.41</v>
       </c>
       <c r="E105" t="n">
-        <v>39.92</v>
+        <v>40.41</v>
       </c>
       <c r="F105" t="n">
-        <v>917.149</v>
+        <v>157</v>
       </c>
       <c r="G105" t="n">
-        <v>-557673.4444163501</v>
+        <v>-545839.5477160001</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>39.83</v>
-      </c>
-      <c r="K105" t="n">
-        <v>39</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4560,40 +4200,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>39.99</v>
+        <v>40.41</v>
       </c>
       <c r="C106" t="n">
-        <v>40.07</v>
+        <v>40</v>
       </c>
       <c r="D106" t="n">
-        <v>40.07</v>
+        <v>40.41</v>
       </c>
       <c r="E106" t="n">
-        <v>39.99</v>
+        <v>40</v>
       </c>
       <c r="F106" t="n">
-        <v>921.5936</v>
+        <v>1496.3215</v>
       </c>
       <c r="G106" t="n">
-        <v>-556751.8508163501</v>
+        <v>-547335.8692160001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>39.92</v>
-      </c>
-      <c r="K106" t="n">
-        <v>39</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4604,40 +4236,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>40.09</v>
+        <v>39.94</v>
       </c>
       <c r="C107" t="n">
-        <v>40.21</v>
+        <v>40</v>
       </c>
       <c r="D107" t="n">
-        <v>40.21</v>
+        <v>40</v>
       </c>
       <c r="E107" t="n">
-        <v>40.09</v>
+        <v>39.94</v>
       </c>
       <c r="F107" t="n">
-        <v>6791.1741</v>
+        <v>25120.5468</v>
       </c>
       <c r="G107" t="n">
-        <v>-549960.6767163501</v>
+        <v>-547335.8692160001</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>40.07</v>
-      </c>
-      <c r="K107" t="n">
-        <v>39</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4648,40 +4272,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>40.23</v>
+        <v>40</v>
       </c>
       <c r="C108" t="n">
-        <v>40.23</v>
+        <v>40</v>
       </c>
       <c r="D108" t="n">
-        <v>40.23</v>
+        <v>40</v>
       </c>
       <c r="E108" t="n">
-        <v>40.23</v>
+        <v>40</v>
       </c>
       <c r="F108" t="n">
-        <v>10868.6756</v>
+        <v>0.0001</v>
       </c>
       <c r="G108" t="n">
-        <v>-539092.0011163502</v>
+        <v>-547335.8692160001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>40.21</v>
-      </c>
-      <c r="K108" t="n">
-        <v>39</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4692,22 +4308,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>40.37</v>
+        <v>40.13</v>
       </c>
       <c r="C109" t="n">
-        <v>40.37</v>
+        <v>40.13</v>
       </c>
       <c r="D109" t="n">
-        <v>40.37</v>
+        <v>40.13</v>
       </c>
       <c r="E109" t="n">
-        <v>40.37</v>
+        <v>40.13</v>
       </c>
       <c r="F109" t="n">
-        <v>10093.5518</v>
+        <v>30</v>
       </c>
       <c r="G109" t="n">
-        <v>-528998.4493163502</v>
+        <v>-547305.8692160001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4716,14 +4332,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>39</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4734,22 +4344,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>40.38</v>
+        <v>40.45</v>
       </c>
       <c r="C110" t="n">
-        <v>40.38</v>
+        <v>40.45</v>
       </c>
       <c r="D110" t="n">
-        <v>40.38</v>
+        <v>40.45</v>
       </c>
       <c r="E110" t="n">
-        <v>40.38</v>
+        <v>40.45</v>
       </c>
       <c r="F110" t="n">
-        <v>178.1961</v>
+        <v>222.00247218</v>
       </c>
       <c r="G110" t="n">
-        <v>-528820.2532163502</v>
+        <v>-547083.8667438201</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4758,14 +4368,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>39</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4776,22 +4380,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>40.37</v>
+        <v>40.11</v>
       </c>
       <c r="C111" t="n">
-        <v>40.37</v>
+        <v>40.1</v>
       </c>
       <c r="D111" t="n">
-        <v>40.37</v>
+        <v>40.11</v>
       </c>
       <c r="E111" t="n">
-        <v>40.37</v>
+        <v>40.1</v>
       </c>
       <c r="F111" t="n">
-        <v>3190.9572</v>
+        <v>1241.7296</v>
       </c>
       <c r="G111" t="n">
-        <v>-532011.2104163502</v>
+        <v>-548325.5963438201</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4800,14 +4404,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>39</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4818,22 +4416,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>40.37</v>
+        <v>39.91</v>
       </c>
       <c r="C112" t="n">
-        <v>40.37</v>
+        <v>39.91</v>
       </c>
       <c r="D112" t="n">
-        <v>40.37</v>
+        <v>39.91</v>
       </c>
       <c r="E112" t="n">
-        <v>40.37</v>
+        <v>39.91</v>
       </c>
       <c r="F112" t="n">
-        <v>56253.3023</v>
+        <v>77.2388</v>
       </c>
       <c r="G112" t="n">
-        <v>-532011.2104163502</v>
+        <v>-548402.8351438201</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4842,14 +4440,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>39</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4860,22 +4452,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>40.37</v>
+        <v>40</v>
       </c>
       <c r="C113" t="n">
-        <v>40.37</v>
+        <v>40</v>
       </c>
       <c r="D113" t="n">
-        <v>40.37</v>
+        <v>40</v>
       </c>
       <c r="E113" t="n">
-        <v>40.37</v>
+        <v>40</v>
       </c>
       <c r="F113" t="n">
-        <v>17616.9571</v>
+        <v>23035.0388</v>
       </c>
       <c r="G113" t="n">
-        <v>-532011.2104163502</v>
+        <v>-525367.7963438202</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4884,14 +4476,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>39</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4902,22 +4488,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>40.35</v>
+        <v>40</v>
       </c>
       <c r="C114" t="n">
-        <v>40.42</v>
+        <v>39.79</v>
       </c>
       <c r="D114" t="n">
-        <v>40.42</v>
+        <v>40</v>
       </c>
       <c r="E114" t="n">
-        <v>40.35</v>
+        <v>39.79</v>
       </c>
       <c r="F114" t="n">
-        <v>2207.6622</v>
+        <v>20190.4425</v>
       </c>
       <c r="G114" t="n">
-        <v>-529803.5482163501</v>
+        <v>-545558.2388438202</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4926,14 +4512,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>39</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4944,22 +4524,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>40.42</v>
+        <v>39.65</v>
       </c>
       <c r="C115" t="n">
-        <v>40.42</v>
+        <v>39.31</v>
       </c>
       <c r="D115" t="n">
-        <v>40.42</v>
+        <v>39.65</v>
       </c>
       <c r="E115" t="n">
-        <v>40.42</v>
+        <v>39.31</v>
       </c>
       <c r="F115" t="n">
-        <v>1624.2417</v>
+        <v>84865.18120000001</v>
       </c>
       <c r="G115" t="n">
-        <v>-529803.5482163501</v>
+        <v>-630423.4200438202</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4968,14 +4548,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>39</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4986,22 +4560,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>40.42</v>
+        <v>39.49</v>
       </c>
       <c r="C116" t="n">
-        <v>40.42</v>
+        <v>39.49</v>
       </c>
       <c r="D116" t="n">
-        <v>40.42</v>
+        <v>39.49</v>
       </c>
       <c r="E116" t="n">
-        <v>40.42</v>
+        <v>39.49</v>
       </c>
       <c r="F116" t="n">
-        <v>20962.2274</v>
+        <v>1010</v>
       </c>
       <c r="G116" t="n">
-        <v>-529803.5482163501</v>
+        <v>-629413.4200438202</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5010,14 +4584,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>39</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5028,22 +4596,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>40.63</v>
+        <v>39.49</v>
       </c>
       <c r="C117" t="n">
-        <v>40.63</v>
+        <v>39.59</v>
       </c>
       <c r="D117" t="n">
-        <v>40.63</v>
+        <v>39.59</v>
       </c>
       <c r="E117" t="n">
-        <v>40.63</v>
+        <v>39.49</v>
       </c>
       <c r="F117" t="n">
-        <v>81.85290000000001</v>
+        <v>2846.5479</v>
       </c>
       <c r="G117" t="n">
-        <v>-529721.6953163501</v>
+        <v>-626566.8721438202</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5052,14 +4620,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>39</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5070,22 +4632,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>40.63</v>
+        <v>39.49</v>
       </c>
       <c r="C118" t="n">
-        <v>40.63</v>
+        <v>39.49</v>
       </c>
       <c r="D118" t="n">
-        <v>40.63</v>
+        <v>39.49</v>
       </c>
       <c r="E118" t="n">
-        <v>40.63</v>
+        <v>39.49</v>
       </c>
       <c r="F118" t="n">
-        <v>170.3539</v>
+        <v>1166.3499</v>
       </c>
       <c r="G118" t="n">
-        <v>-529721.6953163501</v>
+        <v>-627733.2220438202</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5094,14 +4656,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>39</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5112,22 +4668,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>40.7</v>
+        <v>39.4</v>
       </c>
       <c r="C119" t="n">
-        <v>40.7</v>
+        <v>39.49</v>
       </c>
       <c r="D119" t="n">
-        <v>40.7</v>
+        <v>39.49</v>
       </c>
       <c r="E119" t="n">
-        <v>40.7</v>
+        <v>39.4</v>
       </c>
       <c r="F119" t="n">
-        <v>494.1589</v>
+        <v>3251.7122</v>
       </c>
       <c r="G119" t="n">
-        <v>-529227.53641635</v>
+        <v>-627733.2220438202</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5136,14 +4692,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>39</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5154,38 +4704,36 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>40.6</v>
+        <v>39.21</v>
       </c>
       <c r="C120" t="n">
-        <v>40.5</v>
+        <v>39.21</v>
       </c>
       <c r="D120" t="n">
-        <v>40.6</v>
+        <v>39.21</v>
       </c>
       <c r="E120" t="n">
-        <v>40.5</v>
+        <v>39.21</v>
       </c>
       <c r="F120" t="n">
-        <v>827.6673</v>
+        <v>4599.8947</v>
       </c>
       <c r="G120" t="n">
-        <v>-530055.20371635</v>
+        <v>-632333.1167438201</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>39.49</v>
+      </c>
       <c r="K120" t="n">
-        <v>39</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>39.49</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5196,36 +4744,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>40.4</v>
+        <v>39.39</v>
       </c>
       <c r="C121" t="n">
-        <v>40.5</v>
+        <v>39.39</v>
       </c>
       <c r="D121" t="n">
-        <v>40.5</v>
+        <v>39.39</v>
       </c>
       <c r="E121" t="n">
-        <v>40.4</v>
+        <v>39.39</v>
       </c>
       <c r="F121" t="n">
-        <v>3359.0878</v>
+        <v>790.9569</v>
       </c>
       <c r="G121" t="n">
-        <v>-530055.20371635</v>
+        <v>-631542.1598438201</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>39.21</v>
+      </c>
       <c r="K121" t="n">
-        <v>39</v>
+        <v>39.49</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M121" t="n">
@@ -5238,36 +4788,38 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>40.5</v>
+        <v>39.33</v>
       </c>
       <c r="C122" t="n">
-        <v>40.4</v>
+        <v>39.33</v>
       </c>
       <c r="D122" t="n">
-        <v>40.5</v>
+        <v>39.33</v>
       </c>
       <c r="E122" t="n">
-        <v>40.4</v>
+        <v>39.33</v>
       </c>
       <c r="F122" t="n">
-        <v>20374.5089</v>
+        <v>11933.2538</v>
       </c>
       <c r="G122" t="n">
-        <v>-550429.71261635</v>
+        <v>-643475.4136438201</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>39.39</v>
+      </c>
       <c r="K122" t="n">
-        <v>39</v>
+        <v>39.49</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M122" t="n">
@@ -5280,38 +4832,36 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>40.2</v>
+        <v>39.01</v>
       </c>
       <c r="C123" t="n">
-        <v>40.2</v>
+        <v>39.01</v>
       </c>
       <c r="D123" t="n">
-        <v>40.2</v>
+        <v>39.01</v>
       </c>
       <c r="E123" t="n">
-        <v>40.2</v>
+        <v>39.01</v>
       </c>
       <c r="F123" t="n">
-        <v>901.6179</v>
+        <v>106.2698</v>
       </c>
       <c r="G123" t="n">
-        <v>-551331.33051635</v>
+        <v>-643581.6834438201</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>39.33</v>
+      </c>
       <c r="K123" t="n">
-        <v>39</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>39.33</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5322,36 +4872,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>40.59</v>
+        <v>39</v>
       </c>
       <c r="C124" t="n">
-        <v>40.59</v>
+        <v>39</v>
       </c>
       <c r="D124" t="n">
-        <v>40.59</v>
+        <v>39</v>
       </c>
       <c r="E124" t="n">
-        <v>40.59</v>
+        <v>39</v>
       </c>
       <c r="F124" t="n">
-        <v>140</v>
+        <v>593.7302</v>
       </c>
       <c r="G124" t="n">
-        <v>-551191.33051635</v>
+        <v>-644175.4136438201</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>39.01</v>
+      </c>
       <c r="K124" t="n">
-        <v>39</v>
+        <v>39.33</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M124" t="n">
@@ -5364,36 +4916,38 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>40.56</v>
+        <v>39.4</v>
       </c>
       <c r="C125" t="n">
-        <v>40.6</v>
+        <v>39.4</v>
       </c>
       <c r="D125" t="n">
-        <v>40.6</v>
+        <v>39.4</v>
       </c>
       <c r="E125" t="n">
-        <v>40.56</v>
+        <v>39.4</v>
       </c>
       <c r="F125" t="n">
-        <v>32000</v>
+        <v>405.8382</v>
       </c>
       <c r="G125" t="n">
-        <v>-519191.33051635</v>
+        <v>-643769.5754438201</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>39</v>
+      </c>
       <c r="K125" t="n">
-        <v>39</v>
+        <v>39.33</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M125" t="n">
@@ -5406,36 +4960,38 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>40.6</v>
+        <v>39.3</v>
       </c>
       <c r="C126" t="n">
-        <v>40.6</v>
+        <v>39.21</v>
       </c>
       <c r="D126" t="n">
-        <v>40.6</v>
+        <v>39.3</v>
       </c>
       <c r="E126" t="n">
-        <v>40.6</v>
+        <v>39.21</v>
       </c>
       <c r="F126" t="n">
-        <v>8810.4503</v>
+        <v>8203</v>
       </c>
       <c r="G126" t="n">
-        <v>-519191.33051635</v>
+        <v>-651972.5754438201</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>39.4</v>
+      </c>
       <c r="K126" t="n">
-        <v>39</v>
+        <v>39.33</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M126" t="n">
@@ -5448,32 +5004,34 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>40.8</v>
+        <v>39.1</v>
       </c>
       <c r="C127" t="n">
-        <v>40.8</v>
+        <v>39.1</v>
       </c>
       <c r="D127" t="n">
-        <v>40.8</v>
+        <v>39.1</v>
       </c>
       <c r="E127" t="n">
-        <v>40.8</v>
+        <v>39.1</v>
       </c>
       <c r="F127" t="n">
-        <v>28.2844</v>
+        <v>850.9632</v>
       </c>
       <c r="G127" t="n">
-        <v>-519163.04611635</v>
+        <v>-652823.5386438201</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>39.21</v>
+      </c>
       <c r="K127" t="n">
-        <v>39</v>
+        <v>39.33</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5490,32 +5048,34 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>41.09</v>
+        <v>39</v>
       </c>
       <c r="C128" t="n">
-        <v>40.61</v>
+        <v>38.93</v>
       </c>
       <c r="D128" t="n">
-        <v>41.09</v>
+        <v>39</v>
       </c>
       <c r="E128" t="n">
-        <v>40.61</v>
+        <v>38.93</v>
       </c>
       <c r="F128" t="n">
-        <v>19654.6911</v>
+        <v>5041.3508</v>
       </c>
       <c r="G128" t="n">
-        <v>-538817.73721635</v>
+        <v>-657864.8894438201</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>39.1</v>
+      </c>
       <c r="K128" t="n">
-        <v>39</v>
+        <v>39.33</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -5532,32 +5092,34 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>40.6</v>
+        <v>39.01</v>
       </c>
       <c r="C129" t="n">
-        <v>40.5</v>
+        <v>39.3</v>
       </c>
       <c r="D129" t="n">
-        <v>40.6</v>
+        <v>39.3</v>
       </c>
       <c r="E129" t="n">
-        <v>40.5</v>
+        <v>38.86</v>
       </c>
       <c r="F129" t="n">
-        <v>18312.6911</v>
+        <v>18195.5263</v>
       </c>
       <c r="G129" t="n">
-        <v>-557130.4283163501</v>
+        <v>-639669.3631438201</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>38.93</v>
+      </c>
       <c r="K129" t="n">
-        <v>39</v>
+        <v>39.33</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -5574,32 +5136,34 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>40.65</v>
+        <v>39.37</v>
       </c>
       <c r="C130" t="n">
-        <v>40.65</v>
+        <v>39.37</v>
       </c>
       <c r="D130" t="n">
-        <v>40.65</v>
+        <v>39.37</v>
       </c>
       <c r="E130" t="n">
-        <v>40.65</v>
+        <v>39.37</v>
       </c>
       <c r="F130" t="n">
-        <v>286.9836</v>
+        <v>672.2988</v>
       </c>
       <c r="G130" t="n">
-        <v>-556843.4447163501</v>
+        <v>-638997.0643438201</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>39.3</v>
+      </c>
       <c r="K130" t="n">
-        <v>39</v>
+        <v>39.33</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -5616,32 +5180,34 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>40.7</v>
+        <v>39.32</v>
       </c>
       <c r="C131" t="n">
-        <v>40.7</v>
+        <v>39.32</v>
       </c>
       <c r="D131" t="n">
-        <v>40.7</v>
+        <v>39.32</v>
       </c>
       <c r="E131" t="n">
-        <v>40.7</v>
+        <v>39.32</v>
       </c>
       <c r="F131" t="n">
-        <v>600.5829</v>
+        <v>259.792</v>
       </c>
       <c r="G131" t="n">
-        <v>-556242.86181635</v>
+        <v>-639256.8563438201</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>39.37</v>
+      </c>
       <c r="K131" t="n">
-        <v>39</v>
+        <v>39.33</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -5658,32 +5224,34 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>40.59</v>
+        <v>39.32</v>
       </c>
       <c r="C132" t="n">
-        <v>40.53</v>
+        <v>39.32</v>
       </c>
       <c r="D132" t="n">
-        <v>40.59</v>
+        <v>39.32</v>
       </c>
       <c r="E132" t="n">
-        <v>40.53</v>
+        <v>39.32</v>
       </c>
       <c r="F132" t="n">
-        <v>3158.2957</v>
+        <v>94.2642</v>
       </c>
       <c r="G132" t="n">
-        <v>-559401.15751635</v>
+        <v>-639256.8563438201</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>39.32</v>
+      </c>
       <c r="K132" t="n">
-        <v>39</v>
+        <v>39.33</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -5700,32 +5268,34 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>40.67</v>
+        <v>39.32</v>
       </c>
       <c r="C133" t="n">
-        <v>40.67</v>
+        <v>39.32</v>
       </c>
       <c r="D133" t="n">
-        <v>40.67</v>
+        <v>39.32</v>
       </c>
       <c r="E133" t="n">
-        <v>40.67</v>
+        <v>39.32</v>
       </c>
       <c r="F133" t="n">
-        <v>200</v>
+        <v>161.1918</v>
       </c>
       <c r="G133" t="n">
-        <v>-559201.15751635</v>
+        <v>-639256.8563438201</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>39.32</v>
+      </c>
       <c r="K133" t="n">
-        <v>39</v>
+        <v>39.33</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -5742,32 +5312,34 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>40.7</v>
+        <v>39.42</v>
       </c>
       <c r="C134" t="n">
-        <v>40.7</v>
+        <v>39.42</v>
       </c>
       <c r="D134" t="n">
-        <v>40.7</v>
+        <v>39.42</v>
       </c>
       <c r="E134" t="n">
-        <v>40.7</v>
+        <v>39.42</v>
       </c>
       <c r="F134" t="n">
-        <v>568.2486</v>
+        <v>14004.2012</v>
       </c>
       <c r="G134" t="n">
-        <v>-558632.90891635</v>
+        <v>-625252.6551438201</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>39.32</v>
+      </c>
       <c r="K134" t="n">
-        <v>39</v>
+        <v>39.33</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -5784,32 +5356,34 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>40.77</v>
+        <v>39.42</v>
       </c>
       <c r="C135" t="n">
-        <v>40.77</v>
+        <v>39.42</v>
       </c>
       <c r="D135" t="n">
-        <v>40.77</v>
+        <v>39.42</v>
       </c>
       <c r="E135" t="n">
-        <v>40.77</v>
+        <v>39.42</v>
       </c>
       <c r="F135" t="n">
-        <v>216.4273</v>
+        <v>2439.7319</v>
       </c>
       <c r="G135" t="n">
-        <v>-558416.48161635</v>
+        <v>-625252.6551438201</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>39.42</v>
+      </c>
       <c r="K135" t="n">
-        <v>39</v>
+        <v>39.33</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -5826,42 +5400,3050 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="C136" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="D136" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="E136" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="F136" t="n">
+        <v>280.0012</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-625532.6563438202</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="K136" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="C137" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="D137" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="E137" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="F137" t="n">
+        <v>13941.1822</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-611591.4741438201</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="K137" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="C138" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="D138" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="E138" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="F138" t="n">
+        <v>6911.4129</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-618502.8870438201</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="K138" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="C139" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="D139" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="E139" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="F139" t="n">
+        <v>151.5414</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-618654.4284438201</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="K139" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="C140" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="D140" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="E140" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="F140" t="n">
+        <v>787.8632</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-617866.5652438201</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="K140" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="C141" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="D141" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="E141" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="F141" t="n">
+        <v>13958.0021</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-631824.5673438201</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="K141" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="C142" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="D142" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="E142" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="F142" t="n">
+        <v>63</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-631887.5673438201</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="K142" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>39.28</v>
+      </c>
+      <c r="C143" t="n">
+        <v>39.26</v>
+      </c>
+      <c r="D143" t="n">
+        <v>39.28</v>
+      </c>
+      <c r="E143" t="n">
+        <v>39.26</v>
+      </c>
+      <c r="F143" t="n">
+        <v>21013.6452</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-610873.9221438201</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="K143" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="C144" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="D144" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="E144" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="F144" t="n">
+        <v>7350.2049</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-603523.7172438201</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>39.26</v>
+      </c>
+      <c r="K144" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="C145" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="D145" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="E145" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2778.7555</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-603523.7172438201</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="C146" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="D146" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="E146" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3515.5367</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-603523.7172438201</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="C147" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="D147" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="E147" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2902.4032</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-603523.7172438201</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="C148" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="D148" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="E148" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="F148" t="n">
+        <v>9809.15972747</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-593714.5575163501</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="C149" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="D149" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="E149" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="F149" t="n">
+        <v>35351.8919</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-558362.66561635</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="C150" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="D150" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="E150" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="F150" t="n">
+        <v>635.913</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-558362.66561635</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="C151" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="D151" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="E151" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="F151" t="n">
+        <v>573.9102</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-558362.66561635</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="C152" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="D152" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="E152" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="F152" t="n">
+        <v>545.2147</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-558362.66561635</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="C153" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="D153" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="E153" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="F153" t="n">
+        <v>604.4222</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-558967.08781635</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="C154" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="D154" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="E154" t="n">
+        <v>39.64</v>
+      </c>
+      <c r="F154" t="n">
+        <v>518.0859</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-558449.0019163501</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>39.62</v>
+      </c>
+      <c r="C155" t="n">
+        <v>39.62</v>
+      </c>
+      <c r="D155" t="n">
+        <v>39.62</v>
+      </c>
+      <c r="E155" t="n">
+        <v>39.62</v>
+      </c>
+      <c r="F155" t="n">
+        <v>492.43</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-558941.4319163501</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="C156" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="D156" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="E156" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="F156" t="n">
+        <v>4750.1052</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-563691.5371163501</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="C157" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="D157" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="E157" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1154</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-563691.5371163501</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="C158" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="D158" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="E158" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4994.247</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-563691.5371163501</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="C159" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="D159" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="E159" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1421.416</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-565112.9531163501</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="C160" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="D160" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="E160" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="F160" t="n">
+        <v>13</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-565099.9531163501</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="C161" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="D161" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="E161" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="F161" t="n">
+        <v>842.9288</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-565099.9531163501</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="C162" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="D162" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="E162" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="F162" t="n">
+        <v>140.06555723</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-564959.8875591201</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="C163" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="D163" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="E163" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="F163" t="n">
+        <v>300.43874277</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-564959.8875591201</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>39.77</v>
+      </c>
+      <c r="C164" t="n">
+        <v>39.77</v>
+      </c>
+      <c r="D164" t="n">
+        <v>39.77</v>
+      </c>
+      <c r="E164" t="n">
+        <v>39.77</v>
+      </c>
+      <c r="F164" t="n">
+        <v>29600</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-535359.8875591201</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>39.77</v>
+      </c>
+      <c r="C165" t="n">
+        <v>39.77</v>
+      </c>
+      <c r="D165" t="n">
+        <v>39.77</v>
+      </c>
+      <c r="E165" t="n">
+        <v>39.77</v>
+      </c>
+      <c r="F165" t="n">
+        <v>5751.8918</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-535359.8875591201</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="C166" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="D166" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="E166" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2018.1304</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-537378.0179591201</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="C167" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="D167" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="E167" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="F167" t="n">
+        <v>37012.23705723</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-574390.2550163501</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="C168" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="D168" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="E168" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="F168" t="n">
+        <v>34624.9886</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-574390.2550163501</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="C169" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D169" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="E169" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="F169" t="n">
+        <v>50</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-574440.2550163501</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="C170" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="D170" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="E170" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1550.8483</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-572889.4067163501</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K170" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="C171" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="D171" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="E171" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="F171" t="n">
+        <v>10372.5233</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-572889.4067163501</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="K171" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="C172" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="D172" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="E172" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4.277e-05</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-572889.4067163501</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="K172" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="C173" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="D173" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="E173" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="F173" t="n">
+        <v>12533.9684</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-560355.4383163501</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="K173" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>39.81</v>
+      </c>
+      <c r="C174" t="n">
+        <v>39.83</v>
+      </c>
+      <c r="D174" t="n">
+        <v>39.83</v>
+      </c>
+      <c r="E174" t="n">
+        <v>39.81</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1764.8449</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-558590.5934163501</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>39.83</v>
+      </c>
+      <c r="C175" t="n">
+        <v>39.83</v>
+      </c>
+      <c r="D175" t="n">
+        <v>39.83</v>
+      </c>
+      <c r="E175" t="n">
+        <v>39.83</v>
+      </c>
+      <c r="F175" t="n">
+        <v>101.8686</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-558590.5934163501</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="C176" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="D176" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="E176" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="F176" t="n">
+        <v>917.149</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-557673.4444163501</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="C177" t="n">
+        <v>40.07</v>
+      </c>
+      <c r="D177" t="n">
+        <v>40.07</v>
+      </c>
+      <c r="E177" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="F177" t="n">
+        <v>921.5936</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-556751.8508163501</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>40.09</v>
+      </c>
+      <c r="C178" t="n">
+        <v>40.21</v>
+      </c>
+      <c r="D178" t="n">
+        <v>40.21</v>
+      </c>
+      <c r="E178" t="n">
+        <v>40.09</v>
+      </c>
+      <c r="F178" t="n">
+        <v>6791.1741</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-549960.6767163501</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="C179" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="D179" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="E179" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="F179" t="n">
+        <v>10868.6756</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-539092.0011163502</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="C180" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="D180" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="E180" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="F180" t="n">
+        <v>10093.5518</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-528998.4493163502</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>40.38</v>
+      </c>
+      <c r="C181" t="n">
+        <v>40.38</v>
+      </c>
+      <c r="D181" t="n">
+        <v>40.38</v>
+      </c>
+      <c r="E181" t="n">
+        <v>40.38</v>
+      </c>
+      <c r="F181" t="n">
+        <v>178.1961</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-528820.2532163502</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="C182" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="D182" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="E182" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3190.9572</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-532011.2104163502</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="C183" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="D183" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="E183" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="F183" t="n">
+        <v>56253.3023</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-532011.2104163502</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="C184" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="D184" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="E184" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="F184" t="n">
+        <v>17616.9571</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-532011.2104163502</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>40.35</v>
+      </c>
+      <c r="C185" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="D185" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="E185" t="n">
+        <v>40.35</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2207.6622</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-529803.5482163501</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="C186" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="D186" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="E186" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1624.2417</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-529803.5482163501</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="C187" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="D187" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="E187" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="F187" t="n">
+        <v>20962.2274</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-529803.5482163501</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="C188" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="D188" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="E188" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="F188" t="n">
+        <v>81.85290000000001</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-529721.6953163501</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="C189" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="D189" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="E189" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="F189" t="n">
+        <v>170.3539</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-529721.6953163501</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="C190" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D190" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="E190" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F190" t="n">
+        <v>494.1589</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-529227.53641635</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C191" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="D191" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E191" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="F191" t="n">
+        <v>827.6673</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-530055.20371635</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="C192" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="D192" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E192" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3359.0878</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-530055.20371635</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="C193" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="D193" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="E193" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20374.5089</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-550429.71261635</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="C194" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="D194" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="E194" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="F194" t="n">
+        <v>901.6179</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-551331.33051635</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="C195" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="D195" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="E195" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="F195" t="n">
+        <v>140</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-551191.33051635</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>40.56</v>
+      </c>
+      <c r="C196" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D196" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E196" t="n">
+        <v>40.56</v>
+      </c>
+      <c r="F196" t="n">
+        <v>32000</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-519191.33051635</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C197" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D197" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E197" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F197" t="n">
+        <v>8810.4503</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-519191.33051635</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="C198" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="D198" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="E198" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="F198" t="n">
+        <v>28.2844</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-519163.04611635</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="C199" t="n">
+        <v>40.61</v>
+      </c>
+      <c r="D199" t="n">
+        <v>41.09</v>
+      </c>
+      <c r="E199" t="n">
+        <v>40.61</v>
+      </c>
+      <c r="F199" t="n">
+        <v>19654.6911</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-538817.73721635</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="C200" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="D200" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="E200" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="F200" t="n">
+        <v>18312.6911</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-557130.4283163501</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="C201" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="D201" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="E201" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="F201" t="n">
+        <v>286.9836</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-556843.4447163501</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="C202" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D202" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="E202" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F202" t="n">
+        <v>600.5829</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-556242.86181635</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="C203" t="n">
+        <v>40.53</v>
+      </c>
+      <c r="D203" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="E203" t="n">
+        <v>40.53</v>
+      </c>
+      <c r="F203" t="n">
+        <v>3158.2957</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-559401.15751635</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>40.67</v>
+      </c>
+      <c r="C204" t="n">
+        <v>40.67</v>
+      </c>
+      <c r="D204" t="n">
+        <v>40.67</v>
+      </c>
+      <c r="E204" t="n">
+        <v>40.67</v>
+      </c>
+      <c r="F204" t="n">
+        <v>200</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-559201.15751635</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="C205" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D205" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="E205" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="F205" t="n">
+        <v>568.2486</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-558632.90891635</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="C206" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="D206" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="E206" t="n">
+        <v>40.77</v>
+      </c>
+      <c r="F206" t="n">
+        <v>216.4273</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-558416.48161635</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
         <v>40.98</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C207" t="n">
         <v>41.1</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D207" t="n">
         <v>41.1</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E207" t="n">
         <v>40.98</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F207" t="n">
         <v>2450</v>
       </c>
-      <c r="G136" t="n">
+      <c r="G207" t="n">
         <v>-555966.48161635</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>39</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest XEM.xlsx
+++ b/BackTest/2020-01-16 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N207"/>
+  <dimension ref="A1:M207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,21 @@
         <v>-309703.9661000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>39.08</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,22 +523,21 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>39.14</v>
       </c>
-      <c r="K4" t="n">
-        <v>39.14</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,26 +562,21 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>39.15</v>
       </c>
-      <c r="K5" t="n">
-        <v>39.14</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -612,24 +601,21 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>39.15</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>39.14</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -654,18 +640,21 @@
         <v>-279625.1828836601</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>39.15</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -692,16 +681,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -728,16 +718,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -764,16 +755,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -800,16 +792,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -836,16 +829,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -872,16 +866,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -908,16 +903,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -944,16 +940,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -980,16 +977,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1016,16 +1014,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1052,16 +1051,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1088,16 +1088,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1124,16 +1125,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1160,16 +1162,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1196,16 +1199,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1232,16 +1236,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1268,16 +1273,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1304,16 +1310,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1340,16 +1347,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1376,16 +1384,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1412,16 +1421,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1448,16 +1458,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1482,18 +1493,17 @@
         <v>-157433.5467287901</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1520,16 +1530,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1556,16 +1563,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1592,16 +1596,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1628,16 +1629,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1664,16 +1662,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1700,16 +1695,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1736,16 +1728,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1772,16 +1761,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1808,16 +1794,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1842,18 +1825,15 @@
         <v>-170991.9729287901</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1878,18 +1858,15 @@
         <v>-165828.8980287901</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1914,18 +1891,15 @@
         <v>-165828.8980287901</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1952,16 +1926,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1988,16 +1959,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2024,16 +1992,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2058,18 +2023,15 @@
         <v>-145121.8514287901</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2094,18 +2056,15 @@
         <v>-146732.1682287901</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2130,18 +2089,15 @@
         <v>-113732.1682287901</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2168,16 +2124,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2204,16 +2157,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2240,16 +2190,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2276,16 +2223,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2312,16 +2256,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2348,16 +2289,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2382,18 +2320,15 @@
         <v>-44091.99183779009</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2420,16 +2355,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2454,18 +2386,15 @@
         <v>-173230.6364377901</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2490,18 +2419,15 @@
         <v>-182604.7277377901</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2526,18 +2452,15 @@
         <v>-193790.2938377901</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2562,18 +2485,15 @@
         <v>-280061.0707668501</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2598,18 +2518,15 @@
         <v>-341752.0707668501</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2634,18 +2551,15 @@
         <v>-341752.0707668501</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2670,18 +2584,15 @@
         <v>-342328.6226668502</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2706,18 +2617,15 @@
         <v>-342767.2893668502</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2742,18 +2650,15 @@
         <v>-339804.3705668502</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2778,18 +2683,15 @@
         <v>-474399.1359668502</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2814,18 +2716,15 @@
         <v>-456000.7179668502</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2852,16 +2751,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2888,16 +2784,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2924,16 +2817,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2958,18 +2848,15 @@
         <v>-498624.5920668502</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2996,16 +2883,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3030,18 +2914,15 @@
         <v>-506330.0980668502</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3068,16 +2949,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3102,18 +2980,15 @@
         <v>-509426.0980668502</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3138,18 +3013,15 @@
         <v>-509290.0980668502</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3174,18 +3046,15 @@
         <v>-512386.0980668502</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3212,16 +3081,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3246,18 +3112,15 @@
         <v>-515917.2195668502</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3284,16 +3147,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3320,16 +3180,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3356,16 +3213,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3392,16 +3246,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3428,16 +3279,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3464,16 +3312,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3500,16 +3345,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3536,16 +3378,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3572,16 +3411,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3608,16 +3444,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3644,16 +3477,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3680,16 +3510,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3716,16 +3543,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3752,16 +3576,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3788,16 +3609,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3824,16 +3642,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3860,16 +3675,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3896,16 +3708,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3932,16 +3741,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3968,16 +3774,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4004,16 +3807,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4040,16 +3840,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4076,16 +3873,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4110,18 +3904,15 @@
         <v>-545711.9867160001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4146,18 +3937,15 @@
         <v>-545839.5477160001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4184,16 +3972,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4220,16 +4005,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4256,16 +4038,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4292,16 +4071,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4328,16 +4104,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4364,16 +4137,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4400,16 +4170,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4436,16 +4203,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4472,16 +4236,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4508,16 +4269,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4544,16 +4302,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4580,16 +4335,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4616,16 +4368,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4652,16 +4401,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4688,16 +4434,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4722,22 +4465,15 @@
         <v>-632333.1167438201</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>39.49</v>
-      </c>
-      <c r="K120" t="n">
-        <v>39.49</v>
-      </c>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4762,26 +4498,15 @@
         <v>-631542.1598438201</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>39.21</v>
-      </c>
-      <c r="K121" t="n">
-        <v>39.49</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4806,26 +4531,15 @@
         <v>-643475.4136438201</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="K122" t="n">
-        <v>39.49</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4850,22 +4564,15 @@
         <v>-643581.6834438201</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="K123" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4890,26 +4597,15 @@
         <v>-644175.4136438201</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>39.01</v>
-      </c>
-      <c r="K124" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4934,26 +4630,15 @@
         <v>-643769.5754438201</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>39</v>
-      </c>
-      <c r="K125" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4978,26 +4663,15 @@
         <v>-651972.5754438201</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="K126" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5022,26 +4696,15 @@
         <v>-652823.5386438201</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>39.21</v>
-      </c>
-      <c r="K127" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5066,26 +4729,15 @@
         <v>-657864.8894438201</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="K128" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5110,26 +4762,15 @@
         <v>-639669.3631438201</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>38.93</v>
-      </c>
-      <c r="K129" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5154,26 +4795,15 @@
         <v>-638997.0643438201</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="K130" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5198,26 +4828,15 @@
         <v>-639256.8563438201</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>39.37</v>
-      </c>
-      <c r="K131" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5242,26 +4861,15 @@
         <v>-639256.8563438201</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="K132" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5286,26 +4894,15 @@
         <v>-639256.8563438201</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="K133" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5330,26 +4927,15 @@
         <v>-625252.6551438201</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="K134" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5374,26 +4960,15 @@
         <v>-625252.6551438201</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="K135" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5418,26 +4993,15 @@
         <v>-625532.6563438202</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="K136" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5462,26 +5026,15 @@
         <v>-611591.4741438201</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>39.22</v>
-      </c>
-      <c r="K137" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5506,26 +5059,15 @@
         <v>-618502.8870438201</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="K138" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5550,26 +5092,15 @@
         <v>-618654.4284438201</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="K139" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5594,26 +5125,15 @@
         <v>-617866.5652438201</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="K140" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5638,26 +5158,15 @@
         <v>-631824.5673438201</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="K141" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5682,26 +5191,15 @@
         <v>-631887.5673438201</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>39.38</v>
-      </c>
-      <c r="K142" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5726,26 +5224,15 @@
         <v>-610873.9221438201</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="K143" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5770,26 +5257,15 @@
         <v>-603523.7172438201</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>39.26</v>
-      </c>
-      <c r="K144" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5816,22 +5292,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5858,22 +5325,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5900,22 +5358,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5942,22 +5391,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5984,22 +5424,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6026,22 +5457,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6068,22 +5490,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6110,22 +5523,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6152,22 +5556,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6194,22 +5589,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6236,22 +5622,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6278,22 +5655,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6320,22 +5688,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6362,22 +5721,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6404,22 +5754,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6446,22 +5787,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6488,22 +5820,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6530,22 +5853,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6572,22 +5886,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6614,22 +5919,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6656,22 +5952,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6698,22 +5985,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6740,22 +6018,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6782,22 +6051,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6824,22 +6084,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6864,26 +6115,15 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="K170" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6908,26 +6148,15 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="K171" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6952,26 +6181,15 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="K172" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6996,26 +6214,15 @@
         <v>-560355.4383163501</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="K173" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7042,22 +6249,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7084,22 +6282,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7126,22 +6315,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7168,22 +6348,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7210,22 +6381,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7250,24 +6412,15 @@
         <v>-539092.0011163502</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7292,24 +6445,15 @@
         <v>-528998.4493163502</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7334,24 +6478,15 @@
         <v>-528820.2532163502</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7376,24 +6511,15 @@
         <v>-532011.2104163502</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7418,24 +6544,15 @@
         <v>-532011.2104163502</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7460,24 +6577,15 @@
         <v>-532011.2104163502</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7502,24 +6610,15 @@
         <v>-529803.5482163501</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7546,22 +6645,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7586,24 +6676,15 @@
         <v>-529803.5482163501</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7628,24 +6709,15 @@
         <v>-529721.6953163501</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7670,24 +6742,15 @@
         <v>-529721.6953163501</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7712,24 +6775,15 @@
         <v>-529227.53641635</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7754,24 +6808,15 @@
         <v>-530055.20371635</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7796,24 +6841,15 @@
         <v>-530055.20371635</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7838,24 +6874,15 @@
         <v>-550429.71261635</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7880,24 +6907,15 @@
         <v>-551331.33051635</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7922,24 +6940,15 @@
         <v>-551191.33051635</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7964,24 +6973,15 @@
         <v>-519191.33051635</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8006,24 +7006,15 @@
         <v>-519191.33051635</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8048,24 +7039,15 @@
         <v>-519163.04611635</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8090,24 +7072,15 @@
         <v>-538817.73721635</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8132,24 +7105,15 @@
         <v>-557130.4283163501</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8174,24 +7138,15 @@
         <v>-556843.4447163501</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8216,24 +7171,15 @@
         <v>-556242.86181635</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8258,24 +7204,15 @@
         <v>-559401.15751635</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8302,22 +7239,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8344,22 +7272,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8386,22 +7305,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8428,24 +7338,15 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest XEM.xlsx
+++ b/BackTest/2020-01-16 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,17 +484,11 @@
         <v>-309703.9661000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>39.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>39.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>39.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>39.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>-279625.1828836601</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>39.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -683,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -720,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -794,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -831,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -868,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -905,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -942,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -979,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1016,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1053,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1090,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1127,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1164,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1201,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1238,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1275,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1312,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1349,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1386,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1423,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1460,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1493,16 +1375,14 @@
         <v>-157433.5467287901</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
       <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1759,7 +1639,7 @@
         <v>-182419.9665287901</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1825,7 +1705,7 @@
         <v>-170991.9729287901</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1858,7 +1738,7 @@
         <v>-165828.8980287901</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1891,7 +1771,7 @@
         <v>-165828.8980287901</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2023,7 +1903,7 @@
         <v>-145121.8514287901</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2056,7 +1936,7 @@
         <v>-146732.1682287901</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2089,7 +1969,7 @@
         <v>-113732.1682287901</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2122,7 +2002,7 @@
         <v>-113896.1131377901</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2320,7 +2200,7 @@
         <v>-44091.99183779009</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2353,7 +2233,7 @@
         <v>-86923.2224377901</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2386,7 +2266,7 @@
         <v>-173230.6364377901</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2419,7 +2299,7 @@
         <v>-182604.7277377901</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2452,7 +2332,7 @@
         <v>-193790.2938377901</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2485,7 +2365,7 @@
         <v>-280061.0707668501</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2518,7 +2398,7 @@
         <v>-341752.0707668501</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2551,7 +2431,7 @@
         <v>-341752.0707668501</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2584,7 +2464,7 @@
         <v>-342328.6226668502</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2617,7 +2497,7 @@
         <v>-342767.2893668502</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2650,7 +2530,7 @@
         <v>-339804.3705668502</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2683,7 +2563,7 @@
         <v>-474399.1359668502</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2716,7 +2596,7 @@
         <v>-456000.7179668502</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2749,7 +2629,7 @@
         <v>-510423.6709668502</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2782,7 +2662,7 @@
         <v>-508348.5091668502</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2815,7 +2695,7 @@
         <v>-498624.5920668502</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2848,7 +2728,7 @@
         <v>-498624.5920668502</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2881,7 +2761,7 @@
         <v>-508168.4551668502</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2914,7 +2794,7 @@
         <v>-506330.0980668502</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2947,7 +2827,7 @@
         <v>-509426.0980668502</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2980,7 +2860,7 @@
         <v>-509426.0980668502</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3013,7 +2893,7 @@
         <v>-509290.0980668502</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3046,7 +2926,7 @@
         <v>-512386.0980668502</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3079,7 +2959,7 @@
         <v>-512386.0980668502</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3112,7 +2992,7 @@
         <v>-515917.2195668502</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3145,7 +3025,7 @@
         <v>-515105.3682668502</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3178,7 +3058,7 @@
         <v>-519286.0297668502</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3211,7 +3091,7 @@
         <v>-557621.8113668502</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3244,7 +3124,7 @@
         <v>-553375.6466668502</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3277,7 +3157,7 @@
         <v>-536680.6466668502</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3310,7 +3190,7 @@
         <v>-536680.6466668502</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3343,7 +3223,7 @@
         <v>-536545.3174668502</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3376,7 +3256,7 @@
         <v>-536245.3174668502</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3409,7 +3289,7 @@
         <v>-534135.6312668502</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3442,7 +3322,7 @@
         <v>-529633.1737668501</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3475,7 +3355,7 @@
         <v>-529357.0065668501</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3508,7 +3388,7 @@
         <v>-528341.5477668501</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3541,7 +3421,7 @@
         <v>-515341.5039668501</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3574,7 +3454,7 @@
         <v>-515341.5039668501</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3607,7 +3487,7 @@
         <v>-515341.5039668501</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3640,7 +3520,7 @@
         <v>-507075.6611668501</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3673,7 +3553,7 @@
         <v>-507075.6611668501</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3706,7 +3586,7 @@
         <v>-507075.6611668501</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3739,7 +3619,7 @@
         <v>-506940.5030160001</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3772,7 +3652,7 @@
         <v>-506940.5030160001</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3805,7 +3685,7 @@
         <v>-507777.2413160002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3838,7 +3718,7 @@
         <v>-517065.2413160002</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3871,7 +3751,7 @@
         <v>-517065.2413160002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3904,7 +3784,7 @@
         <v>-545711.9867160001</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3937,7 +3817,7 @@
         <v>-545839.5477160001</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3970,7 +3850,7 @@
         <v>-545839.5477160001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4531,10 +4411,14 @@
         <v>-643475.4136438201</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="J122" t="n">
+        <v>39.39</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4564,11 +4448,19 @@
         <v>-643581.6834438201</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>39.33</v>
+      </c>
+      <c r="J123" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4597,11 +4489,19 @@
         <v>-644175.4136438201</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>39.01</v>
+      </c>
+      <c r="J124" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4630,10 +4530,14 @@
         <v>-643769.5754438201</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>39</v>
+      </c>
+      <c r="J125" t="n">
+        <v>39</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
@@ -4663,11 +4567,19 @@
         <v>-651972.5754438201</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="J126" t="n">
+        <v>39</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4699,8 +4611,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>39</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4729,11 +4647,19 @@
         <v>-657864.8894438201</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>39</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4762,11 +4688,19 @@
         <v>-639669.3631438201</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>38.93</v>
+      </c>
+      <c r="J129" t="n">
+        <v>39</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4795,11 +4729,19 @@
         <v>-638997.0643438201</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="J130" t="n">
+        <v>39</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4831,8 +4773,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>39</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4864,8 +4812,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>39</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4897,8 +4851,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>39</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4930,8 +4890,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>39</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4960,11 +4926,19 @@
         <v>-625252.6551438201</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="J135" t="n">
+        <v>39</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4993,11 +4967,19 @@
         <v>-625532.6563438202</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="J136" t="n">
+        <v>39</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5026,11 +5008,19 @@
         <v>-611591.4741438201</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="J137" t="n">
+        <v>39</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5062,8 +5052,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>39</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5095,8 +5091,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>39</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5125,11 +5127,19 @@
         <v>-617866.5652438201</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="J140" t="n">
+        <v>39</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5161,8 +5171,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>39</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5194,8 +5210,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>39</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5224,11 +5246,19 @@
         <v>-610873.9221438201</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="J143" t="n">
+        <v>39</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5260,8 +5290,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>39</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5293,8 +5329,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>39</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5326,8 +5368,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>39</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5359,8 +5407,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>39</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5392,8 +5446,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>39</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5425,8 +5485,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>39</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5458,8 +5524,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>39</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5491,8 +5563,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>39</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5524,8 +5602,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>39</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5557,8 +5641,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>39</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5590,8 +5680,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>39</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5623,8 +5719,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>39</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5656,8 +5758,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>39</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5689,8 +5797,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>39</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5719,11 +5833,19 @@
         <v>-563691.5371163501</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>39.52</v>
+      </c>
+      <c r="J158" t="n">
+        <v>39</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5755,8 +5877,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>39</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5785,11 +5913,19 @@
         <v>-565099.9531163501</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="J160" t="n">
+        <v>39</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5818,11 +5954,19 @@
         <v>-565099.9531163501</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="J161" t="n">
+        <v>39</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5854,8 +5998,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>39</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5887,8 +6037,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>39</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5920,8 +6076,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>39</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5953,8 +6115,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>39</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5983,11 +6151,19 @@
         <v>-537378.0179591201</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>39.77</v>
+      </c>
+      <c r="J166" t="n">
+        <v>39</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6016,11 +6192,19 @@
         <v>-574390.2550163501</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="J167" t="n">
+        <v>39</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6049,11 +6233,19 @@
         <v>-574390.2550163501</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="J168" t="n">
+        <v>39</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6082,11 +6274,19 @@
         <v>-574440.2550163501</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="J169" t="n">
+        <v>39</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6115,11 +6315,19 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>39</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6148,11 +6356,19 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="J171" t="n">
+        <v>39</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6181,11 +6397,19 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="J172" t="n">
+        <v>39</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6214,11 +6438,19 @@
         <v>-560355.4383163501</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="J173" t="n">
+        <v>39</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6247,11 +6479,19 @@
         <v>-558590.5934163501</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="J174" t="n">
+        <v>39</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6280,11 +6520,19 @@
         <v>-558590.5934163501</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>39.83</v>
+      </c>
+      <c r="J175" t="n">
+        <v>39</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6313,11 +6561,19 @@
         <v>-557673.4444163501</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>39.83</v>
+      </c>
+      <c r="J176" t="n">
+        <v>39</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6346,11 +6602,19 @@
         <v>-556751.8508163501</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="J177" t="n">
+        <v>39</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6379,11 +6643,19 @@
         <v>-549960.6767163501</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>40.07</v>
+      </c>
+      <c r="J178" t="n">
+        <v>39</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6412,11 +6684,19 @@
         <v>-539092.0011163502</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>40.21</v>
+      </c>
+      <c r="J179" t="n">
+        <v>39</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6445,11 +6725,19 @@
         <v>-528998.4493163502</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="J180" t="n">
+        <v>39</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6478,11 +6766,19 @@
         <v>-528820.2532163502</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="J181" t="n">
+        <v>39</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6511,11 +6807,19 @@
         <v>-532011.2104163502</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>40.38</v>
+      </c>
+      <c r="J182" t="n">
+        <v>39</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6544,11 +6848,19 @@
         <v>-532011.2104163502</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="J183" t="n">
+        <v>39</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6577,11 +6889,19 @@
         <v>-532011.2104163502</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="J184" t="n">
+        <v>39</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6610,11 +6930,19 @@
         <v>-529803.5482163501</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>40.37</v>
+      </c>
+      <c r="J185" t="n">
+        <v>39</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6643,11 +6971,19 @@
         <v>-529803.5482163501</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="J186" t="n">
+        <v>39</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6676,11 +7012,19 @@
         <v>-529803.5482163501</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="J187" t="n">
+        <v>39</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6709,11 +7053,19 @@
         <v>-529721.6953163501</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="J188" t="n">
+        <v>39</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6742,11 +7094,19 @@
         <v>-529721.6953163501</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="J189" t="n">
+        <v>39</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6775,11 +7135,19 @@
         <v>-529227.53641635</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="J190" t="n">
+        <v>39</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6808,11 +7176,17 @@
         <v>-530055.20371635</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>39</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6841,11 +7215,17 @@
         <v>-530055.20371635</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>39</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6874,11 +7254,19 @@
         <v>-550429.71261635</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="J193" t="n">
+        <v>39</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6907,11 +7295,19 @@
         <v>-551331.33051635</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="J194" t="n">
+        <v>39</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6940,11 +7336,19 @@
         <v>-551191.33051635</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="J195" t="n">
+        <v>39</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6973,11 +7377,19 @@
         <v>-519191.33051635</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="J196" t="n">
+        <v>39</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7006,11 +7418,17 @@
         <v>-519191.33051635</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>39</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7039,11 +7457,17 @@
         <v>-519163.04611635</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>39</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7072,11 +7496,17 @@
         <v>-538817.73721635</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>39</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7105,11 +7535,17 @@
         <v>-557130.4283163501</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>39</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7138,11 +7574,17 @@
         <v>-556843.4447163501</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>39</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7171,11 +7613,17 @@
         <v>-556242.86181635</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>39</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7204,11 +7652,17 @@
         <v>-559401.15751635</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>39</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7240,8 +7694,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>39</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7273,8 +7733,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>39</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7306,8 +7772,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>39</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7339,14 +7811,20 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>39</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
       <c r="M207" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest XEM.xlsx
+++ b/BackTest/2020-01-16 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-346457.3730000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-309703.9661000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-279625.1828836601</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-279625.1828836601</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-255554.9360836601</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-255515.9360354401</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-250431.9780269701</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-247030.2104269701</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-147578.5079269701</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-151690.5079269701</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-152096.30852697</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-151957.01564834</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-152967.01564834</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-152828.1753584201</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-158046.6072584201</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-158617.6072584201</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-157433.5467287901</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-158547.5467287901</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-149494.6348287901</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-177677.5546287901</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-177317.5546287901</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-214317.5546287901</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-206369.4074287901</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-181909.1283287901</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-170991.9729287901</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-170991.9729287901</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-165828.8980287901</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-165828.8980287901</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-132854.0415287901</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-113732.1682287901</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-44091.99183779009</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-86923.2224377901</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-173230.6364377901</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-182604.7277377901</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-193790.2938377901</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-280061.0707668501</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-341752.0707668501</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-341752.0707668501</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-342328.6226668502</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-339804.3705668502</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-474399.1359668502</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-456000.7179668502</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-510423.6709668502</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-508168.4551668502</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-506330.0980668502</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-509426.0980668502</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-509426.0980668502</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-509290.0980668502</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-512386.0980668502</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-512386.0980668502</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-515917.2195668502</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-534135.6312668502</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-529633.1737668501</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-529357.0065668501</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-528341.5477668501</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-515341.5039668501</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-515341.5039668501</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-515341.5039668501</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-507075.6611668501</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-507075.6611668501</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-507075.6611668501</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-506940.5030160001</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-506940.5030160001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-507777.2413160002</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-517065.2413160002</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-517065.2413160002</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-545711.9867160001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-545839.5477160001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-545839.5477160001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4411,14 +4411,10 @@
         <v>-643475.4136438201</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="J122" t="n">
-        <v>39.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
@@ -4448,1168 +4444,1004 @@
         <v>-643581.6834438201</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>39.33</v>
-      </c>
-      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>39</v>
+      </c>
+      <c r="C124" t="n">
+        <v>39</v>
+      </c>
+      <c r="D124" t="n">
+        <v>39</v>
+      </c>
+      <c r="E124" t="n">
+        <v>39</v>
+      </c>
+      <c r="F124" t="n">
+        <v>593.7302</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-644175.4136438201</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="C125" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="F125" t="n">
+        <v>405.8382</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-643769.5754438201</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="C126" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="D126" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E126" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="F126" t="n">
+        <v>8203</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-651972.5754438201</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D127" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="E127" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>850.9632</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-652823.5386438201</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>39</v>
+      </c>
+      <c r="C128" t="n">
+        <v>38.93</v>
+      </c>
+      <c r="D128" t="n">
+        <v>39</v>
+      </c>
+      <c r="E128" t="n">
+        <v>38.93</v>
+      </c>
+      <c r="F128" t="n">
+        <v>5041.3508</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-657864.8894438201</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>39.01</v>
+      </c>
+      <c r="C129" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="E129" t="n">
+        <v>38.86</v>
+      </c>
+      <c r="F129" t="n">
+        <v>18195.5263</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-639669.3631438201</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>39.37</v>
+      </c>
+      <c r="C130" t="n">
+        <v>39.37</v>
+      </c>
+      <c r="D130" t="n">
+        <v>39.37</v>
+      </c>
+      <c r="E130" t="n">
+        <v>39.37</v>
+      </c>
+      <c r="F130" t="n">
+        <v>672.2988</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-638997.0643438201</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="C131" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="D131" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="E131" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="F131" t="n">
+        <v>259.792</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-639256.8563438201</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="C132" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="D132" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="E132" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="F132" t="n">
+        <v>94.2642</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-639256.8563438201</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="C133" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="D133" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="E133" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="F133" t="n">
+        <v>161.1918</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-639256.8563438201</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="C134" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="D134" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="E134" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="F134" t="n">
+        <v>14004.2012</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-625252.6551438201</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="C135" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="D135" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="E135" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2439.7319</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-625252.6551438201</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="C136" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="D136" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="E136" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="F136" t="n">
+        <v>280.0012</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-625532.6563438202</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="C137" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="D137" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="E137" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="F137" t="n">
+        <v>13941.1822</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-611591.4741438201</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="C138" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="D138" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="E138" t="n">
+        <v>39.41</v>
+      </c>
+      <c r="F138" t="n">
+        <v>6911.4129</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-618502.8870438201</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="C139" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="D139" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="E139" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="F139" t="n">
+        <v>151.5414</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-618654.4284438201</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
         <v>39.39</v>
       </c>
-      <c r="K123" t="inlineStr">
+      <c r="C140" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="D140" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="E140" t="n">
+        <v>39.39</v>
+      </c>
+      <c r="F140" t="n">
+        <v>787.8632</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-617866.5652438201</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="C141" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="D141" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="E141" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="F141" t="n">
+        <v>13958.0021</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-631824.5673438201</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="C142" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="D142" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="E142" t="n">
+        <v>39.24</v>
+      </c>
+      <c r="F142" t="n">
+        <v>63</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-631887.5673438201</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>39.28</v>
+      </c>
+      <c r="C143" t="n">
+        <v>39.26</v>
+      </c>
+      <c r="D143" t="n">
+        <v>39.28</v>
+      </c>
+      <c r="E143" t="n">
+        <v>39.26</v>
+      </c>
+      <c r="F143" t="n">
+        <v>21013.6452</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-610873.9221438201</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="C144" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="D144" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="E144" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="F144" t="n">
+        <v>7350.2049</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-603523.7172438201</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="C145" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="D145" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="E145" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2778.7555</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-603523.7172438201</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="C146" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="D146" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="E146" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3515.5367</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-603523.7172438201</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="C147" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="D147" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="E147" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2902.4032</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-603523.7172438201</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="J147" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="C148" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="D148" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="E148" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="F148" t="n">
+        <v>9809.15972747</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-593714.5575163501</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>39</v>
-      </c>
-      <c r="C124" t="n">
-        <v>39</v>
-      </c>
-      <c r="D124" t="n">
-        <v>39</v>
-      </c>
-      <c r="E124" t="n">
-        <v>39</v>
-      </c>
-      <c r="F124" t="n">
-        <v>593.7302</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-644175.4136438201</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>39.01</v>
-      </c>
-      <c r="J124" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="K124" t="inlineStr">
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="C149" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="D149" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="E149" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="F149" t="n">
+        <v>35351.8919</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-558362.66561635</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="C125" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="D125" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="E125" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="F125" t="n">
-        <v>405.8382</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-643769.5754438201</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>39</v>
-      </c>
-      <c r="J125" t="n">
-        <v>39</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="C126" t="n">
-        <v>39.21</v>
-      </c>
-      <c r="D126" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E126" t="n">
-        <v>39.21</v>
-      </c>
-      <c r="F126" t="n">
-        <v>8203</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-651972.5754438201</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="J126" t="n">
-        <v>39</v>
-      </c>
-      <c r="K126" t="inlineStr">
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="C150" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="D150" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="E150" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="F150" t="n">
+        <v>635.913</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-558362.66561635</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="J150" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="C151" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="D151" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="E151" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="F151" t="n">
+        <v>573.9102</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-558362.66561635</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="J151" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="K151" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="C127" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="E127" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="F127" t="n">
-        <v>850.9632</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-652823.5386438201</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>39</v>
-      </c>
-      <c r="K127" t="inlineStr">
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="C152" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="D152" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="E152" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="F152" t="n">
+        <v>545.2147</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-558362.66561635</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="J152" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>39</v>
-      </c>
-      <c r="C128" t="n">
-        <v>38.93</v>
-      </c>
-      <c r="D128" t="n">
-        <v>39</v>
-      </c>
-      <c r="E128" t="n">
-        <v>38.93</v>
-      </c>
-      <c r="F128" t="n">
-        <v>5041.3508</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-657864.8894438201</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="J128" t="n">
-        <v>39</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>39.01</v>
-      </c>
-      <c r="C129" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="D129" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="E129" t="n">
-        <v>38.86</v>
-      </c>
-      <c r="F129" t="n">
-        <v>18195.5263</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-639669.3631438201</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>38.93</v>
-      </c>
-      <c r="J129" t="n">
-        <v>39</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>39.37</v>
-      </c>
-      <c r="C130" t="n">
-        <v>39.37</v>
-      </c>
-      <c r="D130" t="n">
-        <v>39.37</v>
-      </c>
-      <c r="E130" t="n">
-        <v>39.37</v>
-      </c>
-      <c r="F130" t="n">
-        <v>672.2988</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-638997.0643438201</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="J130" t="n">
-        <v>39</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="C131" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="D131" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="E131" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="F131" t="n">
-        <v>259.792</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-639256.8563438201</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>39</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="C132" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="D132" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="E132" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="F132" t="n">
-        <v>94.2642</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-639256.8563438201</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>39</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="C133" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="D133" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="E133" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="F133" t="n">
-        <v>161.1918</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-639256.8563438201</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>39</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="C134" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="D134" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="E134" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="F134" t="n">
-        <v>14004.2012</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-625252.6551438201</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>39</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="C135" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="D135" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="E135" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="F135" t="n">
-        <v>2439.7319</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-625252.6551438201</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="J135" t="n">
-        <v>39</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>39.22</v>
-      </c>
-      <c r="C136" t="n">
-        <v>39.22</v>
-      </c>
-      <c r="D136" t="n">
-        <v>39.22</v>
-      </c>
-      <c r="E136" t="n">
-        <v>39.22</v>
-      </c>
-      <c r="F136" t="n">
-        <v>280.0012</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-625532.6563438202</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="J136" t="n">
-        <v>39</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="C137" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="D137" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="E137" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="F137" t="n">
-        <v>13941.1822</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-611591.4741438201</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>39.22</v>
-      </c>
-      <c r="J137" t="n">
-        <v>39</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="C138" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="D138" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="E138" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="F138" t="n">
-        <v>6911.4129</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-618502.8870438201</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>39</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="C139" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="D139" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="E139" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="F139" t="n">
-        <v>151.5414</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-618654.4284438201</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>39</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="C140" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="D140" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="E140" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="F140" t="n">
-        <v>787.8632</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-617866.5652438201</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="J140" t="n">
-        <v>39</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>39.38</v>
-      </c>
-      <c r="C141" t="n">
-        <v>39.38</v>
-      </c>
-      <c r="D141" t="n">
-        <v>39.38</v>
-      </c>
-      <c r="E141" t="n">
-        <v>39.38</v>
-      </c>
-      <c r="F141" t="n">
-        <v>13958.0021</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-631824.5673438201</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>39</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="C142" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="D142" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="E142" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="F142" t="n">
-        <v>63</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-631887.5673438201</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>39</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>39.28</v>
-      </c>
-      <c r="C143" t="n">
-        <v>39.26</v>
-      </c>
-      <c r="D143" t="n">
-        <v>39.28</v>
-      </c>
-      <c r="E143" t="n">
-        <v>39.26</v>
-      </c>
-      <c r="F143" t="n">
-        <v>21013.6452</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-610873.9221438201</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="J143" t="n">
-        <v>39</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="C144" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="D144" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="E144" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="F144" t="n">
-        <v>7350.2049</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-603523.7172438201</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>39</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="C145" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="D145" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="E145" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="F145" t="n">
-        <v>2778.7555</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-603523.7172438201</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>39</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="C146" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="D146" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="E146" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="F146" t="n">
-        <v>3515.5367</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-603523.7172438201</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>39</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="C147" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="D147" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="E147" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2902.4032</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-603523.7172438201</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>39</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>39.63</v>
-      </c>
-      <c r="C148" t="n">
-        <v>39.63</v>
-      </c>
-      <c r="D148" t="n">
-        <v>39.63</v>
-      </c>
-      <c r="E148" t="n">
-        <v>39.63</v>
-      </c>
-      <c r="F148" t="n">
-        <v>9809.15972747</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-593714.5575163501</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>39</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="C149" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="D149" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="E149" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="F149" t="n">
-        <v>35351.8919</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-558362.66561635</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>39</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="C150" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="D150" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="E150" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="F150" t="n">
-        <v>635.913</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-558362.66561635</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>39</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="C151" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="D151" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="E151" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="F151" t="n">
-        <v>573.9102</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-558362.66561635</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>39</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="C152" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="D152" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="E152" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="F152" t="n">
-        <v>545.2147</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-558362.66561635</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>39</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5641,14 +5473,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>39</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5680,14 +5506,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>39</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5719,14 +5539,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>39</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5758,14 +5572,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>39</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5797,14 +5605,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>39</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5833,19 +5635,11 @@
         <v>-563691.5371163501</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>39.52</v>
-      </c>
-      <c r="J158" t="n">
-        <v>39</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5877,14 +5671,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>39</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5913,19 +5701,11 @@
         <v>-565099.9531163501</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="J160" t="n">
-        <v>39</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5954,19 +5734,11 @@
         <v>-565099.9531163501</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>39.58</v>
-      </c>
-      <c r="J161" t="n">
-        <v>39</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5998,14 +5770,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>39</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6037,14 +5803,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>39</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6076,14 +5836,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>39</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6115,14 +5869,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>39</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6151,19 +5899,11 @@
         <v>-537378.0179591201</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>39.77</v>
-      </c>
-      <c r="J166" t="n">
-        <v>39</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6192,19 +5932,11 @@
         <v>-574390.2550163501</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>39.66</v>
-      </c>
-      <c r="J167" t="n">
-        <v>39</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6233,19 +5965,11 @@
         <v>-574390.2550163501</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="J168" t="n">
-        <v>39</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6274,19 +5998,11 @@
         <v>-574440.2550163501</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="J169" t="n">
-        <v>39</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6315,19 +6031,11 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J170" t="n">
-        <v>39</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6356,19 +6064,11 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="J171" t="n">
-        <v>39</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6397,19 +6097,11 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="J172" t="n">
-        <v>39</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6438,19 +6130,11 @@
         <v>-560355.4383163501</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="J173" t="n">
-        <v>39</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6479,19 +6163,11 @@
         <v>-558590.5934163501</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="J174" t="n">
-        <v>39</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6520,19 +6196,11 @@
         <v>-558590.5934163501</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>39.83</v>
-      </c>
-      <c r="J175" t="n">
-        <v>39</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6561,19 +6229,11 @@
         <v>-557673.4444163501</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>39.83</v>
-      </c>
-      <c r="J176" t="n">
-        <v>39</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6602,19 +6262,11 @@
         <v>-556751.8508163501</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>39.92</v>
-      </c>
-      <c r="J177" t="n">
-        <v>39</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6643,19 +6295,11 @@
         <v>-549960.6767163501</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>40.07</v>
-      </c>
-      <c r="J178" t="n">
-        <v>39</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6684,19 +6328,11 @@
         <v>-539092.0011163502</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>40.21</v>
-      </c>
-      <c r="J179" t="n">
-        <v>39</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6725,19 +6361,11 @@
         <v>-528998.4493163502</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="J180" t="n">
-        <v>39</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6766,19 +6394,11 @@
         <v>-528820.2532163502</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="J181" t="n">
-        <v>39</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6807,19 +6427,11 @@
         <v>-532011.2104163502</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>40.38</v>
-      </c>
-      <c r="J182" t="n">
-        <v>39</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6848,19 +6460,11 @@
         <v>-532011.2104163502</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="J183" t="n">
-        <v>39</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6889,19 +6493,11 @@
         <v>-532011.2104163502</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="J184" t="n">
-        <v>39</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6930,19 +6526,11 @@
         <v>-529803.5482163501</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="J185" t="n">
-        <v>39</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6971,19 +6559,11 @@
         <v>-529803.5482163501</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>40.42</v>
-      </c>
-      <c r="J186" t="n">
-        <v>39</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7012,19 +6592,11 @@
         <v>-529803.5482163501</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>40.42</v>
-      </c>
-      <c r="J187" t="n">
-        <v>39</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7053,19 +6625,11 @@
         <v>-529721.6953163501</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>40.42</v>
-      </c>
-      <c r="J188" t="n">
-        <v>39</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7094,19 +6658,11 @@
         <v>-529721.6953163501</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>40.63</v>
-      </c>
-      <c r="J189" t="n">
-        <v>39</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7135,19 +6691,11 @@
         <v>-529227.53641635</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>40.63</v>
-      </c>
-      <c r="J190" t="n">
-        <v>39</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7179,14 +6727,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>39</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7218,14 +6760,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>39</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7254,19 +6790,11 @@
         <v>-550429.71261635</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="J193" t="n">
-        <v>39</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7295,19 +6823,11 @@
         <v>-551331.33051635</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>40.4</v>
-      </c>
-      <c r="J194" t="n">
-        <v>39</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7336,19 +6856,11 @@
         <v>-551191.33051635</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="J195" t="n">
-        <v>39</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7377,19 +6889,11 @@
         <v>-519191.33051635</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>40.59</v>
-      </c>
-      <c r="J196" t="n">
-        <v>39</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7421,14 +6925,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>39</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7460,14 +6958,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>39</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7499,14 +6991,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>39</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7538,14 +7024,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>39</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7577,14 +7057,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>39</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7616,14 +7090,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>39</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7655,14 +7123,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>39</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7694,14 +7156,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>39</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7733,14 +7189,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>39</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7772,14 +7222,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>39</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7811,20 +7255,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>39</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
       <c r="M207" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest XEM.xlsx
+++ b/BackTest/2020-01-16 BackTest XEM.xlsx
@@ -451,7 +451,7 @@
         <v>-346457.3730000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-309703.9661000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-307149.6876836601</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-279625.1828836601</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-279625.1828836601</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-255554.9360836601</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-255515.9360354401</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-250431.9780269701</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-247030.2104269701</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-242606.4730269701</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-147578.5079269701</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-151690.5079269701</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-152096.30852697</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-151957.01564834</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-152967.01564834</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-152828.1753584201</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-158046.6072584201</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-158617.6072584201</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-157433.5467287901</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-158547.5467287901</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-149494.6348287901</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-177677.5546287901</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-177317.5546287901</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-214317.5546287901</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-206369.4074287901</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-181909.1283287901</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-182419.9665287901</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-170991.9729287901</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-170991.9729287901</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-165828.8980287901</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-165828.8980287901</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-132854.0415287901</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-113732.1682287901</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-113896.1131377901</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-86923.2224377901</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-173230.6364377901</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-182604.7277377901</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-193790.2938377901</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-341752.0707668501</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-342767.2893668502</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-508348.5091668502</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-498624.5920668502</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-498624.5920668502</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-515105.3682668502</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-519286.0297668502</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-557621.8113668502</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-553375.6466668502</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-536680.6466668502</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-536680.6466668502</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-536545.3174668502</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-536245.3174668502</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -4477,10 +4477,14 @@
         <v>-644175.4136438201</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>39.01</v>
+      </c>
+      <c r="J124" t="n">
+        <v>39.01</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
@@ -4510,11 +4514,19 @@
         <v>-643769.5754438201</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>39</v>
+      </c>
+      <c r="J125" t="n">
+        <v>39.01</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4558,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>39.01</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4660,17 @@
         <v>-639669.3631438201</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>38.93</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +4703,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +4740,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +4777,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +4814,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +4851,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +4888,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +4921,17 @@
         <v>-625532.6563438202</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>39.42</v>
+      </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +4960,17 @@
         <v>-611591.4741438201</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>39.22</v>
+      </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +4999,17 @@
         <v>-618502.8870438201</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>39.42</v>
+      </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4976,7 +5042,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5075,17 @@
         <v>-617866.5652438201</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>39.24</v>
+      </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5114,17 @@
         <v>-631824.5673438201</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>39.39</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5153,17 @@
         <v>-631887.5673438201</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>39.38</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5192,17 @@
         <v>-610873.9221438201</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>39.24</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5231,17 @@
         <v>-603523.7172438201</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>39.26</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5270,17 @@
         <v>-603523.7172438201</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>39.42</v>
+      </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5313,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,15 +5346,15 @@
         <v>-603523.7172438201</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="J147" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="K147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,15 +5383,15 @@
         <v>-593714.5575163501</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
         <v>39.42</v>
       </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L148" t="n">
@@ -5315,12 +5425,10 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>39.42</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L149" t="n">
@@ -5351,15 +5459,15 @@
         <v>-558362.66561635</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="J150" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="K150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5388,17 +5496,13 @@
         <v>-558362.66561635</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="J151" t="n">
-        <v>39.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L151" t="n">
@@ -5429,17 +5533,13 @@
         <v>-558362.66561635</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>39.65</v>
-      </c>
-      <c r="J152" t="n">
-        <v>39.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L152" t="n">
@@ -5474,7 +5574,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5507,7 +5611,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5540,7 +5648,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5573,7 +5685,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5606,7 +5722,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5639,7 +5759,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5668,11 +5792,17 @@
         <v>-565112.9531163501</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>39.52</v>
+      </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5701,11 +5831,17 @@
         <v>-565099.9531163501</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>39.42</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5734,11 +5870,17 @@
         <v>-565099.9531163501</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>39.58</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5767,11 +5909,17 @@
         <v>-564959.8875591201</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>39.58</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5804,7 +5952,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5833,11 +5985,17 @@
         <v>-535359.8875591201</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>39.66</v>
+      </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5866,11 +6024,17 @@
         <v>-535359.8875591201</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>39.77</v>
+      </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5899,11 +6063,17 @@
         <v>-537378.0179591201</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>39.77</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5932,11 +6102,17 @@
         <v>-574390.2550163501</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>39.66</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5965,11 +6141,17 @@
         <v>-574390.2550163501</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>39.41</v>
+      </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5998,11 +6180,17 @@
         <v>-574440.2550163501</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>39.41</v>
+      </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6031,11 +6219,17 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>39.2</v>
+      </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6064,11 +6258,17 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>39.41</v>
+      </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6097,11 +6297,17 @@
         <v>-572889.4067163501</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>39.41</v>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6130,11 +6336,17 @@
         <v>-560355.4383163501</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>39.41</v>
+      </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6163,11 +6375,17 @@
         <v>-558590.5934163501</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>39.8</v>
+      </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6196,11 +6414,17 @@
         <v>-558590.5934163501</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>39.83</v>
+      </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6229,11 +6453,17 @@
         <v>-557673.4444163501</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>39.83</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6262,11 +6492,17 @@
         <v>-556751.8508163501</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>39.92</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6295,11 +6531,17 @@
         <v>-549960.6767163501</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>40.07</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6328,11 +6570,17 @@
         <v>-539092.0011163502</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>40.21</v>
+      </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6361,11 +6609,17 @@
         <v>-528998.4493163502</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>40.23</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6394,11 +6648,17 @@
         <v>-528820.2532163502</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>40.37</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6427,11 +6687,17 @@
         <v>-532011.2104163502</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>40.38</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6460,11 +6726,17 @@
         <v>-532011.2104163502</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>40.37</v>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6493,11 +6765,17 @@
         <v>-532011.2104163502</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>40.37</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6526,11 +6804,17 @@
         <v>-529803.5482163501</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>40.37</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6559,11 +6843,17 @@
         <v>-529803.5482163501</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>40.42</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6592,11 +6882,17 @@
         <v>-529803.5482163501</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>40.42</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6629,7 +6925,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6662,7 +6962,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6695,7 +6999,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6728,7 +7036,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6761,7 +7073,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6794,7 +7110,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6827,7 +7147,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6856,11 +7180,17 @@
         <v>-551191.33051635</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>40.2</v>
+      </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6889,11 +7219,17 @@
         <v>-519191.33051635</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>40.59</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6926,7 +7262,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6959,7 +7299,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6992,7 +7336,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7025,7 +7373,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7058,7 +7410,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7091,7 +7447,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7124,7 +7484,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7157,7 +7521,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7190,7 +7558,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7223,7 +7595,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7256,7 +7632,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-16 BackTest XEM.xlsx
+++ b/BackTest/2020-01-16 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M207"/>
+  <dimension ref="A1:L207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>9288</v>
       </c>
       <c r="G2" t="n">
-        <v>-346457.3730000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,21 @@
         <v>36753.4069</v>
       </c>
       <c r="G3" t="n">
-        <v>-309703.9661000001</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>39.08</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +509,21 @@
         <v>2554.27841634</v>
       </c>
       <c r="G4" t="n">
-        <v>-307149.6876836601</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>39.14</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +545,21 @@
         <v>6192</v>
       </c>
       <c r="G5" t="n">
-        <v>-307149.6876836601</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>39.15</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +581,21 @@
         <v>13888.1287</v>
       </c>
       <c r="G6" t="n">
-        <v>-307149.6876836601</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>39.15</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +617,19 @@
         <v>27524.5048</v>
       </c>
       <c r="G7" t="n">
-        <v>-279625.1828836601</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +651,21 @@
         <v>3096</v>
       </c>
       <c r="G8" t="n">
-        <v>-279625.1828836601</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>39.19</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +687,19 @@
         <v>24070.2468</v>
       </c>
       <c r="G9" t="n">
-        <v>-255554.9360836601</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +721,19 @@
         <v>39.00004822</v>
       </c>
       <c r="G10" t="n">
-        <v>-255515.9360354401</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +755,19 @@
         <v>5083.95800847</v>
       </c>
       <c r="G11" t="n">
-        <v>-250431.9780269701</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +789,19 @@
         <v>3401.7676</v>
       </c>
       <c r="G12" t="n">
-        <v>-247030.2104269701</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +823,19 @@
         <v>4423.7374</v>
       </c>
       <c r="G13" t="n">
-        <v>-242606.4730269701</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +857,19 @@
         <v>51726.0625</v>
       </c>
       <c r="G14" t="n">
-        <v>-242606.4730269701</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +891,19 @@
         <v>45479.6366</v>
       </c>
       <c r="G15" t="n">
-        <v>-242606.4730269701</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +925,19 @@
         <v>46553.1744</v>
       </c>
       <c r="G16" t="n">
-        <v>-242606.4730269701</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +959,19 @@
         <v>47393.9898</v>
       </c>
       <c r="G17" t="n">
-        <v>-242606.4730269701</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +993,19 @@
         <v>5418.0795</v>
       </c>
       <c r="G18" t="n">
-        <v>-242606.4730269701</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1027,19 @@
         <v>9233.7508</v>
       </c>
       <c r="G19" t="n">
-        <v>-242606.4730269701</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1061,19 @@
         <v>5927.9651</v>
       </c>
       <c r="G20" t="n">
-        <v>-236678.5079269701</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1095,19 @@
         <v>90200</v>
       </c>
       <c r="G21" t="n">
-        <v>-146478.5079269701</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1129,19 @@
         <v>1100</v>
       </c>
       <c r="G22" t="n">
-        <v>-147578.5079269701</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1163,19 @@
         <v>4112</v>
       </c>
       <c r="G23" t="n">
-        <v>-151690.5079269701</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1197,19 @@
         <v>405.8006</v>
       </c>
       <c r="G24" t="n">
-        <v>-152096.30852697</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1231,19 @@
         <v>139.29287863</v>
       </c>
       <c r="G25" t="n">
-        <v>-151957.01564834</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1265,19 @@
         <v>1010</v>
       </c>
       <c r="G26" t="n">
-        <v>-152967.01564834</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1299,19 @@
         <v>138.84028992</v>
       </c>
       <c r="G27" t="n">
-        <v>-152828.1753584201</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1333,19 @@
         <v>5218.4319</v>
       </c>
       <c r="G28" t="n">
-        <v>-158046.6072584201</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1367,19 @@
         <v>571</v>
       </c>
       <c r="G29" t="n">
-        <v>-158617.6072584201</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1401,19 @@
         <v>1184.06052963</v>
       </c>
       <c r="G30" t="n">
-        <v>-157433.5467287901</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1435,19 @@
         <v>1114</v>
       </c>
       <c r="G31" t="n">
-        <v>-158547.5467287901</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1469,19 @@
         <v>9052.911899999999</v>
       </c>
       <c r="G32" t="n">
-        <v>-149494.6348287901</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1503,19 @@
         <v>28182.9198</v>
       </c>
       <c r="G33" t="n">
-        <v>-177677.5546287901</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1537,19 @@
         <v>360</v>
       </c>
       <c r="G34" t="n">
-        <v>-177317.5546287901</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1571,19 @@
         <v>37000</v>
       </c>
       <c r="G35" t="n">
-        <v>-214317.5546287901</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1605,19 @@
         <v>7948.1472</v>
       </c>
       <c r="G36" t="n">
-        <v>-206369.4074287901</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1639,19 @@
         <v>24460.2791</v>
       </c>
       <c r="G37" t="n">
-        <v>-181909.1283287901</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1673,19 @@
         <v>510.8382</v>
       </c>
       <c r="G38" t="n">
-        <v>-182419.9665287901</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1707,19 @@
         <v>11427.9936</v>
       </c>
       <c r="G39" t="n">
-        <v>-170991.9729287901</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1741,19 @@
         <v>1800</v>
       </c>
       <c r="G40" t="n">
-        <v>-170991.9729287901</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1775,19 @@
         <v>5163.0749</v>
       </c>
       <c r="G41" t="n">
-        <v>-165828.8980287901</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1809,19 @@
         <v>686.5986</v>
       </c>
       <c r="G42" t="n">
-        <v>-165828.8980287901</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1843,19 @@
         <v>32974.8565</v>
       </c>
       <c r="G43" t="n">
-        <v>-132854.0415287901</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1877,19 @@
         <v>5665.3891</v>
       </c>
       <c r="G44" t="n">
-        <v>-138519.4306287901</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1911,19 @@
         <v>837.5477</v>
       </c>
       <c r="G45" t="n">
-        <v>-139356.9783287901</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1945,19 @@
         <v>5764.8731</v>
       </c>
       <c r="G46" t="n">
-        <v>-145121.8514287901</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1979,19 @@
         <v>1610.3168</v>
       </c>
       <c r="G47" t="n">
-        <v>-146732.1682287901</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2013,19 @@
         <v>33000</v>
       </c>
       <c r="G48" t="n">
-        <v>-113732.1682287901</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2047,19 @@
         <v>163.944909</v>
       </c>
       <c r="G49" t="n">
-        <v>-113896.1131377901</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2081,19 @@
         <v>5156.8212</v>
       </c>
       <c r="G50" t="n">
-        <v>-119052.9343377901</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2115,19 @@
         <v>1019.5092</v>
       </c>
       <c r="G51" t="n">
-        <v>-120072.4435377901</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2149,19 @@
         <v>3546.048</v>
       </c>
       <c r="G52" t="n">
-        <v>-120072.4435377901</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2183,19 @@
         <v>1069.6537</v>
       </c>
       <c r="G53" t="n">
-        <v>-120072.4435377901</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2217,19 @@
         <v>11710.5827</v>
       </c>
       <c r="G54" t="n">
-        <v>-131783.0262377901</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2251,19 @@
         <v>87691.0344</v>
       </c>
       <c r="G55" t="n">
-        <v>-44091.99183779009</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2285,19 @@
         <v>42831.2306</v>
       </c>
       <c r="G56" t="n">
-        <v>-86923.2224377901</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2319,19 @@
         <v>86307.414</v>
       </c>
       <c r="G57" t="n">
-        <v>-173230.6364377901</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2353,19 @@
         <v>9374.0913</v>
       </c>
       <c r="G58" t="n">
-        <v>-182604.7277377901</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2387,19 @@
         <v>11185.5661</v>
       </c>
       <c r="G59" t="n">
-        <v>-193790.2938377901</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2421,19 @@
         <v>86270.77692906</v>
       </c>
       <c r="G60" t="n">
-        <v>-280061.0707668501</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2455,19 @@
         <v>61691</v>
       </c>
       <c r="G61" t="n">
-        <v>-341752.0707668501</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2489,19 @@
         <v>143171.9502</v>
       </c>
       <c r="G62" t="n">
-        <v>-341752.0707668501</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2523,19 @@
         <v>576.5519</v>
       </c>
       <c r="G63" t="n">
-        <v>-342328.6226668502</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2557,19 @@
         <v>438.6667</v>
       </c>
       <c r="G64" t="n">
-        <v>-342767.2893668502</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2591,19 @@
         <v>2962.9188</v>
       </c>
       <c r="G65" t="n">
-        <v>-339804.3705668502</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2625,19 @@
         <v>134594.7654</v>
       </c>
       <c r="G66" t="n">
-        <v>-474399.1359668502</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2659,19 @@
         <v>18398.418</v>
       </c>
       <c r="G67" t="n">
-        <v>-456000.7179668502</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2693,19 @@
         <v>54422.953</v>
       </c>
       <c r="G68" t="n">
-        <v>-510423.6709668502</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2727,19 @@
         <v>2075.1618</v>
       </c>
       <c r="G69" t="n">
-        <v>-508348.5091668502</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2761,19 @@
         <v>9723.917100000001</v>
       </c>
       <c r="G70" t="n">
-        <v>-498624.5920668502</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2795,19 @@
         <v>1298.0172</v>
       </c>
       <c r="G71" t="n">
-        <v>-498624.5920668502</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2829,19 @@
         <v>9543.8631</v>
       </c>
       <c r="G72" t="n">
-        <v>-508168.4551668502</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2863,19 @@
         <v>1838.3571</v>
       </c>
       <c r="G73" t="n">
-        <v>-506330.0980668502</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2897,19 @@
         <v>3096</v>
       </c>
       <c r="G74" t="n">
-        <v>-509426.0980668502</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2931,19 @@
         <v>3096</v>
       </c>
       <c r="G75" t="n">
-        <v>-509426.0980668502</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2965,19 @@
         <v>136</v>
       </c>
       <c r="G76" t="n">
-        <v>-509290.0980668502</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2999,19 @@
         <v>3096</v>
       </c>
       <c r="G77" t="n">
-        <v>-512386.0980668502</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3033,19 @@
         <v>825.5366</v>
       </c>
       <c r="G78" t="n">
-        <v>-512386.0980668502</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3067,19 @@
         <v>3531.1215</v>
       </c>
       <c r="G79" t="n">
-        <v>-515917.2195668502</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3101,19 @@
         <v>811.8513</v>
       </c>
       <c r="G80" t="n">
-        <v>-515105.3682668502</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3135,19 @@
         <v>4180.6615</v>
       </c>
       <c r="G81" t="n">
-        <v>-519286.0297668502</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3169,19 @@
         <v>38335.7816</v>
       </c>
       <c r="G82" t="n">
-        <v>-557621.8113668502</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3203,19 @@
         <v>4246.1647</v>
       </c>
       <c r="G83" t="n">
-        <v>-553375.6466668502</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3237,19 @@
         <v>16695</v>
       </c>
       <c r="G84" t="n">
-        <v>-536680.6466668502</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3271,19 @@
         <v>6192</v>
       </c>
       <c r="G85" t="n">
-        <v>-536680.6466668502</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3305,19 @@
         <v>135.3292</v>
       </c>
       <c r="G86" t="n">
-        <v>-536545.3174668502</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3339,19 @@
         <v>300</v>
       </c>
       <c r="G87" t="n">
-        <v>-536245.3174668502</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3373,19 @@
         <v>2109.6862</v>
       </c>
       <c r="G88" t="n">
-        <v>-534135.6312668502</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3407,19 @@
         <v>4502.4575</v>
       </c>
       <c r="G89" t="n">
-        <v>-529633.1737668501</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3441,19 @@
         <v>276.1672</v>
       </c>
       <c r="G90" t="n">
-        <v>-529357.0065668501</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3475,19 @@
         <v>1015.4588</v>
       </c>
       <c r="G91" t="n">
-        <v>-528341.5477668501</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3509,19 @@
         <v>13000.0438</v>
       </c>
       <c r="G92" t="n">
-        <v>-515341.5039668501</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3543,17 @@
         <v>2627.7883</v>
       </c>
       <c r="G93" t="n">
-        <v>-515341.5039668501</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3575,15 @@
         <v>18284.4853</v>
       </c>
       <c r="G94" t="n">
-        <v>-515341.5039668501</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3605,15 @@
         <v>8265.8428</v>
       </c>
       <c r="G95" t="n">
-        <v>-507075.6611668501</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3635,15 @@
         <v>9171.518099999999</v>
       </c>
       <c r="G96" t="n">
-        <v>-507075.6611668501</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3665,15 @@
         <v>5649.3255</v>
       </c>
       <c r="G97" t="n">
-        <v>-507075.6611668501</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3695,15 @@
         <v>135.15815085</v>
       </c>
       <c r="G98" t="n">
-        <v>-506940.5030160001</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3725,15 @@
         <v>108.12652068</v>
       </c>
       <c r="G99" t="n">
-        <v>-506940.5030160001</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3755,15 @@
         <v>836.7383</v>
       </c>
       <c r="G100" t="n">
-        <v>-507777.2413160002</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3785,15 @@
         <v>9288</v>
       </c>
       <c r="G101" t="n">
-        <v>-517065.2413160002</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3815,15 @@
         <v>9353.6602</v>
       </c>
       <c r="G102" t="n">
-        <v>-517065.2413160002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3845,15 @@
         <v>28646.7454</v>
       </c>
       <c r="G103" t="n">
-        <v>-545711.9867160001</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3875,15 @@
         <v>127.561</v>
       </c>
       <c r="G104" t="n">
-        <v>-545839.5477160001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3905,15 @@
         <v>157</v>
       </c>
       <c r="G105" t="n">
-        <v>-545839.5477160001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3935,15 @@
         <v>1496.3215</v>
       </c>
       <c r="G106" t="n">
-        <v>-547335.8692160001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3965,15 @@
         <v>25120.5468</v>
       </c>
       <c r="G107" t="n">
-        <v>-547335.8692160001</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3995,15 @@
         <v>0.0001</v>
       </c>
       <c r="G108" t="n">
-        <v>-547335.8692160001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4025,15 @@
         <v>30</v>
       </c>
       <c r="G109" t="n">
-        <v>-547305.8692160001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4055,15 @@
         <v>222.00247218</v>
       </c>
       <c r="G110" t="n">
-        <v>-547083.8667438201</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4085,15 @@
         <v>1241.7296</v>
       </c>
       <c r="G111" t="n">
-        <v>-548325.5963438201</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4115,15 @@
         <v>77.2388</v>
       </c>
       <c r="G112" t="n">
-        <v>-548402.8351438201</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4145,15 @@
         <v>23035.0388</v>
       </c>
       <c r="G113" t="n">
-        <v>-525367.7963438202</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4175,15 @@
         <v>20190.4425</v>
       </c>
       <c r="G114" t="n">
-        <v>-545558.2388438202</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4205,15 @@
         <v>84865.18120000001</v>
       </c>
       <c r="G115" t="n">
-        <v>-630423.4200438202</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4235,15 @@
         <v>1010</v>
       </c>
       <c r="G116" t="n">
-        <v>-629413.4200438202</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4265,15 @@
         <v>2846.5479</v>
       </c>
       <c r="G117" t="n">
-        <v>-626566.8721438202</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4295,15 @@
         <v>1166.3499</v>
       </c>
       <c r="G118" t="n">
-        <v>-627733.2220438202</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4325,15 @@
         <v>3251.7122</v>
       </c>
       <c r="G119" t="n">
-        <v>-627733.2220438202</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4355,15 @@
         <v>4599.8947</v>
       </c>
       <c r="G120" t="n">
-        <v>-632333.1167438201</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4385,15 @@
         <v>790.9569</v>
       </c>
       <c r="G121" t="n">
-        <v>-631542.1598438201</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4415,15 @@
         <v>11933.2538</v>
       </c>
       <c r="G122" t="n">
-        <v>-643475.4136438201</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4445,15 @@
         <v>106.2698</v>
       </c>
       <c r="G123" t="n">
-        <v>-643581.6834438201</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,22 +4475,19 @@
         <v>593.7302</v>
       </c>
       <c r="G124" t="n">
-        <v>-644175.4136438201</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>39.01</v>
       </c>
       <c r="I124" t="n">
         <v>39.01</v>
       </c>
-      <c r="J124" t="n">
-        <v>39.01</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4511,26 +4509,23 @@
         <v>405.8382</v>
       </c>
       <c r="G125" t="n">
-        <v>-643769.5754438201</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I125" t="n">
-        <v>39</v>
-      </c>
-      <c r="J125" t="n">
         <v>39.01</v>
       </c>
-      <c r="K125" t="inlineStr">
+      <c r="J125" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4552,24 +4547,23 @@
         <v>8203</v>
       </c>
       <c r="G126" t="n">
-        <v>-651972.5754438201</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="I126" t="n">
         <v>39.01</v>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4591,18 +4585,19 @@
         <v>850.9632</v>
       </c>
       <c r="G127" t="n">
-        <v>-652823.5386438201</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="I127" t="n">
+        <v>39.21</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4624,18 +4619,23 @@
         <v>5041.3508</v>
       </c>
       <c r="G128" t="n">
-        <v>-657864.8894438201</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>39.1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4657,24 +4657,23 @@
         <v>18195.5263</v>
       </c>
       <c r="G129" t="n">
-        <v>-639669.3631438201</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>38.93</v>
       </c>
       <c r="I129" t="n">
-        <v>38.93</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4696,22 +4695,23 @@
         <v>672.2988</v>
       </c>
       <c r="G130" t="n">
-        <v>-638997.0643438201</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>39.3</v>
+      </c>
+      <c r="I130" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4733,22 +4733,21 @@
         <v>259.792</v>
       </c>
       <c r="G131" t="n">
-        <v>-639256.8563438201</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4770,22 +4769,21 @@
         <v>94.2642</v>
       </c>
       <c r="G132" t="n">
-        <v>-639256.8563438201</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4807,22 +4805,21 @@
         <v>161.1918</v>
       </c>
       <c r="G133" t="n">
-        <v>-639256.8563438201</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4844,22 +4841,21 @@
         <v>14004.2012</v>
       </c>
       <c r="G134" t="n">
-        <v>-625252.6551438201</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4881,22 +4877,21 @@
         <v>2439.7319</v>
       </c>
       <c r="G135" t="n">
-        <v>-625252.6551438201</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4918,24 +4913,21 @@
         <v>280.0012</v>
       </c>
       <c r="G136" t="n">
-        <v>-625532.6563438202</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4957,24 +4949,23 @@
         <v>13941.1822</v>
       </c>
       <c r="G137" t="n">
-        <v>-611591.4741438201</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>39.22</v>
       </c>
       <c r="I137" t="n">
-        <v>39.22</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4996,24 +4987,21 @@
         <v>6911.4129</v>
       </c>
       <c r="G138" t="n">
-        <v>-618502.8870438201</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5035,22 +5023,21 @@
         <v>151.5414</v>
       </c>
       <c r="G139" t="n">
-        <v>-618654.4284438201</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5072,24 +5059,21 @@
         <v>787.8632</v>
       </c>
       <c r="G140" t="n">
-        <v>-617866.5652438201</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5111,24 +5095,21 @@
         <v>13958.0021</v>
       </c>
       <c r="G141" t="n">
-        <v>-631824.5673438201</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
-        <v>39.39</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5150,24 +5131,21 @@
         <v>63</v>
       </c>
       <c r="G142" t="n">
-        <v>-631887.5673438201</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="n">
-        <v>39.38</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5189,24 +5167,21 @@
         <v>21013.6452</v>
       </c>
       <c r="G143" t="n">
-        <v>-610873.9221438201</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="n">
-        <v>39.24</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5228,24 +5203,21 @@
         <v>7350.2049</v>
       </c>
       <c r="G144" t="n">
-        <v>-603523.7172438201</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="n">
-        <v>39.26</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5267,24 +5239,21 @@
         <v>2778.7555</v>
       </c>
       <c r="G145" t="n">
-        <v>-603523.7172438201</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5306,22 +5275,21 @@
         <v>3515.5367</v>
       </c>
       <c r="G146" t="n">
-        <v>-603523.7172438201</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5343,22 +5311,21 @@
         <v>2902.4032</v>
       </c>
       <c r="G147" t="n">
-        <v>-603523.7172438201</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5380,24 +5347,21 @@
         <v>9809.15972747</v>
       </c>
       <c r="G148" t="n">
-        <v>-593714.5575163501</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5419,22 +5383,21 @@
         <v>35351.8919</v>
       </c>
       <c r="G149" t="n">
-        <v>-558362.66561635</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5456,22 +5419,21 @@
         <v>635.913</v>
       </c>
       <c r="G150" t="n">
-        <v>-558362.66561635</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5493,22 +5455,21 @@
         <v>573.9102</v>
       </c>
       <c r="G151" t="n">
-        <v>-558362.66561635</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5530,22 +5491,21 @@
         <v>545.2147</v>
       </c>
       <c r="G152" t="n">
-        <v>-558362.66561635</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5567,22 +5527,21 @@
         <v>604.4222</v>
       </c>
       <c r="G153" t="n">
-        <v>-558967.08781635</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5604,22 +5563,21 @@
         <v>518.0859</v>
       </c>
       <c r="G154" t="n">
-        <v>-558449.0019163501</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5641,22 +5599,21 @@
         <v>492.43</v>
       </c>
       <c r="G155" t="n">
-        <v>-558941.4319163501</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5678,22 +5635,21 @@
         <v>4750.1052</v>
       </c>
       <c r="G156" t="n">
-        <v>-563691.5371163501</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5715,22 +5671,21 @@
         <v>1154</v>
       </c>
       <c r="G157" t="n">
-        <v>-563691.5371163501</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5752,22 +5707,21 @@
         <v>4994.247</v>
       </c>
       <c r="G158" t="n">
-        <v>-563691.5371163501</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5789,24 +5743,21 @@
         <v>1421.416</v>
       </c>
       <c r="G159" t="n">
-        <v>-565112.9531163501</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>39.52</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5828,24 +5779,21 @@
         <v>13</v>
       </c>
       <c r="G160" t="n">
-        <v>-565099.9531163501</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5867,24 +5815,23 @@
         <v>842.9288</v>
       </c>
       <c r="G161" t="n">
-        <v>-565099.9531163501</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>39.58</v>
       </c>
       <c r="I161" t="n">
-        <v>39.58</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5906,24 +5853,21 @@
         <v>140.06555723</v>
       </c>
       <c r="G162" t="n">
-        <v>-564959.8875591201</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>39.58</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5945,22 +5889,23 @@
         <v>300.43874277</v>
       </c>
       <c r="G163" t="n">
-        <v>-564959.8875591201</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>39.66</v>
+      </c>
+      <c r="I163" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5982,24 +5927,21 @@
         <v>29600</v>
       </c>
       <c r="G164" t="n">
-        <v>-535359.8875591201</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
-        <v>39.66</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6021,24 +5963,21 @@
         <v>5751.8918</v>
       </c>
       <c r="G165" t="n">
-        <v>-535359.8875591201</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
-        <v>39.77</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6060,24 +5999,21 @@
         <v>2018.1304</v>
       </c>
       <c r="G166" t="n">
-        <v>-537378.0179591201</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
-        <v>39.77</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6099,24 +6035,21 @@
         <v>37012.23705723</v>
       </c>
       <c r="G167" t="n">
-        <v>-574390.2550163501</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>39.66</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6138,24 +6071,21 @@
         <v>34624.9886</v>
       </c>
       <c r="G168" t="n">
-        <v>-574390.2550163501</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6177,24 +6107,23 @@
         <v>50</v>
       </c>
       <c r="G169" t="n">
-        <v>-574440.2550163501</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>39.41</v>
       </c>
       <c r="I169" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6216,24 +6145,23 @@
         <v>1550.8483</v>
       </c>
       <c r="G170" t="n">
-        <v>-572889.4067163501</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>39.2</v>
       </c>
       <c r="I170" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6255,24 +6183,23 @@
         <v>10372.5233</v>
       </c>
       <c r="G171" t="n">
-        <v>-572889.4067163501</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>39.41</v>
       </c>
       <c r="I171" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6294,24 +6221,23 @@
         <v>4.277e-05</v>
       </c>
       <c r="G172" t="n">
-        <v>-572889.4067163501</v>
+        <v>1</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>39.41</v>
       </c>
       <c r="I172" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6333,24 +6259,23 @@
         <v>12533.9684</v>
       </c>
       <c r="G173" t="n">
-        <v>-560355.4383163501</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>39.41</v>
       </c>
       <c r="I173" t="n">
-        <v>39.41</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6372,24 +6297,21 @@
         <v>1764.8449</v>
       </c>
       <c r="G174" t="n">
-        <v>-558590.5934163501</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6411,24 +6333,21 @@
         <v>101.8686</v>
       </c>
       <c r="G175" t="n">
-        <v>-558590.5934163501</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>39.83</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6450,24 +6369,21 @@
         <v>917.149</v>
       </c>
       <c r="G176" t="n">
-        <v>-557673.4444163501</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
-        <v>39.83</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6489,24 +6405,23 @@
         <v>921.5936</v>
       </c>
       <c r="G177" t="n">
-        <v>-556751.8508163501</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>39.92</v>
       </c>
       <c r="I177" t="n">
-        <v>39.92</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6528,24 +6443,21 @@
         <v>6791.1741</v>
       </c>
       <c r="G178" t="n">
-        <v>-549960.6767163501</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>40.07</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6567,24 +6479,21 @@
         <v>10868.6756</v>
       </c>
       <c r="G179" t="n">
-        <v>-539092.0011163502</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>40.21</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6606,24 +6515,21 @@
         <v>10093.5518</v>
       </c>
       <c r="G180" t="n">
-        <v>-528998.4493163502</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="n">
-        <v>40.23</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6645,24 +6551,21 @@
         <v>178.1961</v>
       </c>
       <c r="G181" t="n">
-        <v>-528820.2532163502</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6684,24 +6587,21 @@
         <v>3190.9572</v>
       </c>
       <c r="G182" t="n">
-        <v>-532011.2104163502</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="n">
-        <v>40.38</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6723,24 +6623,21 @@
         <v>56253.3023</v>
       </c>
       <c r="G183" t="n">
-        <v>-532011.2104163502</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6762,24 +6659,21 @@
         <v>17616.9571</v>
       </c>
       <c r="G184" t="n">
-        <v>-532011.2104163502</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6801,24 +6695,21 @@
         <v>2207.6622</v>
       </c>
       <c r="G185" t="n">
-        <v>-529803.5482163501</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="n">
-        <v>40.37</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6840,24 +6731,21 @@
         <v>1624.2417</v>
       </c>
       <c r="G186" t="n">
-        <v>-529803.5482163501</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="n">
-        <v>40.42</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6879,24 +6767,21 @@
         <v>20962.2274</v>
       </c>
       <c r="G187" t="n">
-        <v>-529803.5482163501</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="n">
-        <v>40.42</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6918,22 +6803,21 @@
         <v>81.85290000000001</v>
       </c>
       <c r="G188" t="n">
-        <v>-529721.6953163501</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6955,22 +6839,21 @@
         <v>170.3539</v>
       </c>
       <c r="G189" t="n">
-        <v>-529721.6953163501</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6992,22 +6875,21 @@
         <v>494.1589</v>
       </c>
       <c r="G190" t="n">
-        <v>-529227.53641635</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7029,22 +6911,21 @@
         <v>827.6673</v>
       </c>
       <c r="G191" t="n">
-        <v>-530055.20371635</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7066,22 +6947,21 @@
         <v>3359.0878</v>
       </c>
       <c r="G192" t="n">
-        <v>-530055.20371635</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7103,22 +6983,21 @@
         <v>20374.5089</v>
       </c>
       <c r="G193" t="n">
-        <v>-550429.71261635</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7140,22 +7019,21 @@
         <v>901.6179</v>
       </c>
       <c r="G194" t="n">
-        <v>-551331.33051635</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7177,24 +7055,21 @@
         <v>140</v>
       </c>
       <c r="G195" t="n">
-        <v>-551191.33051635</v>
-      </c>
-      <c r="H195" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="n">
-        <v>40.2</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7216,24 +7091,21 @@
         <v>32000</v>
       </c>
       <c r="G196" t="n">
-        <v>-519191.33051635</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="n">
-        <v>40.59</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>39.21</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7255,22 +7127,21 @@
         <v>8810.4503</v>
       </c>
       <c r="G197" t="n">
-        <v>-519191.33051635</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7292,22 +7163,21 @@
         <v>28.2844</v>
       </c>
       <c r="G198" t="n">
-        <v>-519163.04611635</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7329,22 +7199,21 @@
         <v>19654.6911</v>
       </c>
       <c r="G199" t="n">
-        <v>-538817.73721635</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7366,22 +7235,21 @@
         <v>18312.6911</v>
       </c>
       <c r="G200" t="n">
-        <v>-557130.4283163501</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7403,22 +7271,21 @@
         <v>286.9836</v>
       </c>
       <c r="G201" t="n">
-        <v>-556843.4447163501</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7440,22 +7307,21 @@
         <v>600.5829</v>
       </c>
       <c r="G202" t="n">
-        <v>-556242.86181635</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7477,22 +7343,21 @@
         <v>3158.2957</v>
       </c>
       <c r="G203" t="n">
-        <v>-559401.15751635</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7514,22 +7379,21 @@
         <v>200</v>
       </c>
       <c r="G204" t="n">
-        <v>-559201.15751635</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7551,22 +7415,21 @@
         <v>568.2486</v>
       </c>
       <c r="G205" t="n">
-        <v>-558632.90891635</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7588,22 +7451,21 @@
         <v>216.4273</v>
       </c>
       <c r="G206" t="n">
-        <v>-558416.48161635</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7625,22 +7487,21 @@
         <v>2450</v>
       </c>
       <c r="G207" t="n">
-        <v>-555966.48161635</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>39.21</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
